--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16014" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9970430-CAD8-46E3-A357-DDB07A8E4B13}"/>
+  <xr:revisionPtr revIDLastSave="16017" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42384BB7-242E-4916-8D05-52287AAD8BA3}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="17820" windowHeight="12336" tabRatio="461" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12516" yWindow="420" windowWidth="10524" windowHeight="11364" tabRatio="461" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -4942,7 +4942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -9469,7 +9469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16017" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42384BB7-242E-4916-8D05-52287AAD8BA3}"/>
+  <xr:revisionPtr revIDLastSave="16018" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B97656DC-C933-4E9B-AB95-70FD7E87BF54}"/>
   <bookViews>
-    <workbookView xWindow="12516" yWindow="420" windowWidth="10524" windowHeight="11364" tabRatio="461" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12516" yWindow="420" windowWidth="10524" windowHeight="11364" tabRatio="461" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -509,6 +509,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4949,7 +4953,7 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="43" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16018" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B97656DC-C933-4E9B-AB95-70FD7E87BF54}"/>
+  <xr:revisionPtr revIDLastSave="16073" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC6C6EAE-0246-4A97-8DE0-CB97830D1C77}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12516" yWindow="420" windowWidth="10524" windowHeight="11364" tabRatio="461" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="461" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="42">
   <si>
     <t>KCE</t>
   </si>
@@ -4946,8 +4946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -7103,16 +7103,16 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115D497-67E5-4755-A37C-D801F1CE1CC8}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
@@ -8096,446 +8096,525 @@
       <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:14" s="21" customFormat="1">
-      <c r="A27" s="8">
-        <v>45191</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <v>6000</v>
-      </c>
-      <c r="D27" s="11">
-        <v>6.25</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="A27" s="14">
+        <v>45701</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
+        <v>15000</v>
+      </c>
+      <c r="D27" s="17">
+        <v>6.6</v>
+      </c>
+      <c r="E27" s="18">
         <f>C27*D27</f>
-        <v>37500</v>
-      </c>
-      <c r="F27" s="20">
+        <v>99000</v>
+      </c>
+      <c r="F27" s="18">
         <f>E27*0.002</f>
-        <v>75</v>
-      </c>
-      <c r="G27" s="20">
+        <v>198</v>
+      </c>
+      <c r="G27" s="18">
         <f>E27*0.000068</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H27" s="20">
+        <v>6.7320000000000002</v>
+      </c>
+      <c r="H27" s="18">
         <f>E27*0.00001</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="I27" s="20">
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="I27" s="18">
         <f>(F27+G27+H27)*0.07</f>
-        <v>5.4547500000000007</v>
-      </c>
-      <c r="J27" s="20">
+        <v>14.400540000000001</v>
+      </c>
+      <c r="J27" s="18">
         <f>E27+F27+I27+G27+H27</f>
-        <v>37583.37975</v>
+        <v>99220.122540000011</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="21" customFormat="1">
-      <c r="A28" s="44"/>
-      <c r="B28" s="25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="7">
         <f>(D27-D26)/D26</f>
-        <v>-0.20886075949367092</v>
-      </c>
-      <c r="C28" s="22">
+        <v>-0.16455696202531653</v>
+      </c>
+      <c r="C28" s="5">
         <f>SUM(C26:C27)</f>
-        <v>66000</v>
-      </c>
-      <c r="D28" s="64">
+        <v>75000</v>
+      </c>
+      <c r="D28" s="65">
         <f>E28/C28</f>
-        <v>7.75</v>
-      </c>
-      <c r="E28" s="22">
+        <v>7.64</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" ref="E28:J28" si="10">SUM(E26:E27)</f>
-        <v>511500</v>
-      </c>
-      <c r="F28" s="22">
+        <v>573000</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="10"/>
-        <v>1023.0000000000001</v>
-      </c>
-      <c r="G28" s="22">
+        <v>1146</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="10"/>
-        <v>34.781999999999996</v>
-      </c>
-      <c r="H28" s="22">
+        <v>38.963999999999999</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="10"/>
-        <v>5.1150000000000002</v>
-      </c>
-      <c r="I28" s="22">
+        <v>5.73</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="10"/>
-        <v>74.40279000000001</v>
-      </c>
-      <c r="J28" s="22">
+        <v>83.348580000000013</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="10"/>
-        <v>512637.29979000002</v>
+        <v>574274.04258000001</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A29" s="55"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="14">
+    <row r="29" spans="1:14" s="21" customFormat="1">
+      <c r="A29" s="8">
+        <v>45191</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="11">
+        <v>6.2</v>
+      </c>
+      <c r="E29" s="20">
+        <f>C29*D29</f>
+        <v>31000</v>
+      </c>
+      <c r="F29" s="20">
+        <f>E29*0.002</f>
+        <v>62</v>
+      </c>
+      <c r="G29" s="20">
+        <f>E29*0.000068</f>
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="H29" s="20">
+        <f>E29*0.00001</f>
+        <v>0.31</v>
+      </c>
+      <c r="I29" s="20">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>4.5092600000000012</v>
+      </c>
+      <c r="J29" s="20">
+        <f>E29+F29+I29+G29+H29</f>
+        <v>31068.92726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="21" customFormat="1">
+      <c r="A30" s="44"/>
+      <c r="B30" s="25">
+        <f>(D29-D28)/D28</f>
+        <v>-0.18848167539267011</v>
+      </c>
+      <c r="C30" s="22">
+        <f>SUM(C28:C29)</f>
+        <v>80000</v>
+      </c>
+      <c r="D30" s="64">
+        <f>E30/C30</f>
+        <v>7.55</v>
+      </c>
+      <c r="E30" s="22">
+        <f t="shared" ref="E30:J30" si="11">SUM(E28:E29)</f>
+        <v>604000</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="11"/>
+        <v>1208</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="11"/>
+        <v>41.071999999999996</v>
+      </c>
+      <c r="H30" s="22">
+        <f t="shared" si="11"/>
+        <v>6.04</v>
+      </c>
+      <c r="I30" s="22">
+        <f t="shared" si="11"/>
+        <v>87.85784000000001</v>
+      </c>
+      <c r="J30" s="22">
+        <f t="shared" si="11"/>
+        <v>605342.96984000003</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A31" s="55"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="14">
         <v>45337</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="16">
         <v>6000</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D32" s="17">
         <v>6</v>
       </c>
-      <c r="E30" s="18">
-        <f>C30*D30</f>
+      <c r="E32" s="18">
+        <f>C32*D32</f>
         <v>36000</v>
       </c>
-      <c r="F30" s="18">
-        <f>E30*0.002</f>
+      <c r="F32" s="18">
+        <f>E32*0.002</f>
         <v>72</v>
       </c>
-      <c r="G30" s="18">
-        <f>E30*0.000068</f>
+      <c r="G32" s="18">
+        <f>E32*0.000068</f>
         <v>2.448</v>
       </c>
-      <c r="H30" s="18">
-        <f>E30*0.00001</f>
+      <c r="H32" s="18">
+        <f>E32*0.00001</f>
         <v>0.36000000000000004</v>
       </c>
-      <c r="I30" s="18">
-        <f>(F30+G30+H30)*0.07</f>
+      <c r="I32" s="18">
+        <f>(F32+G32+H32)*0.07</f>
         <v>5.2365599999999999</v>
       </c>
-      <c r="J30" s="18">
-        <f>E30+F30+I30+G30+H30</f>
+      <c r="J32" s="18">
+        <f>E32+F32+I32+G32+H32</f>
         <v>36080.044559999995</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="49">
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="49">
         <v>45554</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="16">
-        <f>C30</f>
+      <c r="C33" s="16">
+        <f>C32</f>
         <v>6000</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D33" s="26">
         <v>6.95</v>
       </c>
-      <c r="E31" s="17">
-        <f>C31*D31</f>
+      <c r="E33" s="17">
+        <f>C33*D33</f>
         <v>41700</v>
       </c>
-      <c r="F31" s="27">
-        <f>E31*0.002</f>
+      <c r="F33" s="27">
+        <f>E33*0.002</f>
         <v>83.4</v>
       </c>
-      <c r="G31" s="26">
-        <f>E31*0.000068</f>
+      <c r="G33" s="26">
+        <f>E33*0.000068</f>
         <v>2.8355999999999999</v>
       </c>
-      <c r="H31" s="26">
-        <f>E31*0.00001</f>
+      <c r="H33" s="26">
+        <f>E33*0.00001</f>
         <v>0.41700000000000004</v>
       </c>
-      <c r="I31" s="26">
-        <f>(F31+G31+H31)*0.07</f>
+      <c r="I33" s="26">
+        <f>(F33+G33+H33)*0.07</f>
         <v>6.0656820000000007</v>
       </c>
-      <c r="J31" s="26">
-        <f>E31-F31-G31-H31-I31</f>
+      <c r="J33" s="26">
+        <f>E33-F33-G33-H33-I33</f>
         <v>41607.281717999998</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="49" t="s">
+    <row r="34" spans="1:14">
+      <c r="A34" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="7">
-        <f>J32/J30</f>
+      <c r="B34" s="7">
+        <f>J34/J32</f>
         <v>0.15319374533499758</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18">
-        <f>E31-E30</f>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18">
+        <f>E33-E32</f>
         <v>5700</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18">
-        <f>J31-J30</f>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
+        <f>J33-J32</f>
         <v>5527.2371580000035</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="14">
+    <row r="35" spans="1:14">
+      <c r="A35" s="14">
         <v>45191</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="16">
+      <c r="B35" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="16">
         <v>6000</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D35" s="17">
         <v>6.1</v>
       </c>
-      <c r="E33" s="18">
-        <f>C33*D33</f>
+      <c r="E35" s="18">
+        <f>C35*D35</f>
         <v>36600</v>
       </c>
-      <c r="F33" s="18">
-        <f>E33*0.002</f>
+      <c r="F35" s="18">
+        <f>E35*0.002</f>
         <v>73.2</v>
       </c>
-      <c r="G33" s="18">
-        <f>E33*0.000068</f>
+      <c r="G35" s="18">
+        <f>E35*0.000068</f>
         <v>2.4887999999999999</v>
       </c>
-      <c r="H33" s="18">
-        <f>E33*0.00001</f>
+      <c r="H35" s="18">
+        <f>E35*0.00001</f>
         <v>0.36600000000000005</v>
       </c>
-      <c r="I33" s="18">
-        <f>(F33+G33+H33)*0.07</f>
+      <c r="I35" s="18">
+        <f>(F35+G35+H35)*0.07</f>
         <v>5.3238360000000009</v>
       </c>
-      <c r="J33" s="18">
-        <f>E33+F33+I33+G33+H33</f>
+      <c r="J35" s="18">
+        <f>E35+F35+I35+G35+H35</f>
         <v>36681.378636000001</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-    </row>
-    <row r="34" spans="1:14" s="76" customFormat="1">
-      <c r="A34" s="55">
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+    </row>
+    <row r="36" spans="1:14" s="76" customFormat="1">
+      <c r="A36" s="55">
         <v>45554</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="10">
-        <f>C33</f>
+      <c r="C36" s="10">
+        <f>C35</f>
         <v>6000</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D36" s="34">
         <v>7.05</v>
       </c>
-      <c r="E34" s="11">
-        <f>C34*D34</f>
+      <c r="E36" s="11">
+        <f>C36*D36</f>
         <v>42300</v>
       </c>
-      <c r="F34" s="35">
-        <f>E34*0.002</f>
+      <c r="F36" s="35">
+        <f>E36*0.002</f>
         <v>84.600000000000009</v>
       </c>
-      <c r="G34" s="34">
-        <f>E34*0.000068</f>
+      <c r="G36" s="34">
+        <f>E36*0.000068</f>
         <v>2.8763999999999998</v>
       </c>
-      <c r="H34" s="34">
-        <f>E34*0.00001</f>
+      <c r="H36" s="34">
+        <f>E36*0.00001</f>
         <v>0.42300000000000004</v>
       </c>
-      <c r="I34" s="34">
-        <f>(F34+G34+H34)*0.07</f>
+      <c r="I36" s="34">
+        <f>(F36+G36+H36)*0.07</f>
         <v>6.1529580000000017</v>
       </c>
-      <c r="J34" s="34">
-        <f>E34-F34-G34-H34-I34</f>
+      <c r="J36" s="34">
+        <f>E36-F36-G36-H36-I36</f>
         <v>42205.947641999999</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" s="13" customFormat="1">
-      <c r="A35" s="55" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" s="13" customFormat="1">
+      <c r="A37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="25">
-        <f>J35/J33</f>
+      <c r="B37" s="25">
+        <f>J37/J35</f>
         <v>0.15060963386414411</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="20">
-        <f>E34-E33</f>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="20">
+        <f>E36-E35</f>
         <v>5700</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20">
-        <f>J34-J33</f>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20">
+        <f>J36-J35</f>
         <v>5524.5690059999979</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A36" s="8">
-        <v>45337</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>6000</v>
-      </c>
-      <c r="D36" s="11">
-        <v>6.25</v>
-      </c>
-      <c r="E36" s="20">
-        <f>C36*D36</f>
-        <v>37500</v>
-      </c>
-      <c r="F36" s="20">
-        <f>E36*0.002</f>
-        <v>75</v>
-      </c>
-      <c r="G36" s="20">
-        <f>E36*0.000068</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H36" s="20">
-        <f>E36*0.00001</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="I36" s="20">
-        <f>(F36+G36+H36)*0.07</f>
-        <v>5.4547500000000007</v>
-      </c>
-      <c r="J36" s="20">
-        <f>E36+F36+I36+G36+H36</f>
-        <v>37583.37975</v>
-      </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-    </row>
-    <row r="37" spans="1:14" s="21" customFormat="1">
-      <c r="A37" s="55">
-        <v>45554</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="10">
-        <f>C36</f>
-        <v>6000</v>
-      </c>
-      <c r="D37" s="34">
-        <v>7</v>
-      </c>
-      <c r="E37" s="11">
-        <f>C37*D37</f>
-        <v>42000</v>
-      </c>
-      <c r="F37" s="35">
-        <f>E37*0.002</f>
-        <v>84</v>
-      </c>
-      <c r="G37" s="34">
-        <f>E37*0.000068</f>
-        <v>2.8559999999999999</v>
-      </c>
-      <c r="H37" s="34">
-        <f>E37*0.00001</f>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="I37" s="34">
-        <f>(F37+G37+H37)*0.07</f>
-        <v>6.1093200000000003</v>
-      </c>
-      <c r="J37" s="34">
-        <f>E37-F37-G37-H37-I37</f>
-        <v>41906.614679999999</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" s="13" customFormat="1">
-      <c r="A38" s="55" t="s">
+    <row r="38" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A38" s="8">
+        <v>45337</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>6000</v>
+      </c>
+      <c r="D38" s="11">
+        <v>6.25</v>
+      </c>
+      <c r="E38" s="20">
+        <f>C38*D38</f>
+        <v>37500</v>
+      </c>
+      <c r="F38" s="20">
+        <f>E38*0.002</f>
+        <v>75</v>
+      </c>
+      <c r="G38" s="20">
+        <f>E38*0.000068</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H38" s="20">
+        <f>E38*0.00001</f>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="I38" s="20">
+        <f>(F38+G38+H38)*0.07</f>
+        <v>5.4547500000000007</v>
+      </c>
+      <c r="J38" s="20">
+        <f>E38+F38+I38+G38+H38</f>
+        <v>37583.37975</v>
+      </c>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+    </row>
+    <row r="39" spans="1:14" s="21" customFormat="1">
+      <c r="A39" s="55">
+        <v>45554</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <f>C38</f>
+        <v>6000</v>
+      </c>
+      <c r="D39" s="34">
+        <v>7</v>
+      </c>
+      <c r="E39" s="11">
+        <f>C39*D39</f>
+        <v>42000</v>
+      </c>
+      <c r="F39" s="35">
+        <f>E39*0.002</f>
+        <v>84</v>
+      </c>
+      <c r="G39" s="34">
+        <f>E39*0.000068</f>
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="H39" s="34">
+        <f>E39*0.00001</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="I39" s="34">
+        <f>(F39+G39+H39)*0.07</f>
+        <v>6.1093200000000003</v>
+      </c>
+      <c r="J39" s="34">
+        <f>E39-F39-G39-H39-I39</f>
+        <v>41906.614679999999</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" s="13" customFormat="1">
+      <c r="A40" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="25">
-        <f>J38/J36</f>
+      <c r="B40" s="25">
+        <f>J40/J38</f>
         <v>0.11503049908650109</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="20">
-        <f>E37-E36</f>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="20">
+        <f>E39-E38</f>
         <v>4500</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20">
-        <f>J37-J36</f>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20">
+        <f>J39-J38</f>
         <v>4323.2349299999987</v>
       </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A39" s="28"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\OneDrive\A5\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16073" documentId="8_{9A02EB98-7EB2-4F6F-BBDA-0A28C0527E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC6C6EAE-0246-4A97-8DE0-CB97830D1C77}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="461" firstSheet="13" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1668" yWindow="420" windowWidth="21372" windowHeight="11364" tabRatio="461" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -509,10 +509,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7105,7 +7101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115D497-67E5-4755-A37C-D801F1CE1CC8}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -16457,7 +16453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -16770,34 +16766,34 @@
         <v>1</v>
       </c>
       <c r="C9" s="10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="46">
-        <v>4.0199999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="E9" s="61">
         <f>C9*D9</f>
-        <v>20099.999999999996</v>
+        <v>29000</v>
       </c>
       <c r="F9" s="20">
         <f>E9*0.002</f>
-        <v>40.199999999999996</v>
+        <v>58</v>
       </c>
       <c r="G9" s="20">
         <f>E9*0.00006</f>
-        <v>1.2059999999999997</v>
+        <v>1.74</v>
       </c>
       <c r="H9" s="20">
         <f>E9*0.00001</f>
-        <v>0.20099999999999998</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="I9" s="20">
         <f>(F9+G9+H9)*0.07</f>
-        <v>2.91249</v>
+        <v>4.2021000000000006</v>
       </c>
       <c r="J9" s="61">
         <f>E9+F9+I9+G9+H9</f>
-        <v>20144.519489999995</v>
+        <v>29064.232100000001</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -16809,39 +16805,39 @@
       <c r="A10" s="55"/>
       <c r="B10" s="12">
         <f>(D9-D8)/D8</f>
-        <v>-0.6134615384615385</v>
+        <v>-0.72115384615384615</v>
       </c>
       <c r="C10" s="10">
         <f>SUM(C8:C9)</f>
-        <v>55000</v>
+        <v>60000</v>
       </c>
       <c r="D10" s="109">
         <f>E10/C10</f>
-        <v>9.82</v>
+        <v>9.15</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" ref="E10:J10" si="2">SUM(E8:E9)</f>
-        <v>540100</v>
+        <v>549000</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="2"/>
-        <v>1080.2</v>
+        <v>1098</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>32.406000000000006</v>
+        <v>32.940000000000005</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>5.4009999999999998</v>
+        <v>5.49</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>78.260490000000004</v>
+        <v>79.5501</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>541296.26749</v>
+        <v>550215.98009999993</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\OneDrive\A5\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A66528C-F392-4D23-8F78-B5A8495A52E2}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="420" windowWidth="21372" windowHeight="11364" tabRatio="461" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8256" yWindow="420" windowWidth="14784" windowHeight="11364" tabRatio="461" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -29,25 +29,24 @@
     <sheet name="CPNREIT" sheetId="194" r:id="rId14"/>
     <sheet name="DIF" sheetId="57" r:id="rId15"/>
     <sheet name="GVREIT" sheetId="195" r:id="rId16"/>
-    <sheet name="ICHI" sheetId="213" r:id="rId17"/>
-    <sheet name="IVL" sheetId="196" r:id="rId18"/>
-    <sheet name="JMART" sheetId="204" r:id="rId19"/>
-    <sheet name="JMT" sheetId="205" r:id="rId20"/>
-    <sheet name="MCS" sheetId="20" r:id="rId21"/>
-    <sheet name="NER" sheetId="117" r:id="rId22"/>
-    <sheet name="ORI" sheetId="184" r:id="rId23"/>
-    <sheet name="PTG" sheetId="216" r:id="rId24"/>
-    <sheet name="RCL" sheetId="161" r:id="rId25"/>
-    <sheet name="SCC" sheetId="152" r:id="rId26"/>
-    <sheet name="SENA" sheetId="183" r:id="rId27"/>
-    <sheet name="SINGER" sheetId="203" r:id="rId28"/>
-    <sheet name="SYNEX" sheetId="199" r:id="rId29"/>
-    <sheet name="TFFIF" sheetId="214" r:id="rId30"/>
-    <sheet name="TMT" sheetId="145" r:id="rId31"/>
-    <sheet name="TOA" sheetId="218" r:id="rId32"/>
-    <sheet name="TVO" sheetId="221" r:id="rId33"/>
-    <sheet name="WHAIR" sheetId="157" r:id="rId34"/>
-    <sheet name="WHART" sheetId="171" r:id="rId35"/>
+    <sheet name="IVL" sheetId="196" r:id="rId17"/>
+    <sheet name="JMART" sheetId="204" r:id="rId18"/>
+    <sheet name="JMT" sheetId="205" r:id="rId19"/>
+    <sheet name="MCS" sheetId="20" r:id="rId20"/>
+    <sheet name="NER" sheetId="117" r:id="rId21"/>
+    <sheet name="ORI" sheetId="184" r:id="rId22"/>
+    <sheet name="PTG" sheetId="216" r:id="rId23"/>
+    <sheet name="RCL" sheetId="161" r:id="rId24"/>
+    <sheet name="SCC" sheetId="152" r:id="rId25"/>
+    <sheet name="SENA" sheetId="183" r:id="rId26"/>
+    <sheet name="SINGER" sheetId="203" r:id="rId27"/>
+    <sheet name="SYNEX" sheetId="199" r:id="rId28"/>
+    <sheet name="TFFIF" sheetId="214" r:id="rId29"/>
+    <sheet name="TMT" sheetId="145" r:id="rId30"/>
+    <sheet name="TOA" sheetId="218" r:id="rId31"/>
+    <sheet name="TVO" sheetId="221" r:id="rId32"/>
+    <sheet name="WHAIR" sheetId="157" r:id="rId33"/>
+    <sheet name="WHART" sheetId="171" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="41">
   <si>
     <t>KCE</t>
   </si>
@@ -136,9 +135,6 @@
   </si>
   <si>
     <t>GVREIT</t>
-  </si>
-  <si>
-    <t>ICHI</t>
   </si>
   <si>
     <t>IVL</t>
@@ -380,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -481,7 +477,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -507,6 +502,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8616,415 +8615,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE58E2B-3037-4FF0-A2FD-6EBB8CE18ED0}">
-  <dimension ref="A1:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="100" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" ht="15.6">
-      <c r="A2" s="49">
-        <v>45096</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1500</v>
-      </c>
-      <c r="D2" s="41">
-        <v>14.3</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>21450</v>
-      </c>
-      <c r="F2" s="68">
-        <f>E2*0.002</f>
-        <v>42.9</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.21450000000000002</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>3.1081050000000001</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>21497.509604999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="21" customFormat="1">
-      <c r="A3" s="8">
-        <v>44944</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1500</v>
-      </c>
-      <c r="D3" s="11">
-        <v>14.5</v>
-      </c>
-      <c r="E3" s="20">
-        <f>C3*D3</f>
-        <v>21750</v>
-      </c>
-      <c r="F3" s="20">
-        <f>E3*0.002</f>
-        <v>43.5</v>
-      </c>
-      <c r="G3" s="20">
-        <f>E3*0.000068</f>
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="H3" s="20">
-        <f>E3*0.00001</f>
-        <v>0.21750000000000003</v>
-      </c>
-      <c r="I3" s="20">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>3.1637550000000005</v>
-      </c>
-      <c r="J3" s="20">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>21798.360255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="21" customFormat="1">
-      <c r="A4" s="44"/>
-      <c r="B4" s="25">
-        <f>(D3-D2)/D2</f>
-        <v>1.3986013986013936E-2</v>
-      </c>
-      <c r="C4" s="22">
-        <f>SUM(C2:C3)</f>
-        <v>3000</v>
-      </c>
-      <c r="D4" s="64">
-        <f>E4/C4</f>
-        <v>14.4</v>
-      </c>
-      <c r="E4" s="22">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>43200</v>
-      </c>
-      <c r="F4" s="22">
-        <f t="shared" si="0"/>
-        <v>86.4</v>
-      </c>
-      <c r="G4" s="22">
-        <f t="shared" si="0"/>
-        <v>2.766</v>
-      </c>
-      <c r="H4" s="22">
-        <f t="shared" si="0"/>
-        <v>0.43200000000000005</v>
-      </c>
-      <c r="I4" s="22">
-        <f t="shared" si="0"/>
-        <v>6.2718600000000002</v>
-      </c>
-      <c r="J4" s="22">
-        <f t="shared" si="0"/>
-        <v>43295.869859999999</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" ht="21">
-      <c r="A5" s="55"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="49">
-        <v>45096</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>100</v>
-      </c>
-      <c r="D6" s="46">
-        <f>D2</f>
-        <v>14.3</v>
-      </c>
-      <c r="E6" s="20">
-        <f>C6*D6</f>
-        <v>1430</v>
-      </c>
-      <c r="F6" s="61">
-        <f>E6*0.002</f>
-        <v>2.86</v>
-      </c>
-      <c r="G6" s="20">
-        <f>E6*0.00006</f>
-        <v>8.5800000000000001E-2</v>
-      </c>
-      <c r="H6" s="20">
-        <f>E6*0.00001</f>
-        <v>1.4300000000000002E-2</v>
-      </c>
-      <c r="I6" s="20">
-        <f>(F6+G6+H6)*0.07</f>
-        <v>0.207207</v>
-      </c>
-      <c r="J6" s="20">
-        <f>E6+F6+I6+G6+H6</f>
-        <v>1433.1673069999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="55">
-        <v>45134</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <f>C6</f>
-        <v>100</v>
-      </c>
-      <c r="D7" s="34">
-        <v>15.1</v>
-      </c>
-      <c r="E7" s="11">
-        <f>C7*D7</f>
-        <v>1510</v>
-      </c>
-      <c r="F7" s="61">
-        <f>E7*0.002</f>
-        <v>3.02</v>
-      </c>
-      <c r="G7" s="34">
-        <f>E7*0.000068</f>
-        <v>0.10267999999999999</v>
-      </c>
-      <c r="H7" s="34">
-        <f>E7*0.00001</f>
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="I7" s="34">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>0.2196446</v>
-      </c>
-      <c r="J7" s="34">
-        <f>E7-F7-G7-H7-I7</f>
-        <v>1506.6425753999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="21">
-      <c r="A8" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="75">
-        <f>(D7-D6)/D6</f>
-        <v>5.5944055944055868E-2</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20">
-        <f>E7-E6</f>
-        <v>80</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20">
-        <f>J7-J6</f>
-        <v>73.475268400000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" ht="15.6">
-      <c r="A10" s="49">
-        <v>45096</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1400</v>
-      </c>
-      <c r="D10" s="41">
-        <v>14.3</v>
-      </c>
-      <c r="E10" s="18">
-        <f>C10*D10</f>
-        <v>20020</v>
-      </c>
-      <c r="F10" s="68">
-        <f>E10*0.002</f>
-        <v>40.04</v>
-      </c>
-      <c r="G10" s="18">
-        <f>E10*0.00006</f>
-        <v>1.2012</v>
-      </c>
-      <c r="H10" s="18">
-        <f>E10*0.00001</f>
-        <v>0.20020000000000002</v>
-      </c>
-      <c r="I10" s="18">
-        <f>(F10+G10+H10)*0.07</f>
-        <v>2.9008980000000002</v>
-      </c>
-      <c r="J10" s="18">
-        <f>E10+F10+I10+G10+H10</f>
-        <v>20064.342298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="55">
-        <v>45155</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10">
-        <f>C10</f>
-        <v>1400</v>
-      </c>
-      <c r="D11" s="34">
-        <v>15.9</v>
-      </c>
-      <c r="E11" s="11">
-        <f>C11*D11</f>
-        <v>22260</v>
-      </c>
-      <c r="F11" s="61">
-        <f>E11*0.002</f>
-        <v>44.52</v>
-      </c>
-      <c r="G11" s="34">
-        <f>E11*0.000068</f>
-        <v>1.5136799999999999</v>
-      </c>
-      <c r="H11" s="34">
-        <f>E11*0.00001</f>
-        <v>0.22260000000000002</v>
-      </c>
-      <c r="I11" s="34">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>3.2379396000000007</v>
-      </c>
-      <c r="J11" s="34">
-        <f>E11-F11-G11-H11-I11</f>
-        <v>22210.505780399999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="21">
-      <c r="A12" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="75">
-        <f>(D11-D10)/D10</f>
-        <v>0.11188811188811186</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="20">
-        <f>E11-E10</f>
-        <v>2240</v>
-      </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20">
-        <f>J11-J10</f>
-        <v>2146.1634823999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="21" customFormat="1">
-      <c r="A13" s="49"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" s="13" customFormat="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A15" s="28"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECE484-9DAC-4EE9-A8FE-27A01698073E}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -9049,7 +8639,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="19" customFormat="1" ht="15.6">
@@ -9544,7 +9134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -9572,7 +9162,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -10458,6 +10048,1202 @@
         <v>2391.8297880000027</v>
       </c>
       <c r="M32" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="67" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.77734375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="67" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="21"/>
+    <col min="13" max="13" width="8.88671875" style="25"/>
+    <col min="14" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="13" customFormat="1">
+      <c r="A2" s="39">
+        <v>44946</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>2400</v>
+      </c>
+      <c r="D2" s="17">
+        <v>58.5</v>
+      </c>
+      <c r="E2" s="68">
+        <f>C2*D2</f>
+        <v>140400</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>280.8</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>8.4239999999999995</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>1.4040000000000001</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>20.343960000000003</v>
+      </c>
+      <c r="J2" s="68">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>140710.97196</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1">
+      <c r="A3" s="49">
+        <v>44956</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>900</v>
+      </c>
+      <c r="D3" s="41">
+        <v>53</v>
+      </c>
+      <c r="E3" s="68">
+        <f>C3*D3</f>
+        <v>47700</v>
+      </c>
+      <c r="F3" s="18">
+        <f>E3*0.002</f>
+        <v>95.4</v>
+      </c>
+      <c r="G3" s="18">
+        <f>E3*0.00006</f>
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="H3" s="18">
+        <f>E3*0.00001</f>
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="I3" s="18">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>6.9117300000000013</v>
+      </c>
+      <c r="J3" s="68">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>47805.650730000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="30">
+        <f>(D3-D2)/D2</f>
+        <v>-9.4017094017094016E-2</v>
+      </c>
+      <c r="C4" s="16">
+        <f>SUM(C2:C3)</f>
+        <v>3300</v>
+      </c>
+      <c r="D4" s="17">
+        <f>E4/C4</f>
+        <v>57</v>
+      </c>
+      <c r="E4" s="68">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>188100</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>376.20000000000005</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>11.286</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
+        <v>1.8810000000000002</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
+        <v>27.255690000000005</v>
+      </c>
+      <c r="J4" s="68">
+        <f t="shared" si="0"/>
+        <v>188516.62268999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1">
+      <c r="A5" s="49">
+        <v>44970</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>900</v>
+      </c>
+      <c r="D5" s="41">
+        <v>50</v>
+      </c>
+      <c r="E5" s="68">
+        <f>C5*D5</f>
+        <v>45000</v>
+      </c>
+      <c r="F5" s="18">
+        <f>E5*0.002</f>
+        <v>90</v>
+      </c>
+      <c r="G5" s="18">
+        <f>E5*0.00006</f>
+        <v>2.7</v>
+      </c>
+      <c r="H5" s="18">
+        <f>E5*0.00001</f>
+        <v>0.45</v>
+      </c>
+      <c r="I5" s="18">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>6.5205000000000011</v>
+      </c>
+      <c r="J5" s="68">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>45099.670499999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="30">
+        <f>(D5-D4)/D4</f>
+        <v>-0.12280701754385964</v>
+      </c>
+      <c r="C6" s="16">
+        <f>SUM(C4:C5)</f>
+        <v>4200</v>
+      </c>
+      <c r="D6" s="17">
+        <f>E6/C6</f>
+        <v>55.5</v>
+      </c>
+      <c r="E6" s="68">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>233100</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>466.20000000000005</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>13.986000000000001</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>2.3310000000000004</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
+        <v>33.776190000000007</v>
+      </c>
+      <c r="J6" s="68">
+        <f t="shared" si="1"/>
+        <v>233616.29319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="49">
+        <v>45035</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="41">
+        <v>39.75</v>
+      </c>
+      <c r="E7" s="68">
+        <f>C7*D7</f>
+        <v>47700</v>
+      </c>
+      <c r="F7" s="18">
+        <f>E7*0.002</f>
+        <v>95.4</v>
+      </c>
+      <c r="G7" s="18">
+        <f>E7*0.00006</f>
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="H7" s="18">
+        <f>E7*0.00001</f>
+        <v>0.47700000000000004</v>
+      </c>
+      <c r="I7" s="18">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>6.9117300000000013</v>
+      </c>
+      <c r="J7" s="68">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>47805.650730000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1">
+      <c r="A8" s="49">
+        <v>45077</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16">
+        <f>C7</f>
+        <v>1200</v>
+      </c>
+      <c r="D8" s="26">
+        <v>43</v>
+      </c>
+      <c r="E8" s="17">
+        <f>C8*D8</f>
+        <v>51600</v>
+      </c>
+      <c r="F8" s="27">
+        <f>E8*0.002</f>
+        <v>103.2</v>
+      </c>
+      <c r="G8" s="26">
+        <f>E8*0.000068</f>
+        <v>3.5087999999999999</v>
+      </c>
+      <c r="H8" s="26">
+        <f>E8*0.00001</f>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I8" s="26">
+        <f>(F8+G8+H8)*0.07</f>
+        <v>7.5057360000000006</v>
+      </c>
+      <c r="J8" s="26">
+        <f>E8-F8-G8-H8-I8</f>
+        <v>51485.269463999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1">
+      <c r="A9" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18">
+        <f>E8-E7</f>
+        <v>3900</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
+        <f>J8-J7</f>
+        <v>3679.618733999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1">
+      <c r="A10" s="54"/>
+      <c r="B10" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="51">
+        <v>4200</v>
+      </c>
+      <c r="D10" s="52">
+        <v>55.5</v>
+      </c>
+      <c r="E10" s="51">
+        <v>233100</v>
+      </c>
+      <c r="F10" s="51">
+        <v>466.20000000000005</v>
+      </c>
+      <c r="G10" s="51">
+        <v>13.986000000000001</v>
+      </c>
+      <c r="H10" s="51">
+        <v>2.3310000000000004</v>
+      </c>
+      <c r="I10" s="51">
+        <v>33.776190000000007</v>
+      </c>
+      <c r="J10" s="51">
+        <v>233616.29319</v>
+      </c>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="49">
+        <v>45083</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>600</v>
+      </c>
+      <c r="D11" s="41">
+        <v>39.5</v>
+      </c>
+      <c r="E11" s="68">
+        <f>C11*D11</f>
+        <v>23700</v>
+      </c>
+      <c r="F11" s="18">
+        <f>E11*0.002</f>
+        <v>47.4</v>
+      </c>
+      <c r="G11" s="18">
+        <f>E11*0.00006</f>
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="H11" s="18">
+        <f>E11*0.00001</f>
+        <v>0.23700000000000002</v>
+      </c>
+      <c r="I11" s="18">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>3.4341300000000001</v>
+      </c>
+      <c r="J11" s="68">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>23752.493130000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1">
+      <c r="A12" s="49">
+        <v>45086</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <f>C11</f>
+        <v>600</v>
+      </c>
+      <c r="D12" s="26">
+        <v>41.75</v>
+      </c>
+      <c r="E12" s="17">
+        <f>C12*D12</f>
+        <v>25050</v>
+      </c>
+      <c r="F12" s="27">
+        <f>E12*0.002</f>
+        <v>50.1</v>
+      </c>
+      <c r="G12" s="26">
+        <f>E12*0.000068</f>
+        <v>1.7034</v>
+      </c>
+      <c r="H12" s="26">
+        <f>E12*0.00001</f>
+        <v>0.2505</v>
+      </c>
+      <c r="I12" s="26">
+        <f>(F12+G12+H12)*0.07</f>
+        <v>3.6437730000000008</v>
+      </c>
+      <c r="J12" s="26">
+        <f>E12-F12-G12-H12-I12</f>
+        <v>24994.302327000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1">
+      <c r="A13" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18">
+        <f>E12-E11</f>
+        <v>1350</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18">
+        <f>J12-J11</f>
+        <v>1241.8091970000023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1">
+      <c r="A14" s="49"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="51">
+        <v>4200</v>
+      </c>
+      <c r="D15" s="52">
+        <v>55.5</v>
+      </c>
+      <c r="E15" s="51">
+        <v>233100</v>
+      </c>
+      <c r="F15" s="51">
+        <v>466.20000000000005</v>
+      </c>
+      <c r="G15" s="51">
+        <v>13.986000000000001</v>
+      </c>
+      <c r="H15" s="51">
+        <v>2.3310000000000004</v>
+      </c>
+      <c r="I15" s="51">
+        <v>33.776190000000007</v>
+      </c>
+      <c r="J15" s="51">
+        <v>233616.29319</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="49">
+        <v>45243</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="16">
+        <v>800</v>
+      </c>
+      <c r="D16" s="41">
+        <v>25.5</v>
+      </c>
+      <c r="E16" s="68">
+        <f>C16*D16</f>
+        <v>20400</v>
+      </c>
+      <c r="F16" s="18">
+        <f>E16*0.002</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="G16" s="18">
+        <f>E16*0.00006</f>
+        <v>1.224</v>
+      </c>
+      <c r="H16" s="18">
+        <f>E16*0.00001</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="I16" s="18">
+        <f>(F16+G16+H16)*0.07</f>
+        <v>2.9559600000000006</v>
+      </c>
+      <c r="J16" s="68">
+        <f>E16+F16+I16+G16+H16</f>
+        <v>20445.183959999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="49">
+        <v>45251</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C16</f>
+        <v>800</v>
+      </c>
+      <c r="D17" s="26">
+        <v>28.25</v>
+      </c>
+      <c r="E17" s="17">
+        <f>C17*D17</f>
+        <v>22600</v>
+      </c>
+      <c r="F17" s="27">
+        <f>E17*0.002</f>
+        <v>45.2</v>
+      </c>
+      <c r="G17" s="26">
+        <f>E17*0.000068</f>
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="H17" s="26">
+        <f>E17*0.00001</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I17" s="26">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>3.2873960000000002</v>
+      </c>
+      <c r="J17" s="26">
+        <f>E17-F17-G17-H17-I17</f>
+        <v>22549.749803999999</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="69"/>
+      <c r="B18" s="30">
+        <f>(D17-D16)/D16</f>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18">
+        <f>E17-E16</f>
+        <v>2200</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
+        <f>J17-J16</f>
+        <v>2104.5658440000007</v>
+      </c>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1">
+      <c r="A19" s="54"/>
+      <c r="B19" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="51">
+        <v>4200</v>
+      </c>
+      <c r="D19" s="52">
+        <v>55.5</v>
+      </c>
+      <c r="E19" s="51">
+        <v>233100</v>
+      </c>
+      <c r="F19" s="51">
+        <v>466.20000000000005</v>
+      </c>
+      <c r="G19" s="51">
+        <v>13.986000000000001</v>
+      </c>
+      <c r="H19" s="51">
+        <v>2.3310000000000004</v>
+      </c>
+      <c r="I19" s="51">
+        <v>33.776190000000007</v>
+      </c>
+      <c r="J19" s="51">
+        <v>233616.29319</v>
+      </c>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="55">
+        <v>45447</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2800</v>
+      </c>
+      <c r="D20" s="46">
+        <v>13.5</v>
+      </c>
+      <c r="E20" s="61">
+        <f>C20*D20</f>
+        <v>37800</v>
+      </c>
+      <c r="F20" s="20">
+        <f>E20*0.002</f>
+        <v>75.600000000000009</v>
+      </c>
+      <c r="G20" s="20">
+        <f>E20*0.00006</f>
+        <v>2.2680000000000002</v>
+      </c>
+      <c r="H20" s="20">
+        <f>E20*0.00001</f>
+        <v>0.37800000000000006</v>
+      </c>
+      <c r="I20" s="20">
+        <f>(F20+G20+H20)*0.07</f>
+        <v>5.4772200000000009</v>
+      </c>
+      <c r="J20" s="61">
+        <f>E20+F20+I20+G20+H20</f>
+        <v>37883.723219999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="12">
+        <f>(D20-D19)/D19</f>
+        <v>-0.7567567567567568</v>
+      </c>
+      <c r="C21" s="10">
+        <f>SUM(C19:C20)</f>
+        <v>7000</v>
+      </c>
+      <c r="D21" s="63">
+        <f>E21/C21</f>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" ref="E21:J21" si="2">SUM(E19:E20)</f>
+        <v>270900</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="2"/>
+        <v>541.80000000000007</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="2"/>
+        <v>16.254000000000001</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="2"/>
+        <v>2.7090000000000005</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="2"/>
+        <v>39.253410000000009</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="2"/>
+        <v>271500.01640999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="55">
+        <v>45447</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="46">
+        <v>12.7</v>
+      </c>
+      <c r="E22" s="61">
+        <f>C22*D22</f>
+        <v>38100</v>
+      </c>
+      <c r="F22" s="20">
+        <f>E22*0.002</f>
+        <v>76.2</v>
+      </c>
+      <c r="G22" s="20">
+        <f>E22*0.00006</f>
+        <v>2.286</v>
+      </c>
+      <c r="H22" s="20">
+        <f>E22*0.00001</f>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="I22" s="20">
+        <f>(F22+G22+H22)*0.07</f>
+        <v>5.520690000000001</v>
+      </c>
+      <c r="J22" s="61">
+        <f>E22+F22+I22+G22+H22</f>
+        <v>38184.387689999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="12">
+        <f>(D22-D21)/D21</f>
+        <v>-0.67183462532299743</v>
+      </c>
+      <c r="C23" s="10">
+        <f>SUM(C21:C22)</f>
+        <v>10000</v>
+      </c>
+      <c r="D23" s="63">
+        <f>E23/C23</f>
+        <v>30.9</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" ref="E23" si="3">SUM(E21:E22)</f>
+        <v>309000</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" ref="F23" si="4">SUM(F21:F22)</f>
+        <v>618.00000000000011</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" ref="G23" si="5">SUM(G21:G22)</f>
+        <v>18.540000000000003</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" ref="H23" si="6">SUM(H21:H22)</f>
+        <v>3.0900000000000007</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" ref="I23" si="7">SUM(I21:I22)</f>
+        <v>44.774100000000011</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" ref="J23" si="8">SUM(J21:J22)</f>
+        <v>309684.40409999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="49">
+        <v>45243</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>800</v>
+      </c>
+      <c r="D25" s="41">
+        <v>25.5</v>
+      </c>
+      <c r="E25" s="68">
+        <f>C25*D25</f>
+        <v>20400</v>
+      </c>
+      <c r="F25" s="18">
+        <f>E25*0.002</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="G25" s="18">
+        <f>E25*0.00006</f>
+        <v>1.224</v>
+      </c>
+      <c r="H25" s="18">
+        <f>E25*0.00001</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="I25" s="18">
+        <f>(F25+G25+H25)*0.07</f>
+        <v>2.9559600000000006</v>
+      </c>
+      <c r="J25" s="68">
+        <f>E25+F25+I25+G25+H25</f>
+        <v>20445.183959999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="49">
+        <v>45251</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C25</f>
+        <v>800</v>
+      </c>
+      <c r="D26" s="26">
+        <v>28.25</v>
+      </c>
+      <c r="E26" s="17">
+        <f>C26*D26</f>
+        <v>22600</v>
+      </c>
+      <c r="F26" s="27">
+        <f>E26*0.002</f>
+        <v>45.2</v>
+      </c>
+      <c r="G26" s="26">
+        <f>E26*0.000068</f>
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="H26" s="26">
+        <f>E26*0.00001</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I26" s="26">
+        <f>(F26+G26+H26)*0.07</f>
+        <v>3.2873960000000002</v>
+      </c>
+      <c r="J26" s="26">
+        <f>E26-F26-G26-H26-I26</f>
+        <v>22549.749803999999</v>
+      </c>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="69"/>
+      <c r="B27" s="30">
+        <f>(D26-D25)/D25</f>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18">
+        <f>E26-E25</f>
+        <v>2200</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18">
+        <f>J26-J25</f>
+        <v>2104.5658440000007</v>
+      </c>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="49">
+        <v>45447</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1800</v>
+      </c>
+      <c r="D28" s="41">
+        <v>13.9</v>
+      </c>
+      <c r="E28" s="68">
+        <f>C28*D28</f>
+        <v>25020</v>
+      </c>
+      <c r="F28" s="18">
+        <f>E28*0.002</f>
+        <v>50.04</v>
+      </c>
+      <c r="G28" s="18">
+        <f>E28*0.00006</f>
+        <v>1.5012000000000001</v>
+      </c>
+      <c r="H28" s="18">
+        <f>E28*0.00001</f>
+        <v>0.25020000000000003</v>
+      </c>
+      <c r="I28" s="18">
+        <f>(F28+G28+H28)*0.07</f>
+        <v>3.6253980000000001</v>
+      </c>
+      <c r="J28" s="68">
+        <f>E28+F28+I28+G28+H28</f>
+        <v>25075.416797999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="49">
+        <v>45448</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="16">
+        <f>C28</f>
+        <v>1800</v>
+      </c>
+      <c r="D29" s="26">
+        <v>14.6</v>
+      </c>
+      <c r="E29" s="17">
+        <f>C29*D29</f>
+        <v>26280</v>
+      </c>
+      <c r="F29" s="27">
+        <f>E29*0.002</f>
+        <v>52.56</v>
+      </c>
+      <c r="G29" s="26">
+        <f>E29*0.000068</f>
+        <v>1.78704</v>
+      </c>
+      <c r="H29" s="26">
+        <f>E29*0.00001</f>
+        <v>0.26280000000000003</v>
+      </c>
+      <c r="I29" s="26">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>3.8226888000000003</v>
+      </c>
+      <c r="J29" s="26">
+        <f>E29-F29-G29-H29-I29</f>
+        <v>26221.5674712</v>
+      </c>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="69"/>
+      <c r="B30" s="30">
+        <f>(D29-D28)/D28</f>
+        <v>5.0359712230215778E-2</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18">
+        <f>E29-E28</f>
+        <v>1260</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18">
+        <f>J29-J28</f>
+        <v>1146.1506732000016</v>
+      </c>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="49">
+        <v>45496</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D31" s="101">
+        <v>11.5</v>
+      </c>
+      <c r="E31" s="68">
+        <f>C31*D31</f>
+        <v>17250</v>
+      </c>
+      <c r="F31" s="18">
+        <f>E31*0.002</f>
+        <v>34.5</v>
+      </c>
+      <c r="G31" s="18">
+        <f>E31*0.00006</f>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="H31" s="18">
+        <f>E31*0.00001</f>
+        <v>0.17250000000000001</v>
+      </c>
+      <c r="I31" s="18">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>2.4995249999999998</v>
+      </c>
+      <c r="J31" s="68">
+        <f>E31+F31+I31+G31+H31</f>
+        <v>17288.207025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="49">
+        <v>45526</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="16">
+        <f>C31</f>
+        <v>1500</v>
+      </c>
+      <c r="D32" s="26">
+        <v>14.9</v>
+      </c>
+      <c r="E32" s="17">
+        <f>C32*D32</f>
+        <v>22350</v>
+      </c>
+      <c r="F32" s="27">
+        <f>E32*0.002</f>
+        <v>44.7</v>
+      </c>
+      <c r="G32" s="26">
+        <f>E32*0.000068</f>
+        <v>1.5198</v>
+      </c>
+      <c r="H32" s="26">
+        <f>E32*0.00001</f>
+        <v>0.22350000000000003</v>
+      </c>
+      <c r="I32" s="26">
+        <f>(F32+G32+H32)*0.07</f>
+        <v>3.2510310000000007</v>
+      </c>
+      <c r="J32" s="26">
+        <f>E32-F32-G32-H32-I32</f>
+        <v>22300.305669000001</v>
+      </c>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="69"/>
+      <c r="B33" s="30">
+        <f>(D32-D31)/D31</f>
+        <v>0.29565217391304349</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18">
+        <f>E32-E31</f>
+        <v>5100</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18">
+        <f>J32-J31</f>
+        <v>5012.0986440000015</v>
+      </c>
+      <c r="M33" s="21"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1">
+      <c r="A34" s="49">
+        <v>45471</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16">
+        <v>1800</v>
+      </c>
+      <c r="D34" s="101">
+        <v>13</v>
+      </c>
+      <c r="E34" s="68">
+        <f>C34*D34</f>
+        <v>23400</v>
+      </c>
+      <c r="F34" s="18">
+        <f>E34*0.002</f>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="G34" s="18">
+        <f>E34*0.00006</f>
+        <v>1.4040000000000001</v>
+      </c>
+      <c r="H34" s="18">
+        <f>E34*0.00001</f>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I34" s="18">
+        <f>(F34+G34+H34)*0.07</f>
+        <v>3.3906600000000009</v>
+      </c>
+      <c r="J34" s="68">
+        <f>E34+F34+I34+G34+H34</f>
+        <v>23451.828659999999</v>
+      </c>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1">
+      <c r="A35" s="49">
+        <v>45531</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="16">
+        <f>C34</f>
+        <v>1800</v>
+      </c>
+      <c r="D35" s="26">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E35" s="17">
+        <f>C35*D35</f>
+        <v>29519.999999999996</v>
+      </c>
+      <c r="F35" s="27">
+        <f>E35*0.002</f>
+        <v>59.039999999999992</v>
+      </c>
+      <c r="G35" s="26">
+        <f>E35*0.000068</f>
+        <v>2.0073599999999998</v>
+      </c>
+      <c r="H35" s="26">
+        <f>E35*0.00001</f>
+        <v>0.29519999999999996</v>
+      </c>
+      <c r="I35" s="26">
+        <f>(F35+G35+H35)*0.07</f>
+        <v>4.2939791999999999</v>
+      </c>
+      <c r="J35" s="26">
+        <f>E35-F35-G35-H35-I35</f>
+        <v>29454.363460799996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="4" customFormat="1">
+      <c r="A36" s="69"/>
+      <c r="B36" s="30">
+        <f>(D35-D34)/D34</f>
+        <v>0.26153846153846144</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18">
+        <f>E35-E34</f>
+        <v>6119.9999999999964</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18">
+        <f>J35-J34</f>
+        <v>6002.5348007999964</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -11363,7 +12149,7 @@
         <f>SUM(C22:C23)</f>
         <v>7000</v>
       </c>
-      <c r="D24" s="101">
+      <c r="D24" s="100">
         <f>E24/C24</f>
         <v>58.5</v>
       </c>
@@ -12309,1202 +13095,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
-  <dimension ref="A1:O36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="67" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="6.77734375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="67" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="21" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="21"/>
-    <col min="13" max="13" width="8.88671875" style="25"/>
-    <col min="14" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="B1" s="21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="13" customFormat="1">
-      <c r="A2" s="39">
-        <v>44946</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>2400</v>
-      </c>
-      <c r="D2" s="17">
-        <v>58.5</v>
-      </c>
-      <c r="E2" s="68">
-        <f>C2*D2</f>
-        <v>140400</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>280.8</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>8.4239999999999995</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>1.4040000000000001</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>20.343960000000003</v>
-      </c>
-      <c r="J2" s="68">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>140710.97196</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="49">
-        <v>44956</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>900</v>
-      </c>
-      <c r="D3" s="41">
-        <v>53</v>
-      </c>
-      <c r="E3" s="68">
-        <f>C3*D3</f>
-        <v>47700</v>
-      </c>
-      <c r="F3" s="18">
-        <f>E3*0.002</f>
-        <v>95.4</v>
-      </c>
-      <c r="G3" s="18">
-        <f>E3*0.00006</f>
-        <v>2.8620000000000001</v>
-      </c>
-      <c r="H3" s="18">
-        <f>E3*0.00001</f>
-        <v>0.47700000000000004</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>6.9117300000000013</v>
-      </c>
-      <c r="J3" s="68">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>47805.650730000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="30">
-        <f>(D3-D2)/D2</f>
-        <v>-9.4017094017094016E-2</v>
-      </c>
-      <c r="C4" s="16">
-        <f>SUM(C2:C3)</f>
-        <v>3300</v>
-      </c>
-      <c r="D4" s="17">
-        <f>E4/C4</f>
-        <v>57</v>
-      </c>
-      <c r="E4" s="68">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>188100</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>376.20000000000005</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>11.286</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>1.8810000000000002</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>27.255690000000005</v>
-      </c>
-      <c r="J4" s="68">
-        <f t="shared" si="0"/>
-        <v>188516.62268999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="49">
-        <v>44970</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16">
-        <v>900</v>
-      </c>
-      <c r="D5" s="41">
-        <v>50</v>
-      </c>
-      <c r="E5" s="68">
-        <f>C5*D5</f>
-        <v>45000</v>
-      </c>
-      <c r="F5" s="18">
-        <f>E5*0.002</f>
-        <v>90</v>
-      </c>
-      <c r="G5" s="18">
-        <f>E5*0.00006</f>
-        <v>2.7</v>
-      </c>
-      <c r="H5" s="18">
-        <f>E5*0.00001</f>
-        <v>0.45</v>
-      </c>
-      <c r="I5" s="18">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>6.5205000000000011</v>
-      </c>
-      <c r="J5" s="68">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>45099.670499999993</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="30">
-        <f>(D5-D4)/D4</f>
-        <v>-0.12280701754385964</v>
-      </c>
-      <c r="C6" s="16">
-        <f>SUM(C4:C5)</f>
-        <v>4200</v>
-      </c>
-      <c r="D6" s="17">
-        <f>E6/C6</f>
-        <v>55.5</v>
-      </c>
-      <c r="E6" s="68">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>233100</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>466.20000000000005</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" si="1"/>
-        <v>13.986000000000001</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" si="1"/>
-        <v>2.3310000000000004</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="1"/>
-        <v>33.776190000000007</v>
-      </c>
-      <c r="J6" s="68">
-        <f t="shared" si="1"/>
-        <v>233616.29319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="49">
-        <v>45035</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1200</v>
-      </c>
-      <c r="D7" s="41">
-        <v>39.75</v>
-      </c>
-      <c r="E7" s="68">
-        <f>C7*D7</f>
-        <v>47700</v>
-      </c>
-      <c r="F7" s="18">
-        <f>E7*0.002</f>
-        <v>95.4</v>
-      </c>
-      <c r="G7" s="18">
-        <f>E7*0.00006</f>
-        <v>2.8620000000000001</v>
-      </c>
-      <c r="H7" s="18">
-        <f>E7*0.00001</f>
-        <v>0.47700000000000004</v>
-      </c>
-      <c r="I7" s="18">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>6.9117300000000013</v>
-      </c>
-      <c r="J7" s="68">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>47805.650730000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1">
-      <c r="A8" s="49">
-        <v>45077</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16">
-        <f>C7</f>
-        <v>1200</v>
-      </c>
-      <c r="D8" s="26">
-        <v>43</v>
-      </c>
-      <c r="E8" s="17">
-        <f>C8*D8</f>
-        <v>51600</v>
-      </c>
-      <c r="F8" s="27">
-        <f>E8*0.002</f>
-        <v>103.2</v>
-      </c>
-      <c r="G8" s="26">
-        <f>E8*0.000068</f>
-        <v>3.5087999999999999</v>
-      </c>
-      <c r="H8" s="26">
-        <f>E8*0.00001</f>
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I8" s="26">
-        <f>(F8+G8+H8)*0.07</f>
-        <v>7.5057360000000006</v>
-      </c>
-      <c r="J8" s="26">
-        <f>E8-F8-G8-H8-I8</f>
-        <v>51485.269463999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1">
-      <c r="A9" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18">
-        <f>E8-E7</f>
-        <v>3900</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18">
-        <f>J8-J7</f>
-        <v>3679.618733999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1">
-      <c r="A10" s="54"/>
-      <c r="B10" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="51">
-        <v>4200</v>
-      </c>
-      <c r="D10" s="52">
-        <v>55.5</v>
-      </c>
-      <c r="E10" s="51">
-        <v>233100</v>
-      </c>
-      <c r="F10" s="51">
-        <v>466.20000000000005</v>
-      </c>
-      <c r="G10" s="51">
-        <v>13.986000000000001</v>
-      </c>
-      <c r="H10" s="51">
-        <v>2.3310000000000004</v>
-      </c>
-      <c r="I10" s="51">
-        <v>33.776190000000007</v>
-      </c>
-      <c r="J10" s="51">
-        <v>233616.29319</v>
-      </c>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="49">
-        <v>45083</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16">
-        <v>600</v>
-      </c>
-      <c r="D11" s="41">
-        <v>39.5</v>
-      </c>
-      <c r="E11" s="68">
-        <f>C11*D11</f>
-        <v>23700</v>
-      </c>
-      <c r="F11" s="18">
-        <f>E11*0.002</f>
-        <v>47.4</v>
-      </c>
-      <c r="G11" s="18">
-        <f>E11*0.00006</f>
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="H11" s="18">
-        <f>E11*0.00001</f>
-        <v>0.23700000000000002</v>
-      </c>
-      <c r="I11" s="18">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>3.4341300000000001</v>
-      </c>
-      <c r="J11" s="68">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>23752.493130000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1">
-      <c r="A12" s="49">
-        <v>45086</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16">
-        <f>C11</f>
-        <v>600</v>
-      </c>
-      <c r="D12" s="26">
-        <v>41.75</v>
-      </c>
-      <c r="E12" s="17">
-        <f>C12*D12</f>
-        <v>25050</v>
-      </c>
-      <c r="F12" s="27">
-        <f>E12*0.002</f>
-        <v>50.1</v>
-      </c>
-      <c r="G12" s="26">
-        <f>E12*0.000068</f>
-        <v>1.7034</v>
-      </c>
-      <c r="H12" s="26">
-        <f>E12*0.00001</f>
-        <v>0.2505</v>
-      </c>
-      <c r="I12" s="26">
-        <f>(F12+G12+H12)*0.07</f>
-        <v>3.6437730000000008</v>
-      </c>
-      <c r="J12" s="26">
-        <f>E12-F12-G12-H12-I12</f>
-        <v>24994.302327000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1">
-      <c r="A13" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18">
-        <f>E12-E11</f>
-        <v>1350</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18">
-        <f>J12-J11</f>
-        <v>1241.8091970000023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="51">
-        <v>4200</v>
-      </c>
-      <c r="D15" s="52">
-        <v>55.5</v>
-      </c>
-      <c r="E15" s="51">
-        <v>233100</v>
-      </c>
-      <c r="F15" s="51">
-        <v>466.20000000000005</v>
-      </c>
-      <c r="G15" s="51">
-        <v>13.986000000000001</v>
-      </c>
-      <c r="H15" s="51">
-        <v>2.3310000000000004</v>
-      </c>
-      <c r="I15" s="51">
-        <v>33.776190000000007</v>
-      </c>
-      <c r="J15" s="51">
-        <v>233616.29319</v>
-      </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="49">
-        <v>45243</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="16">
-        <v>800</v>
-      </c>
-      <c r="D16" s="41">
-        <v>25.5</v>
-      </c>
-      <c r="E16" s="68">
-        <f>C16*D16</f>
-        <v>20400</v>
-      </c>
-      <c r="F16" s="18">
-        <f>E16*0.002</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="G16" s="18">
-        <f>E16*0.00006</f>
-        <v>1.224</v>
-      </c>
-      <c r="H16" s="18">
-        <f>E16*0.00001</f>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="I16" s="18">
-        <f>(F16+G16+H16)*0.07</f>
-        <v>2.9559600000000006</v>
-      </c>
-      <c r="J16" s="68">
-        <f>E16+F16+I16+G16+H16</f>
-        <v>20445.183959999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="49">
-        <v>45251</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="16">
-        <f>C16</f>
-        <v>800</v>
-      </c>
-      <c r="D17" s="26">
-        <v>28.25</v>
-      </c>
-      <c r="E17" s="17">
-        <f>C17*D17</f>
-        <v>22600</v>
-      </c>
-      <c r="F17" s="27">
-        <f>E17*0.002</f>
-        <v>45.2</v>
-      </c>
-      <c r="G17" s="26">
-        <f>E17*0.000068</f>
-        <v>1.5367999999999999</v>
-      </c>
-      <c r="H17" s="26">
-        <f>E17*0.00001</f>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I17" s="26">
-        <f>(F17+G17+H17)*0.07</f>
-        <v>3.2873960000000002</v>
-      </c>
-      <c r="J17" s="26">
-        <f>E17-F17-G17-H17-I17</f>
-        <v>22549.749803999999</v>
-      </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="30">
-        <f>(D17-D16)/D16</f>
-        <v>0.10784313725490197</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18">
-        <f>E17-E16</f>
-        <v>2200</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18">
-        <f>J17-J16</f>
-        <v>2104.5658440000007</v>
-      </c>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="51">
-        <v>4200</v>
-      </c>
-      <c r="D19" s="52">
-        <v>55.5</v>
-      </c>
-      <c r="E19" s="51">
-        <v>233100</v>
-      </c>
-      <c r="F19" s="51">
-        <v>466.20000000000005</v>
-      </c>
-      <c r="G19" s="51">
-        <v>13.986000000000001</v>
-      </c>
-      <c r="H19" s="51">
-        <v>2.3310000000000004</v>
-      </c>
-      <c r="I19" s="51">
-        <v>33.776190000000007</v>
-      </c>
-      <c r="J19" s="51">
-        <v>233616.29319</v>
-      </c>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="55">
-        <v>45447</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2800</v>
-      </c>
-      <c r="D20" s="46">
-        <v>13.5</v>
-      </c>
-      <c r="E20" s="61">
-        <f>C20*D20</f>
-        <v>37800</v>
-      </c>
-      <c r="F20" s="20">
-        <f>E20*0.002</f>
-        <v>75.600000000000009</v>
-      </c>
-      <c r="G20" s="20">
-        <f>E20*0.00006</f>
-        <v>2.2680000000000002</v>
-      </c>
-      <c r="H20" s="20">
-        <f>E20*0.00001</f>
-        <v>0.37800000000000006</v>
-      </c>
-      <c r="I20" s="20">
-        <f>(F20+G20+H20)*0.07</f>
-        <v>5.4772200000000009</v>
-      </c>
-      <c r="J20" s="61">
-        <f>E20+F20+I20+G20+H20</f>
-        <v>37883.723219999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="B21" s="12">
-        <f>(D20-D19)/D19</f>
-        <v>-0.7567567567567568</v>
-      </c>
-      <c r="C21" s="10">
-        <f>SUM(C19:C20)</f>
-        <v>7000</v>
-      </c>
-      <c r="D21" s="63">
-        <f>E21/C21</f>
-        <v>38.700000000000003</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" ref="E21:J21" si="2">SUM(E19:E20)</f>
-        <v>270900</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="2"/>
-        <v>541.80000000000007</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="2"/>
-        <v>16.254000000000001</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" si="2"/>
-        <v>2.7090000000000005</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="2"/>
-        <v>39.253410000000009</v>
-      </c>
-      <c r="J21" s="10">
-        <f t="shared" si="2"/>
-        <v>271500.01640999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="55">
-        <v>45447</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10">
-        <v>3000</v>
-      </c>
-      <c r="D22" s="46">
-        <v>12.7</v>
-      </c>
-      <c r="E22" s="61">
-        <f>C22*D22</f>
-        <v>38100</v>
-      </c>
-      <c r="F22" s="20">
-        <f>E22*0.002</f>
-        <v>76.2</v>
-      </c>
-      <c r="G22" s="20">
-        <f>E22*0.00006</f>
-        <v>2.286</v>
-      </c>
-      <c r="H22" s="20">
-        <f>E22*0.00001</f>
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="I22" s="20">
-        <f>(F22+G22+H22)*0.07</f>
-        <v>5.520690000000001</v>
-      </c>
-      <c r="J22" s="61">
-        <f>E22+F22+I22+G22+H22</f>
-        <v>38184.387689999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="12">
-        <f>(D22-D21)/D21</f>
-        <v>-0.67183462532299743</v>
-      </c>
-      <c r="C23" s="10">
-        <f>SUM(C21:C22)</f>
-        <v>10000</v>
-      </c>
-      <c r="D23" s="63">
-        <f>E23/C23</f>
-        <v>30.9</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" ref="E23" si="3">SUM(E21:E22)</f>
-        <v>309000</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" ref="F23" si="4">SUM(F21:F22)</f>
-        <v>618.00000000000011</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" ref="G23" si="5">SUM(G21:G22)</f>
-        <v>18.540000000000003</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" ref="H23" si="6">SUM(H21:H22)</f>
-        <v>3.0900000000000007</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" ref="I23" si="7">SUM(I21:I22)</f>
-        <v>44.774100000000011</v>
-      </c>
-      <c r="J23" s="10">
-        <f t="shared" ref="J23" si="8">SUM(J21:J22)</f>
-        <v>309684.40409999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="49">
-        <v>45243</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="16">
-        <v>800</v>
-      </c>
-      <c r="D25" s="41">
-        <v>25.5</v>
-      </c>
-      <c r="E25" s="68">
-        <f>C25*D25</f>
-        <v>20400</v>
-      </c>
-      <c r="F25" s="18">
-        <f>E25*0.002</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="G25" s="18">
-        <f>E25*0.00006</f>
-        <v>1.224</v>
-      </c>
-      <c r="H25" s="18">
-        <f>E25*0.00001</f>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="I25" s="18">
-        <f>(F25+G25+H25)*0.07</f>
-        <v>2.9559600000000006</v>
-      </c>
-      <c r="J25" s="68">
-        <f>E25+F25+I25+G25+H25</f>
-        <v>20445.183959999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="49">
-        <v>45251</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="16">
-        <f>C25</f>
-        <v>800</v>
-      </c>
-      <c r="D26" s="26">
-        <v>28.25</v>
-      </c>
-      <c r="E26" s="17">
-        <f>C26*D26</f>
-        <v>22600</v>
-      </c>
-      <c r="F26" s="27">
-        <f>E26*0.002</f>
-        <v>45.2</v>
-      </c>
-      <c r="G26" s="26">
-        <f>E26*0.000068</f>
-        <v>1.5367999999999999</v>
-      </c>
-      <c r="H26" s="26">
-        <f>E26*0.00001</f>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I26" s="26">
-        <f>(F26+G26+H26)*0.07</f>
-        <v>3.2873960000000002</v>
-      </c>
-      <c r="J26" s="26">
-        <f>E26-F26-G26-H26-I26</f>
-        <v>22549.749803999999</v>
-      </c>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="69"/>
-      <c r="B27" s="30">
-        <f>(D26-D25)/D25</f>
-        <v>0.10784313725490197</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18">
-        <f>E26-E25</f>
-        <v>2200</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18">
-        <f>J26-J25</f>
-        <v>2104.5658440000007</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="49">
-        <v>45447</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="16">
-        <v>1800</v>
-      </c>
-      <c r="D28" s="41">
-        <v>13.9</v>
-      </c>
-      <c r="E28" s="68">
-        <f>C28*D28</f>
-        <v>25020</v>
-      </c>
-      <c r="F28" s="18">
-        <f>E28*0.002</f>
-        <v>50.04</v>
-      </c>
-      <c r="G28" s="18">
-        <f>E28*0.00006</f>
-        <v>1.5012000000000001</v>
-      </c>
-      <c r="H28" s="18">
-        <f>E28*0.00001</f>
-        <v>0.25020000000000003</v>
-      </c>
-      <c r="I28" s="18">
-        <f>(F28+G28+H28)*0.07</f>
-        <v>3.6253980000000001</v>
-      </c>
-      <c r="J28" s="68">
-        <f>E28+F28+I28+G28+H28</f>
-        <v>25075.416797999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="49">
-        <v>45448</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="16">
-        <f>C28</f>
-        <v>1800</v>
-      </c>
-      <c r="D29" s="26">
-        <v>14.6</v>
-      </c>
-      <c r="E29" s="17">
-        <f>C29*D29</f>
-        <v>26280</v>
-      </c>
-      <c r="F29" s="27">
-        <f>E29*0.002</f>
-        <v>52.56</v>
-      </c>
-      <c r="G29" s="26">
-        <f>E29*0.000068</f>
-        <v>1.78704</v>
-      </c>
-      <c r="H29" s="26">
-        <f>E29*0.00001</f>
-        <v>0.26280000000000003</v>
-      </c>
-      <c r="I29" s="26">
-        <f>(F29+G29+H29)*0.07</f>
-        <v>3.8226888000000003</v>
-      </c>
-      <c r="J29" s="26">
-        <f>E29-F29-G29-H29-I29</f>
-        <v>26221.5674712</v>
-      </c>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="30">
-        <f>(D29-D28)/D28</f>
-        <v>5.0359712230215778E-2</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18">
-        <f>E29-E28</f>
-        <v>1260</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18">
-        <f>J29-J28</f>
-        <v>1146.1506732000016</v>
-      </c>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="49">
-        <v>45496</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="16">
-        <v>1500</v>
-      </c>
-      <c r="D31" s="102">
-        <v>11.5</v>
-      </c>
-      <c r="E31" s="68">
-        <f>C31*D31</f>
-        <v>17250</v>
-      </c>
-      <c r="F31" s="18">
-        <f>E31*0.002</f>
-        <v>34.5</v>
-      </c>
-      <c r="G31" s="18">
-        <f>E31*0.00006</f>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H31" s="18">
-        <f>E31*0.00001</f>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="I31" s="18">
-        <f>(F31+G31+H31)*0.07</f>
-        <v>2.4995249999999998</v>
-      </c>
-      <c r="J31" s="68">
-        <f>E31+F31+I31+G31+H31</f>
-        <v>17288.207025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="49">
-        <v>45526</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="16">
-        <f>C31</f>
-        <v>1500</v>
-      </c>
-      <c r="D32" s="26">
-        <v>14.9</v>
-      </c>
-      <c r="E32" s="17">
-        <f>C32*D32</f>
-        <v>22350</v>
-      </c>
-      <c r="F32" s="27">
-        <f>E32*0.002</f>
-        <v>44.7</v>
-      </c>
-      <c r="G32" s="26">
-        <f>E32*0.000068</f>
-        <v>1.5198</v>
-      </c>
-      <c r="H32" s="26">
-        <f>E32*0.00001</f>
-        <v>0.22350000000000003</v>
-      </c>
-      <c r="I32" s="26">
-        <f>(F32+G32+H32)*0.07</f>
-        <v>3.2510310000000007</v>
-      </c>
-      <c r="J32" s="26">
-        <f>E32-F32-G32-H32-I32</f>
-        <v>22300.305669000001</v>
-      </c>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="69"/>
-      <c r="B33" s="30">
-        <f>(D32-D31)/D31</f>
-        <v>0.29565217391304349</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18">
-        <f>E32-E31</f>
-        <v>5100</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18">
-        <f>J32-J31</f>
-        <v>5012.0986440000015</v>
-      </c>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
-      <c r="A34" s="49">
-        <v>45471</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1800</v>
-      </c>
-      <c r="D34" s="102">
-        <v>13</v>
-      </c>
-      <c r="E34" s="68">
-        <f>C34*D34</f>
-        <v>23400</v>
-      </c>
-      <c r="F34" s="18">
-        <f>E34*0.002</f>
-        <v>46.800000000000004</v>
-      </c>
-      <c r="G34" s="18">
-        <f>E34*0.00006</f>
-        <v>1.4040000000000001</v>
-      </c>
-      <c r="H34" s="18">
-        <f>E34*0.00001</f>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="I34" s="18">
-        <f>(F34+G34+H34)*0.07</f>
-        <v>3.3906600000000009</v>
-      </c>
-      <c r="J34" s="68">
-        <f>E34+F34+I34+G34+H34</f>
-        <v>23451.828659999999</v>
-      </c>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1">
-      <c r="A35" s="49">
-        <v>45531</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="16">
-        <f>C34</f>
-        <v>1800</v>
-      </c>
-      <c r="D35" s="26">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E35" s="17">
-        <f>C35*D35</f>
-        <v>29519.999999999996</v>
-      </c>
-      <c r="F35" s="27">
-        <f>E35*0.002</f>
-        <v>59.039999999999992</v>
-      </c>
-      <c r="G35" s="26">
-        <f>E35*0.000068</f>
-        <v>2.0073599999999998</v>
-      </c>
-      <c r="H35" s="26">
-        <f>E35*0.00001</f>
-        <v>0.29519999999999996</v>
-      </c>
-      <c r="I35" s="26">
-        <f>(F35+G35+H35)*0.07</f>
-        <v>4.2939791999999999</v>
-      </c>
-      <c r="J35" s="26">
-        <f>E35-F35-G35-H35-I35</f>
-        <v>29454.363460799996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="4" customFormat="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="30">
-        <f>(D35-D34)/D34</f>
-        <v>0.26153846153846144</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18">
-        <f>E35-E34</f>
-        <v>6119.9999999999964</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18">
-        <f>J35-J34</f>
-        <v>6002.5348007999964</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
@@ -13529,7 +13119,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1">
@@ -15054,7 +14644,7 @@
         <v>42720</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" s="16">
         <v>75000</v>
@@ -15166,7 +14756,7 @@
         <v>44351</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="16">
         <v>70000</v>
@@ -15777,7 +15367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -15805,7 +15395,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -16436,7 +16026,7 @@
         <v>2559.2968251000002</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -16449,12 +16039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -16477,7 +16067,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
@@ -16724,7 +16314,7 @@
         <f>SUM(C6:C7)</f>
         <v>50000</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="109">
         <f>E8/C8</f>
         <v>10.4</v>
       </c>
@@ -16759,39 +16349,39 @@
       <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A9" s="55">
-        <v>45561</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="A9" s="49">
+        <v>45705</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
         <v>10000</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>2.9</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="68">
         <f>C9*D9</f>
         <v>29000</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <f>E9*0.002</f>
         <v>58</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <f>E9*0.00006</f>
         <v>1.74</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <f>E9*0.00001</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f>(F9+G9+H9)*0.07</f>
         <v>4.2021000000000006</v>
       </c>
-      <c r="J9" s="61">
+      <c r="J9" s="68">
         <f>E9+F9+I9+G9+H9</f>
         <v>29064.232100000001</v>
       </c>
@@ -16802,12 +16392,12 @@
       <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A10" s="55"/>
-      <c r="B10" s="12">
+      <c r="A10" s="49"/>
+      <c r="B10" s="30">
         <f>(D9-D8)/D8</f>
         <v>-0.72115384615384615</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="16">
         <f>SUM(C8:C9)</f>
         <v>60000</v>
       </c>
@@ -16815,27 +16405,27 @@
         <f>E10/C10</f>
         <v>9.15</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="16">
         <f t="shared" ref="E10:J10" si="2">SUM(E8:E9)</f>
         <v>549000</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="16">
         <f t="shared" si="2"/>
         <v>1098</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="16">
         <f t="shared" si="2"/>
         <v>32.940000000000005</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="16">
         <f t="shared" si="2"/>
         <v>5.49</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
         <v>79.5501</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="16">
         <f t="shared" si="2"/>
         <v>550215.98009999993</v>
       </c>
@@ -16846,307 +16436,312 @@
       <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A11" s="55"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="A11" s="55">
+        <v>45705</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="46">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="61">
+        <f>C11*D11</f>
+        <v>25000</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E11*0.002</f>
+        <v>50</v>
+      </c>
+      <c r="G11" s="20">
+        <f>E11*0.00006</f>
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="20">
+        <f>E11*0.00001</f>
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="20">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>3.6225000000000005</v>
+      </c>
+      <c r="J11" s="61">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>25055.372500000001</v>
+      </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1">
-      <c r="A12" s="49">
+    <row r="12" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A12" s="55"/>
+      <c r="B12" s="12">
+        <f>(D11-D10)/D10</f>
+        <v>-0.72677595628415304</v>
+      </c>
+      <c r="C12" s="10">
+        <f>SUM(C10:C11)</f>
+        <v>70000</v>
+      </c>
+      <c r="D12" s="108">
+        <f>E12/C12</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ref="E12:J12" si="3">SUM(E10:E11)</f>
+        <v>574000</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>1148</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>34.440000000000005</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>5.74</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>83.172600000000003</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="3"/>
+        <v>575271.35259999998</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A13" s="55"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1">
+      <c r="A14" s="49">
         <v>45063</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
+      <c r="B14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
         <v>3000</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D14" s="41">
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="18">
-        <f>C12*D12</f>
+      <c r="E14" s="18">
+        <f>C14*D14</f>
         <v>30599.999999999996</v>
       </c>
-      <c r="F12" s="18">
-        <f>E12*0.002</f>
+      <c r="F14" s="18">
+        <f>E14*0.002</f>
         <v>61.199999999999996</v>
       </c>
-      <c r="G12" s="18">
-        <f>E12*0.00006</f>
+      <c r="G14" s="18">
+        <f>E14*0.00006</f>
         <v>1.8359999999999999</v>
       </c>
-      <c r="H12" s="18">
-        <f>E12*0.00001</f>
+      <c r="H14" s="18">
+        <f>E14*0.00001</f>
         <v>0.30599999999999999</v>
       </c>
-      <c r="I12" s="18">
-        <f>(F12+G12+H12)*0.07</f>
+      <c r="I14" s="18">
+        <f>(F14+G14+H14)*0.07</f>
         <v>4.4339399999999998</v>
       </c>
-      <c r="J12" s="18">
-        <f>E12+F12+I12+G12+H12</f>
+      <c r="J14" s="18">
+        <f>E14+F14+I14+G14+H14</f>
         <v>30667.775939999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="1" customFormat="1">
-      <c r="A13" s="49">
-        <v>45086</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="16">
-        <f>C12</f>
-        <v>3000</v>
-      </c>
-      <c r="D13" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="E13" s="17">
-        <f>C13*D13</f>
-        <v>33600</v>
-      </c>
-      <c r="F13" s="27">
-        <f>E13*0.002</f>
-        <v>67.2</v>
-      </c>
-      <c r="G13" s="26">
-        <f>E13*0.000068</f>
-        <v>2.2848000000000002</v>
-      </c>
-      <c r="H13" s="26">
-        <f>E13*0.00001</f>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="I13" s="26">
-        <f>(F13+G13+H13)*0.07</f>
-        <v>4.8874560000000011</v>
-      </c>
-      <c r="J13" s="26">
-        <f>E13-F13-G13-H13-I13</f>
-        <v>33525.291744000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
-      <c r="A14" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="12">
-        <f>(D13-D12)/D12</f>
-        <v>9.8039215686274522E-2</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18">
-        <f>E13-E12</f>
-        <v>3000.0000000000036</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18">
-        <f>J13-J12</f>
-        <v>2857.515804000006</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1">
       <c r="A15" s="49">
+        <v>45086</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16">
+        <f>C14</f>
+        <v>3000</v>
+      </c>
+      <c r="D15" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C15*D15</f>
+        <v>33600</v>
+      </c>
+      <c r="F15" s="27">
+        <f>E15*0.002</f>
+        <v>67.2</v>
+      </c>
+      <c r="G15" s="26">
+        <f>E15*0.000068</f>
+        <v>2.2848000000000002</v>
+      </c>
+      <c r="H15" s="26">
+        <f>E15*0.00001</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I15" s="26">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>4.8874560000000011</v>
+      </c>
+      <c r="J15" s="26">
+        <f>E15-F15-G15-H15-I15</f>
+        <v>33525.291744000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1">
+      <c r="A16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12">
+        <f>(D15-D14)/D14</f>
+        <v>9.8039215686274522E-2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18">
+        <f>E15-E14</f>
+        <v>3000.0000000000036</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
+        <f>J15-J14</f>
+        <v>2857.515804000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1">
+      <c r="A17" s="49">
         <v>45489</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16">
+      <c r="B17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="16">
         <v>3000</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D17" s="41">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E15" s="68">
-        <f>C15*D15</f>
+      <c r="E17" s="68">
+        <f>C17*D17</f>
         <v>13799.999999999998</v>
       </c>
-      <c r="F15" s="18">
-        <f>E15*0.002</f>
+      <c r="F17" s="18">
+        <f>E17*0.002</f>
         <v>27.599999999999998</v>
       </c>
-      <c r="G15" s="18">
-        <f>E15*0.00006</f>
+      <c r="G17" s="18">
+        <f>E17*0.00006</f>
         <v>0.82799999999999996</v>
       </c>
-      <c r="H15" s="18">
-        <f>E15*0.00001</f>
+      <c r="H17" s="18">
+        <f>E17*0.00001</f>
         <v>0.13799999999999998</v>
       </c>
-      <c r="I15" s="18">
-        <f>(F15+G15+H15)*0.07</f>
+      <c r="I17" s="18">
+        <f>(F17+G17+H17)*0.07</f>
         <v>1.9996200000000002</v>
       </c>
-      <c r="J15" s="68">
-        <f>E15+F15+I15+G15+H15</f>
+      <c r="J17" s="68">
+        <f>E17+F17+I17+G17+H17</f>
         <v>13830.565619999999</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
-      <c r="A16" s="49">
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A18" s="49">
         <v>45541</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="16">
-        <f>C15</f>
+      <c r="C18" s="16">
+        <f>C17</f>
         <v>3000</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D18" s="26">
         <v>5.6</v>
       </c>
-      <c r="E16" s="17">
-        <f>C16*D16</f>
+      <c r="E18" s="17">
+        <f>C18*D18</f>
         <v>16800</v>
       </c>
-      <c r="F16" s="27">
-        <f>E16*0.002</f>
+      <c r="F18" s="27">
+        <f>E18*0.002</f>
         <v>33.6</v>
       </c>
-      <c r="G16" s="26">
-        <f>E16*0.000068</f>
+      <c r="G18" s="26">
+        <f>E18*0.000068</f>
         <v>1.1424000000000001</v>
       </c>
-      <c r="H16" s="26">
-        <f>E16*0.00001</f>
+      <c r="H18" s="26">
+        <f>E18*0.00001</f>
         <v>0.16800000000000001</v>
       </c>
-      <c r="I16" s="26">
-        <f>(F16+G16+H16)*0.07</f>
+      <c r="I18" s="26">
+        <f>(F18+G18+H18)*0.07</f>
         <v>2.4437280000000006</v>
       </c>
-      <c r="J16" s="26">
-        <f>E16-F16-G16-H16-I16</f>
+      <c r="J18" s="26">
+        <f>E18-F18-G18-H18-I18</f>
         <v>16762.645872000001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A17" s="49" t="s">
+    <row r="19" spans="1:15" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A19" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="30">
-        <f>(D16-D15)/D15</f>
+      <c r="B19" s="30">
+        <f>(D18-D17)/D17</f>
         <v>0.21739130434782611</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18">
-        <f>E16-E15</f>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18">
+        <f>E18-E17</f>
         <v>3000.0000000000018</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18">
-        <f>J16-J15</f>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <f>J18-J17</f>
         <v>2932.0802520000016</v>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="49">
-        <v>45561</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D18" s="41">
-        <v>5</v>
-      </c>
-      <c r="E18" s="68">
-        <f>C18*D18</f>
-        <v>25000</v>
-      </c>
-      <c r="F18" s="18">
-        <f>E18*0.002</f>
-        <v>50</v>
-      </c>
-      <c r="G18" s="18">
-        <f>E18*0.00006</f>
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="18">
-        <f>E18*0.00001</f>
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="18">
-        <f>(F18+G18+H18)*0.07</f>
-        <v>3.6225000000000005</v>
-      </c>
-      <c r="J18" s="68">
-        <f>E18+F18+I18+G18+H18</f>
-        <v>25055.372500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="55">
-        <v>45541</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10">
-        <f>C18</f>
-        <v>5000</v>
-      </c>
-      <c r="D19" s="34">
-        <v>5.6</v>
-      </c>
-      <c r="E19" s="11">
-        <f>C19*D19</f>
-        <v>28000</v>
-      </c>
-      <c r="F19" s="35">
-        <f>E19*0.002</f>
-        <v>56</v>
-      </c>
-      <c r="G19" s="34">
-        <f>E19*0.000068</f>
-        <v>1.9039999999999999</v>
-      </c>
-      <c r="H19" s="34">
-        <f>E19*0.00001</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I19" s="34">
-        <f>(F19+G19+H19)*0.07</f>
-        <v>4.0728800000000005</v>
-      </c>
-      <c r="J19" s="34">
-        <f>E19-F19-G19-H19-I19</f>
-        <v>27937.743120000003</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -17155,32 +16750,114 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="49">
+        <v>45561</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="41">
+        <v>5</v>
+      </c>
+      <c r="E20" s="68">
+        <f>C20*D20</f>
+        <v>25000</v>
+      </c>
+      <c r="F20" s="18">
+        <f>E20*0.002</f>
+        <v>50</v>
+      </c>
+      <c r="G20" s="18">
+        <f>E20*0.00006</f>
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="18">
+        <f>E20*0.00001</f>
+        <v>0.25</v>
+      </c>
+      <c r="I20" s="18">
+        <f>(F20+G20+H20)*0.07</f>
+        <v>3.6225000000000005</v>
+      </c>
+      <c r="J20" s="68">
+        <f>E20+F20+I20+G20+H20</f>
+        <v>25055.372500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="55">
+        <v>45541</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <f>C20</f>
+        <v>5000</v>
+      </c>
+      <c r="D21" s="34">
+        <v>5.6</v>
+      </c>
+      <c r="E21" s="11">
+        <f>C21*D21</f>
+        <v>28000</v>
+      </c>
+      <c r="F21" s="35">
+        <f>E21*0.002</f>
+        <v>56</v>
+      </c>
+      <c r="G21" s="34">
+        <f>E21*0.000068</f>
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="H21" s="34">
+        <f>E21*0.00001</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I21" s="34">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>4.0728800000000005</v>
+      </c>
+      <c r="J21" s="34">
+        <f>E21-F21-G21-H21-I21</f>
+        <v>27937.743120000003</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="12">
-        <f>(D19-D18)/D18</f>
+      <c r="B22" s="12">
+        <f>(D21-D20)/D20</f>
         <v>0.11999999999999993</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="20">
-        <f>E19-E18</f>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="20">
+        <f>E21-E20</f>
         <v>3000</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20">
-        <f>J19-J18</f>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20">
+        <f>J21-J20</f>
         <v>2882.3706200000015</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -17190,7 +16867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8F5AF-E88A-4677-AEAF-7B4DD5AE4F27}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -17218,7 +16895,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -17409,7 +17086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
   <dimension ref="A1:N44"/>
   <sheetViews>
@@ -17437,7 +17114,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -19090,7 +18767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D376F-67DD-4980-BF1B-8A055D89D41A}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -19118,7 +18795,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -19410,7 +19087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
   <dimension ref="A1:M14"/>
   <sheetViews>
@@ -19438,7 +19115,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -19956,7 +19633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248C1A-0BE1-4664-895A-D29EA068DDA6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -19984,7 +19661,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="13" customFormat="1">
@@ -20267,7 +19944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
   <dimension ref="A1:M35"/>
   <sheetViews>
@@ -20295,7 +19972,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -21498,6 +21175,551 @@
         <v>2035.2847049999909</v>
       </c>
       <c r="K35" s="12"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="19" customFormat="1" ht="15.6">
+      <c r="A2" s="49">
+        <v>45113</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="41">
+        <v>7.55</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>75500</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>151</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>4.53</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.75500000000000012</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>10.939950000000001</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>75667.224950000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="21" customFormat="1">
+      <c r="A3" s="14">
+        <v>45132</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="41">
+        <v>7.45</v>
+      </c>
+      <c r="E3" s="18">
+        <f>C3*D3</f>
+        <v>74500</v>
+      </c>
+      <c r="F3" s="18">
+        <f>E3*0.002</f>
+        <v>149</v>
+      </c>
+      <c r="G3" s="18">
+        <f>E3*0.000068</f>
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="H3" s="18">
+        <f>E3*0.00001</f>
+        <v>0.74500000000000011</v>
+      </c>
+      <c r="I3" s="18">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>10.836770000000001</v>
+      </c>
+      <c r="J3" s="18">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>74665.647769999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="21" customFormat="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="73">
+        <f>(D3-D2)/D2</f>
+        <v>-1.3245033112582735E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(C2:C3)</f>
+        <v>20000</v>
+      </c>
+      <c r="D4" s="36">
+        <f>E4/C4</f>
+        <v>7.5</v>
+      </c>
+      <c r="E4" s="48">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>150000</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>9.5960000000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>21.776720000000005</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>150332.87271999998</v>
+      </c>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" s="21" customFormat="1">
+      <c r="A5" s="8">
+        <v>45218</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="46">
+        <v>6</v>
+      </c>
+      <c r="E5" s="20">
+        <f>C5*D5</f>
+        <v>30000</v>
+      </c>
+      <c r="F5" s="20">
+        <f>E5*0.002</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="20">
+        <f>E5*0.000068</f>
+        <v>2.04</v>
+      </c>
+      <c r="H5" s="20">
+        <f>E5*0.00001</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I5" s="20">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>4.3638000000000003</v>
+      </c>
+      <c r="J5" s="20">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>30066.703799999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="21" customFormat="1">
+      <c r="A6" s="44"/>
+      <c r="B6" s="3">
+        <f>(D5-D4)/D4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="C6" s="22">
+        <f>SUM(C4:C5)</f>
+        <v>25000</v>
+      </c>
+      <c r="D6" s="33">
+        <f>E6/C6</f>
+        <v>7.2</v>
+      </c>
+      <c r="E6" s="22">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>180000</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>11.635999999999999</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>26.140520000000006</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
+        <v>180399.57651999997</v>
+      </c>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" s="21" customFormat="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" s="21" customFormat="1">
+      <c r="A8" s="14">
+        <v>45272</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2500</v>
+      </c>
+      <c r="D8" s="41">
+        <v>6.35</v>
+      </c>
+      <c r="E8" s="18">
+        <f>C8*D8</f>
+        <v>15875</v>
+      </c>
+      <c r="F8" s="18">
+        <f>E8*0.002</f>
+        <v>31.75</v>
+      </c>
+      <c r="G8" s="18">
+        <f>E8*0.000068</f>
+        <v>1.0794999999999999</v>
+      </c>
+      <c r="H8" s="18">
+        <f>E8*0.00001</f>
+        <v>0.15875</v>
+      </c>
+      <c r="I8" s="18">
+        <f>(F8+G8+H8)*0.07</f>
+        <v>2.3091775000000001</v>
+      </c>
+      <c r="J8" s="18">
+        <f>E8+F8+I8+G8+H8</f>
+        <v>15910.2974275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="13" customFormat="1">
+      <c r="A9" s="14">
+        <v>44867</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16">
+        <f>C8</f>
+        <v>2500</v>
+      </c>
+      <c r="D9" s="26">
+        <v>6.7</v>
+      </c>
+      <c r="E9" s="17">
+        <f>C9*D9</f>
+        <v>16750</v>
+      </c>
+      <c r="F9" s="27">
+        <f>E9*0.002</f>
+        <v>33.5</v>
+      </c>
+      <c r="G9" s="26">
+        <f>E9*0.000068</f>
+        <v>1.139</v>
+      </c>
+      <c r="H9" s="26">
+        <f>E9*0.00001</f>
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="I9" s="26">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>2.436455</v>
+      </c>
+      <c r="J9" s="26">
+        <f>E9-F9-G9-H9-I9</f>
+        <v>16712.757045000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7">
+        <f>J10/J8</f>
+        <v>5.043649379633839E-2</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18">
+        <f>E9-E8</f>
+        <v>875</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
+        <f>J9-J8</f>
+        <v>802.45961750000242</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" s="21" customFormat="1">
+      <c r="A11" s="14">
+        <v>45218</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="41">
+        <v>6.6</v>
+      </c>
+      <c r="E11" s="18">
+        <f>C11*D11</f>
+        <v>16500</v>
+      </c>
+      <c r="F11" s="18">
+        <f>E11*0.002</f>
+        <v>33</v>
+      </c>
+      <c r="G11" s="18">
+        <f>E11*0.000068</f>
+        <v>1.1219999999999999</v>
+      </c>
+      <c r="H11" s="18">
+        <f>E11*0.00001</f>
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="I11" s="18">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>2.4000900000000001</v>
+      </c>
+      <c r="J11" s="18">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>16536.687089999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="13" customFormat="1">
+      <c r="A12" s="14">
+        <v>45295</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="16">
+        <f>C11</f>
+        <v>2500</v>
+      </c>
+      <c r="D12" s="26">
+        <v>7</v>
+      </c>
+      <c r="E12" s="17">
+        <f>C12*D12</f>
+        <v>17500</v>
+      </c>
+      <c r="F12" s="27">
+        <f>E12*0.002</f>
+        <v>35</v>
+      </c>
+      <c r="G12" s="26">
+        <f>E12*0.000068</f>
+        <v>1.19</v>
+      </c>
+      <c r="H12" s="26">
+        <f>E12*0.00001</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="I12" s="26">
+        <f>(F12+G12+H12)*0.07</f>
+        <v>2.54555</v>
+      </c>
+      <c r="J12" s="26">
+        <f>E12-F12-G12-H12-I12</f>
+        <v>17461.089450000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <f>J13/J11</f>
+        <v>5.5900093831914174E-2</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18">
+        <f>E12-E11</f>
+        <v>1000</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18">
+        <f>J12-J11</f>
+        <v>924.40236000000368</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" s="21" customFormat="1">
+      <c r="A14" s="14">
+        <v>45132</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2500</v>
+      </c>
+      <c r="D14" s="41">
+        <v>7.45</v>
+      </c>
+      <c r="E14" s="18">
+        <f>C14*D14</f>
+        <v>18625</v>
+      </c>
+      <c r="F14" s="18">
+        <f>E14*0.002</f>
+        <v>37.25</v>
+      </c>
+      <c r="G14" s="18">
+        <f>E14*0.000068</f>
+        <v>1.2665</v>
+      </c>
+      <c r="H14" s="18">
+        <f>E14*0.00001</f>
+        <v>0.18625000000000003</v>
+      </c>
+      <c r="I14" s="18">
+        <f>(F14+G14+H14)*0.07</f>
+        <v>2.7091925000000003</v>
+      </c>
+      <c r="J14" s="18">
+        <f>E14+F14+I14+G14+H14</f>
+        <v>18666.411942499999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="13" customFormat="1">
+      <c r="A15" s="8">
+        <v>45295</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10">
+        <f>C14</f>
+        <v>2500</v>
+      </c>
+      <c r="D15" s="34">
+        <v>7.9</v>
+      </c>
+      <c r="E15" s="11">
+        <f>C15*D15</f>
+        <v>19750</v>
+      </c>
+      <c r="F15" s="35">
+        <f>E15*0.002</f>
+        <v>39.5</v>
+      </c>
+      <c r="G15" s="34">
+        <f>E15*0.000068</f>
+        <v>1.343</v>
+      </c>
+      <c r="H15" s="34">
+        <f>E15*0.00001</f>
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="I15" s="34">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>2.8728350000000002</v>
+      </c>
+      <c r="J15" s="34">
+        <f>E15-F15-G15-H15-I15</f>
+        <v>19706.086665000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="25">
+        <f>J16/J14</f>
+        <v>5.5697620180172644E-2</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20">
+        <f>E15-E14</f>
+        <v>1125</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <f>J15-J14</f>
+        <v>1039.6747225000036</v>
+      </c>
+      <c r="K16" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -23491,551 +23713,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" ht="15.6">
-      <c r="A2" s="49">
-        <v>45113</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="41">
-        <v>7.55</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>75500</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>151</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>4.53</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.75500000000000012</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>10.939950000000001</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>75667.224950000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="21" customFormat="1">
-      <c r="A3" s="14">
-        <v>45132</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="41">
-        <v>7.45</v>
-      </c>
-      <c r="E3" s="18">
-        <f>C3*D3</f>
-        <v>74500</v>
-      </c>
-      <c r="F3" s="18">
-        <f>E3*0.002</f>
-        <v>149</v>
-      </c>
-      <c r="G3" s="18">
-        <f>E3*0.000068</f>
-        <v>5.0659999999999998</v>
-      </c>
-      <c r="H3" s="18">
-        <f>E3*0.00001</f>
-        <v>0.74500000000000011</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>10.836770000000001</v>
-      </c>
-      <c r="J3" s="18">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>74665.647769999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="21" customFormat="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="73">
-        <f>(D3-D2)/D2</f>
-        <v>-1.3245033112582735E-2</v>
-      </c>
-      <c r="C4" s="5">
-        <f>SUM(C2:C3)</f>
-        <v>20000</v>
-      </c>
-      <c r="D4" s="36">
-        <f>E4/C4</f>
-        <v>7.5</v>
-      </c>
-      <c r="E4" s="48">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>150000</v>
-      </c>
-      <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>9.5960000000000001</v>
-      </c>
-      <c r="H4" s="5">
-        <f t="shared" si="0"/>
-        <v>1.5000000000000002</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="0"/>
-        <v>21.776720000000005</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" si="0"/>
-        <v>150332.87271999998</v>
-      </c>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" s="21" customFormat="1">
-      <c r="A5" s="8">
-        <v>45218</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="46">
-        <v>6</v>
-      </c>
-      <c r="E5" s="20">
-        <f>C5*D5</f>
-        <v>30000</v>
-      </c>
-      <c r="F5" s="20">
-        <f>E5*0.002</f>
-        <v>60</v>
-      </c>
-      <c r="G5" s="20">
-        <f>E5*0.000068</f>
-        <v>2.04</v>
-      </c>
-      <c r="H5" s="20">
-        <f>E5*0.00001</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I5" s="20">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>4.3638000000000003</v>
-      </c>
-      <c r="J5" s="20">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>30066.703799999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="21" customFormat="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="3">
-        <f>(D5-D4)/D4</f>
-        <v>-0.2</v>
-      </c>
-      <c r="C6" s="22">
-        <f>SUM(C4:C5)</f>
-        <v>25000</v>
-      </c>
-      <c r="D6" s="33">
-        <f>E6/C6</f>
-        <v>7.2</v>
-      </c>
-      <c r="E6" s="22">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>180000</v>
-      </c>
-      <c r="F6" s="22">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="G6" s="22">
-        <f t="shared" si="1"/>
-        <v>11.635999999999999</v>
-      </c>
-      <c r="H6" s="22">
-        <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
-      </c>
-      <c r="I6" s="22">
-        <f t="shared" si="1"/>
-        <v>26.140520000000006</v>
-      </c>
-      <c r="J6" s="22">
-        <f t="shared" si="1"/>
-        <v>180399.57651999997</v>
-      </c>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:11" s="21" customFormat="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:11" s="21" customFormat="1">
-      <c r="A8" s="14">
-        <v>45272</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>2500</v>
-      </c>
-      <c r="D8" s="41">
-        <v>6.35</v>
-      </c>
-      <c r="E8" s="18">
-        <f>C8*D8</f>
-        <v>15875</v>
-      </c>
-      <c r="F8" s="18">
-        <f>E8*0.002</f>
-        <v>31.75</v>
-      </c>
-      <c r="G8" s="18">
-        <f>E8*0.000068</f>
-        <v>1.0794999999999999</v>
-      </c>
-      <c r="H8" s="18">
-        <f>E8*0.00001</f>
-        <v>0.15875</v>
-      </c>
-      <c r="I8" s="18">
-        <f>(F8+G8+H8)*0.07</f>
-        <v>2.3091775000000001</v>
-      </c>
-      <c r="J8" s="18">
-        <f>E8+F8+I8+G8+H8</f>
-        <v>15910.2974275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="13" customFormat="1">
-      <c r="A9" s="14">
-        <v>44867</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16">
-        <f>C8</f>
-        <v>2500</v>
-      </c>
-      <c r="D9" s="26">
-        <v>6.7</v>
-      </c>
-      <c r="E9" s="17">
-        <f>C9*D9</f>
-        <v>16750</v>
-      </c>
-      <c r="F9" s="27">
-        <f>E9*0.002</f>
-        <v>33.5</v>
-      </c>
-      <c r="G9" s="26">
-        <f>E9*0.000068</f>
-        <v>1.139</v>
-      </c>
-      <c r="H9" s="26">
-        <f>E9*0.00001</f>
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="I9" s="26">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>2.436455</v>
-      </c>
-      <c r="J9" s="26">
-        <f>E9-F9-G9-H9-I9</f>
-        <v>16712.757045000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <f>J10/J8</f>
-        <v>5.043649379633839E-2</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18">
-        <f>E9-E8</f>
-        <v>875</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18">
-        <f>J9-J8</f>
-        <v>802.45961750000242</v>
-      </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" s="21" customFormat="1">
-      <c r="A11" s="14">
-        <v>45218</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="41">
-        <v>6.6</v>
-      </c>
-      <c r="E11" s="18">
-        <f>C11*D11</f>
-        <v>16500</v>
-      </c>
-      <c r="F11" s="18">
-        <f>E11*0.002</f>
-        <v>33</v>
-      </c>
-      <c r="G11" s="18">
-        <f>E11*0.000068</f>
-        <v>1.1219999999999999</v>
-      </c>
-      <c r="H11" s="18">
-        <f>E11*0.00001</f>
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I11" s="18">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>2.4000900000000001</v>
-      </c>
-      <c r="J11" s="18">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>16536.687089999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="13" customFormat="1">
-      <c r="A12" s="14">
-        <v>45295</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="16">
-        <f>C11</f>
-        <v>2500</v>
-      </c>
-      <c r="D12" s="26">
-        <v>7</v>
-      </c>
-      <c r="E12" s="17">
-        <f>C12*D12</f>
-        <v>17500</v>
-      </c>
-      <c r="F12" s="27">
-        <f>E12*0.002</f>
-        <v>35</v>
-      </c>
-      <c r="G12" s="26">
-        <f>E12*0.000068</f>
-        <v>1.19</v>
-      </c>
-      <c r="H12" s="26">
-        <f>E12*0.00001</f>
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="I12" s="26">
-        <f>(F12+G12+H12)*0.07</f>
-        <v>2.54555</v>
-      </c>
-      <c r="J12" s="26">
-        <f>E12-F12-G12-H12-I12</f>
-        <v>17461.089450000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A13" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7">
-        <f>J13/J11</f>
-        <v>5.5900093831914174E-2</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18">
-        <f>E12-E11</f>
-        <v>1000</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18">
-        <f>J12-J11</f>
-        <v>924.40236000000368</v>
-      </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" s="21" customFormat="1">
-      <c r="A14" s="14">
-        <v>45132</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <v>2500</v>
-      </c>
-      <c r="D14" s="41">
-        <v>7.45</v>
-      </c>
-      <c r="E14" s="18">
-        <f>C14*D14</f>
-        <v>18625</v>
-      </c>
-      <c r="F14" s="18">
-        <f>E14*0.002</f>
-        <v>37.25</v>
-      </c>
-      <c r="G14" s="18">
-        <f>E14*0.000068</f>
-        <v>1.2665</v>
-      </c>
-      <c r="H14" s="18">
-        <f>E14*0.00001</f>
-        <v>0.18625000000000003</v>
-      </c>
-      <c r="I14" s="18">
-        <f>(F14+G14+H14)*0.07</f>
-        <v>2.7091925000000003</v>
-      </c>
-      <c r="J14" s="18">
-        <f>E14+F14+I14+G14+H14</f>
-        <v>18666.411942499999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="13" customFormat="1">
-      <c r="A15" s="8">
-        <v>45295</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="10">
-        <f>C14</f>
-        <v>2500</v>
-      </c>
-      <c r="D15" s="34">
-        <v>7.9</v>
-      </c>
-      <c r="E15" s="11">
-        <f>C15*D15</f>
-        <v>19750</v>
-      </c>
-      <c r="F15" s="35">
-        <f>E15*0.002</f>
-        <v>39.5</v>
-      </c>
-      <c r="G15" s="34">
-        <f>E15*0.000068</f>
-        <v>1.343</v>
-      </c>
-      <c r="H15" s="34">
-        <f>E15*0.00001</f>
-        <v>0.19750000000000001</v>
-      </c>
-      <c r="I15" s="34">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>2.8728350000000002</v>
-      </c>
-      <c r="J15" s="34">
-        <f>E15-F15-G15-H15-I15</f>
-        <v>19706.086665000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="25">
-        <f>J16/J14</f>
-        <v>5.5697620180172644E-2</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="20">
-        <f>E15-E14</f>
-        <v>1125</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20">
-        <f>J15-J14</f>
-        <v>1039.6747225000036</v>
-      </c>
-      <c r="K16" s="12"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC4F4F3-83CC-4355-B28D-286BFFC2FE1C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -24063,7 +23740,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1">
@@ -24499,7 +24176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -24527,7 +24204,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1">
@@ -24798,7 +24475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -24938,7 +24615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D35EBD-FACE-4A0A-BE47-8E8EEE95DB23}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -24966,7 +24643,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="19" customFormat="1" ht="15.6">
@@ -25641,7 +25318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38AEBDA-97A4-44E7-92FF-AB904E0EA610}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -25672,7 +25349,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1">
@@ -25895,21 +25572,21 @@
       <c r="A8" s="49">
         <v>45524</v>
       </c>
-      <c r="B8" s="104"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="16">
         <v>5000</v>
       </c>
       <c r="D8" s="40">
         <v>0.193</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="105"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="106">
+      <c r="I8" s="105">
         <v>965</v>
       </c>
-      <c r="J8" s="106">
+      <c r="J8" s="105">
         <v>868.5</v>
       </c>
       <c r="K8" s="11"/>
@@ -26029,7 +25706,7 @@
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
-      <c r="J13" s="107">
+      <c r="J13" s="106">
         <v>8160.9745699999985</v>
       </c>
       <c r="K13" s="1"/>
@@ -26041,21 +25718,21 @@
       <c r="A14" s="49">
         <v>45524</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="16">
         <v>5000</v>
       </c>
       <c r="D14" s="40">
         <v>0.193</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="105"/>
+      <c r="G14" s="104"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="106">
+      <c r="I14" s="105">
         <v>965</v>
       </c>
-      <c r="J14" s="106">
+      <c r="J14" s="105">
         <v>868.5</v>
       </c>
       <c r="K14" s="11"/>
@@ -26073,7 +25750,7 @@
       <c r="C15" s="16">
         <v>5000</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="101">
         <v>8.8000000000000007</v>
       </c>
       <c r="E15" s="18">
@@ -26182,7 +25859,7 @@
       <c r="G19" s="99"/>
       <c r="H19" s="99"/>
       <c r="I19" s="99"/>
-      <c r="J19" s="107">
+      <c r="J19" s="106">
         <v>8156.1595699999962</v>
       </c>
       <c r="K19" s="1"/>
@@ -27743,7 +27420,7 @@
       <c r="C3" s="16">
         <v>2500</v>
       </c>
-      <c r="D3" s="103">
+      <c r="D3" s="102">
         <v>10.5</v>
       </c>
       <c r="E3" s="18">
@@ -27955,7 +27632,7 @@
       <c r="C9" s="10">
         <v>2500</v>
       </c>
-      <c r="D9" s="108">
+      <c r="D9" s="107">
         <v>10.5</v>
       </c>
       <c r="E9" s="20">
@@ -28189,7 +27866,7 @@
       <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A4" s="104"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="74">
         <f>(D3-D2)/D2</f>
         <v>-0.61290322580645162</v>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A66528C-F392-4D23-8F78-B5A8495A52E2}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644376E4-FBC4-473D-93D4-757C6E1159E7}"/>
   <bookViews>
-    <workbookView xWindow="8256" yWindow="420" windowWidth="14784" windowHeight="11364" tabRatio="461" firstSheet="19" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="12336" tabRatio="461" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -13096,10 +13096,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13107,9 +13107,9 @@
     <col min="1" max="1" width="10.6640625" style="44" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" style="21" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="21" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="21" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" style="21" customWidth="1"/>
@@ -14981,381 +14981,458 @@
       </c>
     </row>
     <row r="56" spans="1:10" s="13" customFormat="1">
-      <c r="A56" s="8">
-        <v>44740</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D56" s="63">
-        <v>5.8</v>
-      </c>
-      <c r="E56" s="20">
+      <c r="A56" s="14">
+        <v>45709</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D56" s="40">
+        <v>7.3</v>
+      </c>
+      <c r="E56" s="18">
         <f>C56*D56</f>
-        <v>29000</v>
-      </c>
-      <c r="F56" s="20">
+        <v>43800</v>
+      </c>
+      <c r="F56" s="18">
         <f>E56*0.002</f>
-        <v>58</v>
-      </c>
-      <c r="G56" s="20">
+        <v>87.600000000000009</v>
+      </c>
+      <c r="G56" s="18">
         <f>E56*0.000068</f>
-        <v>1.972</v>
-      </c>
-      <c r="H56" s="20">
+        <v>2.9784000000000002</v>
+      </c>
+      <c r="H56" s="18">
         <f>E56*0.00001</f>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="I56" s="20">
+        <v>0.43800000000000006</v>
+      </c>
+      <c r="I56" s="18">
         <f>(F56+G56+H56)*0.07</f>
-        <v>4.2183400000000004</v>
-      </c>
-      <c r="J56" s="20">
+        <v>6.3711480000000007</v>
+      </c>
+      <c r="J56" s="18">
         <f>E56+F56+I56+G56+H56</f>
-        <v>29064.480340000002</v>
+        <v>43897.387547999999</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="B57" s="12">
+      <c r="A57" s="42"/>
+      <c r="B57" s="30">
         <f>(D56-D55)/D55</f>
-        <v>-0.62337662337662347</v>
-      </c>
-      <c r="C57" s="22">
+        <v>-0.52597402597402609</v>
+      </c>
+      <c r="C57" s="5">
         <f>SUM(C55:C56)</f>
-        <v>80000</v>
-      </c>
-      <c r="D57" s="64">
+        <v>81000</v>
+      </c>
+      <c r="D57" s="65">
         <f>E57/C57</f>
         <v>14.8</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="5">
         <f t="shared" ref="E57:J57" si="17">SUM(E55:E56)</f>
-        <v>1184000</v>
-      </c>
-      <c r="F57" s="22">
+        <v>1198800</v>
+      </c>
+      <c r="F57" s="5">
         <f t="shared" si="17"/>
-        <v>2368</v>
-      </c>
-      <c r="G57" s="22">
+        <v>2397.6</v>
+      </c>
+      <c r="G57" s="5">
         <f t="shared" si="17"/>
-        <v>80.512</v>
-      </c>
-      <c r="H57" s="22">
+        <v>81.5184</v>
+      </c>
+      <c r="H57" s="5">
         <f t="shared" si="17"/>
-        <v>11.84</v>
-      </c>
-      <c r="I57" s="22">
+        <v>11.988000000000001</v>
+      </c>
+      <c r="I57" s="5">
         <f t="shared" si="17"/>
-        <v>172.22464000000002</v>
-      </c>
-      <c r="J57" s="22">
+        <v>174.37744800000002</v>
+      </c>
+      <c r="J57" s="5">
         <f t="shared" si="17"/>
-        <v>1186632.5766399999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="13" customFormat="1">
-      <c r="A59" s="14">
+        <v>1201465.4838479999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="13" customFormat="1">
+      <c r="A58" s="8">
+        <v>45709</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="10">
+        <v>4000</v>
+      </c>
+      <c r="D58" s="63">
+        <v>6.3</v>
+      </c>
+      <c r="E58" s="20">
+        <f>C58*D58</f>
+        <v>25200</v>
+      </c>
+      <c r="F58" s="20">
+        <f>E58*0.002</f>
+        <v>50.4</v>
+      </c>
+      <c r="G58" s="20">
+        <f>E58*0.000068</f>
+        <v>1.7136</v>
+      </c>
+      <c r="H58" s="20">
+        <f>E58*0.00001</f>
+        <v>0.252</v>
+      </c>
+      <c r="I58" s="20">
+        <f>(F58+G58+H58)*0.07</f>
+        <v>3.6655920000000002</v>
+      </c>
+      <c r="J58" s="20">
+        <f>E58+F58+I58+G58+H58</f>
+        <v>25256.031192000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="12">
+        <f>(D58-D57)/D57</f>
+        <v>-0.57432432432432434</v>
+      </c>
+      <c r="C59" s="22">
+        <f>SUM(C57:C58)</f>
+        <v>85000</v>
+      </c>
+      <c r="D59" s="64">
+        <f>E59/C59</f>
+        <v>14.4</v>
+      </c>
+      <c r="E59" s="22">
+        <f t="shared" ref="E59:J59" si="18">SUM(E57:E58)</f>
+        <v>1224000</v>
+      </c>
+      <c r="F59" s="22">
+        <f t="shared" si="18"/>
+        <v>2448</v>
+      </c>
+      <c r="G59" s="22">
+        <f t="shared" si="18"/>
+        <v>83.231999999999999</v>
+      </c>
+      <c r="H59" s="22">
+        <f t="shared" si="18"/>
+        <v>12.240000000000002</v>
+      </c>
+      <c r="I59" s="22">
+        <f t="shared" si="18"/>
+        <v>178.04304000000002</v>
+      </c>
+      <c r="J59" s="22">
+        <f t="shared" si="18"/>
+        <v>1226721.51504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="13" customFormat="1">
+      <c r="A61" s="14">
         <v>44672</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="16">
+      <c r="B61" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="16">
         <v>15000</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D61" s="40">
         <v>12.1</v>
       </c>
-      <c r="E59" s="18">
-        <f>C59*D59</f>
+      <c r="E61" s="18">
+        <f>C61*D61</f>
         <v>181500</v>
       </c>
-      <c r="F59" s="18">
-        <f>E59*0.002</f>
+      <c r="F61" s="18">
+        <f>E61*0.002</f>
         <v>363</v>
       </c>
-      <c r="G59" s="18">
-        <f>E59*0.000068</f>
+      <c r="G61" s="18">
+        <f>E61*0.000068</f>
         <v>12.342000000000001</v>
       </c>
-      <c r="H59" s="18">
-        <f>E59*0.00001</f>
+      <c r="H61" s="18">
+        <f>E61*0.00001</f>
         <v>1.8150000000000002</v>
       </c>
-      <c r="I59" s="18">
-        <f>(F59+G59+H59)*0.07</f>
+      <c r="I61" s="18">
+        <f>(F61+G61+H61)*0.07</f>
         <v>26.40099</v>
       </c>
-      <c r="J59" s="18">
-        <f>E59+F59+I59+G59+H59</f>
+      <c r="J61" s="18">
+        <f>E61+F61+I61+G61+H61</f>
         <v>181903.55799</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="49">
+    <row r="62" spans="1:10">
+      <c r="A62" s="49">
         <v>44679</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B62" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="16">
-        <f>C59</f>
+      <c r="C62" s="16">
+        <f>C61</f>
         <v>15000</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D62" s="26">
         <v>12.5</v>
       </c>
-      <c r="E60" s="17">
-        <f>C60*D60</f>
+      <c r="E62" s="17">
+        <f>C62*D62</f>
         <v>187500</v>
       </c>
-      <c r="F60" s="27">
-        <f>E60*0.002</f>
+      <c r="F62" s="27">
+        <f>E62*0.002</f>
         <v>375</v>
       </c>
-      <c r="G60" s="26">
-        <f>E60*0.000068</f>
+      <c r="G62" s="26">
+        <f>E62*0.000068</f>
         <v>12.75</v>
       </c>
-      <c r="H60" s="26">
-        <f>E60*0.00001</f>
+      <c r="H62" s="26">
+        <f>E62*0.00001</f>
         <v>1.8750000000000002</v>
       </c>
-      <c r="I60" s="26">
-        <f>(F60+G60+H60)*0.07</f>
+      <c r="I62" s="26">
+        <f>(F62+G62+H62)*0.07</f>
         <v>27.273750000000003</v>
       </c>
-      <c r="J60" s="26">
-        <f>E60-F60-G60-H60-I60</f>
+      <c r="J62" s="26">
+        <f>E62-F62-G62-H62-I62</f>
         <v>187083.10125000001</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="28">
-        <f>DAYS360(A59,A60)</f>
+    <row r="63" spans="1:10">
+      <c r="A63" s="28">
+        <f>DAYS360(A61,A62)</f>
         <v>7</v>
       </c>
-      <c r="B61" s="30">
-        <f>(D60-D59)/D59</f>
+      <c r="B63" s="30">
+        <f>(D62-D61)/D61</f>
         <v>3.305785123966945E-2</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="18">
-        <f>E60-E59</f>
+      <c r="C63" s="16"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18">
+        <f>E62-E61</f>
         <v>6000</v>
       </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18">
-        <f>J60-J59</f>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18">
+        <f>J62-J61</f>
         <v>5179.5432600000058</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="13" customFormat="1">
-      <c r="A62" s="14">
+    <row r="64" spans="1:10" s="13" customFormat="1">
+      <c r="A64" s="14">
         <v>44740</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="16">
+      <c r="B64" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="16">
         <v>3000</v>
       </c>
-      <c r="D62" s="40">
+      <c r="D64" s="40">
         <v>7.6</v>
       </c>
-      <c r="E62" s="18">
-        <f>C62*D62</f>
+      <c r="E64" s="18">
+        <f>C64*D64</f>
         <v>22800</v>
       </c>
-      <c r="F62" s="18">
-        <f>E62*0.002</f>
+      <c r="F64" s="18">
+        <f>E64*0.002</f>
         <v>45.6</v>
       </c>
-      <c r="G62" s="18">
-        <f>E62*0.000068</f>
+      <c r="G64" s="18">
+        <f>E64*0.000068</f>
         <v>1.5504</v>
       </c>
-      <c r="H62" s="18">
-        <f>E62*0.00001</f>
+      <c r="H64" s="18">
+        <f>E64*0.00001</f>
         <v>0.22800000000000001</v>
       </c>
-      <c r="I62" s="18">
-        <f>(F62+G62+H62)*0.07</f>
+      <c r="I64" s="18">
+        <f>(F64+G64+H64)*0.07</f>
         <v>3.3164880000000005</v>
       </c>
-      <c r="J62" s="18">
-        <f>E62+F62+I62+G62+H62</f>
+      <c r="J64" s="18">
+        <f>E64+F64+I64+G64+H64</f>
         <v>22850.694887999998</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="49">
+    <row r="65" spans="1:10">
+      <c r="A65" s="49">
         <v>44741</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="16">
-        <f>C62</f>
+      <c r="C65" s="16">
+        <f>C64</f>
         <v>3000</v>
       </c>
-      <c r="D63" s="26">
+      <c r="D65" s="26">
         <v>11.7</v>
       </c>
-      <c r="E63" s="17">
-        <f>C63*D63</f>
+      <c r="E65" s="17">
+        <f>C65*D65</f>
         <v>35100</v>
       </c>
-      <c r="F63" s="27">
-        <f>E63*0.002</f>
+      <c r="F65" s="27">
+        <f>E65*0.002</f>
         <v>70.2</v>
       </c>
-      <c r="G63" s="26">
-        <f>E63*0.000068</f>
+      <c r="G65" s="26">
+        <f>E65*0.000068</f>
         <v>2.3868</v>
       </c>
-      <c r="H63" s="26">
-        <f>E63*0.00001</f>
+      <c r="H65" s="26">
+        <f>E65*0.00001</f>
         <v>0.35100000000000003</v>
       </c>
-      <c r="I63" s="26">
-        <f>(F63+G63+H63)*0.07</f>
+      <c r="I65" s="26">
+        <f>(F65+G65+H65)*0.07</f>
         <v>5.1056460000000001</v>
       </c>
-      <c r="J63" s="26">
-        <f>E63-F63-G63-H63-I63</f>
+      <c r="J65" s="26">
+        <f>E65-F65-G65-H65-I65</f>
         <v>35021.956553999997</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" s="28">
-        <f>DAYS360(A62,A63)</f>
-        <v>1</v>
-      </c>
-      <c r="B64" s="30">
-        <f>(D63-D62)/D62</f>
+    <row r="66" spans="1:10">
+      <c r="A66" s="28">
+        <f>DAYS360(A64,A65)</f>
+        <v>1</v>
+      </c>
+      <c r="B66" s="30">
+        <f>(D65-D64)/D64</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="18">
-        <f>E63-E62</f>
+      <c r="C66" s="16"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18">
+        <f>E65-E64</f>
         <v>12300</v>
       </c>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18">
-        <f>J63-J62</f>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18">
+        <f>J65-J64</f>
         <v>12171.261665999999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="15" customFormat="1">
-      <c r="A65" s="14">
+    <row r="67" spans="1:10" s="15" customFormat="1">
+      <c r="A67" s="14">
         <v>45063</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="16">
+      <c r="B67" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="16">
         <v>3000</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D67" s="40">
         <v>7.6</v>
       </c>
-      <c r="E65" s="18">
-        <f>C65*D65</f>
+      <c r="E67" s="18">
+        <f>C67*D67</f>
         <v>22800</v>
       </c>
-      <c r="F65" s="18">
-        <f>E65*0.002</f>
+      <c r="F67" s="18">
+        <f>E67*0.002</f>
         <v>45.6</v>
       </c>
-      <c r="G65" s="18">
-        <f>E65*0.000068</f>
+      <c r="G67" s="18">
+        <f>E67*0.000068</f>
         <v>1.5504</v>
       </c>
-      <c r="H65" s="18">
-        <f>E65*0.00001</f>
+      <c r="H67" s="18">
+        <f>E67*0.00001</f>
         <v>0.22800000000000001</v>
       </c>
-      <c r="I65" s="18">
-        <f>(F65+G65+H65)*0.07</f>
+      <c r="I67" s="18">
+        <f>(F67+G67+H67)*0.07</f>
         <v>3.3164880000000005</v>
       </c>
-      <c r="J65" s="18">
-        <f>E65+F65+I65+G65+H65</f>
+      <c r="J67" s="18">
+        <f>E67+F67+I67+G67+H67</f>
         <v>22850.694887999998</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="49">
+    <row r="68" spans="1:10">
+      <c r="A68" s="49">
         <v>45560</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B68" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="16">
-        <f>C65</f>
+      <c r="C68" s="16">
+        <f>C67</f>
         <v>3000</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D68" s="26">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E66" s="17">
-        <f>C66*D66</f>
+      <c r="E68" s="17">
+        <f>C68*D68</f>
         <v>24150.000000000004</v>
       </c>
-      <c r="F66" s="27">
-        <f>E66*0.002</f>
+      <c r="F68" s="27">
+        <f>E68*0.002</f>
         <v>48.300000000000011</v>
       </c>
-      <c r="G66" s="26">
-        <f>E66*0.000068</f>
+      <c r="G68" s="26">
+        <f>E68*0.000068</f>
         <v>1.6422000000000003</v>
       </c>
-      <c r="H66" s="26">
-        <f>E66*0.00001</f>
+      <c r="H68" s="26">
+        <f>E68*0.00001</f>
         <v>0.24150000000000005</v>
       </c>
-      <c r="I66" s="26">
-        <f>(F66+G66+H66)*0.07</f>
+      <c r="I68" s="26">
+        <f>(F68+G68+H68)*0.07</f>
         <v>3.5128590000000015</v>
       </c>
-      <c r="J66" s="26">
-        <f>E66-F66-G66-H66-I66</f>
+      <c r="J68" s="26">
+        <f>E68-F68-G68-H68-I68</f>
         <v>24096.303441000007</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="28">
-        <f>DAYS360(A65,A66)</f>
+    <row r="69" spans="1:10">
+      <c r="A69" s="28">
+        <f>DAYS360(A67,A68)</f>
         <v>488</v>
       </c>
-      <c r="B67" s="30">
-        <f>(D66-D65)/D65</f>
+      <c r="B69" s="30">
+        <f>(D68-D67)/D67</f>
         <v>5.9210526315789616E-2</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="18">
-        <f>E66-E65</f>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18">
+        <f>E68-E67</f>
         <v>1350.0000000000036</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18">
-        <f>J66-J65</f>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18">
+        <f>J68-J67</f>
         <v>1245.6085530000091</v>
       </c>
     </row>
@@ -16043,7 +16120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -21737,7 +21814,7 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -22074,31 +22151,31 @@
         <v>2500</v>
       </c>
       <c r="D9" s="46">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="E9" s="20">
         <f>C9*D9</f>
-        <v>43750</v>
+        <v>37500</v>
       </c>
       <c r="F9" s="20">
         <f>E9*0.002</f>
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="G9" s="20">
         <f>E9*0.00006</f>
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="H9" s="20">
         <f>E9*0.00001</f>
-        <v>0.43750000000000006</v>
+        <v>0.37500000000000006</v>
       </c>
       <c r="I9" s="20">
         <f>(F9+G9+H9)*0.07</f>
-        <v>6.3393750000000004</v>
+        <v>5.4337500000000007</v>
       </c>
       <c r="J9" s="20">
         <f>E9+F9+I9+G9+H9</f>
-        <v>43846.901875000003</v>
+        <v>37583.058749999997</v>
       </c>
       <c r="K9" s="56"/>
       <c r="L9" s="57"/>
@@ -22110,7 +22187,7 @@
       <c r="A10" s="50"/>
       <c r="B10" s="3">
         <f>(D9-D8)/D8</f>
-        <v>-0.41666666666666669</v>
+        <v>-0.5</v>
       </c>
       <c r="C10" s="2">
         <f>SUM(C8:C9)</f>
@@ -22118,31 +22195,31 @@
       </c>
       <c r="D10" s="47">
         <f>E10/C10</f>
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" ref="E10:J10" si="3">SUM(E8:E9)</f>
-        <v>343750</v>
+        <v>337500</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>687.5</v>
+        <v>675</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="3"/>
-        <v>20.625</v>
+        <v>20.25</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="3"/>
-        <v>3.4375</v>
+        <v>3.375</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="3"/>
-        <v>49.809375000000003</v>
+        <v>48.903750000000009</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="3"/>
-        <v>344511.37187500001</v>
+        <v>338247.52875000006</v>
       </c>
       <c r="K10" s="56"/>
       <c r="L10" s="57"/>
@@ -27757,10 +27834,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592824FF-B02C-4578-B01E-5589DADB9D1A}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:D7"/>
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -27769,12 +27846,12 @@
     <col min="2" max="2" width="7.109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="21"/>
     <col min="7" max="7" width="6.77734375" style="21" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="21"/>
     <col min="13" max="13" width="8.88671875" style="25"/>
@@ -27908,236 +27985,102 @@
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="66">
-        <v>45590</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1500</v>
-      </c>
-      <c r="D5" s="11">
-        <v>10</v>
-      </c>
-      <c r="E5" s="20">
-        <f>C5*D5</f>
-        <v>15000</v>
-      </c>
-      <c r="F5" s="20">
-        <f>E5*0.002</f>
-        <v>30</v>
-      </c>
-      <c r="G5" s="20">
-        <f>E5*0.00006</f>
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="20">
-        <f>E5*0.00001</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="I5" s="20">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>2.1735000000000002</v>
-      </c>
-      <c r="J5" s="20">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>15033.2235</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" ht="21">
-      <c r="A6" s="62"/>
-      <c r="B6" s="75">
-        <f>(D5-D4)/D4</f>
-        <v>-0.61904761904761907</v>
-      </c>
-      <c r="C6" s="10">
-        <f>SUM(C4:C5)</f>
-        <v>7500</v>
-      </c>
-      <c r="D6" s="63">
-        <f>E6/C6</f>
-        <v>23</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>172500</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="1"/>
-        <v>345</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="1"/>
-        <v>10.350000000000001</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="1"/>
-        <v>24.995250000000002</v>
-      </c>
-      <c r="J6" s="10">
-        <f t="shared" si="1"/>
-        <v>172882.07024999996</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="55"/>
-    </row>
-    <row r="8" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A8" s="55">
-        <v>44985</v>
-      </c>
-      <c r="C8" s="10">
-        <f>C2</f>
-        <v>4500</v>
-      </c>
-      <c r="D8" s="63">
-        <v>1.44</v>
-      </c>
-      <c r="E8" s="59">
-        <v>0</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0</v>
-      </c>
-      <c r="G8" s="59">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <f>G8-E8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="60">
-        <f>C8*D8</f>
-        <v>6480</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1">
-      <c r="A9" s="55">
+    <row r="5" spans="1:14" s="1" customFormat="1">
+      <c r="A5" s="49">
         <v>44627</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <f>C8</f>
-        <v>4500</v>
-      </c>
-      <c r="D9" s="46">
-        <f>D2</f>
-        <v>31</v>
-      </c>
-      <c r="E9" s="20">
-        <f>C9*D9</f>
-        <v>139500</v>
-      </c>
-      <c r="F9" s="20">
-        <f>E9*0.002</f>
-        <v>279</v>
-      </c>
-      <c r="G9" s="20">
-        <f>E9*0.00006</f>
-        <v>8.370000000000001</v>
-      </c>
-      <c r="H9" s="20">
-        <f>E9*0.00001</f>
-        <v>1.395</v>
-      </c>
-      <c r="I9" s="20">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>20.213550000000001</v>
-      </c>
-      <c r="J9" s="20">
-        <f>E9+F9+I9+G9+H9</f>
-        <v>139808.97854999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1">
-      <c r="A10" s="55">
-        <v>44277</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <f>C4</f>
+        <v>6000</v>
+      </c>
+      <c r="D5" s="41">
+        <v>26.25</v>
+      </c>
+      <c r="E5" s="18">
+        <v>157500</v>
+      </c>
+      <c r="F5" s="18">
+        <v>315</v>
+      </c>
+      <c r="G5" s="18">
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.575</v>
+      </c>
+      <c r="I5" s="18">
+        <v>22.821750000000002</v>
+      </c>
+      <c r="J5" s="18">
+        <v>157848.84674999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1">
+      <c r="A6" s="49">
+        <v>45705</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="10">
-        <f>C9</f>
-        <v>4500</v>
-      </c>
-      <c r="D10" s="34">
-        <v>31.25</v>
-      </c>
-      <c r="E10" s="11">
-        <f>C10*D10</f>
-        <v>140625</v>
-      </c>
-      <c r="F10" s="35">
-        <f>E10*0.002</f>
-        <v>281.25</v>
-      </c>
-      <c r="G10" s="34">
-        <f>E10*0.000068</f>
-        <v>9.5625</v>
-      </c>
-      <c r="H10" s="34">
-        <f>E10*0.00001</f>
-        <v>1.4062500000000002</v>
-      </c>
-      <c r="I10" s="34">
-        <f>(F10+G10+H10)*0.07</f>
-        <v>20.455312500000002</v>
-      </c>
-      <c r="J10" s="34">
-        <f>E10-F10-G10-H10-I10</f>
-        <v>140312.32593749999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1">
-      <c r="A11" s="55" t="s">
+      <c r="C6" s="16">
+        <f>C5</f>
+        <v>6000</v>
+      </c>
+      <c r="D6" s="26">
+        <v>7.35</v>
+      </c>
+      <c r="E6" s="17">
+        <f>C6*D6</f>
+        <v>44100</v>
+      </c>
+      <c r="F6" s="27">
+        <f>E6*0.002</f>
+        <v>88.2</v>
+      </c>
+      <c r="G6" s="26">
+        <f>E6*0.000068</f>
+        <v>2.9988000000000001</v>
+      </c>
+      <c r="H6" s="26">
+        <f>E6*0.00001</f>
+        <v>0.44100000000000006</v>
+      </c>
+      <c r="I6" s="26">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>6.4147860000000012</v>
+      </c>
+      <c r="J6" s="26">
+        <f>E6-F6-G6-H6-I6</f>
+        <v>44001.945414000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1">
+      <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="20">
-        <f>E10-E9</f>
-        <v>1125</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20">
-        <f>J10-J9</f>
-        <v>503.34738750001998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1">
-      <c r="A12" s="50"/>
-      <c r="D12" s="47"/>
-      <c r="J12" s="53">
-        <f>J8+J11</f>
-        <v>6983.34738750002</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18">
+        <f>E6-E5</f>
+        <v>-113400</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18">
+        <f>J6-J5</f>
+        <v>-113846.90133599997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="50"/>
+      <c r="D8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{644376E4-FBC4-473D-93D4-757C6E1159E7}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD072369-9B06-45E1-A399-3B1852053963}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17484" windowHeight="12336" tabRatio="461" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="132" yWindow="0" windowWidth="15912" windowHeight="12336" tabRatio="461" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="41">
   <si>
     <t>KCE</t>
   </si>
@@ -13098,7 +13098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -15448,8 +15448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -19166,17 +19166,16 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
+    <col min="2" max="3" width="7.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="64" customWidth="1"/>
     <col min="5" max="5" width="11.21875" style="21" customWidth="1"/>
     <col min="6" max="6" width="9" style="21"/>
@@ -19634,72 +19633,148 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="D13" s="63">
-        <v>1.92</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="E13" s="20">
         <f>C13*D13</f>
-        <v>13440</v>
+        <v>33600</v>
       </c>
       <c r="F13" s="20">
         <f>E13*0.002</f>
-        <v>26.88</v>
+        <v>67.2</v>
       </c>
       <c r="G13" s="20">
         <f>E13*0.00006</f>
-        <v>0.80640000000000001</v>
+        <v>2.016</v>
       </c>
       <c r="H13" s="20">
         <f>E13*0.00001</f>
-        <v>0.13440000000000002</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="I13" s="20">
         <f>(F13+G13+H13)*0.07</f>
-        <v>1.9474560000000001</v>
+        <v>4.868640000000001</v>
       </c>
       <c r="J13" s="20">
         <f>E13+F13+I13+G13+H13</f>
-        <v>13469.768255999999</v>
+        <v>33674.420640000004</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="25">
         <f>(D13-D12)/D12</f>
-        <v>-0.57142857142857151</v>
+        <v>-0.5</v>
       </c>
       <c r="C14" s="22">
         <f>SUM(C12:C13)</f>
-        <v>112000</v>
+        <v>120000</v>
       </c>
       <c r="D14" s="64">
         <f>E14/C14</f>
-        <v>4.32</v>
+        <v>4.2</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" ref="E14:J14" si="5">SUM(E12:E13)</f>
-        <v>483840</v>
+        <v>504000</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="5"/>
-        <v>967.68</v>
+        <v>1008</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="5"/>
-        <v>29.030400000000004</v>
+        <v>30.240000000000002</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="5"/>
-        <v>4.8384000000000009</v>
+        <v>5.0400000000000009</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="5"/>
-        <v>70.108416000000005</v>
+        <v>73.029600000000002</v>
       </c>
       <c r="J14" s="22">
         <f t="shared" si="5"/>
-        <v>484911.65721600002</v>
+        <v>505116.30960000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="66">
+        <v>44693</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>8000</v>
+      </c>
+      <c r="D15" s="63">
+        <v>1.96</v>
+      </c>
+      <c r="E15" s="20">
+        <f>C15*D15</f>
+        <v>15680</v>
+      </c>
+      <c r="F15" s="20">
+        <f>E15*0.002</f>
+        <v>31.36</v>
+      </c>
+      <c r="G15" s="20">
+        <f>E15*0.00006</f>
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="H15" s="20">
+        <f>E15*0.00001</f>
+        <v>0.15680000000000002</v>
+      </c>
+      <c r="I15" s="20">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>2.2720320000000003</v>
+      </c>
+      <c r="J15" s="20">
+        <f>E15+F15+I15+G15+H15</f>
+        <v>15714.729632000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="25">
+        <f>(D15-D14)/D14</f>
+        <v>-0.53333333333333333</v>
+      </c>
+      <c r="C16" s="22">
+        <f>SUM(C14:C15)</f>
+        <v>128000</v>
+      </c>
+      <c r="D16" s="64">
+        <f>E16/C16</f>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" ref="E16:J16" si="6">SUM(E14:E15)</f>
+        <v>519680</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="6"/>
+        <v>1039.3599999999999</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="6"/>
+        <v>31.180800000000001</v>
+      </c>
+      <c r="H16" s="22">
+        <f t="shared" si="6"/>
+        <v>5.1968000000000005</v>
+      </c>
+      <c r="I16" s="22">
+        <f t="shared" si="6"/>
+        <v>75.301631999999998</v>
+      </c>
+      <c r="J16" s="22">
+        <f t="shared" si="6"/>
+        <v>520831.03923200001</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD072369-9B06-45E1-A399-3B1852053963}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27ABDDDF-ECB1-4C12-9E7E-2F4249EF1BA8}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="0" windowWidth="15912" windowHeight="12336" tabRatio="461" firstSheet="20" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="22104" windowHeight="10476" tabRatio="461" firstSheet="18" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="41">
   <si>
     <t>KCE</t>
   </si>
@@ -861,8 +861,8 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -2350,37 +2350,37 @@
         <v>1000</v>
       </c>
       <c r="D41" s="46">
-        <v>22.8</v>
+        <v>14</v>
       </c>
       <c r="E41" s="20">
         <f>C41*D41</f>
-        <v>22800</v>
+        <v>14000</v>
       </c>
       <c r="F41" s="20">
         <f>E41*0.002</f>
-        <v>45.6</v>
+        <v>28</v>
       </c>
       <c r="G41" s="20">
         <f>E41*0.00006</f>
-        <v>1.3680000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="H41" s="20">
         <f>E41*0.00001</f>
-        <v>0.22800000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I41" s="20">
         <f>(F41+G41+H41)*0.07</f>
-        <v>3.3037200000000007</v>
+        <v>2.0286000000000004</v>
       </c>
       <c r="J41" s="20">
         <f>E41+F41+I41+G41+H41</f>
-        <v>22850.499719999996</v>
+        <v>14031.008599999999</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="B42" s="3">
         <f>(D41-D40)/D40</f>
-        <v>-0.7048543689320389</v>
+        <v>-0.81877022653721687</v>
       </c>
       <c r="C42" s="2">
         <f>SUM(C40:C41)</f>
@@ -2388,31 +2388,31 @@
       </c>
       <c r="D42" s="47">
         <f>E42/C42</f>
-        <v>72.3</v>
+        <v>71.5</v>
       </c>
       <c r="E42" s="2">
         <f t="shared" ref="E42:J42" si="9">SUM(E40:E41)</f>
-        <v>795300</v>
+        <v>786500</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="9"/>
-        <v>1590.6</v>
+        <v>1573</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="9"/>
-        <v>47.718000000000004</v>
+        <v>47.190000000000005</v>
       </c>
       <c r="H42" s="2">
         <f t="shared" si="9"/>
-        <v>7.9530000000000012</v>
+        <v>7.8650000000000011</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" si="9"/>
-        <v>115.23896999999999</v>
+        <v>113.96384999999999</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="9"/>
-        <v>797061.5099699999</v>
+        <v>788242.01884999988</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="19" customFormat="1" ht="15.6">
@@ -4942,7 +4942,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -6723,31 +6723,31 @@
         <v>5000</v>
       </c>
       <c r="D49" s="46">
-        <v>8.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="E49" s="20">
         <f>C49*D49</f>
-        <v>41500</v>
+        <v>33500</v>
       </c>
       <c r="F49" s="20">
         <f>E49*0.002</f>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G49" s="20">
         <f>E49*0.000068</f>
-        <v>2.8220000000000001</v>
+        <v>2.278</v>
       </c>
       <c r="H49" s="20">
         <f>E49*0.00001</f>
-        <v>0.41500000000000004</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I49" s="20">
         <f>(F49+G49+H49)*0.07</f>
-        <v>6.0365900000000012</v>
+        <v>4.8729100000000001</v>
       </c>
       <c r="J49" s="20">
         <f>E49+F49+I49+G49+H49</f>
-        <v>41592.273590000004</v>
+        <v>33574.485909999996</v>
       </c>
       <c r="K49" s="21"/>
     </row>
@@ -6755,7 +6755,7 @@
       <c r="A50" s="44"/>
       <c r="B50" s="79">
         <f>(D49-D48)/D48</f>
-        <v>-0.40287769784172656</v>
+        <v>-0.51798561151079137</v>
       </c>
       <c r="C50" s="22">
         <f>SUM(C48:C49)</f>
@@ -6763,31 +6763,31 @@
       </c>
       <c r="D50" s="33">
         <f>E50/C50</f>
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E50" s="22">
         <f t="shared" ref="E50:J50" si="19">SUM(E48:E49)</f>
-        <v>528000</v>
+        <v>520000</v>
       </c>
       <c r="F50" s="22">
         <f t="shared" si="19"/>
-        <v>1056</v>
+        <v>1040</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="19"/>
-        <v>35.904000000000003</v>
+        <v>35.36</v>
       </c>
       <c r="H50" s="22">
         <f t="shared" si="19"/>
-        <v>5.28</v>
+        <v>5.2</v>
       </c>
       <c r="I50" s="22">
         <f t="shared" si="19"/>
-        <v>76.802880000000016</v>
+        <v>75.639200000000017</v>
       </c>
       <c r="J50" s="22">
         <f t="shared" si="19"/>
-        <v>529173.98687999998</v>
+        <v>521156.19919999997</v>
       </c>
       <c r="K50" s="25"/>
     </row>
@@ -7101,7 +7101,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -9371,38 +9371,38 @@
         <v>3200</v>
       </c>
       <c r="D7" s="46">
-        <v>9.1</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>29120</v>
+        <v>28639.999999999996</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>58.24</v>
+        <v>57.279999999999994</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.7472000000000001</v>
+        <v>1.7183999999999999</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.29120000000000001</v>
+        <v>0.28639999999999999</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>4.219488000000001</v>
+        <v>4.1499360000000003</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>29184.497888000002</v>
+        <v>28703.434735999999</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.72424242424242424</v>
+        <v>-0.72878787878787876</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -9410,31 +9410,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>25.352</v>
+        <v>25.303999999999998</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>253520</v>
+        <v>253040</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>507.04</v>
+        <v>506.08</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>15.2112</v>
+        <v>15.182400000000001</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>2.5352000000000001</v>
+        <v>2.5304000000000002</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>36.735048000000006</v>
+        <v>36.665496000000005</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>254081.52144799998</v>
+        <v>253600.45829599997</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1">
@@ -15448,7 +15448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -16118,10 +16118,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -16426,39 +16426,39 @@
       <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A9" s="49">
+      <c r="A9" s="55">
         <v>45705</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
         <v>10000</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="46">
         <v>2.9</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="61">
         <f>C9*D9</f>
         <v>29000</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="20">
         <f>E9*0.002</f>
         <v>58</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="20">
         <f>E9*0.00006</f>
         <v>1.74</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="20">
         <f>E9*0.00001</f>
         <v>0.29000000000000004</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="20">
         <f>(F9+G9+H9)*0.07</f>
         <v>4.2021000000000006</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="61">
         <f>E9+F9+I9+G9+H9</f>
         <v>29064.232100000001</v>
       </c>
@@ -16469,40 +16469,40 @@
       <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A10" s="49"/>
-      <c r="B10" s="30">
+      <c r="A10" s="55"/>
+      <c r="B10" s="12">
         <f>(D9-D8)/D8</f>
         <v>-0.72115384615384615</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="10">
         <f>SUM(C8:C9)</f>
         <v>60000</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="108">
         <f>E10/C10</f>
         <v>9.15</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="10">
         <f t="shared" ref="E10:J10" si="2">SUM(E8:E9)</f>
         <v>549000</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>1098</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>32.940000000000005</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
         <v>5.49</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
         <v>79.5501</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>550215.98009999993</v>
       </c>
@@ -16826,81 +16826,86 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" s="62" customFormat="1" ht="21">
       <c r="A20" s="49">
-        <v>45561</v>
+        <v>45705</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="16">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D20" s="41">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="E20" s="68">
         <f>C20*D20</f>
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="F20" s="18">
         <f>E20*0.002</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G20" s="18">
         <f>E20*0.00006</f>
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="H20" s="18">
         <f>E20*0.00001</f>
-        <v>0.25</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="I20" s="18">
         <f>(F20+G20+H20)*0.07</f>
-        <v>3.6225000000000005</v>
+        <v>4.2021000000000006</v>
       </c>
       <c r="J20" s="68">
         <f>E20+F20+I20+G20+H20</f>
-        <v>25055.372500000001</v>
-      </c>
+        <v>29064.232100000001</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="55">
-        <v>45541</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="49">
+        <v>45719</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="16">
         <f>C20</f>
-        <v>5000</v>
-      </c>
-      <c r="D21" s="34">
-        <v>5.6</v>
-      </c>
-      <c r="E21" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2.82</v>
+      </c>
+      <c r="E21" s="17">
         <f>C21*D21</f>
-        <v>28000</v>
-      </c>
-      <c r="F21" s="35">
+        <v>28200</v>
+      </c>
+      <c r="F21" s="27">
         <f>E21*0.002</f>
-        <v>56</v>
-      </c>
-      <c r="G21" s="34">
+        <v>56.4</v>
+      </c>
+      <c r="G21" s="26">
         <f>E21*0.000068</f>
-        <v>1.9039999999999999</v>
-      </c>
-      <c r="H21" s="34">
+        <v>1.9176</v>
+      </c>
+      <c r="H21" s="26">
         <f>E21*0.00001</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I21" s="34">
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="I21" s="26">
         <f>(F21+G21+H21)*0.07</f>
-        <v>4.0728800000000005</v>
-      </c>
-      <c r="J21" s="34">
+        <v>4.101972</v>
+      </c>
+      <c r="J21" s="26">
         <f>E21-F21-G21-H21-I21</f>
-        <v>27937.743120000003</v>
+        <v>28137.298427999998</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -16909,32 +16914,44 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="30">
         <f>(D21-D20)/D20</f>
-        <v>0.11999999999999993</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="20">
+        <v>-2.7586206896551748E-2</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
         <f>E21-E20</f>
-        <v>3000</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20">
+        <v>-800</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18">
         <f>J21-J20</f>
-        <v>2882.3706200000015</v>
+        <v>-926.93367200000284</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="69"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -17167,7 +17184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -18438,31 +18455,31 @@
         <v>3000</v>
       </c>
       <c r="D33" s="11">
-        <v>21.3</v>
+        <v>21.25</v>
       </c>
       <c r="E33" s="20">
         <f>C33*D33</f>
-        <v>63900</v>
+        <v>63750</v>
       </c>
       <c r="F33" s="20">
         <f>E33*0.002</f>
-        <v>127.8</v>
+        <v>127.5</v>
       </c>
       <c r="G33" s="20">
         <f>E33*0.000068</f>
-        <v>4.3452000000000002</v>
+        <v>4.335</v>
       </c>
       <c r="H33" s="20">
         <f>E33*0.00001</f>
-        <v>0.63900000000000001</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="I33" s="20">
         <f>(F33+G33+H33)*0.07</f>
-        <v>9.2948940000000011</v>
+        <v>9.2730750000000004</v>
       </c>
       <c r="J33" s="20">
         <f>E33+F33+I33+G33+H33</f>
-        <v>64042.079094000008</v>
+        <v>63891.745574999994</v>
       </c>
       <c r="K33" s="21">
         <v>0.75</v>
@@ -18471,7 +18488,7 @@
     <row r="34" spans="1:14">
       <c r="B34" s="25">
         <f>(D33-D32)/D32</f>
-        <v>-0.45032258064516129</v>
+        <v>-0.45161290322580644</v>
       </c>
       <c r="C34" s="22">
         <f>SUM(C32:C33)</f>
@@ -18479,35 +18496,35 @@
       </c>
       <c r="D34" s="64">
         <f>E34/C34</f>
-        <v>37.005000000000003</v>
+        <v>37</v>
       </c>
       <c r="E34" s="22">
         <f t="shared" ref="E34:J34" si="12">SUM(E32:E33)</f>
-        <v>1110150</v>
+        <v>1110000</v>
       </c>
       <c r="F34" s="22">
         <f t="shared" si="12"/>
-        <v>2220.3000000000002</v>
+        <v>2220</v>
       </c>
       <c r="G34" s="22">
         <f t="shared" si="12"/>
-        <v>75.490200000000016</v>
+        <v>75.48</v>
       </c>
       <c r="H34" s="22">
         <f t="shared" si="12"/>
-        <v>11.1015</v>
+        <v>11.1</v>
       </c>
       <c r="I34" s="22">
         <f t="shared" si="12"/>
-        <v>161.48241899999999</v>
+        <v>161.4606</v>
       </c>
       <c r="J34" s="22">
         <f t="shared" si="12"/>
-        <v>1112618.3741189998</v>
+        <v>1112468.0405999999</v>
       </c>
       <c r="K34" s="25">
         <f>K33/D33</f>
-        <v>3.5211267605633804E-2</v>
+        <v>3.5294117647058823E-2</v>
       </c>
       <c r="M34" s="21"/>
     </row>
@@ -19168,7 +19185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -19636,37 +19653,37 @@
         <v>15000</v>
       </c>
       <c r="D13" s="63">
-        <v>2.2400000000000002</v>
+        <v>1.92</v>
       </c>
       <c r="E13" s="20">
         <f>C13*D13</f>
-        <v>33600</v>
+        <v>28800</v>
       </c>
       <c r="F13" s="20">
         <f>E13*0.002</f>
-        <v>67.2</v>
+        <v>57.6</v>
       </c>
       <c r="G13" s="20">
         <f>E13*0.00006</f>
-        <v>2.016</v>
+        <v>1.728</v>
       </c>
       <c r="H13" s="20">
         <f>E13*0.00001</f>
-        <v>0.33600000000000002</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="I13" s="20">
         <f>(F13+G13+H13)*0.07</f>
-        <v>4.868640000000001</v>
+        <v>4.1731199999999999</v>
       </c>
       <c r="J13" s="20">
         <f>E13+F13+I13+G13+H13</f>
-        <v>33674.420640000004</v>
+        <v>28863.789119999998</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14" s="25">
         <f>(D13-D12)/D12</f>
-        <v>-0.5</v>
+        <v>-0.57142857142857151</v>
       </c>
       <c r="C14" s="22">
         <f>SUM(C12:C13)</f>
@@ -19674,31 +19691,31 @@
       </c>
       <c r="D14" s="64">
         <f>E14/C14</f>
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" ref="E14:J14" si="5">SUM(E12:E13)</f>
-        <v>504000</v>
+        <v>499200</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="5"/>
-        <v>1008</v>
+        <v>998.4</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="5"/>
-        <v>30.240000000000002</v>
+        <v>29.952000000000005</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="5"/>
-        <v>5.0400000000000009</v>
+        <v>4.9920000000000009</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="5"/>
-        <v>73.029600000000002</v>
+        <v>72.33408</v>
       </c>
       <c r="J14" s="22">
         <f t="shared" si="5"/>
-        <v>505116.30960000004</v>
+        <v>500305.67807999998</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -19709,72 +19726,72 @@
         <v>1</v>
       </c>
       <c r="C15" s="10">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="D15" s="63">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="E15" s="20">
         <f>C15*D15</f>
-        <v>15680</v>
+        <v>18200</v>
       </c>
       <c r="F15" s="20">
         <f>E15*0.002</f>
-        <v>31.36</v>
+        <v>36.4</v>
       </c>
       <c r="G15" s="20">
         <f>E15*0.00006</f>
-        <v>0.94079999999999997</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="H15" s="20">
         <f>E15*0.00001</f>
-        <v>0.15680000000000002</v>
+        <v>0.18200000000000002</v>
       </c>
       <c r="I15" s="20">
         <f>(F15+G15+H15)*0.07</f>
-        <v>2.2720320000000003</v>
+        <v>2.6371800000000003</v>
       </c>
       <c r="J15" s="20">
         <f>E15+F15+I15+G15+H15</f>
-        <v>15714.729632000002</v>
+        <v>18240.311180000004</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="25">
         <f>(D15-D14)/D14</f>
-        <v>-0.53333333333333333</v>
+        <v>-0.5625</v>
       </c>
       <c r="C16" s="22">
         <f>SUM(C14:C15)</f>
-        <v>128000</v>
+        <v>130000</v>
       </c>
       <c r="D16" s="64">
         <f>E16/C16</f>
-        <v>4.0599999999999996</v>
+        <v>3.98</v>
       </c>
       <c r="E16" s="22">
         <f t="shared" ref="E16:J16" si="6">SUM(E14:E15)</f>
-        <v>519680</v>
+        <v>517400</v>
       </c>
       <c r="F16" s="22">
         <f t="shared" si="6"/>
-        <v>1039.3599999999999</v>
+        <v>1034.8</v>
       </c>
       <c r="G16" s="22">
         <f t="shared" si="6"/>
-        <v>31.180800000000001</v>
+        <v>31.044000000000004</v>
       </c>
       <c r="H16" s="22">
         <f t="shared" si="6"/>
-        <v>5.1968000000000005</v>
+        <v>5.1740000000000013</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="6"/>
-        <v>75.301631999999998</v>
+        <v>74.971260000000001</v>
       </c>
       <c r="J16" s="22">
         <f t="shared" si="6"/>
-        <v>520831.03923200001</v>
+        <v>518545.98926</v>
       </c>
     </row>
   </sheetData>
@@ -21491,38 +21508,38 @@
         <v>5000</v>
       </c>
       <c r="D5" s="46">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="E5" s="20">
         <f>C5*D5</f>
-        <v>30000</v>
+        <v>31250</v>
       </c>
       <c r="F5" s="20">
         <f>E5*0.002</f>
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="G5" s="20">
         <f>E5*0.000068</f>
-        <v>2.04</v>
+        <v>2.125</v>
       </c>
       <c r="H5" s="20">
         <f>E5*0.00001</f>
-        <v>0.30000000000000004</v>
+        <v>0.3125</v>
       </c>
       <c r="I5" s="20">
         <f>(F5+G5+H5)*0.07</f>
-        <v>4.3638000000000003</v>
+        <v>4.5456250000000002</v>
       </c>
       <c r="J5" s="20">
         <f>E5+F5+I5+G5+H5</f>
-        <v>30066.703799999999</v>
+        <v>31319.483124999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="21" customFormat="1">
       <c r="A6" s="44"/>
       <c r="B6" s="3">
         <f>(D5-D4)/D4</f>
-        <v>-0.2</v>
+        <v>-0.16666666666666666</v>
       </c>
       <c r="C6" s="22">
         <f>SUM(C4:C5)</f>
@@ -21530,31 +21547,31 @@
       </c>
       <c r="D6" s="33">
         <f>E6/C6</f>
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>180000</v>
+        <v>181250</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>362.5</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>11.635999999999999</v>
+        <v>11.721</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="1"/>
-        <v>1.8000000000000003</v>
+        <v>1.8125000000000002</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="1"/>
-        <v>26.140520000000006</v>
+        <v>26.322345000000006</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="1"/>
-        <v>180399.57651999997</v>
+        <v>181652.35584499998</v>
       </c>
       <c r="K6" s="25"/>
     </row>
@@ -23869,7 +23886,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -23878,12 +23895,12 @@
     <col min="2" max="2" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="21"/>
     <col min="7" max="7" width="6.77734375" style="21" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" style="21" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="21"/>
     <col min="13" max="13" width="8.88671875" style="25"/>
@@ -24104,89 +24121,64 @@
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1">
-      <c r="A7" s="66">
-        <v>44473</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>6000</v>
-      </c>
-      <c r="D7" s="11">
-        <v>3.56</v>
-      </c>
-      <c r="E7" s="20">
+    <row r="7" spans="1:14" s="1" customFormat="1">
+      <c r="A7" s="49">
+        <v>45712</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <f>C6</f>
+        <v>36000</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2.94</v>
+      </c>
+      <c r="E7" s="17">
         <f>C7*D7</f>
-        <v>21360</v>
-      </c>
-      <c r="F7" s="20">
+        <v>105840</v>
+      </c>
+      <c r="F7" s="27">
         <f>E7*0.002</f>
-        <v>42.72</v>
-      </c>
-      <c r="G7" s="20">
-        <f>E7*0.00006</f>
-        <v>1.2816000000000001</v>
-      </c>
-      <c r="H7" s="20">
+        <v>211.68</v>
+      </c>
+      <c r="G7" s="26">
+        <f>E7*0.000068</f>
+        <v>7.19712</v>
+      </c>
+      <c r="H7" s="26">
         <f>E7*0.00001</f>
-        <v>0.21360000000000001</v>
-      </c>
-      <c r="I7" s="20">
+        <v>1.0584</v>
+      </c>
+      <c r="I7" s="26">
         <f>(F7+G7+H7)*0.07</f>
-        <v>3.0950639999999998</v>
-      </c>
-      <c r="J7" s="20">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>21407.310264</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A8" s="55"/>
-      <c r="B8" s="75">
-        <f>(D7-D6)/D6</f>
-        <v>-0.65098039215686265</v>
-      </c>
-      <c r="C8" s="10">
-        <f>SUM(C6:C7)</f>
-        <v>42000</v>
-      </c>
-      <c r="D8" s="63">
-        <f>E8/C8</f>
-        <v>9.2514285714285709</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>388560</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="2"/>
-        <v>777.12</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="2"/>
-        <v>23.313600000000005</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="2"/>
-        <v>3.8856000000000006</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
-        <v>56.302343999999998</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="2"/>
-        <v>389420.62154399999</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
+        <v>15.395486400000003</v>
+      </c>
+      <c r="J7" s="26">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>105604.66899360002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18">
+        <f>E7-E6</f>
+        <v>-261360</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18">
+        <f>J7-J6</f>
+        <v>-262408.64228639996</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="62" customFormat="1" ht="21">
       <c r="A9" s="49"/>
@@ -24775,7 +24767,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -25234,73 +25226,73 @@
         <v>1</v>
       </c>
       <c r="C13" s="10">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D13" s="46">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="E13" s="20">
         <f>C13*D13</f>
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="F13" s="20">
         <f>E13*0.002</f>
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="G13" s="20">
         <f>E13*0.000068</f>
-        <v>4.08</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="H13" s="20">
         <f>E13*0.00001</f>
-        <v>0.60000000000000009</v>
+        <v>0.27</v>
       </c>
       <c r="I13" s="20">
         <f>(F13+G13+H13)*0.07</f>
-        <v>8.7276000000000007</v>
+        <v>3.9274200000000006</v>
       </c>
       <c r="J13" s="20">
         <f>E13+F13+I13+G13+H13</f>
-        <v>60133.407599999999</v>
+        <v>27060.03342</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="21" customFormat="1">
       <c r="A14" s="44"/>
       <c r="B14" s="3">
         <f>(D13-D12)/D12</f>
-        <v>-0.31034482758620685</v>
+        <v>-0.37931034482758613</v>
       </c>
       <c r="C14" s="22">
         <f>C12+C13</f>
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="D14" s="33">
         <f>E14/C14</f>
-        <v>8.25</v>
+        <v>8.4</v>
       </c>
       <c r="E14" s="22">
         <f t="shared" ref="E14:J14" si="5">E12+E13</f>
-        <v>495000</v>
+        <v>462000</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="5"/>
-        <v>990</v>
+        <v>924</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="5"/>
-        <v>32.932000000000002</v>
+        <v>30.687999999999999</v>
       </c>
       <c r="H14" s="22">
         <f t="shared" si="5"/>
-        <v>4.9500000000000011</v>
+        <v>4.620000000000001</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="5"/>
-        <v>71.951740000000001</v>
+        <v>67.151560000000003</v>
       </c>
       <c r="J14" s="22">
         <f t="shared" si="5"/>
-        <v>496099.83373999997</v>
+        <v>463026.45955999999</v>
       </c>
       <c r="K14" s="25"/>
     </row>
@@ -27501,7 +27493,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -27654,34 +27646,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="10">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="D5" s="11">
-        <v>10.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="E5" s="20">
         <f>C5*D5</f>
-        <v>51000</v>
+        <v>78750</v>
       </c>
       <c r="F5" s="20">
         <f>E5*0.002</f>
-        <v>102</v>
+        <v>157.5</v>
       </c>
       <c r="G5" s="20">
         <f>E5*0.00006</f>
-        <v>3.06</v>
+        <v>4.7250000000000005</v>
       </c>
       <c r="H5" s="20">
         <f>E5*0.00001</f>
-        <v>0.51</v>
+        <v>0.78750000000000009</v>
       </c>
       <c r="I5" s="20">
         <f>(F5+G5+H5)*0.07</f>
-        <v>7.3899000000000008</v>
+        <v>11.410875000000001</v>
       </c>
       <c r="J5" s="20">
         <f>E5+F5+I5+G5+H5</f>
-        <v>51112.959900000002</v>
+        <v>78924.423375000013</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="11"/>
@@ -27692,39 +27684,39 @@
       <c r="A6" s="55"/>
       <c r="B6" s="75">
         <f>(D5-D4)/D4</f>
-        <v>-6.4220183486238633E-2</v>
+        <v>-3.6697247706422048E-2</v>
       </c>
       <c r="C6" s="10">
         <f>SUM(C4:C5)</f>
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="D6" s="63">
         <f>E6/C6</f>
-        <v>10.7</v>
+        <v>10.75</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>187250</v>
+        <v>215000</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>374.5</v>
+        <v>430</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="1"/>
-        <v>11.235000000000001</v>
+        <v>12.900000000000002</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>1.8725000000000001</v>
+        <v>2.1500000000000004</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="1"/>
-        <v>27.132525000000001</v>
+        <v>31.153500000000001</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>187664.74002500001</v>
+        <v>215476.20350000003</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="13"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="928" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2B3B09-F1EE-4998-A92E-0F72667624FD}"/>
+  <xr:revisionPtr revIDLastSave="930" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F016778-5B52-4710-BFB4-C81FB388FCDA}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="612" windowWidth="10116" windowHeight="11628" tabRatio="461" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5568" yWindow="612" windowWidth="17424" windowHeight="11628" tabRatio="461" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -3737,7 +3737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
@@ -15252,8 +15252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -15652,34 +15652,34 @@
         <v>0</v>
       </c>
       <c r="C11" s="10">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="46">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E11" s="61">
         <f>C11*D11</f>
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="F11" s="20">
         <f>E11*0.002</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G11" s="20">
         <f>E11*0.00006</f>
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="H11" s="20">
         <f>E11*0.00001</f>
-        <v>0.24000000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="I11" s="20">
         <f>(F11+G11+H11)*0.07</f>
-        <v>3.4776000000000002</v>
+        <v>2.6082000000000001</v>
       </c>
       <c r="J11" s="61">
         <f>E11+F11+I11+G11+H11</f>
-        <v>24053.157599999999</v>
+        <v>18039.868200000001</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
@@ -15691,39 +15691,39 @@
       <c r="A12" s="55"/>
       <c r="B12" s="12">
         <f>(D11-D10)/D10</f>
-        <v>-0.82172701949860727</v>
+        <v>-0.79944289693593318</v>
       </c>
       <c r="C12" s="10">
         <f>SUM(C10:C11)</f>
-        <v>75000</v>
+        <v>70000</v>
       </c>
       <c r="D12" s="103">
         <f>E12/C12</f>
-        <v>7.5</v>
+        <v>7.95</v>
       </c>
       <c r="E12" s="10">
         <f t="shared" ref="E12:J12" si="3">SUM(E10:E11)</f>
-        <v>562500</v>
+        <v>556500</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="3"/>
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="3"/>
-        <v>33.75</v>
+        <v>33.39</v>
       </c>
       <c r="H12" s="10">
         <f t="shared" si="3"/>
-        <v>5.625</v>
+        <v>5.5649999999999995</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="3"/>
-        <v>81.506249999999994</v>
+        <v>80.636849999999995</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="3"/>
-        <v>563745.88124999998</v>
+        <v>557732.59184999997</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="930" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F016778-5B52-4710-BFB4-C81FB388FCDA}"/>
+  <xr:revisionPtr revIDLastSave="954" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D28AE0B0-EE97-463E-9A46-6A34C62CA5F5}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="612" windowWidth="17424" windowHeight="11628" tabRatio="461" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10992" yWindow="348" windowWidth="10020" windowHeight="11628" tabRatio="461" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="39">
   <si>
     <t>BUY</t>
   </si>
@@ -3738,7 +3738,7 @@
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -5598,31 +5598,31 @@
         <v>10000</v>
       </c>
       <c r="D51" s="46">
-        <v>8.1</v>
+        <v>8.15</v>
       </c>
       <c r="E51" s="20">
         <f>C51*D51</f>
-        <v>81000</v>
+        <v>81500</v>
       </c>
       <c r="F51" s="20">
         <f>E51*0.002</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G51" s="20">
         <f>E51*0.000068</f>
-        <v>5.508</v>
+        <v>5.5419999999999998</v>
       </c>
       <c r="H51" s="20">
         <f>E51*0.00001</f>
-        <v>0.81</v>
+        <v>0.81500000000000006</v>
       </c>
       <c r="I51" s="20">
         <f>(F51+G51+H51)*0.07</f>
-        <v>11.782260000000003</v>
+        <v>11.854990000000001</v>
       </c>
       <c r="J51" s="20">
         <f>E51+F51+I51+G51+H51</f>
-        <v>81180.100260000007</v>
+        <v>81681.211990000011</v>
       </c>
       <c r="K51" s="21"/>
     </row>
@@ -5630,7 +5630,7 @@
       <c r="A52" s="44"/>
       <c r="B52" s="79">
         <f>(D51-D50)/D50</f>
-        <v>-0.38167938931297712</v>
+        <v>-0.37786259541984729</v>
       </c>
       <c r="C52" s="22">
         <f>SUM(C50:C51)</f>
@@ -5638,31 +5638,31 @@
       </c>
       <c r="D52" s="33">
         <f>E52/C52</f>
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" ref="E52:J52" si="20">SUM(E50:E51)</f>
-        <v>605000</v>
+        <v>605500</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="20"/>
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" si="20"/>
-        <v>41.14</v>
+        <v>41.173999999999999</v>
       </c>
       <c r="H52" s="22">
         <f t="shared" si="20"/>
-        <v>6.0500000000000007</v>
+        <v>6.0550000000000006</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="20"/>
-        <v>88.003300000000024</v>
+        <v>88.076030000000017</v>
       </c>
       <c r="J52" s="22">
         <f t="shared" si="20"/>
-        <v>606345.19329999993</v>
+        <v>606846.30502999993</v>
       </c>
       <c r="K52" s="25"/>
     </row>
@@ -15250,9 +15250,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -16073,17 +16073,120 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+    <row r="23" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A23" s="49">
+        <v>45874</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1.88</v>
+      </c>
+      <c r="E23" s="68">
+        <f>C23*D23</f>
+        <v>18800</v>
+      </c>
+      <c r="F23" s="18">
+        <f>E23*0.002</f>
+        <v>37.6</v>
+      </c>
+      <c r="G23" s="18">
+        <f>E23*0.00006</f>
+        <v>1.1280000000000001</v>
+      </c>
+      <c r="H23" s="18">
+        <f>E23*0.00001</f>
+        <v>0.18800000000000003</v>
+      </c>
+      <c r="I23" s="18">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>2.7241200000000005</v>
+      </c>
+      <c r="J23" s="68">
+        <f>E23+F23+I23+G23+H23</f>
+        <v>18841.640119999996</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="49">
+        <v>45874</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C23</f>
+        <v>10000</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="17">
+        <f>C24*D24</f>
+        <v>19000</v>
+      </c>
+      <c r="F24" s="27">
+        <f>E24*0.002</f>
+        <v>38</v>
+      </c>
+      <c r="G24" s="26">
+        <f>E24*0.000068</f>
+        <v>1.292</v>
+      </c>
+      <c r="H24" s="26">
+        <f>E24*0.00001</f>
+        <v>0.19</v>
+      </c>
+      <c r="I24" s="26">
+        <f>(F24+G24+H24)*0.07</f>
+        <v>2.7637400000000003</v>
+      </c>
+      <c r="J24" s="26">
+        <f>E24-F24-G24-H24-I24</f>
+        <v>18957.754260000002</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="30">
+        <f>(D24-D23)/D23</f>
+        <v>1.0638297872340436E-2</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18">
+        <f>E24-E23</f>
+        <v>200</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <f>J24-J23</f>
+        <v>116.11414000000514</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="954" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D28AE0B0-EE97-463E-9A46-6A34C62CA5F5}"/>
+  <xr:revisionPtr revIDLastSave="1083" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0B086E-A02C-42C5-B485-B6CAD9BEF52C}"/>
   <bookViews>
-    <workbookView xWindow="10992" yWindow="348" windowWidth="10020" windowHeight="11628" tabRatio="461" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3084" windowWidth="10104" windowHeight="9156" tabRatio="461" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="39">
   <si>
     <t>BUY</t>
   </si>
@@ -183,7 +183,7 @@
     <t>WHAIR</t>
   </si>
   <si>
-    <t>RD7</t>
+    <t>-----------</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -484,6 +484,7 @@
     <xf numFmtId="172" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3737,8 +3738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -5598,31 +5599,31 @@
         <v>10000</v>
       </c>
       <c r="D51" s="46">
-        <v>8.15</v>
+        <v>8.35</v>
       </c>
       <c r="E51" s="20">
         <f>C51*D51</f>
-        <v>81500</v>
+        <v>83500</v>
       </c>
       <c r="F51" s="20">
         <f>E51*0.002</f>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G51" s="20">
         <f>E51*0.000068</f>
-        <v>5.5419999999999998</v>
+        <v>5.6779999999999999</v>
       </c>
       <c r="H51" s="20">
         <f>E51*0.00001</f>
-        <v>0.81500000000000006</v>
+        <v>0.83500000000000008</v>
       </c>
       <c r="I51" s="20">
         <f>(F51+G51+H51)*0.07</f>
-        <v>11.854990000000001</v>
+        <v>12.145910000000001</v>
       </c>
       <c r="J51" s="20">
         <f>E51+F51+I51+G51+H51</f>
-        <v>81681.211990000011</v>
+        <v>83685.658910000013</v>
       </c>
       <c r="K51" s="21"/>
     </row>
@@ -5630,7 +5631,7 @@
       <c r="A52" s="44"/>
       <c r="B52" s="79">
         <f>(D51-D50)/D50</f>
-        <v>-0.37786259541984729</v>
+        <v>-0.36259541984732824</v>
       </c>
       <c r="C52" s="22">
         <f>SUM(C50:C51)</f>
@@ -5638,31 +5639,31 @@
       </c>
       <c r="D52" s="33">
         <f>E52/C52</f>
-        <v>12.11</v>
+        <v>12.15</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" ref="E52:J52" si="20">SUM(E50:E51)</f>
-        <v>605500</v>
+        <v>607500</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="20"/>
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" si="20"/>
-        <v>41.173999999999999</v>
+        <v>41.309999999999995</v>
       </c>
       <c r="H52" s="22">
         <f t="shared" si="20"/>
-        <v>6.0550000000000006</v>
+        <v>6.0750000000000002</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="20"/>
-        <v>88.076030000000017</v>
+        <v>88.366950000000017</v>
       </c>
       <c r="J52" s="22">
         <f t="shared" si="20"/>
-        <v>606846.30502999993</v>
+        <v>608850.75194999995</v>
       </c>
       <c r="K52" s="25"/>
     </row>
@@ -8079,7 +8080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8312,38 +8313,38 @@
         <v>3200</v>
       </c>
       <c r="D7" s="46">
-        <v>6</v>
+        <v>9.25</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>19200</v>
+        <v>29600</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>38.4</v>
+        <v>59.2</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.1520000000000001</v>
+        <v>1.776</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.192</v>
+        <v>0.29600000000000004</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>2.7820800000000001</v>
+        <v>4.2890400000000009</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>19242.52608</v>
+        <v>29665.561040000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.81818181818181823</v>
+        <v>-0.71969696969696972</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -8351,31 +8352,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>24.36</v>
+        <v>25.4</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>243600</v>
+        <v>254000</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>487.2</v>
+        <v>508</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>14.616</v>
+        <v>15.24</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>2.4360000000000004</v>
+        <v>2.54</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>35.297640000000008</v>
+        <v>36.804600000000008</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>244139.54963999998</v>
+        <v>254562.58459999997</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1">
@@ -8889,96 +8890,95 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="49">
-        <v>45195</v>
+        <v>45876</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="16">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="D30" s="41">
-        <v>22.8</v>
+        <v>9.25</v>
       </c>
       <c r="E30" s="18">
         <f>C30*D30</f>
-        <v>45600</v>
+        <v>29600</v>
       </c>
       <c r="F30" s="18">
         <f>E30*0.002</f>
-        <v>91.2</v>
+        <v>59.2</v>
       </c>
       <c r="G30" s="18">
         <f>E30*0.00006</f>
-        <v>2.7360000000000002</v>
+        <v>1.776</v>
       </c>
       <c r="H30" s="18">
         <f>E30*0.00001</f>
-        <v>0.45600000000000002</v>
+        <v>0.29600000000000004</v>
       </c>
       <c r="I30" s="18">
         <f>(F30+G30+H30)*0.07</f>
-        <v>6.6074400000000013</v>
+        <v>4.2890400000000009</v>
       </c>
       <c r="J30" s="18">
         <f>E30+F30+I30+G30+H30</f>
-        <v>45700.999439999992</v>
+        <v>29665.561040000001</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="55">
-        <v>45194</v>
-      </c>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="49">
+        <v>45876</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="10">
-        <f>C30</f>
-        <v>2000</v>
-      </c>
-      <c r="D31" s="34">
-        <v>24.1</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="C31" s="16">
+        <v>3200</v>
+      </c>
+      <c r="D31" s="26">
+        <v>9.4</v>
+      </c>
+      <c r="E31" s="17">
         <f>C31*D31</f>
-        <v>48200</v>
-      </c>
-      <c r="F31" s="35">
+        <v>30080</v>
+      </c>
+      <c r="F31" s="27">
         <f>E31*0.002</f>
-        <v>96.4</v>
-      </c>
-      <c r="G31" s="34">
+        <v>60.160000000000004</v>
+      </c>
+      <c r="G31" s="26">
         <f>E31*0.000068</f>
-        <v>3.2776000000000001</v>
-      </c>
-      <c r="H31" s="34">
+        <v>2.0454400000000001</v>
+      </c>
+      <c r="H31" s="26">
         <f>E31*0.00001</f>
-        <v>0.48200000000000004</v>
-      </c>
-      <c r="I31" s="34">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="I31" s="26">
         <f>(F31+G31+H31)*0.07</f>
-        <v>7.0111720000000011</v>
-      </c>
-      <c r="J31" s="34">
+        <v>4.375436800000001</v>
+      </c>
+      <c r="J31" s="26">
         <f>E31-F31-G31-H31-I31</f>
-        <v>48092.829227999995</v>
+        <v>30013.118323199997</v>
       </c>
       <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="9">
         <f>DAYS360(A30,A31)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="12">
         <f>(D31-D30)/D30</f>
-        <v>5.7017543859649154E-2</v>
+        <v>1.6216216216216255E-2</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="20">
         <f>E31-E30</f>
-        <v>2600</v>
+        <v>480</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
@@ -8986,24 +8986,24 @@
       <c r="I32" s="20"/>
       <c r="J32" s="20">
         <f>J31-J30</f>
-        <v>2391.8297880000027</v>
+        <v>347.55728319999616</v>
       </c>
       <c r="M32" s="21"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="49">
-        <v>45796</v>
+        <v>45875</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>0</v>
@@ -9646,38 +9646,38 @@
         <v>2800</v>
       </c>
       <c r="D20" s="41">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="E20" s="68">
         <f>C20*D20</f>
-        <v>29400</v>
+        <v>30800</v>
       </c>
       <c r="F20" s="18">
         <f>E20*0.002</f>
-        <v>58.800000000000004</v>
+        <v>61.6</v>
       </c>
       <c r="G20" s="18">
         <f>E20*0.00006</f>
-        <v>1.764</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="H20" s="18">
         <f>E20*0.00001</f>
-        <v>0.29400000000000004</v>
+        <v>0.30800000000000005</v>
       </c>
       <c r="I20" s="18">
         <f>(F20+G20+H20)*0.07</f>
-        <v>4.2600600000000011</v>
+        <v>4.4629200000000004</v>
       </c>
       <c r="J20" s="68">
         <f>E20+F20+I20+G20+H20</f>
-        <v>29465.118060000001</v>
+        <v>30868.218920000003</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="69"/>
       <c r="B21" s="30">
         <f>(D20-D19)/D19</f>
-        <v>-0.81081081081081086</v>
+        <v>-0.80180180180180183</v>
       </c>
       <c r="C21" s="16">
         <f>SUM(C19:C20)</f>
@@ -9685,619 +9685,638 @@
       </c>
       <c r="D21" s="40">
         <f>E21/C21</f>
-        <v>37.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" ref="E21:J21" si="2">SUM(E19:E20)</f>
-        <v>262500</v>
+        <v>263900</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" si="2"/>
-        <v>525</v>
+        <v>527.80000000000007</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" si="2"/>
-        <v>15.75</v>
+        <v>15.834000000000001</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="2"/>
-        <v>2.6250000000000004</v>
+        <v>2.6390000000000002</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="2"/>
-        <v>38.03625000000001</v>
+        <v>38.239110000000011</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" si="2"/>
-        <v>263081.41125</v>
+        <v>264484.51211000001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="55">
-        <v>45812</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D22" s="46">
-        <v>9</v>
-      </c>
-      <c r="E22" s="61">
-        <f>C22*D22</f>
-        <v>22500</v>
-      </c>
-      <c r="F22" s="20">
-        <f>E22*0.002</f>
-        <v>45</v>
-      </c>
-      <c r="G22" s="20">
-        <f>E22*0.00006</f>
-        <v>1.35</v>
-      </c>
-      <c r="H22" s="20">
-        <f>E22*0.00001</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I22" s="20">
-        <f>(F22+G22+H22)*0.07</f>
-        <v>3.2602500000000005</v>
-      </c>
-      <c r="J22" s="61">
-        <f>E22+F22+I22+G22+H22</f>
-        <v>22549.835249999996</v>
-      </c>
+      <c r="A22" s="55"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="B23" s="12">
-        <f>(D22-D21)/D21</f>
-        <v>-0.76</v>
-      </c>
-      <c r="C23" s="10">
-        <f>SUM(C21:C22)</f>
-        <v>9500</v>
-      </c>
-      <c r="D23" s="63">
-        <f>E23/C23</f>
-        <v>30</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" ref="E23" si="3">SUM(E21:E22)</f>
-        <v>285000</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" ref="F23" si="4">SUM(F21:F22)</f>
-        <v>570</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" ref="G23" si="5">SUM(G21:G22)</f>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" ref="H23" si="6">SUM(H21:H22)</f>
-        <v>2.8500000000000005</v>
-      </c>
-      <c r="I23" s="10">
-        <f t="shared" ref="I23" si="7">SUM(I21:I22)</f>
-        <v>41.296500000000009</v>
-      </c>
-      <c r="J23" s="10">
-        <f t="shared" ref="J23" si="8">SUM(J21:J22)</f>
-        <v>285631.24650000001</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>38</v>
+      <c r="A23" s="49">
+        <v>45243</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>800</v>
+      </c>
+      <c r="D23" s="41">
+        <v>25.5</v>
+      </c>
+      <c r="E23" s="68">
+        <f>C23*D23</f>
+        <v>20400</v>
+      </c>
+      <c r="F23" s="18">
+        <f>E23*0.002</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="G23" s="18">
+        <f>E23*0.00006</f>
+        <v>1.224</v>
+      </c>
+      <c r="H23" s="18">
+        <f>E23*0.00001</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="I23" s="18">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>2.9559600000000006</v>
+      </c>
+      <c r="J23" s="68">
+        <f>E23+F23+I23+G23+H23</f>
+        <v>20445.183959999998</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="61"/>
+      <c r="A24" s="49">
+        <v>45251</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C23</f>
+        <v>800</v>
+      </c>
+      <c r="D24" s="26">
+        <v>28.25</v>
+      </c>
+      <c r="E24" s="17">
+        <f>C24*D24</f>
+        <v>22600</v>
+      </c>
+      <c r="F24" s="27">
+        <f>E24*0.002</f>
+        <v>45.2</v>
+      </c>
+      <c r="G24" s="26">
+        <f>E24*0.000068</f>
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="H24" s="26">
+        <f>E24*0.00001</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I24" s="26">
+        <f>(F24+G24+H24)*0.07</f>
+        <v>3.2873960000000002</v>
+      </c>
+      <c r="J24" s="26">
+        <f>E24-F24-G24-H24-I24</f>
+        <v>22549.749803999999</v>
+      </c>
+      <c r="M24" s="21"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="49">
-        <v>45243</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>800</v>
-      </c>
-      <c r="D25" s="41">
-        <v>25.5</v>
-      </c>
-      <c r="E25" s="68">
-        <f>C25*D25</f>
-        <v>20400</v>
-      </c>
-      <c r="F25" s="18">
-        <f>E25*0.002</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="G25" s="18">
-        <f>E25*0.00006</f>
-        <v>1.224</v>
-      </c>
-      <c r="H25" s="18">
-        <f>E25*0.00001</f>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="I25" s="18">
-        <f>(F25+G25+H25)*0.07</f>
-        <v>2.9559600000000006</v>
-      </c>
-      <c r="J25" s="68">
-        <f>E25+F25+I25+G25+H25</f>
-        <v>20445.183959999998</v>
-      </c>
+      <c r="A25" s="69"/>
+      <c r="B25" s="30">
+        <f>(D24-D23)/D23</f>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18">
+        <f>E24-E23</f>
+        <v>2200</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <f>J24-J23</f>
+        <v>2104.5658440000007</v>
+      </c>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="49">
-        <v>45251</v>
+        <v>45447</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1800</v>
+      </c>
+      <c r="D26" s="41">
+        <v>13.9</v>
+      </c>
+      <c r="E26" s="68">
+        <f>C26*D26</f>
+        <v>25020</v>
+      </c>
+      <c r="F26" s="18">
+        <f>E26*0.002</f>
+        <v>50.04</v>
+      </c>
+      <c r="G26" s="18">
+        <f>E26*0.00006</f>
+        <v>1.5012000000000001</v>
+      </c>
+      <c r="H26" s="18">
+        <f>E26*0.00001</f>
+        <v>0.25020000000000003</v>
+      </c>
+      <c r="I26" s="18">
+        <f>(F26+G26+H26)*0.07</f>
+        <v>3.6253980000000001</v>
+      </c>
+      <c r="J26" s="68">
+        <f>E26+F26+I26+G26+H26</f>
+        <v>25075.416797999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="49">
+        <v>45448</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="16">
-        <f>C25</f>
-        <v>800</v>
-      </c>
-      <c r="D26" s="26">
-        <v>28.25</v>
-      </c>
-      <c r="E26" s="17">
-        <f>C26*D26</f>
-        <v>22600</v>
-      </c>
-      <c r="F26" s="27">
-        <f>E26*0.002</f>
-        <v>45.2</v>
-      </c>
-      <c r="G26" s="26">
-        <f>E26*0.000068</f>
-        <v>1.5367999999999999</v>
-      </c>
-      <c r="H26" s="26">
-        <f>E26*0.00001</f>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I26" s="26">
-        <f>(F26+G26+H26)*0.07</f>
-        <v>3.2873960000000002</v>
-      </c>
-      <c r="J26" s="26">
-        <f>E26-F26-G26-H26-I26</f>
-        <v>22549.749803999999</v>
-      </c>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="69"/>
-      <c r="B27" s="30">
-        <f>(D26-D25)/D25</f>
-        <v>0.10784313725490197</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18">
-        <f>E26-E25</f>
-        <v>2200</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18">
-        <f>J26-J25</f>
-        <v>2104.5658440000007</v>
+      <c r="C27" s="16">
+        <f>C26</f>
+        <v>1800</v>
+      </c>
+      <c r="D27" s="26">
+        <v>14.6</v>
+      </c>
+      <c r="E27" s="17">
+        <f>C27*D27</f>
+        <v>26280</v>
+      </c>
+      <c r="F27" s="27">
+        <f>E27*0.002</f>
+        <v>52.56</v>
+      </c>
+      <c r="G27" s="26">
+        <f>E27*0.000068</f>
+        <v>1.78704</v>
+      </c>
+      <c r="H27" s="26">
+        <f>E27*0.00001</f>
+        <v>0.26280000000000003</v>
+      </c>
+      <c r="I27" s="26">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>3.8226888000000003</v>
+      </c>
+      <c r="J27" s="26">
+        <f>E27-F27-G27-H27-I27</f>
+        <v>26221.5674712</v>
       </c>
       <c r="M27" s="21"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="49">
-        <v>45447</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16">
-        <v>1800</v>
-      </c>
-      <c r="D28" s="41">
-        <v>13.9</v>
-      </c>
-      <c r="E28" s="68">
-        <f>C28*D28</f>
-        <v>25020</v>
-      </c>
-      <c r="F28" s="18">
-        <f>E28*0.002</f>
-        <v>50.04</v>
-      </c>
-      <c r="G28" s="18">
-        <f>E28*0.00006</f>
-        <v>1.5012000000000001</v>
-      </c>
-      <c r="H28" s="18">
-        <f>E28*0.00001</f>
-        <v>0.25020000000000003</v>
-      </c>
-      <c r="I28" s="18">
-        <f>(F28+G28+H28)*0.07</f>
-        <v>3.6253980000000001</v>
-      </c>
-      <c r="J28" s="68">
-        <f>E28+F28+I28+G28+H28</f>
-        <v>25075.416797999998</v>
-      </c>
+      <c r="A28" s="69"/>
+      <c r="B28" s="30">
+        <f>(D27-D26)/D26</f>
+        <v>5.0359712230215778E-2</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18">
+        <f>E27-E26</f>
+        <v>1260</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18">
+        <f>J27-J26</f>
+        <v>1146.1506732000016</v>
+      </c>
+      <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="49">
-        <v>45448</v>
+        <v>45496</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D29" s="96">
+        <v>11.5</v>
+      </c>
+      <c r="E29" s="68">
+        <f>C29*D29</f>
+        <v>17250</v>
+      </c>
+      <c r="F29" s="18">
+        <f>E29*0.002</f>
+        <v>34.5</v>
+      </c>
+      <c r="G29" s="18">
+        <f>E29*0.00006</f>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="H29" s="18">
+        <f>E29*0.00001</f>
+        <v>0.17250000000000001</v>
+      </c>
+      <c r="I29" s="18">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>2.4995249999999998</v>
+      </c>
+      <c r="J29" s="68">
+        <f>E29+F29+I29+G29+H29</f>
+        <v>17288.207025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="49">
+        <v>45526</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="16">
-        <f>C28</f>
+      <c r="C30" s="16">
+        <f>C29</f>
+        <v>1500</v>
+      </c>
+      <c r="D30" s="26">
+        <v>14.9</v>
+      </c>
+      <c r="E30" s="17">
+        <f>C30*D30</f>
+        <v>22350</v>
+      </c>
+      <c r="F30" s="27">
+        <f>E30*0.002</f>
+        <v>44.7</v>
+      </c>
+      <c r="G30" s="26">
+        <f>E30*0.000068</f>
+        <v>1.5198</v>
+      </c>
+      <c r="H30" s="26">
+        <f>E30*0.00001</f>
+        <v>0.22350000000000003</v>
+      </c>
+      <c r="I30" s="26">
+        <f>(F30+G30+H30)*0.07</f>
+        <v>3.2510310000000007</v>
+      </c>
+      <c r="J30" s="26">
+        <f>E30-F30-G30-H30-I30</f>
+        <v>22300.305669000001</v>
+      </c>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="69"/>
+      <c r="B31" s="30">
+        <f>(D30-D29)/D29</f>
+        <v>0.29565217391304349</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18">
+        <f>E30-E29</f>
+        <v>5100</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18">
+        <f>J30-J29</f>
+        <v>5012.0986440000015</v>
+      </c>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:15" s="4" customFormat="1">
+      <c r="A32" s="49">
+        <v>45471</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
         <v>1800</v>
       </c>
-      <c r="D29" s="26">
-        <v>14.6</v>
-      </c>
-      <c r="E29" s="17">
-        <f>C29*D29</f>
-        <v>26280</v>
-      </c>
-      <c r="F29" s="27">
-        <f>E29*0.002</f>
-        <v>52.56</v>
-      </c>
-      <c r="G29" s="26">
-        <f>E29*0.000068</f>
-        <v>1.78704</v>
-      </c>
-      <c r="H29" s="26">
-        <f>E29*0.00001</f>
-        <v>0.26280000000000003</v>
-      </c>
-      <c r="I29" s="26">
-        <f>(F29+G29+H29)*0.07</f>
-        <v>3.8226888000000003</v>
-      </c>
-      <c r="J29" s="26">
-        <f>E29-F29-G29-H29-I29</f>
-        <v>26221.5674712</v>
-      </c>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="69"/>
-      <c r="B30" s="30">
-        <f>(D29-D28)/D28</f>
-        <v>5.0359712230215778E-2</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18">
-        <f>E29-E28</f>
-        <v>1260</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18">
-        <f>J29-J28</f>
-        <v>1146.1506732000016</v>
-      </c>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="49">
-        <v>45496</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>1500</v>
-      </c>
-      <c r="D31" s="96">
-        <v>11.5</v>
-      </c>
-      <c r="E31" s="68">
-        <f>C31*D31</f>
-        <v>17250</v>
-      </c>
-      <c r="F31" s="18">
-        <f>E31*0.002</f>
-        <v>34.5</v>
-      </c>
-      <c r="G31" s="18">
-        <f>E31*0.00006</f>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H31" s="18">
-        <f>E31*0.00001</f>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="I31" s="18">
-        <f>(F31+G31+H31)*0.07</f>
-        <v>2.4995249999999998</v>
-      </c>
-      <c r="J31" s="68">
-        <f>E31+F31+I31+G31+H31</f>
-        <v>17288.207025</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="49">
-        <v>45526</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="D32" s="96">
+        <v>13</v>
+      </c>
+      <c r="E32" s="68">
+        <f>C32*D32</f>
+        <v>23400</v>
+      </c>
+      <c r="F32" s="18">
+        <f>E32*0.002</f>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="G32" s="18">
+        <f>E32*0.00006</f>
+        <v>1.4040000000000001</v>
+      </c>
+      <c r="H32" s="18">
+        <f>E32*0.00001</f>
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I32" s="18">
+        <f>(F32+G32+H32)*0.07</f>
+        <v>3.3906600000000009</v>
+      </c>
+      <c r="J32" s="68">
+        <f>E32+F32+I32+G32+H32</f>
+        <v>23451.828659999999</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1">
+      <c r="A33" s="49">
+        <v>45531</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="16">
-        <f>C31</f>
-        <v>1500</v>
-      </c>
-      <c r="D32" s="26">
-        <v>14.9</v>
-      </c>
-      <c r="E32" s="17">
-        <f>C32*D32</f>
-        <v>22350</v>
-      </c>
-      <c r="F32" s="27">
-        <f>E32*0.002</f>
-        <v>44.7</v>
-      </c>
-      <c r="G32" s="26">
-        <f>E32*0.000068</f>
-        <v>1.5198</v>
-      </c>
-      <c r="H32" s="26">
-        <f>E32*0.00001</f>
-        <v>0.22350000000000003</v>
-      </c>
-      <c r="I32" s="26">
-        <f>(F32+G32+H32)*0.07</f>
-        <v>3.2510310000000007</v>
-      </c>
-      <c r="J32" s="26">
-        <f>E32-F32-G32-H32-I32</f>
-        <v>22300.305669000001</v>
-      </c>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="69"/>
-      <c r="B33" s="30">
-        <f>(D32-D31)/D31</f>
-        <v>0.29565217391304349</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18">
-        <f>E32-E31</f>
-        <v>5100</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18">
-        <f>J32-J31</f>
-        <v>5012.0986440000015</v>
-      </c>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1">
-      <c r="A34" s="49">
-        <v>45471</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="C33" s="16">
+        <f>C32</f>
         <v>1800</v>
       </c>
-      <c r="D34" s="96">
-        <v>13</v>
-      </c>
-      <c r="E34" s="68">
-        <f>C34*D34</f>
-        <v>23400</v>
-      </c>
-      <c r="F34" s="18">
-        <f>E34*0.002</f>
-        <v>46.800000000000004</v>
-      </c>
-      <c r="G34" s="18">
-        <f>E34*0.00006</f>
-        <v>1.4040000000000001</v>
-      </c>
-      <c r="H34" s="18">
-        <f>E34*0.00001</f>
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="I34" s="18">
-        <f>(F34+G34+H34)*0.07</f>
-        <v>3.3906600000000009</v>
-      </c>
-      <c r="J34" s="68">
-        <f>E34+F34+I34+G34+H34</f>
-        <v>23451.828659999999</v>
-      </c>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1">
+      <c r="D33" s="26">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E33" s="17">
+        <f>C33*D33</f>
+        <v>29519.999999999996</v>
+      </c>
+      <c r="F33" s="27">
+        <f>E33*0.002</f>
+        <v>59.039999999999992</v>
+      </c>
+      <c r="G33" s="26">
+        <f>E33*0.000068</f>
+        <v>2.0073599999999998</v>
+      </c>
+      <c r="H33" s="26">
+        <f>E33*0.00001</f>
+        <v>0.29519999999999996</v>
+      </c>
+      <c r="I33" s="26">
+        <f>(F33+G33+H33)*0.07</f>
+        <v>4.2939791999999999</v>
+      </c>
+      <c r="J33" s="26">
+        <f>E33-F33-G33-H33-I33</f>
+        <v>29454.363460799996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="30">
+        <f>(D33-D32)/D32</f>
+        <v>0.26153846153846144</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18">
+        <f>E33-E32</f>
+        <v>6119.9999999999964</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
+        <f>J33-J32</f>
+        <v>6002.5348007999964</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="49">
-        <v>45531</v>
+        <v>45812</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <v>2500</v>
+      </c>
+      <c r="D35" s="41">
+        <v>9</v>
+      </c>
+      <c r="E35" s="68">
+        <f>C35*D35</f>
+        <v>22500</v>
+      </c>
+      <c r="F35" s="18">
+        <f>E35*0.002</f>
+        <v>45</v>
+      </c>
+      <c r="G35" s="18">
+        <f>E35*0.00006</f>
+        <v>1.35</v>
+      </c>
+      <c r="H35" s="18">
+        <f>E35*0.00001</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I35" s="18">
+        <f>(F35+G35+H35)*0.07</f>
+        <v>3.2602500000000005</v>
+      </c>
+      <c r="J35" s="68">
+        <f>E35+F35+I35+G35+H35</f>
+        <v>22549.835249999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1">
+      <c r="A36" s="49">
+        <v>45841</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="16">
-        <f>C34</f>
-        <v>1800</v>
-      </c>
-      <c r="D35" s="26">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E35" s="17">
-        <f>C35*D35</f>
-        <v>29519.999999999996</v>
-      </c>
-      <c r="F35" s="27">
-        <f>E35*0.002</f>
-        <v>59.039999999999992</v>
-      </c>
-      <c r="G35" s="26">
-        <f>E35*0.000068</f>
-        <v>2.0073599999999998</v>
-      </c>
-      <c r="H35" s="26">
-        <f>E35*0.00001</f>
-        <v>0.29519999999999996</v>
-      </c>
-      <c r="I35" s="26">
-        <f>(F35+G35+H35)*0.07</f>
-        <v>4.2939791999999999</v>
-      </c>
-      <c r="J35" s="26">
-        <f>E35-F35-G35-H35-I35</f>
-        <v>29454.363460799996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="4" customFormat="1">
-      <c r="A36" s="69"/>
-      <c r="B36" s="30">
-        <f>(D35-D34)/D34</f>
-        <v>0.26153846153846144</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18">
-        <f>E35-E34</f>
-        <v>6119.9999999999964</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18">
-        <f>J35-J34</f>
-        <v>6002.5348007999964</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="49">
-        <v>45812</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="16">
+      <c r="C36" s="16">
+        <f>C35</f>
         <v>2500</v>
       </c>
-      <c r="D37" s="41">
-        <v>9</v>
-      </c>
-      <c r="E37" s="68">
-        <f>C37*D37</f>
-        <v>22500</v>
-      </c>
-      <c r="F37" s="18">
-        <f>E37*0.002</f>
-        <v>45</v>
-      </c>
-      <c r="G37" s="18">
-        <f>E37*0.00006</f>
-        <v>1.35</v>
-      </c>
-      <c r="H37" s="18">
-        <f>E37*0.00001</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I37" s="18">
-        <f>(F37+G37+H37)*0.07</f>
-        <v>3.2602500000000005</v>
-      </c>
-      <c r="J37" s="68">
-        <f>E37+F37+I37+G37+H37</f>
-        <v>22549.835249999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="4" customFormat="1">
+      <c r="D36" s="26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E36" s="17">
+        <f>C36*D36</f>
+        <v>25500</v>
+      </c>
+      <c r="F36" s="27">
+        <f>E36*0.002</f>
+        <v>51</v>
+      </c>
+      <c r="G36" s="26">
+        <f>E36*0.000068</f>
+        <v>1.734</v>
+      </c>
+      <c r="H36" s="26">
+        <f>E36*0.00001</f>
+        <v>0.255</v>
+      </c>
+      <c r="I36" s="26">
+        <f>(F36+G36+H36)*0.07</f>
+        <v>3.7092300000000007</v>
+      </c>
+      <c r="J36" s="26">
+        <f>E36-F36-G36-H36-I36</f>
+        <v>25443.301769999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1">
+      <c r="A37" s="69"/>
+      <c r="B37" s="30">
+        <f>(D36-D35)/D35</f>
+        <v>0.13333333333333325</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18">
+        <f>E36-E35</f>
+        <v>3000</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18">
+        <f>J36-J35</f>
+        <v>2893.4665200000018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="49">
-        <v>45841</v>
+        <v>45796</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16">
+        <v>2800</v>
+      </c>
+      <c r="D38" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="E38" s="68">
+        <f>C38*D38</f>
+        <v>29400</v>
+      </c>
+      <c r="F38" s="18">
+        <f>E38*0.002</f>
+        <v>58.800000000000004</v>
+      </c>
+      <c r="G38" s="18">
+        <f>E38*0.00006</f>
+        <v>1.764</v>
+      </c>
+      <c r="H38" s="18">
+        <f>E38*0.00001</f>
+        <v>0.29400000000000004</v>
+      </c>
+      <c r="I38" s="18">
+        <f>(F38+G38+H38)*0.07</f>
+        <v>4.2600600000000011</v>
+      </c>
+      <c r="J38" s="68">
+        <f>E38+F38+I38+G38+H38</f>
+        <v>29465.118060000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1">
+      <c r="A39" s="49">
+        <v>45875</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="16">
-        <f>C37</f>
-        <v>2500</v>
-      </c>
-      <c r="D38" s="26">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E38" s="17">
-        <f>C38*D38</f>
-        <v>25500</v>
-      </c>
-      <c r="F38" s="27">
-        <f>E38*0.002</f>
-        <v>51</v>
-      </c>
-      <c r="G38" s="26">
-        <f>E38*0.000068</f>
-        <v>1.734</v>
-      </c>
-      <c r="H38" s="26">
-        <f>E38*0.00001</f>
-        <v>0.255</v>
-      </c>
-      <c r="I38" s="26">
-        <f>(F38+G38+H38)*0.07</f>
-        <v>3.7092300000000007</v>
-      </c>
-      <c r="J38" s="26">
-        <f>E38-F38-G38-H38-I38</f>
-        <v>25443.301769999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="4" customFormat="1">
-      <c r="A39" s="69"/>
-      <c r="B39" s="30">
-        <f>(D38-D37)/D37</f>
-        <v>0.13333333333333325</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18">
-        <f>E38-E37</f>
-        <v>3000</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18">
-        <f>J38-J37</f>
-        <v>2893.4665200000018</v>
+      <c r="C39" s="16">
+        <f>C38</f>
+        <v>2800</v>
+      </c>
+      <c r="D39" s="26">
+        <v>11.6</v>
+      </c>
+      <c r="E39" s="17">
+        <f>C39*D39</f>
+        <v>32480</v>
+      </c>
+      <c r="F39" s="27">
+        <f>E39*0.002</f>
+        <v>64.960000000000008</v>
+      </c>
+      <c r="G39" s="26">
+        <f>E39*0.000068</f>
+        <v>2.2086399999999999</v>
+      </c>
+      <c r="H39" s="26">
+        <f>E39*0.00001</f>
+        <v>0.32480000000000003</v>
+      </c>
+      <c r="I39" s="26">
+        <f>(F39+G39+H39)*0.07</f>
+        <v>4.7245408000000007</v>
+      </c>
+      <c r="J39" s="26">
+        <f>E39-F39-G39-H39-I39</f>
+        <v>32407.7820192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="30">
+        <f>(D39-D38)/D38</f>
+        <v>0.10476190476190472</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18">
+        <f>E39-E38</f>
+        <v>3080</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18">
+        <f>J39-J38</f>
+        <v>2942.6639591999992</v>
       </c>
     </row>
   </sheetData>
@@ -12660,10 +12679,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12991,413 +13010,440 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1">
-      <c r="A10" s="49">
+      <c r="A10" s="55">
         <v>45831</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
         <v>5000</v>
       </c>
-      <c r="D10" s="41">
-        <v>3.9</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="D10" s="46">
+        <v>4.25</v>
+      </c>
+      <c r="E10" s="20">
         <f>C10*D10</f>
-        <v>19500</v>
-      </c>
-      <c r="F10" s="18">
+        <v>21250</v>
+      </c>
+      <c r="F10" s="20">
         <f>E10*0.002</f>
-        <v>39</v>
-      </c>
-      <c r="G10" s="18">
+        <v>42.5</v>
+      </c>
+      <c r="G10" s="20">
         <f>E10*0.00006</f>
-        <v>1.17</v>
-      </c>
-      <c r="H10" s="18">
+        <v>1.2750000000000001</v>
+      </c>
+      <c r="H10" s="20">
         <f>E10*0.00001</f>
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="I10" s="18">
+        <v>0.21250000000000002</v>
+      </c>
+      <c r="I10" s="20">
         <f>(F10+G10+H10)*0.07</f>
-        <v>2.8255500000000002</v>
-      </c>
-      <c r="J10" s="18">
+        <v>3.0791249999999999</v>
+      </c>
+      <c r="J10" s="20">
         <f>E10+F10+I10+G10+H10</f>
-        <v>19543.190549999999</v>
+        <v>21297.066625000003</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="30">
+      <c r="A11" s="55"/>
+      <c r="B11" s="12">
         <f>(D10-D9)/D9</f>
-        <v>-0.47651006711409399</v>
-      </c>
-      <c r="C11" s="16">
+        <v>-0.42953020134228187</v>
+      </c>
+      <c r="C11" s="10">
         <f>SUM(C9:C10)</f>
         <v>32000</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="63">
         <f>E11/C11</f>
-        <v>6.8953125000000002</v>
-      </c>
-      <c r="E11" s="16">
+        <v>6.95</v>
+      </c>
+      <c r="E11" s="10">
         <f t="shared" ref="E11:J11" si="3">SUM(E9:E10)</f>
-        <v>220650</v>
-      </c>
-      <c r="F11" s="16">
+        <v>222400</v>
+      </c>
+      <c r="F11" s="10">
         <f t="shared" si="3"/>
-        <v>441.3</v>
-      </c>
-      <c r="G11" s="16">
+        <v>444.8</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="3"/>
-        <v>13.239000000000001</v>
-      </c>
-      <c r="H11" s="16">
+        <v>13.344000000000001</v>
+      </c>
+      <c r="H11" s="10">
         <f t="shared" si="3"/>
-        <v>2.2065000000000001</v>
-      </c>
-      <c r="I11" s="16">
+        <v>2.2240000000000002</v>
+      </c>
+      <c r="I11" s="10">
         <f t="shared" si="3"/>
-        <v>31.972185000000007</v>
-      </c>
-      <c r="J11" s="16">
+        <v>32.225760000000008</v>
+      </c>
+      <c r="J11" s="10">
         <f t="shared" si="3"/>
-        <v>221138.71768499998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1">
-      <c r="A12" s="55">
+        <v>222892.59375999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="49">
+        <v>44419</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>9000</v>
+      </c>
+      <c r="D13" s="17">
+        <v>7.45</v>
+      </c>
+      <c r="E13" s="18">
+        <f>C13*D13</f>
+        <v>67050</v>
+      </c>
+      <c r="F13" s="18">
+        <f>E13*0.002</f>
+        <v>134.1</v>
+      </c>
+      <c r="G13" s="18">
+        <f>E13*0.000068</f>
+        <v>4.5594000000000001</v>
+      </c>
+      <c r="H13" s="18">
+        <f>E13*0.00001</f>
+        <v>0.6705000000000001</v>
+      </c>
+      <c r="I13" s="18">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>9.7530930000000016</v>
+      </c>
+      <c r="J13" s="18">
+        <f>E13+F13+I13+G13+H13</f>
+        <v>67199.082993000004</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" s="13" customFormat="1">
+      <c r="A14" s="49">
+        <v>44592</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="16">
+        <f>C13</f>
+        <v>9000</v>
+      </c>
+      <c r="D14" s="26">
+        <v>7.3</v>
+      </c>
+      <c r="E14" s="17">
+        <f>C14*D14</f>
+        <v>65700</v>
+      </c>
+      <c r="F14" s="27">
+        <f>E14*0.002</f>
+        <v>131.4</v>
+      </c>
+      <c r="G14" s="26">
+        <f>E14*0.000068</f>
+        <v>4.4676</v>
+      </c>
+      <c r="H14" s="26">
+        <f>E14*0.00001</f>
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="I14" s="26">
+        <f>(F14+G14+H14)*0.07</f>
+        <v>9.5567220000000024</v>
+      </c>
+      <c r="J14" s="26">
+        <f>E14-F14-G14-H14-I14</f>
+        <v>65553.918678000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A15" s="28">
+        <f>DAYS360(A13,A14)</f>
+        <v>170</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18">
+        <f>E14-E13</f>
+        <v>-1350</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18">
+        <f>J14-J13</f>
+        <v>-1645.1643150000018</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1">
+      <c r="A16" s="49">
+        <v>45076</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E16" s="18">
+        <f>C16*D16</f>
+        <v>23000</v>
+      </c>
+      <c r="F16" s="18">
+        <f>E16*0.002</f>
+        <v>46</v>
+      </c>
+      <c r="G16" s="18">
+        <f>E16*0.00006</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="H16" s="18">
+        <f>E16*0.00001</f>
+        <v>0.23</v>
+      </c>
+      <c r="I16" s="18">
+        <f>(F16+G16+H16)*0.07</f>
+        <v>3.3327000000000004</v>
+      </c>
+      <c r="J16" s="18">
+        <f>E16+F16+I16+G16+H16</f>
+        <v>23050.9427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1">
+      <c r="A17" s="49">
+        <v>45091</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C16</f>
+        <v>5000</v>
+      </c>
+      <c r="D17" s="26">
+        <v>4.84</v>
+      </c>
+      <c r="E17" s="17">
+        <f>C17*D17</f>
+        <v>24200</v>
+      </c>
+      <c r="F17" s="27">
+        <f>E17*0.002</f>
+        <v>48.4</v>
+      </c>
+      <c r="G17" s="26">
+        <f>E17*0.000068</f>
+        <v>1.6456</v>
+      </c>
+      <c r="H17" s="26">
+        <f>E17*0.00001</f>
+        <v>0.24200000000000002</v>
+      </c>
+      <c r="I17" s="26">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>3.5201320000000003</v>
+      </c>
+      <c r="J17" s="26">
+        <f>E17-F17-G17-H17-I17</f>
+        <v>24146.192267999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A18" s="28">
+        <f>DAYS360(A16,A17)</f>
+        <v>14</v>
+      </c>
+      <c r="B18" s="30">
+        <f>(D17-D16)/D16</f>
+        <v>5.2173913043478314E-2</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18">
+        <f>E17-E16</f>
+        <v>1200</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18">
+        <f>J17-J16</f>
+        <v>1095.2495679999993</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="49">
+        <v>45615</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="16">
+        <v>4500</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E20" s="17">
+        <f>C20*D20</f>
+        <v>2565</v>
+      </c>
+      <c r="F20" s="27">
+        <f>E20*0.002</f>
+        <v>5.13</v>
+      </c>
+      <c r="G20" s="26">
+        <f>E20*0.000068</f>
+        <v>0.17441999999999999</v>
+      </c>
+      <c r="H20" s="26">
+        <f>E20*0.00001</f>
+        <v>2.5650000000000003E-2</v>
+      </c>
+      <c r="I20" s="26">
+        <f>(F20+G20+H20)*0.07</f>
+        <v>0.37310489999999996</v>
+      </c>
+      <c r="J20" s="26">
+        <f>E20-F20-G20-H20-I20</f>
+        <v>2559.2968251000002</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1">
+      <c r="A22" s="49">
         <v>45831</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>8000</v>
-      </c>
-      <c r="D12" s="46">
-        <v>3.92</v>
-      </c>
-      <c r="E12" s="20">
-        <f>C12*D12</f>
-        <v>31360</v>
-      </c>
-      <c r="F12" s="20">
-        <f>E12*0.002</f>
-        <v>62.72</v>
-      </c>
-      <c r="G12" s="20">
-        <f>E12*0.00006</f>
-        <v>1.8815999999999999</v>
-      </c>
-      <c r="H12" s="20">
-        <f>E12*0.00001</f>
-        <v>0.31360000000000005</v>
-      </c>
-      <c r="I12" s="20">
-        <f>(F12+G12+H12)*0.07</f>
-        <v>4.5440640000000005</v>
-      </c>
-      <c r="J12" s="20">
-        <f>E12+F12+I12+G12+H12</f>
-        <v>31429.459264000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="12">
-        <f>(D12-D11)/D11</f>
-        <v>-0.43149784726943125</v>
-      </c>
-      <c r="C13" s="10">
-        <f>SUM(C11:C12)</f>
-        <v>40000</v>
-      </c>
-      <c r="D13" s="63">
-        <f>E13/C13</f>
-        <v>6.3002500000000001</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" ref="E13:J13" si="4">SUM(E11:E12)</f>
-        <v>252010</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" si="4"/>
-        <v>504.02</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="4"/>
-        <v>15.120600000000001</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="4"/>
-        <v>2.5201000000000002</v>
-      </c>
-      <c r="I13" s="10">
-        <f t="shared" si="4"/>
-        <v>36.516249000000009</v>
-      </c>
-      <c r="J13" s="10">
-        <f t="shared" si="4"/>
-        <v>252568.17694899999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="49">
-        <v>44419</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
-        <v>9000</v>
-      </c>
-      <c r="D15" s="17">
-        <v>7.45</v>
-      </c>
-      <c r="E15" s="18">
-        <f>C15*D15</f>
-        <v>67050</v>
-      </c>
-      <c r="F15" s="18">
-        <f>E15*0.002</f>
-        <v>134.1</v>
-      </c>
-      <c r="G15" s="18">
-        <f>E15*0.000068</f>
-        <v>4.5594000000000001</v>
-      </c>
-      <c r="H15" s="18">
-        <f>E15*0.00001</f>
-        <v>0.6705000000000001</v>
-      </c>
-      <c r="I15" s="18">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>9.7530930000000016</v>
-      </c>
-      <c r="J15" s="18">
-        <f>E15+F15+I15+G15+H15</f>
-        <v>67199.082993000004</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" s="13" customFormat="1">
-      <c r="A16" s="49">
-        <v>44592</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="41">
+        <v>3.9</v>
+      </c>
+      <c r="E22" s="18">
+        <f>C22*D22</f>
+        <v>19500</v>
+      </c>
+      <c r="F22" s="18">
+        <f>E22*0.002</f>
+        <v>39</v>
+      </c>
+      <c r="G22" s="18">
+        <f>E22*0.00006</f>
+        <v>1.17</v>
+      </c>
+      <c r="H22" s="18">
+        <f>E22*0.00001</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I22" s="18">
+        <f>(F22+G22+H22)*0.07</f>
+        <v>2.8255500000000002</v>
+      </c>
+      <c r="J22" s="18">
+        <f>E22+F22+I22+G22+H22</f>
+        <v>19543.190549999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="13" customFormat="1">
+      <c r="A23" s="49">
+        <v>45875</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="16">
-        <f>C15</f>
-        <v>9000</v>
-      </c>
-      <c r="D16" s="26">
-        <v>7.3</v>
-      </c>
-      <c r="E16" s="17">
-        <f>C16*D16</f>
-        <v>65700</v>
-      </c>
-      <c r="F16" s="27">
-        <f>E16*0.002</f>
-        <v>131.4</v>
-      </c>
-      <c r="G16" s="26">
-        <f>E16*0.000068</f>
-        <v>4.4676</v>
-      </c>
-      <c r="H16" s="26">
-        <f>E16*0.00001</f>
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="I16" s="26">
-        <f>(F16+G16+H16)*0.07</f>
-        <v>9.5567220000000024</v>
-      </c>
-      <c r="J16" s="26">
-        <f>E16-F16-G16-H16-I16</f>
-        <v>65553.918678000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A17" s="28">
-        <f>DAYS360(A15,A16)</f>
-        <v>170</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18">
-        <f>E16-E15</f>
-        <v>-1350</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18">
-        <f>J16-J15</f>
-        <v>-1645.1643150000018</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1">
-      <c r="A18" s="49">
-        <v>45076</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="16">
+      <c r="C23" s="16">
+        <f>C22</f>
         <v>5000</v>
       </c>
-      <c r="D18" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E18" s="18">
-        <f>C18*D18</f>
-        <v>23000</v>
-      </c>
-      <c r="F18" s="18">
-        <f>E18*0.002</f>
-        <v>46</v>
-      </c>
-      <c r="G18" s="18">
-        <f>E18*0.00006</f>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="H18" s="18">
-        <f>E18*0.00001</f>
-        <v>0.23</v>
-      </c>
-      <c r="I18" s="18">
-        <f>(F18+G18+H18)*0.07</f>
-        <v>3.3327000000000004</v>
-      </c>
-      <c r="J18" s="18">
-        <f>E18+F18+I18+G18+H18</f>
-        <v>23050.9427</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="13" customFormat="1">
-      <c r="A19" s="49">
-        <v>45091</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="16">
-        <f>C18</f>
-        <v>5000</v>
-      </c>
-      <c r="D19" s="26">
-        <v>4.84</v>
-      </c>
-      <c r="E19" s="17">
-        <f>C19*D19</f>
-        <v>24200</v>
-      </c>
-      <c r="F19" s="27">
-        <f>E19*0.002</f>
-        <v>48.4</v>
-      </c>
-      <c r="G19" s="26">
-        <f>E19*0.000068</f>
-        <v>1.6456</v>
-      </c>
-      <c r="H19" s="26">
-        <f>E19*0.00001</f>
-        <v>0.24200000000000002</v>
-      </c>
-      <c r="I19" s="26">
-        <f>(F19+G19+H19)*0.07</f>
-        <v>3.5201320000000003</v>
-      </c>
-      <c r="J19" s="26">
-        <f>E19-F19-G19-H19-I19</f>
-        <v>24146.192267999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A20" s="28">
-        <f>DAYS360(A18,A19)</f>
-        <v>14</v>
-      </c>
-      <c r="B20" s="30">
-        <f>(D19-D18)/D18</f>
-        <v>5.2173913043478314E-2</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18">
-        <f>E19-E18</f>
-        <v>1200</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18">
-        <f>J19-J18</f>
-        <v>1095.2495679999993</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="49">
-        <v>45615</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="16">
-        <v>4500</v>
-      </c>
-      <c r="D22" s="26">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E22" s="17">
-        <f>C22*D22</f>
-        <v>2565</v>
-      </c>
-      <c r="F22" s="27">
-        <f>E22*0.002</f>
-        <v>5.13</v>
-      </c>
-      <c r="G22" s="26">
-        <f>E22*0.000068</f>
-        <v>0.17441999999999999</v>
-      </c>
-      <c r="H22" s="26">
-        <f>E22*0.00001</f>
-        <v>2.5650000000000003E-2</v>
-      </c>
-      <c r="I22" s="26">
-        <f>(F22+G22+H22)*0.07</f>
-        <v>0.37310489999999996</v>
-      </c>
-      <c r="J22" s="26">
-        <f>E22-F22-G22-H22-I22</f>
-        <v>2559.2968251000002</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="D23" s="26">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E23" s="17">
+        <f>C23*D23</f>
+        <v>22599.999999999996</v>
+      </c>
+      <c r="F23" s="27">
+        <f>E23*0.002</f>
+        <v>45.199999999999996</v>
+      </c>
+      <c r="G23" s="26">
+        <f>E23*0.000068</f>
+        <v>1.5367999999999997</v>
+      </c>
+      <c r="H23" s="26">
+        <f>E23*0.00001</f>
+        <v>0.22599999999999998</v>
+      </c>
+      <c r="I23" s="26">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>3.2873959999999998</v>
+      </c>
+      <c r="J23" s="26">
+        <f>E23-F23-G23-H23-I23</f>
+        <v>22549.749803999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A24" s="28">
+        <f>DAYS360(A22,A23)</f>
+        <v>43</v>
+      </c>
+      <c r="B24" s="30">
+        <f>(D23-D22)/D22</f>
+        <v>0.15897435897435888</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18">
+        <f>E23-E22</f>
+        <v>3099.9999999999964</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18">
+        <f>J23-J22</f>
+        <v>3006.5592539999961</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -15250,10 +15296,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -16187,6 +16233,121 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A26" s="49">
+        <v>45747</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1.85</v>
+      </c>
+      <c r="E26" s="68">
+        <f>C26*D26</f>
+        <v>18500</v>
+      </c>
+      <c r="F26" s="18">
+        <f>E26*0.002</f>
+        <v>37</v>
+      </c>
+      <c r="G26" s="18">
+        <f>E26*0.00006</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H26" s="18">
+        <f>E26*0.00001</f>
+        <v>0.18500000000000003</v>
+      </c>
+      <c r="I26" s="18">
+        <f>(F26+G26+H26)*0.07</f>
+        <v>2.6806500000000004</v>
+      </c>
+      <c r="J26" s="68">
+        <f>E26+F26+I26+G26+H26</f>
+        <v>18540.97565</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="49">
+        <v>45876</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C26</f>
+        <v>10000</v>
+      </c>
+      <c r="D27" s="26">
+        <v>2.06</v>
+      </c>
+      <c r="E27" s="17">
+        <f>C27*D27</f>
+        <v>20600</v>
+      </c>
+      <c r="F27" s="27">
+        <f>E27*0.002</f>
+        <v>41.2</v>
+      </c>
+      <c r="G27" s="26">
+        <f>E27*0.000068</f>
+        <v>1.4008</v>
+      </c>
+      <c r="H27" s="26">
+        <f>E27*0.00001</f>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="I27" s="26">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>2.9964760000000004</v>
+      </c>
+      <c r="J27" s="26">
+        <f>E27-F27-G27-H27-I27</f>
+        <v>20554.196724000001</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="30">
+        <f>(D27-D26)/D26</f>
+        <v>0.11351351351351349</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18">
+        <f>E27-E26</f>
+        <v>2100</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18">
+        <f>J27-J26</f>
+        <v>2013.221074000001</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -19416,16 +19577,16 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
@@ -20139,512 +20300,702 @@
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="8">
-        <v>44908</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D20" s="11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="A20" s="14">
+        <v>45875</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>2500</v>
+      </c>
+      <c r="D20" s="17">
+        <v>12.6</v>
+      </c>
+      <c r="E20" s="18">
         <f>C20*D20</f>
-        <v>16600</v>
-      </c>
-      <c r="F20" s="20">
+        <v>31500</v>
+      </c>
+      <c r="F20" s="18">
         <f>E20*0.002</f>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="G20" s="20">
+        <v>63</v>
+      </c>
+      <c r="G20" s="18">
         <f>E20*0.000068</f>
-        <v>1.1288</v>
-      </c>
-      <c r="H20" s="20">
+        <v>2.1419999999999999</v>
+      </c>
+      <c r="H20" s="18">
         <f>E20*0.00001</f>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="I20" s="20">
+        <v>0.315</v>
+      </c>
+      <c r="I20" s="18">
         <f>(F20+G20+H20)*0.07</f>
-        <v>2.4146360000000002</v>
-      </c>
-      <c r="J20" s="20">
+        <v>4.5819900000000002</v>
+      </c>
+      <c r="J20" s="18">
         <f>E20+F20+I20+G20+H20</f>
-        <v>16636.909436000002</v>
+        <v>31570.038989999997</v>
       </c>
       <c r="M20" s="21"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="44"/>
-      <c r="B21" s="25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="7">
         <f>(D20-D19)/D19</f>
-        <v>-0.71080139372822293</v>
-      </c>
-      <c r="C21" s="22">
+        <v>-0.56097560975609762</v>
+      </c>
+      <c r="C21" s="5">
         <f>SUM(C19:C20)</f>
-        <v>17000</v>
-      </c>
-      <c r="D21" s="64">
+        <v>17500</v>
+      </c>
+      <c r="D21" s="65">
         <f>E21/C21</f>
-        <v>26.3</v>
-      </c>
-      <c r="E21" s="22">
+        <v>26.4</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" ref="E21:J21" si="10">SUM(E19:E20)</f>
-        <v>447100</v>
-      </c>
-      <c r="F21" s="22">
+        <v>462000</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="10"/>
-        <v>894.2</v>
-      </c>
-      <c r="G21" s="22">
+        <v>924</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="10"/>
-        <v>30.402799999999992</v>
-      </c>
-      <c r="H21" s="22">
+        <v>31.415999999999993</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="10"/>
-        <v>4.4710000000000001</v>
-      </c>
-      <c r="I21" s="22">
+        <v>4.62</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="10"/>
-        <v>65.035166000000004</v>
-      </c>
-      <c r="J21" s="22">
+        <v>67.202520000000007</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="10"/>
-        <v>448094.10896600003</v>
+        <v>463027.23852000001</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="25"/>
       <c r="M21" s="21"/>
     </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="8">
+        <v>45875</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D22" s="11">
+        <v>12</v>
+      </c>
+      <c r="E22" s="20">
+        <f>C22*D22</f>
+        <v>30000</v>
+      </c>
+      <c r="F22" s="20">
+        <f>E22*0.002</f>
+        <v>60</v>
+      </c>
+      <c r="G22" s="20">
+        <f>E22*0.000068</f>
+        <v>2.04</v>
+      </c>
+      <c r="H22" s="20">
+        <f>E22*0.00001</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I22" s="20">
+        <f>(F22+G22+H22)*0.07</f>
+        <v>4.3638000000000003</v>
+      </c>
+      <c r="J22" s="20">
+        <f>E22+F22+I22+G22+H22</f>
+        <v>30066.703799999999</v>
+      </c>
+      <c r="M22" s="21"/>
+    </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="14">
+      <c r="A23" s="44"/>
+      <c r="B23" s="25">
+        <f>(D22-D21)/D21</f>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="C23" s="22">
+        <f>SUM(C21:C22)</f>
+        <v>20000</v>
+      </c>
+      <c r="D23" s="64">
+        <f>E23/C23</f>
+        <v>24.6</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" ref="E23:J23" si="11">SUM(E21:E22)</f>
+        <v>492000</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="11"/>
+        <v>984</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="11"/>
+        <v>33.455999999999996</v>
+      </c>
+      <c r="H23" s="22">
+        <f t="shared" si="11"/>
+        <v>4.92</v>
+      </c>
+      <c r="I23" s="22">
+        <f t="shared" si="11"/>
+        <v>71.566320000000005</v>
+      </c>
+      <c r="J23" s="22">
+        <f t="shared" si="11"/>
+        <v>493093.94232000003</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="C24" s="106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="14">
         <v>44641</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
+      <c r="B25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
         <v>3000</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D25" s="17">
         <v>24.5</v>
       </c>
-      <c r="E23" s="18">
-        <f>C23*D23</f>
+      <c r="E25" s="18">
+        <f>C25*D25</f>
         <v>73500</v>
       </c>
-      <c r="F23" s="18">
-        <f>E23*0.002</f>
+      <c r="F25" s="18">
+        <f>E25*0.002</f>
         <v>147</v>
       </c>
-      <c r="G23" s="18">
-        <f>E23*0.000068</f>
+      <c r="G25" s="18">
+        <f>E25*0.000068</f>
         <v>4.9980000000000002</v>
       </c>
-      <c r="H23" s="18">
-        <f>E23*0.00001</f>
+      <c r="H25" s="18">
+        <f>E25*0.00001</f>
         <v>0.7350000000000001</v>
       </c>
-      <c r="I23" s="18">
-        <f>(F23+G23+H23)*0.07</f>
+      <c r="I25" s="18">
+        <f>(F25+G25+H25)*0.07</f>
         <v>10.691310000000001</v>
       </c>
-      <c r="J23" s="18">
-        <f>E23+F23+I23+G23+H23</f>
+      <c r="J25" s="18">
+        <f>E25+F25+I25+G25+H25</f>
         <v>73663.424310000002</v>
       </c>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13" s="13" customFormat="1">
-      <c r="A24" s="14">
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" s="13" customFormat="1">
+      <c r="A26" s="14">
         <v>44867</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="16">
-        <f>C23</f>
+      <c r="C26" s="16">
+        <f>C25</f>
         <v>3000</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D26" s="26">
         <v>16.100000000000001</v>
       </c>
-      <c r="E24" s="17">
-        <f>C24*D24</f>
+      <c r="E26" s="17">
+        <f>C26*D26</f>
         <v>48300.000000000007</v>
       </c>
-      <c r="F24" s="27">
-        <f>E24*0.002</f>
+      <c r="F26" s="27">
+        <f>E26*0.002</f>
         <v>96.600000000000023</v>
       </c>
-      <c r="G24" s="26">
-        <f>E24*0.000068</f>
+      <c r="G26" s="26">
+        <f>E26*0.000068</f>
         <v>3.2844000000000007</v>
       </c>
-      <c r="H24" s="26">
-        <f>E24*0.00001</f>
+      <c r="H26" s="26">
+        <f>E26*0.00001</f>
         <v>0.4830000000000001</v>
       </c>
-      <c r="I24" s="26">
-        <f>(F24+G24+H24)*0.07</f>
+      <c r="I26" s="26">
+        <f>(F26+G26+H26)*0.07</f>
         <v>7.025718000000003</v>
       </c>
-      <c r="J24" s="26">
-        <f>E24-F24-G24-H24-I24</f>
+      <c r="J26" s="26">
+        <f>E26-F26-G26-H26-I26</f>
         <v>48192.606882000015</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A25" s="14" t="s">
+    <row r="27" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="7">
-        <f>(D24-D23)/D23</f>
+      <c r="B27" s="7">
+        <f>(D26-D25)/D25</f>
         <v>-0.3428571428571428</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18">
-        <f>E24-E23</f>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18">
+        <f>E26-E25</f>
         <v>-25199.999999999993</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <f>J24-J23</f>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18">
+        <f>J26-J25</f>
         <v>-25470.817427999988</v>
       </c>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A26" s="8"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:13" s="13" customFormat="1">
-      <c r="A27" s="39">
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A28" s="8"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" s="13" customFormat="1">
+      <c r="A29" s="39">
         <v>44372</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
+      <c r="B29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
         <v>1500</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D29" s="17">
         <v>24.5</v>
       </c>
-      <c r="E27" s="18">
-        <f>C27*D27</f>
+      <c r="E29" s="18">
+        <f>C29*D29</f>
         <v>36750</v>
       </c>
-      <c r="F27" s="18">
-        <f>E27*0.002</f>
+      <c r="F29" s="18">
+        <f>E29*0.002</f>
         <v>73.5</v>
       </c>
-      <c r="G27" s="18">
-        <f>E27*0.00006</f>
+      <c r="G29" s="18">
+        <f>E29*0.00006</f>
         <v>2.2050000000000001</v>
       </c>
-      <c r="H27" s="18">
-        <f>E27*0.00001</f>
+      <c r="H29" s="18">
+        <f>E29*0.00001</f>
         <v>0.36750000000000005</v>
       </c>
-      <c r="I27" s="18">
-        <f>(F27+G27+H27)*0.07</f>
+      <c r="I29" s="18">
+        <f>(F29+G29+H29)*0.07</f>
         <v>5.3250750000000009</v>
       </c>
-      <c r="J27" s="18">
-        <f>E27+F27+I27+G27+H27</f>
+      <c r="J29" s="18">
+        <f>E29+F29+I29+G29+H29</f>
         <v>36831.397575000003</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:13" s="13" customFormat="1">
-      <c r="A28" s="14">
+      <c r="K29" s="32"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" s="13" customFormat="1">
+      <c r="A30" s="14">
         <v>44533</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="16">
-        <f>C27</f>
+      <c r="C30" s="16">
+        <f>C29</f>
         <v>1500</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D30" s="26">
         <v>32</v>
       </c>
-      <c r="E28" s="17">
-        <f>C28*D28</f>
+      <c r="E30" s="17">
+        <f>C30*D30</f>
         <v>48000</v>
       </c>
-      <c r="F28" s="27">
-        <f>E28*0.002</f>
+      <c r="F30" s="27">
+        <f>E30*0.002</f>
         <v>96</v>
       </c>
-      <c r="G28" s="26">
-        <f>E28*0.000068</f>
+      <c r="G30" s="26">
+        <f>E30*0.000068</f>
         <v>3.2639999999999998</v>
       </c>
-      <c r="H28" s="26">
-        <f>E28*0.00001</f>
+      <c r="H30" s="26">
+        <f>E30*0.00001</f>
         <v>0.48000000000000004</v>
       </c>
-      <c r="I28" s="26">
-        <f>(F28+G28+H28)*0.07</f>
+      <c r="I30" s="26">
+        <f>(F30+G30+H30)*0.07</f>
         <v>6.9820800000000007</v>
       </c>
-      <c r="J28" s="26">
-        <f>E28-F28-G28-H28-I28</f>
+      <c r="J30" s="26">
+        <f>E30-F30-G30-H30-I30</f>
         <v>47893.273919999992</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A29" s="14" t="s">
+    <row r="31" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="7">
-        <f>(D28-D27)/D27</f>
+      <c r="B31" s="7">
+        <f>(D30-D29)/D29</f>
         <v>0.30612244897959184</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18">
-        <f>E28-E27</f>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18">
+        <f>E30-E29</f>
         <v>11250</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18">
-        <f>J28-J27</f>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18">
+        <f>J30-J29</f>
         <v>11061.87634499999</v>
       </c>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" s="13" customFormat="1">
-      <c r="A30" s="39">
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1">
+      <c r="A32" s="39">
         <v>44372</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
         <v>1500</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D32" s="17">
         <v>24.5</v>
       </c>
-      <c r="E30" s="18">
-        <f>C30*D30</f>
+      <c r="E32" s="18">
+        <f>C32*D32</f>
         <v>36750</v>
       </c>
-      <c r="F30" s="18">
-        <f>E30*0.002</f>
+      <c r="F32" s="18">
+        <f>E32*0.002</f>
         <v>73.5</v>
       </c>
-      <c r="G30" s="18">
-        <f>E30*0.00006</f>
+      <c r="G32" s="18">
+        <f>E32*0.00006</f>
         <v>2.2050000000000001</v>
       </c>
-      <c r="H30" s="18">
-        <f>E30*0.00001</f>
+      <c r="H32" s="18">
+        <f>E32*0.00001</f>
         <v>0.36750000000000005</v>
       </c>
-      <c r="I30" s="18">
-        <f>(F30+G30+H30)*0.07</f>
+      <c r="I32" s="18">
+        <f>(F32+G32+H32)*0.07</f>
         <v>5.3250750000000009</v>
       </c>
-      <c r="J30" s="18">
-        <f>E30+F30+I30+G30+H30</f>
+      <c r="J32" s="18">
+        <f>E32+F32+I32+G32+H32</f>
         <v>36831.397575000003</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="12"/>
-    </row>
-    <row r="31" spans="1:13" s="13" customFormat="1">
-      <c r="A31" s="14">
+      <c r="K32" s="32"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" s="13" customFormat="1">
+      <c r="A33" s="14">
         <v>44537</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="16">
-        <f>C30</f>
+      <c r="C33" s="16">
+        <f>C32</f>
         <v>1500</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D33" s="26">
         <v>33</v>
       </c>
-      <c r="E31" s="17">
-        <f>C31*D31</f>
+      <c r="E33" s="17">
+        <f>C33*D33</f>
         <v>49500</v>
       </c>
-      <c r="F31" s="27">
-        <f>E31*0.002</f>
+      <c r="F33" s="27">
+        <f>E33*0.002</f>
         <v>99</v>
       </c>
-      <c r="G31" s="26">
-        <f>E31*0.000068</f>
+      <c r="G33" s="26">
+        <f>E33*0.000068</f>
         <v>3.3660000000000001</v>
       </c>
-      <c r="H31" s="26">
-        <f>E31*0.00001</f>
+      <c r="H33" s="26">
+        <f>E33*0.00001</f>
         <v>0.49500000000000005</v>
       </c>
-      <c r="I31" s="26">
-        <f>(F31+G31+H31)*0.07</f>
+      <c r="I33" s="26">
+        <f>(F33+G33+H33)*0.07</f>
         <v>7.2002700000000006</v>
       </c>
-      <c r="J31" s="26">
-        <f>E31-F31-G31-H31-I31</f>
+      <c r="J33" s="26">
+        <f>E33-F33-G33-H33-I33</f>
         <v>49389.938729999994</v>
       </c>
     </row>
-    <row r="32" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A32" s="14" t="s">
+    <row r="34" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="7">
-        <f>(D31-D30)/D30</f>
+      <c r="B34" s="7">
+        <f>(D33-D32)/D32</f>
         <v>0.34693877551020408</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18">
-        <f>E31-E30</f>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18">
+        <f>E33-E32</f>
         <v>12750</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18">
-        <f>J31-J30</f>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18">
+        <f>J33-J32</f>
         <v>12558.541154999992</v>
       </c>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" s="13" customFormat="1">
-      <c r="A33" s="39">
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" s="13" customFormat="1">
+      <c r="A35" s="39">
         <v>44372</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="16">
+      <c r="B35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
         <v>1500</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D35" s="17">
         <v>31.5</v>
       </c>
-      <c r="E33" s="18">
-        <f>C33*D33</f>
+      <c r="E35" s="18">
+        <f>C35*D35</f>
         <v>47250</v>
       </c>
-      <c r="F33" s="18">
-        <f>E33*0.002</f>
+      <c r="F35" s="18">
+        <f>E35*0.002</f>
         <v>94.5</v>
       </c>
-      <c r="G33" s="18">
-        <f>E33*0.00006</f>
+      <c r="G35" s="18">
+        <f>E35*0.00006</f>
         <v>2.835</v>
       </c>
-      <c r="H33" s="18">
-        <f>E33*0.00001</f>
+      <c r="H35" s="18">
+        <f>E35*0.00001</f>
         <v>0.47250000000000003</v>
       </c>
-      <c r="I33" s="18">
-        <f>(F33+G33+H33)*0.07</f>
+      <c r="I35" s="18">
+        <f>(F35+G35+H35)*0.07</f>
         <v>6.8465249999999997</v>
       </c>
-      <c r="J33" s="18">
-        <f>E33+F33+I33+G33+H33</f>
+      <c r="J35" s="18">
+        <f>E35+F35+I35+G35+H35</f>
         <v>47354.654025000003</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="12"/>
-    </row>
-    <row r="34" spans="1:13" s="13" customFormat="1">
-      <c r="A34" s="14">
+      <c r="K35" s="32"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" s="13" customFormat="1">
+      <c r="A36" s="14">
         <v>44574</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B36" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="16">
-        <f>C33</f>
+      <c r="C36" s="16">
+        <f>C35</f>
         <v>1500</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D36" s="26">
         <v>33</v>
       </c>
-      <c r="E34" s="17">
-        <f>C34*D34</f>
+      <c r="E36" s="17">
+        <f>C36*D36</f>
         <v>49500</v>
       </c>
-      <c r="F34" s="27">
-        <f>E34*0.002</f>
+      <c r="F36" s="27">
+        <f>E36*0.002</f>
         <v>99</v>
       </c>
-      <c r="G34" s="26">
-        <f>E34*0.000068</f>
+      <c r="G36" s="26">
+        <f>E36*0.000068</f>
         <v>3.3660000000000001</v>
       </c>
-      <c r="H34" s="26">
-        <f>E34*0.00001</f>
+      <c r="H36" s="26">
+        <f>E36*0.00001</f>
         <v>0.49500000000000005</v>
       </c>
-      <c r="I34" s="26">
-        <f>(F34+G34+H34)*0.07</f>
+      <c r="I36" s="26">
+        <f>(F36+G36+H36)*0.07</f>
         <v>7.2002700000000006</v>
       </c>
-      <c r="J34" s="26">
-        <f>E34-F34-G34-H34-I34</f>
+      <c r="J36" s="26">
+        <f>E36-F36-G36-H36-I36</f>
         <v>49389.938729999994</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A35" s="14" t="s">
+    <row r="37" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="7">
-        <f>(D34-D33)/D33</f>
+      <c r="B37" s="7">
+        <f>(D36-D35)/D35</f>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18">
-        <f>E34-E33</f>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18">
+        <f>E36-E35</f>
         <v>2250</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18">
-        <f>J34-J33</f>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18">
+        <f>J36-J35</f>
         <v>2035.2847049999909</v>
       </c>
-      <c r="K35" s="12"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" s="13" customFormat="1">
+      <c r="A38" s="66">
+        <v>44372</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D38" s="11">
+        <v>12.6</v>
+      </c>
+      <c r="E38" s="20">
+        <f>C38*D38</f>
+        <v>31500</v>
+      </c>
+      <c r="F38" s="20">
+        <f>E38*0.002</f>
+        <v>63</v>
+      </c>
+      <c r="G38" s="20">
+        <f>E38*0.00006</f>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="H38" s="20">
+        <f>E38*0.00001</f>
+        <v>0.315</v>
+      </c>
+      <c r="I38" s="20">
+        <f>(F38+G38+H38)*0.07</f>
+        <v>4.5643500000000001</v>
+      </c>
+      <c r="J38" s="20">
+        <f>E38+F38+I38+G38+H38</f>
+        <v>31569.769349999999</v>
+      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" s="13" customFormat="1">
+      <c r="A39" s="8">
+        <v>44574</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10">
+        <f>C38</f>
+        <v>2500</v>
+      </c>
+      <c r="D39" s="34">
+        <v>12.8</v>
+      </c>
+      <c r="E39" s="11">
+        <f>C39*D39</f>
+        <v>32000</v>
+      </c>
+      <c r="F39" s="35">
+        <f>E39*0.002</f>
+        <v>64</v>
+      </c>
+      <c r="G39" s="34">
+        <f>E39*0.000068</f>
+        <v>2.1760000000000002</v>
+      </c>
+      <c r="H39" s="34">
+        <f>E39*0.00001</f>
+        <v>0.32</v>
+      </c>
+      <c r="I39" s="34">
+        <f>(F39+G39+H39)*0.07</f>
+        <v>4.6547200000000002</v>
+      </c>
+      <c r="J39" s="34">
+        <f>E39-F39-G39-H39-I39</f>
+        <v>31928.849280000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="25">
+        <f>(D39-D38)/D38</f>
+        <v>1.5873015873015959E-2</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="20">
+        <f>E39-E38</f>
+        <v>500</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20">
+        <f>J39-J38</f>
+        <v>359.07993000000351</v>
+      </c>
+      <c r="K40" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -20656,16 +21007,16 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
@@ -20800,7 +21151,7 @@
     </row>
     <row r="5" spans="1:11" s="21" customFormat="1">
       <c r="A5" s="8">
-        <v>45218</v>
+        <v>45875</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -20809,38 +21160,38 @@
         <v>5000</v>
       </c>
       <c r="D5" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="20">
         <f>C5*D5</f>
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F5" s="20">
         <f>E5*0.002</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G5" s="20">
         <f>E5*0.000068</f>
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="H5" s="20">
         <f>E5*0.00001</f>
-        <v>0.25</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I5" s="20">
         <f>(F5+G5+H5)*0.07</f>
-        <v>3.6365000000000007</v>
+        <v>4.3638000000000003</v>
       </c>
       <c r="J5" s="20">
         <f>E5+F5+I5+G5+H5</f>
-        <v>25055.586500000001</v>
+        <v>30066.703799999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="21" customFormat="1">
       <c r="A6" s="44"/>
-      <c r="B6" s="3">
+      <c r="B6" s="25">
         <f>(D5-D4)/D4</f>
-        <v>-0.33333333333333331</v>
+        <v>-0.2</v>
       </c>
       <c r="C6" s="22">
         <f>SUM(C4:C5)</f>
@@ -20848,348 +21199,426 @@
       </c>
       <c r="D6" s="33">
         <f>E6/C6</f>
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="E6" s="22">
         <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>175000</v>
+        <v>180000</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="G6" s="22">
         <f t="shared" si="1"/>
-        <v>11.295999999999999</v>
+        <v>11.635999999999999</v>
       </c>
       <c r="H6" s="22">
         <f t="shared" si="1"/>
-        <v>1.7500000000000002</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="I6" s="22">
         <f t="shared" si="1"/>
-        <v>25.413220000000006</v>
+        <v>26.140520000000006</v>
       </c>
       <c r="J6" s="22">
         <f t="shared" si="1"/>
-        <v>175388.45921999999</v>
+        <v>180399.57651999997</v>
       </c>
       <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:11" s="21" customFormat="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="A7" s="8">
+        <v>45875</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="46">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
+        <f>C7*D7</f>
+        <v>30000</v>
+      </c>
+      <c r="F7" s="20">
+        <f>E7*0.002</f>
+        <v>60</v>
+      </c>
+      <c r="G7" s="20">
+        <f>E7*0.000068</f>
+        <v>2.04</v>
+      </c>
+      <c r="H7" s="20">
+        <f>E7*0.00001</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I7" s="20">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>4.3638000000000003</v>
+      </c>
+      <c r="J7" s="20">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>30066.703799999999</v>
+      </c>
     </row>
     <row r="8" spans="1:11" s="21" customFormat="1">
-      <c r="A8" s="14">
+      <c r="A8" s="44"/>
+      <c r="B8" s="25">
+        <f>(D7-D6)/D6</f>
+        <v>-0.16666666666666669</v>
+      </c>
+      <c r="C8" s="22">
+        <f>SUM(C6:C7)</f>
+        <v>30000</v>
+      </c>
+      <c r="D8" s="33">
+        <f>E8/C8</f>
+        <v>7</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
+        <v>210000</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="2"/>
+        <v>13.675999999999998</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="2"/>
+        <v>2.1000000000000005</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="2"/>
+        <v>30.504320000000007</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="2"/>
+        <v>210466.28031999996</v>
+      </c>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" s="21" customFormat="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" s="21" customFormat="1">
+      <c r="A10" s="14">
         <v>45272</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
         <v>2500</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D10" s="41">
         <v>6.35</v>
       </c>
-      <c r="E8" s="18">
-        <f>C8*D8</f>
+      <c r="E10" s="18">
+        <f>C10*D10</f>
         <v>15875</v>
       </c>
-      <c r="F8" s="18">
-        <f>E8*0.002</f>
+      <c r="F10" s="18">
+        <f>E10*0.002</f>
         <v>31.75</v>
       </c>
-      <c r="G8" s="18">
-        <f>E8*0.000068</f>
+      <c r="G10" s="18">
+        <f>E10*0.000068</f>
         <v>1.0794999999999999</v>
       </c>
-      <c r="H8" s="18">
-        <f>E8*0.00001</f>
+      <c r="H10" s="18">
+        <f>E10*0.00001</f>
         <v>0.15875</v>
       </c>
-      <c r="I8" s="18">
-        <f>(F8+G8+H8)*0.07</f>
+      <c r="I10" s="18">
+        <f>(F10+G10+H10)*0.07</f>
         <v>2.3091775000000001</v>
       </c>
-      <c r="J8" s="18">
-        <f>E8+F8+I8+G8+H8</f>
+      <c r="J10" s="18">
+        <f>E10+F10+I10+G10+H10</f>
         <v>15910.2974275</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="13" customFormat="1">
-      <c r="A9" s="14">
+    <row r="11" spans="1:11" s="13" customFormat="1">
+      <c r="A11" s="14">
         <v>44867</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16">
-        <f>C8</f>
+      <c r="C11" s="16">
+        <f>C10</f>
         <v>2500</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D11" s="26">
         <v>6.7</v>
       </c>
-      <c r="E9" s="17">
-        <f>C9*D9</f>
+      <c r="E11" s="17">
+        <f>C11*D11</f>
         <v>16750</v>
       </c>
-      <c r="F9" s="27">
-        <f>E9*0.002</f>
+      <c r="F11" s="27">
+        <f>E11*0.002</f>
         <v>33.5</v>
       </c>
-      <c r="G9" s="26">
-        <f>E9*0.000068</f>
+      <c r="G11" s="26">
+        <f>E11*0.000068</f>
         <v>1.139</v>
       </c>
-      <c r="H9" s="26">
-        <f>E9*0.00001</f>
+      <c r="H11" s="26">
+        <f>E11*0.00001</f>
         <v>0.16750000000000001</v>
       </c>
-      <c r="I9" s="26">
-        <f>(F9+G9+H9)*0.07</f>
+      <c r="I11" s="26">
+        <f>(F11+G11+H11)*0.07</f>
         <v>2.436455</v>
       </c>
-      <c r="J9" s="26">
-        <f>E9-F9-G9-H9-I9</f>
+      <c r="J11" s="26">
+        <f>E11-F11-G11-H11-I11</f>
         <v>16712.757045000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A10" s="14" t="s">
+    <row r="12" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7">
-        <f>J10/J8</f>
+      <c r="B12" s="7">
+        <f>J12/J10</f>
         <v>5.043649379633839E-2</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18">
-        <f>E9-E8</f>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18">
+        <f>E11-E10</f>
         <v>875</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18">
-        <f>J9-J8</f>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18">
+        <f>J11-J10</f>
         <v>802.45961750000242</v>
       </c>
-      <c r="K10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" s="21" customFormat="1">
-      <c r="A11" s="14">
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" s="21" customFormat="1">
+      <c r="A13" s="14">
         <v>45218</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16">
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
         <v>2500</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D13" s="41">
         <v>6.6</v>
       </c>
-      <c r="E11" s="18">
-        <f>C11*D11</f>
+      <c r="E13" s="18">
+        <f>C13*D13</f>
         <v>16500</v>
       </c>
-      <c r="F11" s="18">
-        <f>E11*0.002</f>
+      <c r="F13" s="18">
+        <f>E13*0.002</f>
         <v>33</v>
       </c>
-      <c r="G11" s="18">
-        <f>E11*0.000068</f>
+      <c r="G13" s="18">
+        <f>E13*0.000068</f>
         <v>1.1219999999999999</v>
       </c>
-      <c r="H11" s="18">
-        <f>E11*0.00001</f>
+      <c r="H13" s="18">
+        <f>E13*0.00001</f>
         <v>0.16500000000000001</v>
       </c>
-      <c r="I11" s="18">
-        <f>(F11+G11+H11)*0.07</f>
+      <c r="I13" s="18">
+        <f>(F13+G13+H13)*0.07</f>
         <v>2.4000900000000001</v>
       </c>
-      <c r="J11" s="18">
-        <f>E11+F11+I11+G11+H11</f>
+      <c r="J13" s="18">
+        <f>E13+F13+I13+G13+H13</f>
         <v>16536.687089999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="13" customFormat="1">
-      <c r="A12" s="14">
+    <row r="14" spans="1:11" s="13" customFormat="1">
+      <c r="A14" s="14">
         <v>45295</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16">
-        <f>C11</f>
+      <c r="C14" s="16">
+        <f>C13</f>
         <v>2500</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D14" s="26">
         <v>7</v>
       </c>
-      <c r="E12" s="17">
-        <f>C12*D12</f>
+      <c r="E14" s="17">
+        <f>C14*D14</f>
         <v>17500</v>
       </c>
-      <c r="F12" s="27">
-        <f>E12*0.002</f>
+      <c r="F14" s="27">
+        <f>E14*0.002</f>
         <v>35</v>
       </c>
-      <c r="G12" s="26">
-        <f>E12*0.000068</f>
+      <c r="G14" s="26">
+        <f>E14*0.000068</f>
         <v>1.19</v>
       </c>
-      <c r="H12" s="26">
-        <f>E12*0.00001</f>
+      <c r="H14" s="26">
+        <f>E14*0.00001</f>
         <v>0.17500000000000002</v>
       </c>
-      <c r="I12" s="26">
-        <f>(F12+G12+H12)*0.07</f>
+      <c r="I14" s="26">
+        <f>(F14+G14+H14)*0.07</f>
         <v>2.54555</v>
       </c>
-      <c r="J12" s="26">
-        <f>E12-F12-G12-H12-I12</f>
+      <c r="J14" s="26">
+        <f>E14-F14-G14-H14-I14</f>
         <v>17461.089450000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A13" s="14" t="s">
+    <row r="15" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="7">
-        <f>J13/J11</f>
+      <c r="B15" s="7">
+        <f>J15/J13</f>
         <v>5.5900093831914174E-2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18">
-        <f>E12-E11</f>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18">
+        <f>E14-E13</f>
         <v>1000</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18">
-        <f>J12-J11</f>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18">
+        <f>J14-J13</f>
         <v>924.40236000000368</v>
       </c>
-      <c r="K13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" s="21" customFormat="1">
-      <c r="A14" s="14">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" s="21" customFormat="1">
+      <c r="A16" s="14">
         <v>45132</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
         <v>2500</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D16" s="41">
         <v>7.45</v>
       </c>
-      <c r="E14" s="18">
-        <f>C14*D14</f>
+      <c r="E16" s="18">
+        <f>C16*D16</f>
         <v>18625</v>
       </c>
-      <c r="F14" s="18">
-        <f>E14*0.002</f>
+      <c r="F16" s="18">
+        <f>E16*0.002</f>
         <v>37.25</v>
       </c>
-      <c r="G14" s="18">
-        <f>E14*0.000068</f>
+      <c r="G16" s="18">
+        <f>E16*0.000068</f>
         <v>1.2665</v>
       </c>
-      <c r="H14" s="18">
-        <f>E14*0.00001</f>
+      <c r="H16" s="18">
+        <f>E16*0.00001</f>
         <v>0.18625000000000003</v>
       </c>
-      <c r="I14" s="18">
-        <f>(F14+G14+H14)*0.07</f>
+      <c r="I16" s="18">
+        <f>(F16+G16+H16)*0.07</f>
         <v>2.7091925000000003</v>
       </c>
-      <c r="J14" s="18">
-        <f>E14+F14+I14+G14+H14</f>
+      <c r="J16" s="18">
+        <f>E16+F16+I16+G16+H16</f>
         <v>18666.411942499999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="13" customFormat="1">
-      <c r="A15" s="8">
+    <row r="17" spans="1:11" s="13" customFormat="1">
+      <c r="A17" s="8">
         <v>45295</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
-        <f>C14</f>
+      <c r="C17" s="10">
+        <f>C16</f>
         <v>2500</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D17" s="34">
         <v>7.9</v>
       </c>
-      <c r="E15" s="11">
-        <f>C15*D15</f>
+      <c r="E17" s="11">
+        <f>C17*D17</f>
         <v>19750</v>
       </c>
-      <c r="F15" s="35">
-        <f>E15*0.002</f>
+      <c r="F17" s="35">
+        <f>E17*0.002</f>
         <v>39.5</v>
       </c>
-      <c r="G15" s="34">
-        <f>E15*0.000068</f>
+      <c r="G17" s="34">
+        <f>E17*0.000068</f>
         <v>1.343</v>
       </c>
-      <c r="H15" s="34">
-        <f>E15*0.00001</f>
+      <c r="H17" s="34">
+        <f>E17*0.00001</f>
         <v>0.19750000000000001</v>
       </c>
-      <c r="I15" s="34">
-        <f>(F15+G15+H15)*0.07</f>
+      <c r="I17" s="34">
+        <f>(F17+G17+H17)*0.07</f>
         <v>2.8728350000000002</v>
       </c>
-      <c r="J15" s="34">
-        <f>E15-F15-G15-H15-I15</f>
+      <c r="J17" s="34">
+        <f>E17-F17-G17-H17-I17</f>
         <v>19706.086665000003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A16" s="8" t="s">
+    <row r="18" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="25">
-        <f>J16/J14</f>
+      <c r="B18" s="25">
+        <f>J18/J16</f>
         <v>5.5697620180172644E-2</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="20">
-        <f>E15-E14</f>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="20">
+        <f>E17-E16</f>
         <v>1125</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20">
-        <f>J15-J14</f>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
+        <f>J17-J16</f>
         <v>1039.6747225000036</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K18" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -25465,7 +25894,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -26213,31 +26642,31 @@
         <v>10000</v>
       </c>
       <c r="D21" s="46">
-        <v>5.25</v>
+        <v>5.9</v>
       </c>
       <c r="E21" s="20">
         <f>C21*D21</f>
-        <v>52500</v>
+        <v>59000</v>
       </c>
       <c r="F21" s="20">
         <f>E21*0.002</f>
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G21" s="20">
         <f>E21*0.000068</f>
-        <v>3.57</v>
+        <v>4.0119999999999996</v>
       </c>
       <c r="H21" s="20">
         <f>E21*0.00001</f>
-        <v>0.52500000000000002</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="I21" s="20">
         <f>(F21+G21+H21)*0.07</f>
-        <v>7.6366500000000004</v>
+        <v>8.5821400000000008</v>
       </c>
       <c r="J21" s="20">
         <f>E21+F21+I21+G21+H21</f>
-        <v>52616.731650000002</v>
+        <v>59131.184139999998</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="21" customFormat="1" ht="21">
@@ -26246,7 +26675,7 @@
       </c>
       <c r="B22" s="75">
         <f>(D21-D20)/D20</f>
-        <v>-0.47869259412494825</v>
+        <v>-0.41414977244517992</v>
       </c>
       <c r="C22" s="22">
         <f>C20+C21</f>
@@ -26254,31 +26683,31 @@
       </c>
       <c r="D22" s="33">
         <f>E22/C22</f>
-        <v>9.6999999999999993</v>
+        <v>9.75</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" ref="E22:J22" si="12">E20+E21</f>
-        <v>1261000</v>
+        <v>1267500</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="12"/>
-        <v>2522</v>
+        <v>2535</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="12"/>
-        <v>85.74799999999999</v>
+        <v>86.19</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="12"/>
-        <v>12.610000000000001</v>
+        <v>12.675000000000001</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="12"/>
-        <v>183.42506000000003</v>
+        <v>184.37055000000004</v>
       </c>
       <c r="J22" s="22">
         <f t="shared" si="12"/>
-        <v>1263803.78306</v>
+        <v>1270318.2355500001</v>
       </c>
       <c r="K22" s="25"/>
     </row>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1083" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F0B086E-A02C-42C5-B485-B6CAD9BEF52C}"/>
+  <xr:revisionPtr revIDLastSave="1136" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2F9005-36C3-42E2-B241-50671B39402E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3084" windowWidth="10104" windowHeight="9156" tabRatio="461" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="156" yWindow="0" windowWidth="18852" windowHeight="12336" tabRatio="461" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -34,17 +34,18 @@
     <sheet name="NER" sheetId="117" r:id="rId19"/>
     <sheet name="ORI" sheetId="184" r:id="rId20"/>
     <sheet name="PTG" sheetId="216" r:id="rId21"/>
-    <sheet name="RCL" sheetId="161" r:id="rId22"/>
-    <sheet name="SCC" sheetId="152" r:id="rId23"/>
-    <sheet name="SENA" sheetId="183" r:id="rId24"/>
-    <sheet name="SINGER" sheetId="203" r:id="rId25"/>
-    <sheet name="SYNEX" sheetId="199" r:id="rId26"/>
-    <sheet name="TFFIF" sheetId="214" r:id="rId27"/>
-    <sheet name="TMT" sheetId="145" r:id="rId28"/>
-    <sheet name="TOA" sheetId="218" r:id="rId29"/>
-    <sheet name="TVO" sheetId="221" r:id="rId30"/>
-    <sheet name="WHAIR" sheetId="157" r:id="rId31"/>
-    <sheet name="WHART" sheetId="171" r:id="rId32"/>
+    <sheet name="RCL (2)" sheetId="222" r:id="rId22"/>
+    <sheet name="RCL" sheetId="161" r:id="rId23"/>
+    <sheet name="SCC" sheetId="152" r:id="rId24"/>
+    <sheet name="SENA" sheetId="183" r:id="rId25"/>
+    <sheet name="SINGER" sheetId="203" r:id="rId26"/>
+    <sheet name="SYNEX" sheetId="199" r:id="rId27"/>
+    <sheet name="TFFIF" sheetId="214" r:id="rId28"/>
+    <sheet name="TMT" sheetId="145" r:id="rId29"/>
+    <sheet name="TOA" sheetId="218" r:id="rId30"/>
+    <sheet name="TVO" sheetId="221" r:id="rId31"/>
+    <sheet name="WHAIR" sheetId="157" r:id="rId32"/>
+    <sheet name="WHART" sheetId="171" r:id="rId33"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="39">
   <si>
     <t>BUY</t>
   </si>
@@ -377,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -475,7 +476,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:12" s="105" customFormat="1" ht="17.399999999999999">
+    <row r="38" spans="1:12" s="104" customFormat="1" ht="17.399999999999999">
       <c r="A38" s="49" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:12" s="105" customFormat="1" ht="17.399999999999999">
+    <row r="42" spans="1:12" s="104" customFormat="1" ht="17.399999999999999">
       <c r="A42" s="49" t="s">
         <v>3</v>
       </c>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:12" s="105" customFormat="1" ht="17.399999999999999">
+    <row r="46" spans="1:12" s="104" customFormat="1" ht="17.399999999999999">
       <c r="A46" s="49" t="s">
         <v>3</v>
       </c>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:11" s="105" customFormat="1" ht="17.399999999999999">
+    <row r="50" spans="1:11" s="104" customFormat="1" ht="17.399999999999999">
       <c r="A50" s="49" t="s">
         <v>3</v>
       </c>
@@ -5974,10 +5974,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115D497-67E5-4755-A37C-D801F1CE1CC8}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -6889,598 +6889,519 @@
     </row>
     <row r="25" spans="1:14" s="21" customFormat="1">
       <c r="A25" s="14">
-        <v>45191</v>
+        <v>45701</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="16">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="D25" s="17">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="E25" s="18">
         <f>C25*D25</f>
-        <v>36600</v>
+        <v>99000</v>
       </c>
       <c r="F25" s="18">
         <f>E25*0.002</f>
-        <v>73.2</v>
+        <v>198</v>
       </c>
       <c r="G25" s="18">
         <f>E25*0.000068</f>
-        <v>2.4887999999999999</v>
+        <v>6.7320000000000002</v>
       </c>
       <c r="H25" s="18">
         <f>E25*0.00001</f>
-        <v>0.36600000000000005</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="I25" s="18">
         <f>(F25+G25+H25)*0.07</f>
-        <v>5.3238360000000009</v>
+        <v>14.400540000000001</v>
       </c>
       <c r="J25" s="18">
         <f>E25+F25+I25+G25+H25</f>
-        <v>36681.378636000001</v>
+        <v>99220.122540000011</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="21" customFormat="1">
       <c r="A26" s="42"/>
       <c r="B26" s="7">
         <f>(D25-D24)/D24</f>
-        <v>-0.24691358024691359</v>
+        <v>-0.1851851851851852</v>
       </c>
       <c r="C26" s="5">
         <f>SUM(C24:C25)</f>
-        <v>60000</v>
+        <v>69000</v>
       </c>
       <c r="D26" s="65">
         <f>E26/C26</f>
-        <v>7.9</v>
+        <v>7.7739130434782613</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ref="E26:J26" si="9">SUM(E24:E25)</f>
-        <v>474000</v>
+        <v>536400</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="9"/>
-        <v>948.00000000000011</v>
+        <v>1072.8000000000002</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="9"/>
-        <v>32.231999999999999</v>
+        <v>36.475200000000001</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="9"/>
-        <v>4.74</v>
+        <v>5.3640000000000008</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="9"/>
-        <v>68.948040000000006</v>
+        <v>78.024743999999998</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="9"/>
-        <v>475053.92004</v>
+        <v>537592.66394400003</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:14" s="21" customFormat="1">
-      <c r="A27" s="14">
-        <v>45701</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <v>15000</v>
-      </c>
-      <c r="D27" s="17">
-        <v>6.6</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="A27" s="8">
+        <v>45191</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>6000</v>
+      </c>
+      <c r="D27" s="11">
+        <v>6.1</v>
+      </c>
+      <c r="E27" s="20">
         <f>C27*D27</f>
-        <v>99000</v>
-      </c>
-      <c r="F27" s="18">
+        <v>36600</v>
+      </c>
+      <c r="F27" s="20">
         <f>E27*0.002</f>
-        <v>198</v>
-      </c>
-      <c r="G27" s="18">
+        <v>73.2</v>
+      </c>
+      <c r="G27" s="20">
         <f>E27*0.000068</f>
-        <v>6.7320000000000002</v>
-      </c>
-      <c r="H27" s="18">
+        <v>2.4887999999999999</v>
+      </c>
+      <c r="H27" s="20">
         <f>E27*0.00001</f>
-        <v>0.9900000000000001</v>
-      </c>
-      <c r="I27" s="18">
+        <v>0.36600000000000005</v>
+      </c>
+      <c r="I27" s="20">
         <f>(F27+G27+H27)*0.07</f>
-        <v>14.400540000000001</v>
-      </c>
-      <c r="J27" s="18">
+        <v>5.3238360000000009</v>
+      </c>
+      <c r="J27" s="20">
         <f>E27+F27+I27+G27+H27</f>
-        <v>99220.122540000011</v>
+        <v>36681.378636000001</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="21" customFormat="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="7">
+      <c r="A28" s="44"/>
+      <c r="B28" s="25">
         <f>(D27-D26)/D26</f>
-        <v>-0.16455696202531653</v>
-      </c>
-      <c r="C28" s="5">
+        <v>-0.21532438478747212</v>
+      </c>
+      <c r="C28" s="22">
         <f>SUM(C26:C27)</f>
         <v>75000</v>
       </c>
-      <c r="D28" s="65">
+      <c r="D28" s="64">
         <f>E28/C28</f>
         <v>7.64</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="22">
         <f t="shared" ref="E28:J28" si="10">SUM(E26:E27)</f>
         <v>573000</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="22">
         <f t="shared" si="10"/>
-        <v>1146</v>
-      </c>
-      <c r="G28" s="5">
+        <v>1146.0000000000002</v>
+      </c>
+      <c r="G28" s="22">
         <f t="shared" si="10"/>
         <v>38.963999999999999</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="22">
         <f t="shared" si="10"/>
         <v>5.73</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="22">
         <f t="shared" si="10"/>
-        <v>83.348580000000013</v>
-      </c>
-      <c r="J28" s="5">
+        <v>83.348579999999998</v>
+      </c>
+      <c r="J28" s="22">
         <f t="shared" si="10"/>
         <v>574274.04258000001</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="1:14" s="21" customFormat="1">
-      <c r="A29" s="8">
+    <row r="29" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A29" s="55"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="14">
+        <v>45337</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D30" s="17">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18">
+        <f>C30*D30</f>
+        <v>36000</v>
+      </c>
+      <c r="F30" s="18">
+        <f>E30*0.002</f>
+        <v>72</v>
+      </c>
+      <c r="G30" s="18">
+        <f>E30*0.000068</f>
+        <v>2.448</v>
+      </c>
+      <c r="H30" s="18">
+        <f>E30*0.00001</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="I30" s="18">
+        <f>(F30+G30+H30)*0.07</f>
+        <v>5.2365599999999999</v>
+      </c>
+      <c r="J30" s="18">
+        <f>E30+F30+I30+G30+H30</f>
+        <v>36080.044559999995</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="49">
+        <v>45554</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="16">
+        <f>C30</f>
+        <v>6000</v>
+      </c>
+      <c r="D31" s="26">
+        <v>6.95</v>
+      </c>
+      <c r="E31" s="17">
+        <f>C31*D31</f>
+        <v>41700</v>
+      </c>
+      <c r="F31" s="27">
+        <f>E31*0.002</f>
+        <v>83.4</v>
+      </c>
+      <c r="G31" s="26">
+        <f>E31*0.000068</f>
+        <v>2.8355999999999999</v>
+      </c>
+      <c r="H31" s="26">
+        <f>E31*0.00001</f>
+        <v>0.41700000000000004</v>
+      </c>
+      <c r="I31" s="26">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>6.0656820000000007</v>
+      </c>
+      <c r="J31" s="26">
+        <f>E31-F31-G31-H31-I31</f>
+        <v>41607.281717999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7">
+        <f>J32/J30</f>
+        <v>0.15319374533499758</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18">
+        <f>E31-E30</f>
+        <v>5700</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18">
+        <f>J31-J30</f>
+        <v>5527.2371580000035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="14">
         <v>45191</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D29" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="E29" s="20">
-        <f>C29*D29</f>
-        <v>31000</v>
-      </c>
-      <c r="F29" s="20">
-        <f>E29*0.002</f>
-        <v>62</v>
-      </c>
-      <c r="G29" s="20">
-        <f>E29*0.000068</f>
-        <v>2.1080000000000001</v>
-      </c>
-      <c r="H29" s="20">
-        <f>E29*0.00001</f>
-        <v>0.31</v>
-      </c>
-      <c r="I29" s="20">
-        <f>(F29+G29+H29)*0.07</f>
-        <v>4.5092600000000012</v>
-      </c>
-      <c r="J29" s="20">
-        <f>E29+F29+I29+G29+H29</f>
-        <v>31068.92726</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="21" customFormat="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="25">
-        <f>(D29-D28)/D28</f>
-        <v>-0.18848167539267011</v>
-      </c>
-      <c r="C30" s="22">
-        <f>SUM(C28:C29)</f>
-        <v>80000</v>
-      </c>
-      <c r="D30" s="64">
-        <f>E30/C30</f>
-        <v>7.55</v>
-      </c>
-      <c r="E30" s="22">
-        <f t="shared" ref="E30:J30" si="11">SUM(E28:E29)</f>
-        <v>604000</v>
-      </c>
-      <c r="F30" s="22">
-        <f t="shared" si="11"/>
-        <v>1208</v>
-      </c>
-      <c r="G30" s="22">
-        <f t="shared" si="11"/>
-        <v>41.071999999999996</v>
-      </c>
-      <c r="H30" s="22">
-        <f t="shared" si="11"/>
-        <v>6.04</v>
-      </c>
-      <c r="I30" s="22">
-        <f t="shared" si="11"/>
-        <v>87.85784000000001</v>
-      </c>
-      <c r="J30" s="22">
-        <f t="shared" si="11"/>
-        <v>605342.96984000003</v>
-      </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-    </row>
-    <row r="31" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A31" s="55"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="14">
+      <c r="B33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D33" s="17">
+        <v>6.1</v>
+      </c>
+      <c r="E33" s="18">
+        <f>C33*D33</f>
+        <v>36600</v>
+      </c>
+      <c r="F33" s="18">
+        <f>E33*0.002</f>
+        <v>73.2</v>
+      </c>
+      <c r="G33" s="18">
+        <f>E33*0.000068</f>
+        <v>2.4887999999999999</v>
+      </c>
+      <c r="H33" s="18">
+        <f>E33*0.00001</f>
+        <v>0.36600000000000005</v>
+      </c>
+      <c r="I33" s="18">
+        <f>(F33+G33+H33)*0.07</f>
+        <v>5.3238360000000009</v>
+      </c>
+      <c r="J33" s="18">
+        <f>E33+F33+I33+G33+H33</f>
+        <v>36681.378636000001</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+    </row>
+    <row r="34" spans="1:14" s="76" customFormat="1">
+      <c r="A34" s="49">
+        <v>45877</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="16">
+        <f>C33</f>
+        <v>6000</v>
+      </c>
+      <c r="D34" s="26">
+        <v>6.7</v>
+      </c>
+      <c r="E34" s="17">
+        <f>C34*D34</f>
+        <v>40200</v>
+      </c>
+      <c r="F34" s="27">
+        <f>E34*0.002</f>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G34" s="26">
+        <f>E34*0.000068</f>
+        <v>2.7336</v>
+      </c>
+      <c r="H34" s="26">
+        <f>E34*0.00001</f>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I34" s="26">
+        <f>(F34+G34+H34)*0.07</f>
+        <v>5.8474920000000008</v>
+      </c>
+      <c r="J34" s="26">
+        <f>E34-F34-G34-H34-I34</f>
+        <v>40110.616907999996</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" s="13" customFormat="1">
+      <c r="A35" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7">
+        <f>J35/J33</f>
+        <v>9.3487169771597864E-2</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18">
+        <f>E34-E33</f>
+        <v>3600</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18">
+        <f>J34-J33</f>
+        <v>3429.238271999995</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A36" s="8">
         <v>45337</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="16">
+      <c r="B36" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10">
         <v>6000</v>
       </c>
-      <c r="D32" s="17">
-        <v>6</v>
-      </c>
-      <c r="E32" s="18">
-        <f>C32*D32</f>
-        <v>36000</v>
-      </c>
-      <c r="F32" s="18">
-        <f>E32*0.002</f>
-        <v>72</v>
-      </c>
-      <c r="G32" s="18">
-        <f>E32*0.000068</f>
-        <v>2.448</v>
-      </c>
-      <c r="H32" s="18">
-        <f>E32*0.00001</f>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="I32" s="18">
-        <f>(F32+G32+H32)*0.07</f>
-        <v>5.2365599999999999</v>
-      </c>
-      <c r="J32" s="18">
-        <f>E32+F32+I32+G32+H32</f>
-        <v>36080.044559999995</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="49">
+      <c r="D36" s="11">
+        <v>6.25</v>
+      </c>
+      <c r="E36" s="20">
+        <f>C36*D36</f>
+        <v>37500</v>
+      </c>
+      <c r="F36" s="20">
+        <f>E36*0.002</f>
+        <v>75</v>
+      </c>
+      <c r="G36" s="20">
+        <f>E36*0.000068</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H36" s="20">
+        <f>E36*0.00001</f>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="I36" s="20">
+        <f>(F36+G36+H36)*0.07</f>
+        <v>5.4547500000000007</v>
+      </c>
+      <c r="J36" s="20">
+        <f>E36+F36+I36+G36+H36</f>
+        <v>37583.37975</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" s="21" customFormat="1">
+      <c r="A37" s="55">
         <v>45554</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="16">
-        <f>C32</f>
+      <c r="C37" s="10">
+        <f>C36</f>
         <v>6000</v>
       </c>
-      <c r="D33" s="26">
-        <v>6.95</v>
-      </c>
-      <c r="E33" s="17">
-        <f>C33*D33</f>
-        <v>41700</v>
-      </c>
-      <c r="F33" s="27">
-        <f>E33*0.002</f>
-        <v>83.4</v>
-      </c>
-      <c r="G33" s="26">
-        <f>E33*0.000068</f>
-        <v>2.8355999999999999</v>
-      </c>
-      <c r="H33" s="26">
-        <f>E33*0.00001</f>
-        <v>0.41700000000000004</v>
-      </c>
-      <c r="I33" s="26">
-        <f>(F33+G33+H33)*0.07</f>
-        <v>6.0656820000000007</v>
-      </c>
-      <c r="J33" s="26">
-        <f>E33-F33-G33-H33-I33</f>
-        <v>41607.281717999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="7">
-        <f>J34/J32</f>
-        <v>0.15319374533499758</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18">
-        <f>E33-E32</f>
-        <v>5700</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18">
-        <f>J33-J32</f>
-        <v>5527.2371580000035</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="14">
-        <v>45191</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="16">
-        <v>6000</v>
-      </c>
-      <c r="D35" s="17">
-        <v>6.1</v>
-      </c>
-      <c r="E35" s="18">
-        <f>C35*D35</f>
-        <v>36600</v>
-      </c>
-      <c r="F35" s="18">
-        <f>E35*0.002</f>
-        <v>73.2</v>
-      </c>
-      <c r="G35" s="18">
-        <f>E35*0.000068</f>
-        <v>2.4887999999999999</v>
-      </c>
-      <c r="H35" s="18">
-        <f>E35*0.00001</f>
-        <v>0.36600000000000005</v>
-      </c>
-      <c r="I35" s="18">
-        <f>(F35+G35+H35)*0.07</f>
-        <v>5.3238360000000009</v>
-      </c>
-      <c r="J35" s="18">
-        <f>E35+F35+I35+G35+H35</f>
-        <v>36681.378636000001</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-    </row>
-    <row r="36" spans="1:14" s="76" customFormat="1">
-      <c r="A36" s="55">
-        <v>45554</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="10">
-        <f>C35</f>
-        <v>6000</v>
-      </c>
-      <c r="D36" s="34">
-        <v>7.05</v>
-      </c>
-      <c r="E36" s="11">
-        <f>C36*D36</f>
-        <v>42300</v>
-      </c>
-      <c r="F36" s="35">
-        <f>E36*0.002</f>
-        <v>84.600000000000009</v>
-      </c>
-      <c r="G36" s="34">
-        <f>E36*0.000068</f>
-        <v>2.8763999999999998</v>
-      </c>
-      <c r="H36" s="34">
-        <f>E36*0.00001</f>
-        <v>0.42300000000000004</v>
-      </c>
-      <c r="I36" s="34">
-        <f>(F36+G36+H36)*0.07</f>
-        <v>6.1529580000000017</v>
-      </c>
-      <c r="J36" s="34">
-        <f>E36-F36-G36-H36-I36</f>
-        <v>42205.947641999999</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" s="13" customFormat="1">
-      <c r="A37" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="25">
-        <f>J37/J35</f>
-        <v>0.15060963386414411</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="20">
-        <f>E36-E35</f>
-        <v>5700</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20">
-        <f>J36-J35</f>
-        <v>5524.5690059999979</v>
+      <c r="D37" s="34">
+        <v>7</v>
+      </c>
+      <c r="E37" s="11">
+        <f>C37*D37</f>
+        <v>42000</v>
+      </c>
+      <c r="F37" s="35">
+        <f>E37*0.002</f>
+        <v>84</v>
+      </c>
+      <c r="G37" s="34">
+        <f>E37*0.000068</f>
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="H37" s="34">
+        <f>E37*0.00001</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="I37" s="34">
+        <f>(F37+G37+H37)*0.07</f>
+        <v>6.1093200000000003</v>
+      </c>
+      <c r="J37" s="34">
+        <f>E37-F37-G37-H37-I37</f>
+        <v>41906.614679999999</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A38" s="8">
-        <v>45337</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10">
-        <v>6000</v>
-      </c>
-      <c r="D38" s="11">
-        <v>6.25</v>
-      </c>
+    <row r="38" spans="1:14" s="13" customFormat="1">
+      <c r="A38" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="25">
+        <f>J38/J36</f>
+        <v>0.11503049908650109</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="20">
-        <f>C38*D38</f>
-        <v>37500</v>
-      </c>
-      <c r="F38" s="20">
-        <f>E38*0.002</f>
-        <v>75</v>
-      </c>
-      <c r="G38" s="20">
-        <f>E38*0.000068</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H38" s="20">
-        <f>E38*0.00001</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="I38" s="20">
-        <f>(F38+G38+H38)*0.07</f>
-        <v>5.4547500000000007</v>
-      </c>
+        <f>E37-E36</f>
+        <v>4500</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
       <c r="J38" s="20">
-        <f>E38+F38+I38+G38+H38</f>
-        <v>37583.37975</v>
-      </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-    </row>
-    <row r="39" spans="1:14" s="21" customFormat="1">
-      <c r="A39" s="55">
-        <v>45554</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="10">
-        <f>C38</f>
-        <v>6000</v>
-      </c>
-      <c r="D39" s="34">
-        <v>7</v>
-      </c>
-      <c r="E39" s="11">
-        <f>C39*D39</f>
-        <v>42000</v>
-      </c>
-      <c r="F39" s="35">
-        <f>E39*0.002</f>
-        <v>84</v>
-      </c>
-      <c r="G39" s="34">
-        <f>E39*0.000068</f>
-        <v>2.8559999999999999</v>
-      </c>
-      <c r="H39" s="34">
-        <f>E39*0.00001</f>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="I39" s="34">
-        <f>(F39+G39+H39)*0.07</f>
-        <v>6.1093200000000003</v>
-      </c>
-      <c r="J39" s="34">
-        <f>E39-F39-G39-H39-I39</f>
-        <v>41906.614679999999</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" s="13" customFormat="1">
-      <c r="A40" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="25">
-        <f>J40/J38</f>
-        <v>0.11503049908650109</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="20">
-        <f>E39-E38</f>
-        <v>4500</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20">
-        <f>J39-J38</f>
+        <f>J37-J36</f>
         <v>4323.2349299999987</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A41" s="28"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8080,7 +8001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8313,38 +8234,38 @@
         <v>3200</v>
       </c>
       <c r="D7" s="46">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="E7" s="20">
         <f>C7*D7</f>
-        <v>29600</v>
+        <v>25600</v>
       </c>
       <c r="F7" s="20">
         <f>E7*0.002</f>
-        <v>59.2</v>
+        <v>51.2</v>
       </c>
       <c r="G7" s="20">
         <f>E7*0.00006</f>
-        <v>1.776</v>
+        <v>1.536</v>
       </c>
       <c r="H7" s="20">
         <f>E7*0.00001</f>
-        <v>0.29600000000000004</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I7" s="20">
         <f>(F7+G7+H7)*0.07</f>
-        <v>4.2890400000000009</v>
+        <v>3.7094400000000007</v>
       </c>
       <c r="J7" s="20">
         <f>E7+F7+I7+G7+H7</f>
-        <v>29665.561040000001</v>
+        <v>25656.701440000001</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="55"/>
       <c r="B8" s="12">
         <f>(D7-D6)/D6</f>
-        <v>-0.71969696969696972</v>
+        <v>-0.75757575757575757</v>
       </c>
       <c r="C8" s="10">
         <f>SUM(C6:C7)</f>
@@ -8352,31 +8273,31 @@
       </c>
       <c r="D8" s="63">
         <f>E8/C8</f>
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>254000</v>
+        <v>250000</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="2"/>
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>15.24</v>
+        <v>15</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>36.804600000000008</v>
+        <v>36.225000000000009</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>254562.58459999997</v>
+        <v>250553.72499999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="13" customFormat="1">
@@ -15569,7 +15490,7 @@
         <f>SUM(C6:C7)</f>
         <v>50000</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="103">
         <f>E8/C8</f>
         <v>10.4</v>
       </c>
@@ -15656,7 +15577,7 @@
         <f>SUM(C8:C9)</f>
         <v>60000</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="103">
         <f>E10/C10</f>
         <v>8.9749999999999996</v>
       </c>
@@ -15743,7 +15664,7 @@
         <f>SUM(C10:C11)</f>
         <v>70000</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="102">
         <f>E12/C12</f>
         <v>7.95</v>
       </c>
@@ -16649,11 +16570,1685 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C873F-5F0B-4599-8F07-1242EBE1E2BF}">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A40" sqref="A40:XFD40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="21"/>
+    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="21"/>
+    <col min="13" max="13" width="8.88671875" style="25"/>
+    <col min="14" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="13" customFormat="1">
+      <c r="A2" s="55">
+        <v>44508</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="11">
+        <v>44</v>
+      </c>
+      <c r="E2" s="20">
+        <f>C2*D2</f>
+        <v>132000</v>
+      </c>
+      <c r="F2" s="20">
+        <f>E2*0.002</f>
+        <v>264</v>
+      </c>
+      <c r="G2" s="20">
+        <f>E2*0.00006</f>
+        <v>7.92</v>
+      </c>
+      <c r="H2" s="20">
+        <f>E2*0.00001</f>
+        <v>1.32</v>
+      </c>
+      <c r="I2" s="20">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>19.126800000000003</v>
+      </c>
+      <c r="J2" s="20">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>132292.36680000002</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="55">
+        <v>44517</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="11">
+        <v>41</v>
+      </c>
+      <c r="E3" s="20">
+        <f>C3*D3</f>
+        <v>61500</v>
+      </c>
+      <c r="F3" s="20">
+        <f>E3*0.002</f>
+        <v>123</v>
+      </c>
+      <c r="G3" s="20">
+        <f>E3*0.000068</f>
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="H3" s="20">
+        <f>E3*0.00001</f>
+        <v>0.6150000000000001</v>
+      </c>
+      <c r="I3" s="20">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>8.9457900000000006</v>
+      </c>
+      <c r="J3" s="20">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>61636.742789999997</v>
+      </c>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="25">
+        <f>(D3-D2)/D2</f>
+        <v>-6.8181818181818177E-2</v>
+      </c>
+      <c r="C4" s="22">
+        <f>SUM(C2:C3)</f>
+        <v>4500</v>
+      </c>
+      <c r="D4" s="64">
+        <f>E4/C4</f>
+        <v>43</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>193500</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
+        <v>12.102</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="0"/>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" si="0"/>
+        <v>28.072590000000005</v>
+      </c>
+      <c r="J4" s="22">
+        <f t="shared" si="0"/>
+        <v>193929.10959000001</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="55">
+        <v>44543</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
+        <v>900</v>
+      </c>
+      <c r="D5" s="34">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11">
+        <f>C5*D5</f>
+        <v>41400</v>
+      </c>
+      <c r="F5" s="35">
+        <f>E5*0.002</f>
+        <v>82.8</v>
+      </c>
+      <c r="G5" s="34">
+        <f>E5*0.000068</f>
+        <v>2.8151999999999999</v>
+      </c>
+      <c r="H5" s="34">
+        <f>E5*0.00001</f>
+        <v>0.41400000000000003</v>
+      </c>
+      <c r="I5" s="34">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>6.0220440000000011</v>
+      </c>
+      <c r="J5" s="34">
+        <f>E5-F5-G5-H5-I5</f>
+        <v>41307.948756000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="55"/>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <f>C4-C5</f>
+        <v>3600</v>
+      </c>
+      <c r="D6" s="11">
+        <v>43</v>
+      </c>
+      <c r="E6" s="20">
+        <f>C6*D6</f>
+        <v>154800</v>
+      </c>
+      <c r="F6" s="20">
+        <f>E6*0.002</f>
+        <v>309.60000000000002</v>
+      </c>
+      <c r="G6" s="20">
+        <f>E6*0.000068</f>
+        <v>10.526400000000001</v>
+      </c>
+      <c r="H6" s="20">
+        <f>E6*0.00001</f>
+        <v>1.548</v>
+      </c>
+      <c r="I6" s="20">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>22.517208000000007</v>
+      </c>
+      <c r="J6" s="20">
+        <f>E6+F6+I6+G6+H6</f>
+        <v>155144.19160800002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="55">
+        <v>44545</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2400</v>
+      </c>
+      <c r="D7" s="11">
+        <v>43</v>
+      </c>
+      <c r="E7" s="20">
+        <f>C7*D7</f>
+        <v>103200</v>
+      </c>
+      <c r="F7" s="20">
+        <f>E7*0.002</f>
+        <v>206.4</v>
+      </c>
+      <c r="G7" s="20">
+        <f>E7*0.000068</f>
+        <v>7.0175999999999998</v>
+      </c>
+      <c r="H7" s="20">
+        <f>E7*0.00001</f>
+        <v>1.032</v>
+      </c>
+      <c r="I7" s="20">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>15.011472000000001</v>
+      </c>
+      <c r="J7" s="20">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>103429.46107200001</v>
+      </c>
+      <c r="M7" s="21"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="25">
+        <f>(D7-D6)/D6</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <f>SUM(C6:C7)</f>
+        <v>6000</v>
+      </c>
+      <c r="D8" s="64">
+        <f>E8/C8</f>
+        <v>43</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" ref="E8:J8" si="1">SUM(E6:E7)</f>
+        <v>258000</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>17.544</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="1"/>
+        <v>37.528680000000008</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="1"/>
+        <v>258573.65268000003</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="55">
+        <v>44551</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="34">
+        <v>48.5</v>
+      </c>
+      <c r="E9" s="11">
+        <f>C9*D9</f>
+        <v>72750</v>
+      </c>
+      <c r="F9" s="35">
+        <f>E9*0.002</f>
+        <v>145.5</v>
+      </c>
+      <c r="G9" s="34">
+        <f>E9*0.000068</f>
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="H9" s="34">
+        <f>E9*0.00001</f>
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="I9" s="34">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>10.582215000000001</v>
+      </c>
+      <c r="J9" s="34">
+        <f>E9-F9-G9-H9-I9</f>
+        <v>72588.243285000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="A10" s="55">
+        <v>44551</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <f>C8-C9</f>
+        <v>4500</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43</v>
+      </c>
+      <c r="E10" s="20">
+        <f>C10*D10</f>
+        <v>193500</v>
+      </c>
+      <c r="F10" s="20">
+        <f>E10*0.002</f>
+        <v>387</v>
+      </c>
+      <c r="G10" s="20">
+        <f>E10*0.000068</f>
+        <v>13.157999999999999</v>
+      </c>
+      <c r="H10" s="20">
+        <f>E10*0.00001</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="I10" s="20">
+        <f>(F10+G10+H10)*0.07</f>
+        <v>28.146510000000003</v>
+      </c>
+      <c r="J10" s="20">
+        <f>E10+F10+I10+G10+H10</f>
+        <v>193930.23950999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="55">
+        <v>44578</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="11">
+        <v>49</v>
+      </c>
+      <c r="E11" s="20">
+        <f>C11*D11</f>
+        <v>73500</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E11*0.002</f>
+        <v>147</v>
+      </c>
+      <c r="G11" s="20">
+        <f>E11*0.000068</f>
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="H11" s="20">
+        <f>E11*0.00001</f>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="I11" s="20">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>10.691310000000001</v>
+      </c>
+      <c r="J11" s="20">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>73663.424310000002</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="25">
+        <f>(D11-D10)/D10</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="C12" s="22">
+        <f>SUM(C10:C11)</f>
+        <v>6000</v>
+      </c>
+      <c r="D12" s="64">
+        <f>E12/C12</f>
+        <v>44.5</v>
+      </c>
+      <c r="E12" s="22">
+        <f t="shared" ref="E12:J12" si="2">SUM(E10:E11)</f>
+        <v>267000</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="2"/>
+        <v>534</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="2"/>
+        <v>18.155999999999999</v>
+      </c>
+      <c r="H12" s="22">
+        <f t="shared" si="2"/>
+        <v>2.67</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" si="2"/>
+        <v>38.837820000000008</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="2"/>
+        <v>267593.66382000002</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A13" s="55">
+        <v>44580</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="34">
+        <v>49.5</v>
+      </c>
+      <c r="E13" s="11">
+        <f>C13*D13</f>
+        <v>74250</v>
+      </c>
+      <c r="F13" s="35">
+        <f>E13*0.002</f>
+        <v>148.5</v>
+      </c>
+      <c r="G13" s="34">
+        <f>E13*0.000068</f>
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="H13" s="34">
+        <f>E13*0.00001</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="I13" s="34">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>10.800405000000001</v>
+      </c>
+      <c r="J13" s="34">
+        <f>E13-F13-G13-H13-I13</f>
+        <v>74084.908095000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1">
+      <c r="A14" s="49">
+        <v>44580</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="16">
+        <f>C12-C13</f>
+        <v>4500</v>
+      </c>
+      <c r="D14" s="17">
+        <v>44.5</v>
+      </c>
+      <c r="E14" s="18">
+        <f>C14*D14</f>
+        <v>200250</v>
+      </c>
+      <c r="F14" s="18">
+        <f>E14*0.002</f>
+        <v>400.5</v>
+      </c>
+      <c r="G14" s="18">
+        <f>E14*0.000068</f>
+        <v>13.616999999999999</v>
+      </c>
+      <c r="H14" s="18">
+        <f>E14*0.00001</f>
+        <v>2.0024999999999999</v>
+      </c>
+      <c r="I14" s="18">
+        <f>(F14+G14+H14)*0.07</f>
+        <v>29.128365000000002</v>
+      </c>
+      <c r="J14" s="18">
+        <f>E14+F14+I14+G14+H14</f>
+        <v>200695.24786500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="49">
+        <v>44617</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D15" s="17">
+        <v>48.5</v>
+      </c>
+      <c r="E15" s="18">
+        <f>C15*D15</f>
+        <v>72750</v>
+      </c>
+      <c r="F15" s="18">
+        <f>E15*0.002</f>
+        <v>145.5</v>
+      </c>
+      <c r="G15" s="18">
+        <f>E15*0.000068</f>
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="H15" s="18">
+        <f>E15*0.00001</f>
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="I15" s="18">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>10.582215000000001</v>
+      </c>
+      <c r="J15" s="18">
+        <f>E15+F15+I15+G15+H15</f>
+        <v>72911.756714999996</v>
+      </c>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="88"/>
+      <c r="B16" s="7">
+        <f>(D15-D12)/D12</f>
+        <v>8.98876404494382E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C14:C15)</f>
+        <v>6000</v>
+      </c>
+      <c r="D16" s="65">
+        <f>E16/C16</f>
+        <v>45.5</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:J16" si="3">SUM(E14:E15)</f>
+        <v>273000</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>18.564</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="3"/>
+        <v>2.73</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>39.710580000000007</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
+        <v>273607.00458000001</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="21"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="49">
+        <v>44617</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="17">
+        <v>48</v>
+      </c>
+      <c r="E17" s="18">
+        <f>C17*D17</f>
+        <v>72000</v>
+      </c>
+      <c r="F17" s="18">
+        <f>E17*0.002</f>
+        <v>144</v>
+      </c>
+      <c r="G17" s="18">
+        <f>E17*0.000068</f>
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="H17" s="18">
+        <f>E17*0.00001</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="I17" s="18">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>10.47312</v>
+      </c>
+      <c r="J17" s="18">
+        <f>E17+F17+I17+G17+H17</f>
+        <v>72160.08911999999</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="88"/>
+      <c r="B18" s="7">
+        <f>(D17-D15)/D15</f>
+        <v>-1.0309278350515464E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUM(C16:C17)</f>
+        <v>7500</v>
+      </c>
+      <c r="D18" s="65">
+        <f>E18/C18</f>
+        <v>46</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:J18" si="4">SUM(E16:E17)</f>
+        <v>345000</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>23.46</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="4"/>
+        <v>50.183700000000009</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>345767.09369999997</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="49">
+        <v>44617</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1500</v>
+      </c>
+      <c r="D19" s="17">
+        <v>47.5</v>
+      </c>
+      <c r="E19" s="18">
+        <f>C19*D19</f>
+        <v>71250</v>
+      </c>
+      <c r="F19" s="18">
+        <f>E19*0.002</f>
+        <v>142.5</v>
+      </c>
+      <c r="G19" s="18">
+        <f>E19*0.000068</f>
+        <v>4.8449999999999998</v>
+      </c>
+      <c r="H19" s="18">
+        <f>E19*0.00001</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="I19" s="18">
+        <f>(F19+G19+H19)*0.07</f>
+        <v>10.364025000000002</v>
+      </c>
+      <c r="J19" s="18">
+        <f>E19+F19+I19+G19+H19</f>
+        <v>71408.421524999998</v>
+      </c>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="88"/>
+      <c r="B20" s="7">
+        <f>(D19-D17)/D17</f>
+        <v>-1.0416666666666666E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUM(C18:C19)</f>
+        <v>9000</v>
+      </c>
+      <c r="D20" s="65">
+        <f>E20/C20</f>
+        <v>46.25</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:J20" si="5">SUM(E18:E19)</f>
+        <v>416250</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="5"/>
+        <v>832.5</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="5"/>
+        <v>28.305</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="5"/>
+        <v>4.1625000000000005</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="5"/>
+        <v>60.547725000000014</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="5"/>
+        <v>417175.51522499998</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="49">
+        <v>44642</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="17">
+        <v>50.25</v>
+      </c>
+      <c r="E21" s="18">
+        <f>C21*D21</f>
+        <v>150750</v>
+      </c>
+      <c r="F21" s="18">
+        <f>E21*0.002</f>
+        <v>301.5</v>
+      </c>
+      <c r="G21" s="18">
+        <f>E21*0.000068</f>
+        <v>10.250999999999999</v>
+      </c>
+      <c r="H21" s="18">
+        <f>E21*0.00001</f>
+        <v>1.5075000000000001</v>
+      </c>
+      <c r="I21" s="18">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>21.928094999999999</v>
+      </c>
+      <c r="J21" s="18">
+        <f>E21+F21+I21+G21+H21</f>
+        <v>151085.18659500001</v>
+      </c>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="88"/>
+      <c r="B22" s="7">
+        <f>(D21-D19)/D19</f>
+        <v>5.7894736842105263E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(C20:C21)</f>
+        <v>12000</v>
+      </c>
+      <c r="D22" s="65">
+        <f>E22/C22</f>
+        <v>47.25</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:J22" si="6">SUM(E20:E21)</f>
+        <v>567000</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="6"/>
+        <v>1134</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="6"/>
+        <v>38.555999999999997</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="6"/>
+        <v>5.6700000000000008</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="6"/>
+        <v>82.475820000000013</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="6"/>
+        <v>568260.70181999996</v>
+      </c>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="49">
+        <v>44741</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="17">
+        <v>39.75</v>
+      </c>
+      <c r="E23" s="18">
+        <f>C23*D23</f>
+        <v>119250</v>
+      </c>
+      <c r="F23" s="18">
+        <f>E23*0.002</f>
+        <v>238.5</v>
+      </c>
+      <c r="G23" s="18">
+        <f>E23*0.000068</f>
+        <v>8.109</v>
+      </c>
+      <c r="H23" s="18">
+        <f>E23*0.00001</f>
+        <v>1.1925000000000001</v>
+      </c>
+      <c r="I23" s="18">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>17.346105000000001</v>
+      </c>
+      <c r="J23" s="18">
+        <f>E23+F23+I23+G23+H23</f>
+        <v>119515.14760500001</v>
+      </c>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="88"/>
+      <c r="B24" s="7">
+        <f>(D23-D21)/D21</f>
+        <v>-0.20895522388059701</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUM(C22:C23)</f>
+        <v>15000</v>
+      </c>
+      <c r="D24" s="65">
+        <f>E24/C24</f>
+        <v>45.75</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:J24" si="7">SUM(E22:E23)</f>
+        <v>686250</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="7"/>
+        <v>1372.5</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="7"/>
+        <v>46.664999999999999</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="7"/>
+        <v>6.8625000000000007</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="7"/>
+        <v>99.821925000000022</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="7"/>
+        <v>687775.84942499991</v>
+      </c>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="49">
+        <v>44854</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="17">
+        <v>27.75</v>
+      </c>
+      <c r="E25" s="18">
+        <f>C25*D25</f>
+        <v>83250</v>
+      </c>
+      <c r="F25" s="18">
+        <f>E25*0.002</f>
+        <v>166.5</v>
+      </c>
+      <c r="G25" s="18">
+        <f>E25*0.000068</f>
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="H25" s="18">
+        <f>E25*0.00001</f>
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="I25" s="18">
+        <f>(F25+G25+H25)*0.07</f>
+        <v>12.109545000000002</v>
+      </c>
+      <c r="J25" s="18">
+        <f>E25+F25+I25+G25+H25</f>
+        <v>83435.103044999996</v>
+      </c>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="88"/>
+      <c r="B26" s="7">
+        <f>(D25-D24)/D24</f>
+        <v>-0.39344262295081966</v>
+      </c>
+      <c r="C26" s="5">
+        <f>SUM(C24:C25)</f>
+        <v>18000</v>
+      </c>
+      <c r="D26" s="65">
+        <f>E26/C26</f>
+        <v>42.75</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:J26" si="8">SUM(E24:E25)</f>
+        <v>769500</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="8"/>
+        <v>1539</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="8"/>
+        <v>52.326000000000001</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="8"/>
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="8"/>
+        <v>111.93147000000002</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="8"/>
+        <v>771210.9524699999</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="49">
+        <v>44876</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="17">
+        <v>30.5</v>
+      </c>
+      <c r="E27" s="18">
+        <f>C27*D27</f>
+        <v>91500</v>
+      </c>
+      <c r="F27" s="18">
+        <f>E27*0.002</f>
+        <v>183</v>
+      </c>
+      <c r="G27" s="18">
+        <f>E27*0.000068</f>
+        <v>6.2219999999999995</v>
+      </c>
+      <c r="H27" s="18">
+        <f>E27*0.00001</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I27" s="18">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>13.309590000000002</v>
+      </c>
+      <c r="J27" s="18">
+        <f>E27+F27+I27+G27+H27</f>
+        <v>91703.446589999992</v>
+      </c>
+      <c r="M27" s="21"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="88"/>
+      <c r="B28" s="7">
+        <f>(D27-D26)/D26</f>
+        <v>-0.28654970760233917</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUM(C26:C27)</f>
+        <v>21000</v>
+      </c>
+      <c r="D28" s="65">
+        <f>E28/C28</f>
+        <v>41</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:J28" si="9">SUM(E26:E27)</f>
+        <v>861000</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="9"/>
+        <v>1722</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="9"/>
+        <v>58.548000000000002</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="9"/>
+        <v>8.61</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>125.24106000000002</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="9"/>
+        <v>862914.39905999985</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="21"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="49">
+        <v>44887</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D29" s="17">
+        <v>31.5</v>
+      </c>
+      <c r="E29" s="18">
+        <f>C29*D29</f>
+        <v>94500</v>
+      </c>
+      <c r="F29" s="18">
+        <f>E29*0.002</f>
+        <v>189</v>
+      </c>
+      <c r="G29" s="18">
+        <f>E29*0.000068</f>
+        <v>6.4260000000000002</v>
+      </c>
+      <c r="H29" s="18">
+        <f>E29*0.00001</f>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="I29" s="18">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>13.74597</v>
+      </c>
+      <c r="J29" s="18">
+        <f>E29+F29+I29+G29+H29</f>
+        <v>94710.116970000017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="88"/>
+      <c r="B30" s="7">
+        <f>(D29-D28)/D28</f>
+        <v>-0.23170731707317074</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUM(C28:C29)</f>
+        <v>24000</v>
+      </c>
+      <c r="D30" s="65">
+        <f>E30/C30</f>
+        <v>39.8125</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" ref="E30:J30" si="10">SUM(E28:E29)</f>
+        <v>955500</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="10"/>
+        <v>1911</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="10"/>
+        <v>64.974000000000004</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="10"/>
+        <v>9.5549999999999997</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="10"/>
+        <v>138.98703</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="10"/>
+        <v>957624.51602999982</v>
+      </c>
+      <c r="M30" s="21"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="49">
+        <v>44959</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="17">
+        <v>30.25</v>
+      </c>
+      <c r="E31" s="18">
+        <f>C31*D31</f>
+        <v>90750</v>
+      </c>
+      <c r="F31" s="18">
+        <f>E31*0.002</f>
+        <v>181.5</v>
+      </c>
+      <c r="G31" s="18">
+        <f>E31*0.000068</f>
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="H31" s="18">
+        <f>E31*0.00001</f>
+        <v>0.90750000000000008</v>
+      </c>
+      <c r="I31" s="18">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>13.200495</v>
+      </c>
+      <c r="J31" s="18">
+        <f>E31+F31+I31+G31+H31</f>
+        <v>90951.778995000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="88"/>
+      <c r="B32" s="7">
+        <f>(D31-D30)/D30</f>
+        <v>-0.24018838304552589</v>
+      </c>
+      <c r="C32" s="5">
+        <f>SUM(C30:C31)</f>
+        <v>27000</v>
+      </c>
+      <c r="D32" s="65">
+        <f>E32/C32</f>
+        <v>38.75</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" ref="E32:J32" si="11">SUM(E30:E31)</f>
+        <v>1046250</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="11"/>
+        <v>2092.5</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="11"/>
+        <v>71.14500000000001</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="11"/>
+        <v>10.4625</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="11"/>
+        <v>152.18752499999999</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="11"/>
+        <v>1048576.2950249999</v>
+      </c>
+      <c r="M32" s="21"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="55">
+        <v>44959</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="11">
+        <v>24.75</v>
+      </c>
+      <c r="E33" s="20">
+        <f>C33*D33</f>
+        <v>24750</v>
+      </c>
+      <c r="F33" s="20">
+        <f>E33*0.002</f>
+        <v>49.5</v>
+      </c>
+      <c r="G33" s="20">
+        <f>E33*0.000068</f>
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="H33" s="20">
+        <f>E33*0.00001</f>
+        <v>0.24750000000000003</v>
+      </c>
+      <c r="I33" s="20">
+        <f>(F33+G33+H33)*0.07</f>
+        <v>3.6001350000000003</v>
+      </c>
+      <c r="J33" s="20">
+        <f>E33+F33+I33+G33+H33</f>
+        <v>24805.030635000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="25">
+        <f>(D33-D32)/D32</f>
+        <v>-0.36129032258064514</v>
+      </c>
+      <c r="C34" s="22">
+        <f>SUM(C32:C33)</f>
+        <v>28000</v>
+      </c>
+      <c r="D34" s="64">
+        <f>E34/C34</f>
+        <v>38.25</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" ref="E34:J34" si="12">SUM(E32:E33)</f>
+        <v>1071000</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" si="12"/>
+        <v>2142</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="12"/>
+        <v>72.828000000000017</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" si="12"/>
+        <v>10.71</v>
+      </c>
+      <c r="I34" s="22">
+        <f t="shared" si="12"/>
+        <v>155.78765999999999</v>
+      </c>
+      <c r="J34" s="22">
+        <f t="shared" si="12"/>
+        <v>1073381.3256599999</v>
+      </c>
+      <c r="K34" s="25"/>
+      <c r="M34" s="21"/>
+    </row>
+    <row r="35" spans="1:14" s="13" customFormat="1">
+      <c r="A35" s="87"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A36" s="49">
+        <v>44846</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="17">
+        <v>27.75</v>
+      </c>
+      <c r="E36" s="18">
+        <f>C36*D36</f>
+        <v>83250</v>
+      </c>
+      <c r="F36" s="18">
+        <f>E36*0.002</f>
+        <v>166.5</v>
+      </c>
+      <c r="G36" s="18">
+        <f>E36*0.000068</f>
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="H36" s="18">
+        <f>E36*0.00001</f>
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="I36" s="18">
+        <f>(F36+G36+H36)*0.07</f>
+        <v>12.109545000000002</v>
+      </c>
+      <c r="J36" s="18">
+        <f>E36+F36+I36+G36+H36</f>
+        <v>83435.103044999996</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="49">
+        <v>44853</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="16">
+        <f>C36</f>
+        <v>3000</v>
+      </c>
+      <c r="D37" s="26">
+        <v>29.25</v>
+      </c>
+      <c r="E37" s="17">
+        <f>C37*D37</f>
+        <v>87750</v>
+      </c>
+      <c r="F37" s="27">
+        <f>E37*0.002</f>
+        <v>175.5</v>
+      </c>
+      <c r="G37" s="26">
+        <f>E37*0.000068</f>
+        <v>5.9669999999999996</v>
+      </c>
+      <c r="H37" s="26">
+        <f>E37*0.00001</f>
+        <v>0.87750000000000006</v>
+      </c>
+      <c r="I37" s="26">
+        <f>(F37+G37+H37)*0.07</f>
+        <v>12.764115000000002</v>
+      </c>
+      <c r="J37" s="26">
+        <f>E37-F37-G37-H37-I37</f>
+        <v>87554.891384999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="49">
+        <f>DAYS360(A36,A37)</f>
+        <v>7</v>
+      </c>
+      <c r="B38" s="30">
+        <f>(D37-D36)/D36</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18">
+        <f>E37-E36</f>
+        <v>4500</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18">
+        <f>J37-J36</f>
+        <v>4119.7883399999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A39" s="8">
+        <v>45161</v>
+      </c>
+      <c r="C39" s="10">
+        <f>C40</f>
+        <v>3000</v>
+      </c>
+      <c r="D39" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="59">
+        <v>0</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="59">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
+        <f>G39-E39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
+        <v>0</v>
+      </c>
+      <c r="J39" s="60">
+        <f>C39*D39*0.9</f>
+        <v>675</v>
+      </c>
+      <c r="K39" s="11"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="49">
+        <v>44959</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D40" s="17">
+        <v>30.25</v>
+      </c>
+      <c r="E40" s="18">
+        <f>C40*D40</f>
+        <v>90750</v>
+      </c>
+      <c r="F40" s="18">
+        <f>E40*0.002</f>
+        <v>181.5</v>
+      </c>
+      <c r="G40" s="18">
+        <f>E40*0.000068</f>
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="H40" s="18">
+        <f>E40*0.00001</f>
+        <v>0.90750000000000008</v>
+      </c>
+      <c r="I40" s="18">
+        <f>(F40+G40+H40)*0.07</f>
+        <v>13.200495</v>
+      </c>
+      <c r="J40" s="18">
+        <f>E40+F40+I40+G40+H40</f>
+        <v>90951.778995000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="55">
+        <v>44853</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="10">
+        <f>C40</f>
+        <v>3000</v>
+      </c>
+      <c r="D41" s="34">
+        <v>30.75</v>
+      </c>
+      <c r="E41" s="11">
+        <f>C41*D41</f>
+        <v>92250</v>
+      </c>
+      <c r="F41" s="35">
+        <f>E41*0.002</f>
+        <v>184.5</v>
+      </c>
+      <c r="G41" s="34">
+        <f>E41*0.000068</f>
+        <v>6.2729999999999997</v>
+      </c>
+      <c r="H41" s="34">
+        <f>E41*0.00001</f>
+        <v>0.9225000000000001</v>
+      </c>
+      <c r="I41" s="34">
+        <f>(F41+G41+H41)*0.07</f>
+        <v>13.418685000000002</v>
+      </c>
+      <c r="J41" s="34">
+        <f>E41-F41-G41-H41-I41</f>
+        <v>92044.885815000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="55"/>
+      <c r="B42" s="12">
+        <f>J42/J40</f>
+        <v>1.2018531490847403E-2</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="20">
+        <f>E41-E40</f>
+        <v>1500</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20">
+        <f>J41-J40</f>
+        <v>1093.1068200000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A43" s="8">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="C43" s="10">
+        <f>C44</f>
+        <v>5000</v>
+      </c>
+      <c r="D43" s="63">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E43" s="59">
+        <v>0</v>
+      </c>
+      <c r="F43" s="32">
+        <v>0</v>
+      </c>
+      <c r="G43" s="59">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <f>G43-E43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="12">
+        <v>0</v>
+      </c>
+      <c r="J43" s="60">
+        <f>C43*D43*0.9</f>
+        <v>904.50000000000011</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="55">
+        <v>44959</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D44" s="11">
+        <v>7.55</v>
+      </c>
+      <c r="E44" s="20">
+        <f>C44*D44</f>
+        <v>37750</v>
+      </c>
+      <c r="F44" s="20">
+        <f>E44*0.002</f>
+        <v>75.5</v>
+      </c>
+      <c r="G44" s="20">
+        <f>E44*0.000068</f>
+        <v>2.5670000000000002</v>
+      </c>
+      <c r="H44" s="20">
+        <f>E44*0.00001</f>
+        <v>0.37750000000000006</v>
+      </c>
+      <c r="I44" s="20">
+        <f>(F44+G44+H44)*0.07</f>
+        <v>5.4911150000000006</v>
+      </c>
+      <c r="J44" s="20">
+        <f>E44+F44+I44+G44+H44</f>
+        <v>37833.935615000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
+  <dimension ref="A1:N42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -17596,7 +19191,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="49">
-        <v>44854</v>
+        <v>44876</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>0</v>
@@ -17605,71 +19200,71 @@
         <v>3000</v>
       </c>
       <c r="D25" s="17">
-        <v>27.75</v>
+        <v>30.5</v>
       </c>
       <c r="E25" s="18">
         <f>C25*D25</f>
-        <v>83250</v>
+        <v>91500</v>
       </c>
       <c r="F25" s="18">
         <f>E25*0.002</f>
-        <v>166.5</v>
+        <v>183</v>
       </c>
       <c r="G25" s="18">
         <f>E25*0.000068</f>
-        <v>5.6609999999999996</v>
+        <v>6.2219999999999995</v>
       </c>
       <c r="H25" s="18">
         <f>E25*0.00001</f>
-        <v>0.83250000000000002</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I25" s="18">
         <f>(F25+G25+H25)*0.07</f>
-        <v>12.109545000000002</v>
+        <v>13.309590000000002</v>
       </c>
       <c r="J25" s="18">
         <f>E25+F25+I25+G25+H25</f>
-        <v>83435.103044999996</v>
+        <v>91703.446589999992</v>
       </c>
       <c r="M25" s="21"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="88"/>
       <c r="B26" s="7">
-        <f>(D25-D24)/D24</f>
-        <v>-0.39344262295081966</v>
+        <f>(D25-D23)/D23</f>
+        <v>-0.23270440251572327</v>
       </c>
       <c r="C26" s="5">
-        <f>SUM(C24:C25)</f>
+        <f>C24+C25</f>
         <v>18000</v>
       </c>
       <c r="D26" s="65">
         <f>E26/C26</f>
-        <v>42.75</v>
+        <v>43.208333333333336</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" ref="E26:J26" si="8">SUM(E24:E25)</f>
-        <v>769500</v>
+        <f t="shared" ref="E26:J26" si="8">E24+E25</f>
+        <v>777750</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="8"/>
-        <v>1539</v>
+        <v>1555.5</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="8"/>
-        <v>52.326000000000001</v>
+        <v>52.887</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" si="8"/>
-        <v>7.6950000000000003</v>
+        <v>7.7775000000000007</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="8"/>
-        <v>111.93147000000002</v>
+        <v>113.13151500000002</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="8"/>
-        <v>771210.9524699999</v>
+        <v>779479.29601499985</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="25"/>
@@ -17677,7 +19272,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="49">
-        <v>44876</v>
+        <v>44887</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>0</v>
@@ -17686,39 +19281,38 @@
         <v>3000</v>
       </c>
       <c r="D27" s="17">
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="E27" s="18">
         <f>C27*D27</f>
-        <v>91500</v>
+        <v>94500</v>
       </c>
       <c r="F27" s="18">
         <f>E27*0.002</f>
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G27" s="18">
         <f>E27*0.000068</f>
-        <v>6.2219999999999995</v>
+        <v>6.4260000000000002</v>
       </c>
       <c r="H27" s="18">
         <f>E27*0.00001</f>
-        <v>0.91500000000000004</v>
+        <v>0.94500000000000006</v>
       </c>
       <c r="I27" s="18">
         <f>(F27+G27+H27)*0.07</f>
-        <v>13.309590000000002</v>
+        <v>13.74597</v>
       </c>
       <c r="J27" s="18">
         <f>E27+F27+I27+G27+H27</f>
-        <v>91703.446589999992</v>
-      </c>
-      <c r="M27" s="21"/>
+        <v>94710.116970000017</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="88"/>
       <c r="B28" s="7">
         <f>(D27-D26)/D26</f>
-        <v>-0.28654970760233917</v>
+        <v>-0.27097396335583418</v>
       </c>
       <c r="C28" s="5">
         <f>SUM(C26:C27)</f>
@@ -17726,39 +19320,37 @@
       </c>
       <c r="D28" s="65">
         <f>E28/C28</f>
-        <v>41</v>
+        <v>41.535714285714285</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ref="E28:J28" si="9">SUM(E26:E27)</f>
-        <v>861000</v>
+        <v>872250</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="9"/>
-        <v>1722</v>
+        <v>1744.5</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="9"/>
-        <v>58.548000000000002</v>
+        <v>59.313000000000002</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="9"/>
-        <v>8.61</v>
+        <v>8.7225000000000001</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="9"/>
-        <v>125.24106000000002</v>
+        <v>126.87748500000002</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="9"/>
-        <v>862914.39905999985</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+        <v>874189.41298499983</v>
+      </c>
       <c r="M28" s="21"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="49">
-        <v>44887</v>
+        <v>44959</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>0</v>
@@ -17767,38 +19359,38 @@
         <v>3000</v>
       </c>
       <c r="D29" s="17">
-        <v>31.5</v>
+        <v>30.25</v>
       </c>
       <c r="E29" s="18">
         <f>C29*D29</f>
-        <v>94500</v>
+        <v>90750</v>
       </c>
       <c r="F29" s="18">
         <f>E29*0.002</f>
-        <v>189</v>
+        <v>181.5</v>
       </c>
       <c r="G29" s="18">
         <f>E29*0.000068</f>
-        <v>6.4260000000000002</v>
+        <v>6.1710000000000003</v>
       </c>
       <c r="H29" s="18">
         <f>E29*0.00001</f>
-        <v>0.94500000000000006</v>
+        <v>0.90750000000000008</v>
       </c>
       <c r="I29" s="18">
         <f>(F29+G29+H29)*0.07</f>
-        <v>13.74597</v>
+        <v>13.200495</v>
       </c>
       <c r="J29" s="18">
         <f>E29+F29+I29+G29+H29</f>
-        <v>94710.116970000017</v>
+        <v>90951.778995000001</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="88"/>
       <c r="B30" s="7">
         <f>(D29-D28)/D28</f>
-        <v>-0.23170731707317074</v>
+        <v>-0.27171109200343935</v>
       </c>
       <c r="C30" s="5">
         <f>SUM(C28:C29)</f>
@@ -17806,514 +19398,389 @@
       </c>
       <c r="D30" s="65">
         <f>E30/C30</f>
-        <v>39.8125</v>
+        <v>40.125</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ref="E30:J30" si="10">SUM(E28:E29)</f>
-        <v>955500</v>
+        <v>963000</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="10"/>
-        <v>1911</v>
+        <v>1926</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="10"/>
-        <v>64.974000000000004</v>
+        <v>65.484000000000009</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" si="10"/>
-        <v>9.5549999999999997</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="10"/>
-        <v>138.98703</v>
+        <v>140.07798000000003</v>
       </c>
       <c r="J30" s="5">
         <f t="shared" si="10"/>
-        <v>957624.51602999982</v>
+        <v>965141.19197999989</v>
       </c>
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="49">
+      <c r="A31" s="55">
         <v>44959</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="B31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
         <v>3000</v>
       </c>
-      <c r="D31" s="17">
-        <v>30.25</v>
-      </c>
-      <c r="E31" s="18">
+      <c r="D31" s="11">
+        <v>30</v>
+      </c>
+      <c r="E31" s="20">
         <f>C31*D31</f>
-        <v>90750</v>
-      </c>
-      <c r="F31" s="18">
+        <v>90000</v>
+      </c>
+      <c r="F31" s="20">
         <f>E31*0.002</f>
-        <v>181.5</v>
-      </c>
-      <c r="G31" s="18">
+        <v>180</v>
+      </c>
+      <c r="G31" s="20">
         <f>E31*0.000068</f>
-        <v>6.1710000000000003</v>
-      </c>
-      <c r="H31" s="18">
+        <v>6.12</v>
+      </c>
+      <c r="H31" s="20">
         <f>E31*0.00001</f>
-        <v>0.90750000000000008</v>
-      </c>
-      <c r="I31" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="I31" s="20">
         <f>(F31+G31+H31)*0.07</f>
-        <v>13.200495</v>
-      </c>
-      <c r="J31" s="18">
+        <v>13.091400000000002</v>
+      </c>
+      <c r="J31" s="20">
         <f>E31+F31+I31+G31+H31</f>
-        <v>90951.778995000001</v>
+        <v>90200.111399999994</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="88"/>
-      <c r="B32" s="7">
+      <c r="B32" s="25">
         <f>(D31-D30)/D30</f>
-        <v>-0.24018838304552589</v>
-      </c>
-      <c r="C32" s="5">
+        <v>-0.25233644859813081</v>
+      </c>
+      <c r="C32" s="22">
         <f>SUM(C30:C31)</f>
         <v>27000</v>
       </c>
-      <c r="D32" s="65">
+      <c r="D32" s="64">
         <f>E32/C32</f>
-        <v>38.75</v>
-      </c>
-      <c r="E32" s="5">
+        <v>39</v>
+      </c>
+      <c r="E32" s="22">
         <f t="shared" ref="E32:J32" si="11">SUM(E30:E31)</f>
-        <v>1046250</v>
-      </c>
-      <c r="F32" s="5">
+        <v>1053000</v>
+      </c>
+      <c r="F32" s="22">
         <f t="shared" si="11"/>
-        <v>2092.5</v>
-      </c>
-      <c r="G32" s="5">
+        <v>2106</v>
+      </c>
+      <c r="G32" s="22">
         <f t="shared" si="11"/>
-        <v>71.14500000000001</v>
-      </c>
-      <c r="H32" s="5">
+        <v>71.604000000000013</v>
+      </c>
+      <c r="H32" s="22">
         <f t="shared" si="11"/>
-        <v>10.4625</v>
-      </c>
-      <c r="I32" s="5">
+        <v>10.530000000000001</v>
+      </c>
+      <c r="I32" s="22">
         <f t="shared" si="11"/>
-        <v>152.18752499999999</v>
-      </c>
-      <c r="J32" s="5">
+        <v>153.16938000000002</v>
+      </c>
+      <c r="J32" s="22">
         <f t="shared" si="11"/>
-        <v>1048576.2950249999</v>
-      </c>
+        <v>1055341.3033799999</v>
+      </c>
+      <c r="K32" s="25"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="55">
-        <v>44959</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="11">
-        <v>24.75</v>
-      </c>
-      <c r="E33" s="20">
-        <f>C33*D33</f>
-        <v>24750</v>
-      </c>
-      <c r="F33" s="20">
-        <f>E33*0.002</f>
-        <v>49.5</v>
-      </c>
-      <c r="G33" s="20">
-        <f>E33*0.000068</f>
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="H33" s="20">
-        <f>E33*0.00001</f>
-        <v>0.24750000000000003</v>
-      </c>
-      <c r="I33" s="20">
-        <f>(F33+G33+H33)*0.07</f>
-        <v>3.6001350000000003</v>
-      </c>
-      <c r="J33" s="20">
-        <f>E33+F33+I33+G33+H33</f>
-        <v>24805.030635000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="B34" s="25">
-        <f>(D33-D32)/D32</f>
-        <v>-0.36129032258064514</v>
-      </c>
-      <c r="C34" s="22">
-        <f>SUM(C32:C33)</f>
-        <v>28000</v>
-      </c>
-      <c r="D34" s="64">
-        <f>E34/C34</f>
-        <v>38.25</v>
-      </c>
-      <c r="E34" s="22">
-        <f t="shared" ref="E34:J34" si="12">SUM(E32:E33)</f>
-        <v>1071000</v>
-      </c>
-      <c r="F34" s="22">
-        <f t="shared" si="12"/>
-        <v>2142</v>
-      </c>
-      <c r="G34" s="22">
-        <f t="shared" si="12"/>
-        <v>72.828000000000017</v>
-      </c>
-      <c r="H34" s="22">
-        <f t="shared" si="12"/>
-        <v>10.71</v>
-      </c>
-      <c r="I34" s="22">
-        <f t="shared" si="12"/>
-        <v>155.78765999999999</v>
-      </c>
-      <c r="J34" s="22">
-        <f t="shared" si="12"/>
-        <v>1073381.3256599999</v>
-      </c>
-      <c r="K34" s="25"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="1:14" s="13" customFormat="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+    <row r="33" spans="1:14" s="13" customFormat="1">
+      <c r="A33" s="87"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A34" s="49">
+        <v>44846</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="17">
+        <v>27.75</v>
+      </c>
+      <c r="E34" s="18">
+        <f>C34*D34</f>
+        <v>83250</v>
+      </c>
+      <c r="F34" s="18">
+        <f>E34*0.002</f>
+        <v>166.5</v>
+      </c>
+      <c r="G34" s="18">
+        <f>E34*0.000068</f>
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="H34" s="18">
+        <f>E34*0.00001</f>
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="I34" s="18">
+        <f>(F34+G34+H34)*0.07</f>
+        <v>12.109545000000002</v>
+      </c>
+      <c r="J34" s="18">
+        <f>E34+F34+I34+G34+H34</f>
+        <v>83435.103044999996</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="49">
+        <v>44853</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="16">
+        <f>C34</f>
+        <v>3000</v>
+      </c>
+      <c r="D35" s="26">
+        <v>29.25</v>
+      </c>
+      <c r="E35" s="17">
+        <f>C35*D35</f>
+        <v>87750</v>
+      </c>
+      <c r="F35" s="27">
+        <f>E35*0.002</f>
+        <v>175.5</v>
+      </c>
+      <c r="G35" s="26">
+        <f>E35*0.000068</f>
+        <v>5.9669999999999996</v>
+      </c>
+      <c r="H35" s="26">
+        <f>E35*0.00001</f>
+        <v>0.87750000000000006</v>
+      </c>
+      <c r="I35" s="26">
+        <f>(F35+G35+H35)*0.07</f>
+        <v>12.764115000000002</v>
+      </c>
+      <c r="J35" s="26">
+        <f>E35-F35-G35-H35-I35</f>
+        <v>87554.891384999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="49">
-        <v>44846</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="16">
+        <f>DAYS360(A34,A35)</f>
+        <v>7</v>
+      </c>
+      <c r="B36" s="30">
+        <f>(D35-D34)/D34</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18">
+        <f>E35-E34</f>
+        <v>4500</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18">
+        <f>J35-J34</f>
+        <v>4119.7883399999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A37" s="8">
+        <v>45161</v>
+      </c>
+      <c r="C37" s="10">
+        <f>C38</f>
         <v>3000</v>
       </c>
-      <c r="D36" s="17">
-        <v>27.75</v>
-      </c>
-      <c r="E36" s="18">
-        <f>C36*D36</f>
-        <v>83250</v>
-      </c>
-      <c r="F36" s="18">
-        <f>E36*0.002</f>
-        <v>166.5</v>
-      </c>
-      <c r="G36" s="18">
-        <f>E36*0.000068</f>
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="H36" s="18">
-        <f>E36*0.00001</f>
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="I36" s="18">
-        <f>(F36+G36+H36)*0.07</f>
-        <v>12.109545000000002</v>
-      </c>
-      <c r="J36" s="18">
-        <f>E36+F36+I36+G36+H36</f>
-        <v>83435.103044999996</v>
-      </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="49">
-        <v>44853</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="16">
-        <f>C36</f>
-        <v>3000</v>
-      </c>
-      <c r="D37" s="26">
-        <v>29.25</v>
-      </c>
-      <c r="E37" s="17">
-        <f>C37*D37</f>
-        <v>87750</v>
-      </c>
-      <c r="F37" s="27">
-        <f>E37*0.002</f>
-        <v>175.5</v>
-      </c>
-      <c r="G37" s="26">
-        <f>E37*0.000068</f>
-        <v>5.9669999999999996</v>
-      </c>
-      <c r="H37" s="26">
-        <f>E37*0.00001</f>
-        <v>0.87750000000000006</v>
-      </c>
-      <c r="I37" s="26">
-        <f>(F37+G37+H37)*0.07</f>
-        <v>12.764115000000002</v>
-      </c>
-      <c r="J37" s="26">
-        <f>E37-F37-G37-H37-I37</f>
-        <v>87554.891384999995</v>
-      </c>
+      <c r="D37" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="59">
+        <v>0</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0</v>
+      </c>
+      <c r="G37" s="59">
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <f>G37-E37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="60">
+        <f>C37*D37*0.9</f>
+        <v>675</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="49">
-        <f>DAYS360(A36,A37)</f>
-        <v>7</v>
-      </c>
-      <c r="B38" s="30">
-        <f>(D37-D36)/D36</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
+        <v>44854</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D38" s="17">
+        <v>27.75</v>
+      </c>
       <c r="E38" s="18">
-        <f>E37-E36</f>
-        <v>4500</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
+        <f>C38*D38</f>
+        <v>83250</v>
+      </c>
+      <c r="F38" s="18">
+        <f>E38*0.002</f>
+        <v>166.5</v>
+      </c>
+      <c r="G38" s="18">
+        <f>E38*0.000068</f>
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="H38" s="18">
+        <f>E38*0.00001</f>
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="I38" s="18">
+        <f>(F38+G38+H38)*0.07</f>
+        <v>12.109545000000002</v>
+      </c>
       <c r="J38" s="18">
-        <f>J37-J36</f>
-        <v>4119.7883399999992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A39" s="8">
-        <v>45161</v>
-      </c>
-      <c r="C39" s="10">
-        <f>C40</f>
+        <f>E38+F38+I38+G38+H38</f>
+        <v>83435.103044999996</v>
+      </c>
+      <c r="M38" s="21"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="49">
+        <v>45877</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="16">
+        <f>C38</f>
         <v>3000</v>
       </c>
-      <c r="D39" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="E39" s="59">
-        <v>0</v>
-      </c>
-      <c r="F39" s="32">
-        <v>0</v>
-      </c>
-      <c r="G39" s="59">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <f>G39-E39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-      <c r="J39" s="60">
-        <f>C39*D39*0.9</f>
-        <v>675</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
+      <c r="D39" s="26">
+        <v>31</v>
+      </c>
+      <c r="E39" s="17">
+        <f>C39*D39</f>
+        <v>93000</v>
+      </c>
+      <c r="F39" s="27">
+        <f>E39*0.002</f>
+        <v>186</v>
+      </c>
+      <c r="G39" s="26">
+        <f>E39*0.000068</f>
+        <v>6.3239999999999998</v>
+      </c>
+      <c r="H39" s="26">
+        <f>E39*0.00001</f>
+        <v>0.93</v>
+      </c>
+      <c r="I39" s="26">
+        <f>(F39+G39+H39)*0.07</f>
+        <v>13.527780000000003</v>
+      </c>
+      <c r="J39" s="26">
+        <f>E39-F39-G39-H39-I39</f>
+        <v>92793.21822000001</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="49">
-        <v>44854</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D40" s="17">
-        <v>27.75</v>
-      </c>
+      <c r="A40" s="49"/>
+      <c r="B40" s="30">
+        <f>J40/J38</f>
+        <v>0.11216040771176126</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="18">
-        <f>C40*D40</f>
-        <v>83250</v>
-      </c>
-      <c r="F40" s="18">
-        <f>E40*0.002</f>
-        <v>166.5</v>
-      </c>
-      <c r="G40" s="18">
-        <f>E40*0.000068</f>
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="H40" s="18">
-        <f>E40*0.00001</f>
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="I40" s="18">
-        <f>(F40+G40+H40)*0.07</f>
-        <v>12.109545000000002</v>
-      </c>
+        <f>E39-E38</f>
+        <v>9750</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="18">
-        <f>E40+F40+I40+G40+H40</f>
-        <v>83435.103044999996</v>
-      </c>
-      <c r="M40" s="21"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="55">
-        <v>44853</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="10">
-        <f>C40</f>
-        <v>3000</v>
-      </c>
-      <c r="D41" s="34">
-        <v>30.75</v>
-      </c>
-      <c r="E41" s="11">
-        <f>C41*D41</f>
-        <v>92250</v>
-      </c>
-      <c r="F41" s="35">
-        <f>E41*0.002</f>
-        <v>184.5</v>
-      </c>
-      <c r="G41" s="34">
-        <f>E41*0.000068</f>
-        <v>6.2729999999999997</v>
-      </c>
-      <c r="H41" s="34">
-        <f>E41*0.00001</f>
-        <v>0.9225000000000001</v>
-      </c>
-      <c r="I41" s="34">
-        <f>(F41+G41+H41)*0.07</f>
-        <v>13.418685000000002</v>
-      </c>
-      <c r="J41" s="34">
-        <f>E41-F41-G41-H41-I41</f>
-        <v>92044.885815000001</v>
-      </c>
+        <f>J39-J38</f>
+        <v>9358.1151750000136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="55"/>
-      <c r="B42" s="12">
-        <f>J42/J40</f>
-        <v>0.10319137216569858</v>
-      </c>
+      <c r="B42" s="13"/>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="20">
-        <f>E41-E40</f>
-        <v>9000</v>
-      </c>
+      <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
-      <c r="J42" s="20">
-        <f>J41-J40</f>
-        <v>8609.7827700000053</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A43" s="8">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C43" s="10">
-        <f>C44</f>
-        <v>5000</v>
-      </c>
-      <c r="D43" s="63">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="E43" s="59">
-        <v>0</v>
-      </c>
-      <c r="F43" s="32">
-        <v>0</v>
-      </c>
-      <c r="G43" s="59">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <f>G43-E43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43" s="60">
-        <f>C43*D43*0.9</f>
-        <v>904.50000000000011</v>
-      </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="55">
-        <v>44959</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D44" s="11">
-        <v>7.55</v>
-      </c>
-      <c r="E44" s="20">
-        <f>C44*D44</f>
-        <v>37750</v>
-      </c>
-      <c r="F44" s="20">
-        <f>E44*0.002</f>
-        <v>75.5</v>
-      </c>
-      <c r="G44" s="20">
-        <f>E44*0.000068</f>
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="H44" s="20">
-        <f>E44*0.00001</f>
-        <v>0.37750000000000006</v>
-      </c>
-      <c r="I44" s="20">
-        <f>(F44+G44+H44)*0.07</f>
-        <v>5.4911150000000006</v>
-      </c>
-      <c r="J44" s="20">
-        <f>E44+F44+I44+G44+H44</f>
-        <v>37833.935615000002</v>
-      </c>
+      <c r="J42" s="20"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -18323,7 +19790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D376F-67DD-4980-BF1B-8A055D89D41A}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -18643,7 +20110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -19264,7 +20731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248C1A-0BE1-4664-895A-D29EA068DDA6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -19575,7 +21042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -20462,7 +21929,7 @@
       <c r="M23" s="21"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21005,7 +22472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -21628,7 +23095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC4F4F3-83CC-4355-B28D-286BFFC2FE1C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -22058,305 +23525,6 @@
       <c r="L13" s="13"/>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
-  <dimension ref="A1:N9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18" style="21" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="21"/>
-    <col min="13" max="13" width="8.88671875" style="25"/>
-    <col min="14" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1">
-      <c r="A2" s="39">
-        <v>45175</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="17">
-        <v>26</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>26000</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>52</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>1.56</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.26</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>3.7674000000000003</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>26057.5874</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1">
-      <c r="A3" s="66">
-        <v>44473</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="11">
-        <v>9.5</v>
-      </c>
-      <c r="E3" s="20">
-        <f>C3*D3</f>
-        <v>19000</v>
-      </c>
-      <c r="F3" s="20">
-        <f>E3*0.002</f>
-        <v>38</v>
-      </c>
-      <c r="G3" s="20">
-        <f>E3*0.00006</f>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="H3" s="20">
-        <f>E3*0.00001</f>
-        <v>0.19</v>
-      </c>
-      <c r="I3" s="20">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>2.7531000000000003</v>
-      </c>
-      <c r="J3" s="20">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>19042.0831</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A4" s="55"/>
-      <c r="B4" s="75">
-        <f>(D3-D2)/D2</f>
-        <v>-0.63461538461538458</v>
-      </c>
-      <c r="C4" s="10">
-        <f>SUM(C2:C3)</f>
-        <v>3000</v>
-      </c>
-      <c r="D4" s="63">
-        <f>E4/C4</f>
-        <v>15</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>45000</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" si="0"/>
-        <v>6.5205000000000002</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" si="0"/>
-        <v>45099.6705</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-    </row>
-    <row r="5" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A5" s="49"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1">
-      <c r="A6" s="39">
-        <v>45175</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="17">
-        <v>26</v>
-      </c>
-      <c r="E6" s="18">
-        <f>C6*D6</f>
-        <v>26000</v>
-      </c>
-      <c r="F6" s="18">
-        <f>E6*0.002</f>
-        <v>52</v>
-      </c>
-      <c r="G6" s="18">
-        <f>E6*0.00006</f>
-        <v>1.56</v>
-      </c>
-      <c r="H6" s="18">
-        <f>E6*0.00001</f>
-        <v>0.26</v>
-      </c>
-      <c r="I6" s="18">
-        <f>(F6+G6+H6)*0.07</f>
-        <v>3.7674000000000003</v>
-      </c>
-      <c r="J6" s="18">
-        <f>E6+F6+I6+G6+H6</f>
-        <v>26057.5874</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1">
-      <c r="A7" s="55">
-        <v>44923</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <f>C6</f>
-        <v>1000</v>
-      </c>
-      <c r="D7" s="34">
-        <v>27.5</v>
-      </c>
-      <c r="E7" s="11">
-        <f>C7*D7</f>
-        <v>27500</v>
-      </c>
-      <c r="F7" s="35">
-        <f>E7*0.002</f>
-        <v>55</v>
-      </c>
-      <c r="G7" s="34">
-        <f>E7*0.000068</f>
-        <v>1.8699999999999999</v>
-      </c>
-      <c r="H7" s="34">
-        <f>E7*0.00001</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I7" s="34">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>4.0001500000000005</v>
-      </c>
-      <c r="J7" s="34">
-        <f>E7-F7-G7-H7-I7</f>
-        <v>27438.85485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1">
-      <c r="A8" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12">
-        <f>J8/J6</f>
-        <v>5.3008263151791225E-2</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20">
-        <f>E7-E6</f>
-        <v>1500</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20">
-        <f>J7-J6</f>
-        <v>1381.2674499999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A9" s="55"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -24352,6 +25520,305 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="21"/>
+    <col min="13" max="13" width="8.88671875" style="25"/>
+    <col min="14" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="13" customFormat="1">
+      <c r="A2" s="39">
+        <v>45175</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="17">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>26000</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>52</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>1.56</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.26</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>3.7674000000000003</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>26057.5874</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" s="13" customFormat="1">
+      <c r="A3" s="66">
+        <v>44473</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="E3" s="20">
+        <f>C3*D3</f>
+        <v>19000</v>
+      </c>
+      <c r="F3" s="20">
+        <f>E3*0.002</f>
+        <v>38</v>
+      </c>
+      <c r="G3" s="20">
+        <f>E3*0.00006</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="H3" s="20">
+        <f>E3*0.00001</f>
+        <v>0.19</v>
+      </c>
+      <c r="I3" s="20">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>2.7531000000000003</v>
+      </c>
+      <c r="J3" s="20">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>19042.0831</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A4" s="55"/>
+      <c r="B4" s="75">
+        <f>(D3-D2)/D2</f>
+        <v>-0.63461538461538458</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM(C2:C3)</f>
+        <v>3000</v>
+      </c>
+      <c r="D4" s="63">
+        <f>E4/C4</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>45000</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.5205000000000002</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>45099.6705</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+    </row>
+    <row r="5" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A5" s="49"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+    </row>
+    <row r="6" spans="1:14" s="13" customFormat="1">
+      <c r="A6" s="39">
+        <v>45175</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>26</v>
+      </c>
+      <c r="E6" s="18">
+        <f>C6*D6</f>
+        <v>26000</v>
+      </c>
+      <c r="F6" s="18">
+        <f>E6*0.002</f>
+        <v>52</v>
+      </c>
+      <c r="G6" s="18">
+        <f>E6*0.00006</f>
+        <v>1.56</v>
+      </c>
+      <c r="H6" s="18">
+        <f>E6*0.00001</f>
+        <v>0.26</v>
+      </c>
+      <c r="I6" s="18">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>3.7674000000000003</v>
+      </c>
+      <c r="J6" s="18">
+        <f>E6+F6+I6+G6+H6</f>
+        <v>26057.5874</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1">
+      <c r="A7" s="55">
+        <v>44923</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C6</f>
+        <v>1000</v>
+      </c>
+      <c r="D7" s="34">
+        <v>27.5</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7</f>
+        <v>27500</v>
+      </c>
+      <c r="F7" s="35">
+        <f>E7*0.002</f>
+        <v>55</v>
+      </c>
+      <c r="G7" s="34">
+        <f>E7*0.000068</f>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="H7" s="34">
+        <f>E7*0.00001</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I7" s="34">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>4.0001500000000005</v>
+      </c>
+      <c r="J7" s="34">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>27438.85485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12">
+        <f>J8/J6</f>
+        <v>5.3008263151791225E-2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="20">
+        <f>E7-E6</f>
+        <v>1500</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <f>J7-J6</f>
+        <v>1381.2674499999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A9" s="55"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -24596,7 +26063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D35EBD-FACE-4A0A-BE47-8E8EEE95DB23}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -25250,7 +26717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38AEBDA-97A4-44E7-92FF-AB904E0EA610}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -25586,21 +27053,21 @@
       <c r="A10" s="49">
         <v>45524</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="16">
         <v>5000</v>
       </c>
       <c r="D10" s="40">
         <v>0.193</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="99"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="100">
+      <c r="I10" s="99">
         <v>965</v>
       </c>
-      <c r="J10" s="100">
+      <c r="J10" s="99">
         <v>868.5</v>
       </c>
       <c r="K10" s="11"/>
@@ -25720,7 +27187,7 @@
       <c r="G15" s="94"/>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
-      <c r="J15" s="101">
+      <c r="J15" s="100">
         <v>8160.9745699999985</v>
       </c>
       <c r="K15" s="1"/>
@@ -25732,21 +27199,21 @@
       <c r="A16" s="49">
         <v>45524</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="16">
         <v>5000</v>
       </c>
       <c r="D16" s="40">
         <v>0.193</v>
       </c>
-      <c r="E16" s="99"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="99"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="100">
+      <c r="I16" s="99">
         <v>965</v>
       </c>
-      <c r="J16" s="100">
+      <c r="J16" s="99">
         <v>868.5</v>
       </c>
       <c r="K16" s="11"/>
@@ -25873,7 +27340,7 @@
       <c r="G21" s="94"/>
       <c r="H21" s="94"/>
       <c r="I21" s="94"/>
-      <c r="J21" s="101">
+      <c r="J21" s="100">
         <v>8156.1595699999962</v>
       </c>
       <c r="K21" s="1"/>
@@ -27360,10 +28827,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05574364-77F0-49AB-A1F4-209718CEC5C7}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -27424,7 +28891,7 @@
         <v>110243.63900000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1">
+    <row r="3" spans="1:14" s="62" customFormat="1" ht="21">
       <c r="A3" s="39">
         <v>45460</v>
       </c>
@@ -27434,7 +28901,7 @@
       <c r="C3" s="16">
         <v>2500</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="17">
         <v>10.5</v>
       </c>
       <c r="E3" s="18">
@@ -27464,6 +28931,7 @@
       <c r="K3" s="32"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
       <c r="A4" s="49"/>
@@ -27509,127 +28977,169 @@
       <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A5" s="66">
-        <v>44473</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="A5" s="39">
+        <v>45877</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
         <v>2500</v>
       </c>
-      <c r="D5" s="11">
-        <v>9.1</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="17">
+        <v>9.9</v>
+      </c>
+      <c r="E5" s="18">
         <f>C5*D5</f>
-        <v>22750</v>
-      </c>
-      <c r="F5" s="20">
+        <v>24750</v>
+      </c>
+      <c r="F5" s="18">
         <f>E5*0.002</f>
-        <v>45.5</v>
-      </c>
-      <c r="G5" s="20">
+        <v>49.5</v>
+      </c>
+      <c r="G5" s="18">
         <f>E5*0.00006</f>
-        <v>1.365</v>
-      </c>
-      <c r="H5" s="20">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="H5" s="18">
         <f>E5*0.00001</f>
-        <v>0.22750000000000001</v>
-      </c>
-      <c r="I5" s="20">
+        <v>0.24750000000000003</v>
+      </c>
+      <c r="I5" s="18">
         <f>(F5+G5+H5)*0.07</f>
-        <v>3.2964750000000005</v>
-      </c>
-      <c r="J5" s="20">
+        <v>3.5862750000000005</v>
+      </c>
+      <c r="J5" s="18">
         <f>E5+F5+I5+G5+H5</f>
-        <v>22800.388975000002</v>
+        <v>24804.818775000003</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="11"/>
       <c r="M5" s="12"/>
       <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" s="19" customFormat="1" ht="21">
-      <c r="A6" s="55"/>
-      <c r="B6" s="75">
+    <row r="6" spans="1:14" s="19" customFormat="1" ht="20.399999999999999">
+      <c r="A6" s="49"/>
+      <c r="B6" s="74">
         <f>(D5-D4)/D4</f>
-        <v>-0.16513761467889915</v>
-      </c>
-      <c r="C6" s="10">
+        <v>-9.1743119266055037E-2</v>
+      </c>
+      <c r="C6" s="16">
         <f>SUM(C4:C5)</f>
         <v>15000</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="40">
         <f>E6/C6</f>
-        <v>10.6</v>
-      </c>
-      <c r="E6" s="10">
+        <v>10.733333333333333</v>
+      </c>
+      <c r="E6" s="16">
         <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>159000</v>
-      </c>
-      <c r="F6" s="10">
+        <v>161000</v>
+      </c>
+      <c r="F6" s="16">
         <f t="shared" si="1"/>
-        <v>318</v>
-      </c>
-      <c r="G6" s="10">
+        <v>322</v>
+      </c>
+      <c r="G6" s="16">
         <f t="shared" si="1"/>
-        <v>9.5400000000000009</v>
-      </c>
-      <c r="H6" s="10">
+        <v>9.66</v>
+      </c>
+      <c r="H6" s="16">
         <f t="shared" si="1"/>
-        <v>1.59</v>
-      </c>
-      <c r="I6" s="10">
+        <v>1.61</v>
+      </c>
+      <c r="I6" s="16">
         <f t="shared" si="1"/>
-        <v>23.039100000000001</v>
-      </c>
-      <c r="J6" s="10">
+        <v>23.328900000000001</v>
+      </c>
+      <c r="J6" s="16">
         <f t="shared" si="1"/>
-        <v>159352.16910000003</v>
+        <v>161356.59890000001</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="13"/>
       <c r="M6" s="61"/>
       <c r="N6" s="61"/>
     </row>
-    <row r="7" spans="1:14" s="13" customFormat="1">
-      <c r="A7" s="66"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+    <row r="7" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A7" s="66">
+        <v>45877</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E7" s="20">
+        <f>C7*D7</f>
+        <v>24500</v>
+      </c>
+      <c r="F7" s="20">
+        <f>E7*0.002</f>
+        <v>49</v>
+      </c>
+      <c r="G7" s="20">
+        <f>E7*0.00006</f>
+        <v>1.47</v>
+      </c>
+      <c r="H7" s="20">
+        <f>E7*0.00001</f>
+        <v>0.24500000000000002</v>
+      </c>
+      <c r="I7" s="20">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>3.5500500000000001</v>
+      </c>
+      <c r="J7" s="20">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>24554.265050000002</v>
+      </c>
       <c r="K7" s="32"/>
       <c r="L7" s="11"/>
       <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:14" s="31" customFormat="1" ht="21">
-      <c r="A8" s="55">
-        <v>45530</v>
-      </c>
-      <c r="B8" s="62"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="21">
+      <c r="A8" s="55"/>
+      <c r="B8" s="75">
+        <f>(D7-D6)/D6</f>
+        <v>-8.6956521739130294E-2</v>
+      </c>
       <c r="C8" s="10">
-        <f>C3</f>
-        <v>2500</v>
+        <f>SUM(C6:C7)</f>
+        <v>17500</v>
       </c>
       <c r="D8" s="63">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="60">
-        <f>C8*D8</f>
-        <v>358.25</v>
-      </c>
-      <c r="J8" s="60">
-        <f>I8*0.9</f>
-        <v>322.42500000000001</v>
+        <f>E8/C8</f>
+        <v>10.6</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
+        <v>185500</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="2"/>
+        <v>11.13</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>1.8550000000000002</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="2"/>
+        <v>26.87895</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="2"/>
+        <v>185910.86395000003</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="13"/>
@@ -27637,127 +29147,170 @@
       <c r="N8" s="61"/>
     </row>
     <row r="9" spans="1:14" s="13" customFormat="1">
-      <c r="A9" s="66">
-        <v>45460</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D9" s="102">
-        <v>10.5</v>
-      </c>
-      <c r="E9" s="20">
-        <f>C9*D9</f>
-        <v>26250</v>
-      </c>
-      <c r="F9" s="20">
-        <f>E9*0.002</f>
-        <v>52.5</v>
-      </c>
-      <c r="G9" s="20">
-        <f>E9*0.00006</f>
-        <v>1.575</v>
-      </c>
-      <c r="H9" s="20">
-        <f>E9*0.00001</f>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="I9" s="20">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>3.8036250000000007</v>
-      </c>
-      <c r="J9" s="20">
-        <f>E9+F9+I9+G9+H9</f>
-        <v>26308.141125000002</v>
-      </c>
+      <c r="A9" s="66"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="32"/>
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+    <row r="10" spans="1:14" s="31" customFormat="1" ht="21">
       <c r="A10" s="55">
+        <v>45530</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="10">
+        <f>C3</f>
+        <v>2500</v>
+      </c>
+      <c r="D10" s="63">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="60">
+        <f>C10*D10</f>
+        <v>358.25</v>
+      </c>
+      <c r="J10" s="60">
+        <f>I10*0.9</f>
+        <v>322.42500000000001</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+    </row>
+    <row r="11" spans="1:14" s="13" customFormat="1">
+      <c r="A11" s="66">
+        <v>45460</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="101">
+        <v>10.5</v>
+      </c>
+      <c r="E11" s="20">
+        <f>C11*D11</f>
+        <v>26250</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E11*0.002</f>
+        <v>52.5</v>
+      </c>
+      <c r="G11" s="20">
+        <f>E11*0.00006</f>
+        <v>1.575</v>
+      </c>
+      <c r="H11" s="20">
+        <f>E11*0.00001</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="I11" s="20">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>3.8036250000000007</v>
+      </c>
+      <c r="J11" s="20">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>26308.141125000002</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A12" s="55">
         <v>45525</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
-        <f>C9</f>
+      <c r="C12" s="10">
+        <f>C11</f>
         <v>2500</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D12" s="34">
         <v>11.5</v>
       </c>
-      <c r="E10" s="11">
-        <f>C10*D10</f>
+      <c r="E12" s="11">
+        <f>C12*D12</f>
         <v>28750</v>
       </c>
-      <c r="F10" s="35">
-        <f>E10*0.002</f>
+      <c r="F12" s="35">
+        <f>E12*0.002</f>
         <v>57.5</v>
       </c>
-      <c r="G10" s="34">
-        <f>E10*0.000068</f>
+      <c r="G12" s="34">
+        <f>E12*0.000068</f>
         <v>1.9550000000000001</v>
       </c>
-      <c r="H10" s="34">
-        <f>E10*0.00001</f>
+      <c r="H12" s="34">
+        <f>E12*0.00001</f>
         <v>0.28750000000000003</v>
       </c>
-      <c r="I10" s="34">
-        <f>(F10+G10+H10)*0.07</f>
+      <c r="I12" s="34">
+        <f>(F12+G12+H12)*0.07</f>
         <v>4.1819750000000004</v>
       </c>
-      <c r="J10" s="34">
-        <f>E10-F10-G10-H10-I10</f>
+      <c r="J12" s="34">
+        <f>E12-F12-G12-H12-I12</f>
         <v>28686.075525</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="55"/>
-      <c r="B11" s="12">
-        <f>(D10-D9)/D9</f>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="55"/>
+      <c r="B13" s="12">
+        <f>(D12-D11)/D11</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="55" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="20">
-        <f>E10-E9</f>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="20">
+        <f>E12-E11</f>
         <v>2500</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20">
-        <f>J10-J9</f>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20">
+        <f>J12-J11</f>
         <v>2377.9343999999983</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="J13" s="53">
-        <f>J8+J12</f>
+    <row r="15" spans="1:14">
+      <c r="J15" s="53">
+        <f>J10+J14</f>
         <v>2700.3593999999985</v>
       </c>
     </row>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1136" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D2F9005-36C3-42E2-B241-50671B39402E}"/>
+  <xr:revisionPtr revIDLastSave="1145" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A5880A-72C6-48CB-8F5A-D0316CC94134}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="0" windowWidth="18852" windowHeight="12336" tabRatio="461" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2292" windowWidth="10752" windowHeight="9948" tabRatio="461" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="39">
   <si>
     <t>BUY</t>
   </si>
@@ -5976,7 +5976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115D497-67E5-4755-A37C-D801F1CE1CC8}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -8923,7 +8923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:J21"/>
     </sheetView>
   </sheetViews>
@@ -9557,78 +9557,77 @@
       <c r="O19" s="58"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="49">
+      <c r="A20" s="55">
         <v>45875</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
+      <c r="B20" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
         <v>2800</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="46">
         <v>11</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="61">
         <f>C20*D20</f>
         <v>30800</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="20">
         <f>E20*0.002</f>
         <v>61.6</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="20">
         <f>E20*0.00006</f>
         <v>1.8480000000000001</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="20">
         <f>E20*0.00001</f>
         <v>0.30800000000000005</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="20">
         <f>(F20+G20+H20)*0.07</f>
         <v>4.4629200000000004</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="61">
         <f>E20+F20+I20+G20+H20</f>
         <v>30868.218920000003</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="30">
+      <c r="B21" s="12">
         <f>(D20-D19)/D19</f>
         <v>-0.80180180180180183</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="10">
         <f>SUM(C19:C20)</f>
         <v>7000</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="63">
         <f>E21/C21</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="10">
         <f t="shared" ref="E21:J21" si="2">SUM(E19:E20)</f>
         <v>263900</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="10">
         <f t="shared" si="2"/>
         <v>527.80000000000007</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="10">
         <f t="shared" si="2"/>
         <v>15.834000000000001</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="10">
         <f t="shared" si="2"/>
         <v>2.6390000000000002</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="10">
         <f t="shared" si="2"/>
         <v>38.239110000000011</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="10">
         <f t="shared" si="2"/>
         <v>264484.51211000001</v>
       </c>
@@ -23541,8 +23540,8 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -28827,10 +28826,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05574364-77F0-49AB-A1F4-209718CEC5C7}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -29062,39 +29061,39 @@
       <c r="N6" s="61"/>
     </row>
     <row r="7" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A7" s="66">
-        <v>45877</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="39">
+        <v>45882</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
         <v>2500</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="17">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <f>C7*D7</f>
         <v>24500</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <f>E7*0.002</f>
         <v>49</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <f>E7*0.00006</f>
         <v>1.47</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f>E7*0.00001</f>
         <v>0.24500000000000002</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <f>(F7+G7+H7)*0.07</f>
         <v>3.5500500000000001</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <f>E7+F7+I7+G7+H7</f>
         <v>24554.265050000002</v>
       </c>
@@ -29103,41 +29102,41 @@
       <c r="M7" s="12"/>
       <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="21">
-      <c r="A8" s="55"/>
-      <c r="B8" s="75">
+    <row r="8" spans="1:14" s="19" customFormat="1" ht="20.399999999999999">
+      <c r="A8" s="49"/>
+      <c r="B8" s="74">
         <f>(D7-D6)/D6</f>
         <v>-8.6956521739130294E-2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16">
         <f>SUM(C6:C7)</f>
         <v>17500</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="40">
         <f>E8/C8</f>
         <v>10.6</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="16">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
         <v>185500</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="16">
         <f t="shared" si="2"/>
         <v>371</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="16">
         <f t="shared" si="2"/>
         <v>11.13</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="16">
         <f t="shared" si="2"/>
         <v>1.8550000000000002</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>26.87895</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="16">
         <f t="shared" si="2"/>
         <v>185910.86395000003</v>
       </c>
@@ -29146,43 +29145,85 @@
       <c r="M8" s="61"/>
       <c r="N8" s="61"/>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1">
-      <c r="A9" s="66"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+    <row r="9" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A9" s="66">
+        <v>45882</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D9" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E9" s="20">
+        <f>C9*D9</f>
+        <v>24500</v>
+      </c>
+      <c r="F9" s="20">
+        <f>E9*0.002</f>
+        <v>49</v>
+      </c>
+      <c r="G9" s="20">
+        <f>E9*0.00006</f>
+        <v>1.47</v>
+      </c>
+      <c r="H9" s="20">
+        <f>E9*0.00001</f>
+        <v>0.24500000000000002</v>
+      </c>
+      <c r="I9" s="20">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>3.5500500000000001</v>
+      </c>
+      <c r="J9" s="20">
+        <f>E9+F9+I9+G9+H9</f>
+        <v>24554.265050000002</v>
+      </c>
       <c r="K9" s="32"/>
       <c r="L9" s="11"/>
       <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" s="31" customFormat="1" ht="21">
-      <c r="A10" s="55">
-        <v>45530</v>
-      </c>
-      <c r="B10" s="62"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14" s="19" customFormat="1" ht="21">
+      <c r="A10" s="55"/>
+      <c r="B10" s="75">
+        <f>(D9-D8)/D8</f>
+        <v>-7.5471698113207447E-2</v>
+      </c>
       <c r="C10" s="10">
-        <f>C3</f>
-        <v>2500</v>
+        <f>SUM(C8:C9)</f>
+        <v>20000</v>
       </c>
       <c r="D10" s="63">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="60">
-        <f>C10*D10</f>
-        <v>358.25</v>
-      </c>
-      <c r="J10" s="60">
-        <f>I10*0.9</f>
-        <v>322.42500000000001</v>
+        <f>E10/C10</f>
+        <v>10.5</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" ref="E10:J10" si="3">SUM(E8:E9)</f>
+        <v>210000</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="3"/>
+        <v>12.600000000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="3"/>
+        <v>2.1</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>30.428999999999998</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="3"/>
+        <v>210465.12900000002</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="13"/>
@@ -29190,134 +29231,177 @@
       <c r="N10" s="61"/>
     </row>
     <row r="11" spans="1:14" s="13" customFormat="1">
-      <c r="A11" s="66">
-        <v>45460</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="101">
-        <v>10.5</v>
-      </c>
-      <c r="E11" s="20">
-        <f>C11*D11</f>
-        <v>26250</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E11*0.002</f>
-        <v>52.5</v>
-      </c>
-      <c r="G11" s="20">
-        <f>E11*0.00006</f>
-        <v>1.575</v>
-      </c>
-      <c r="H11" s="20">
-        <f>E11*0.00001</f>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="I11" s="20">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>3.8036250000000007</v>
-      </c>
-      <c r="J11" s="20">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>26308.141125000002</v>
-      </c>
+      <c r="A11" s="66"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="32"/>
       <c r="L11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+    <row r="12" spans="1:14" s="31" customFormat="1" ht="21">
       <c r="A12" s="55">
+        <v>45530</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="10">
+        <f>C3</f>
+        <v>2500</v>
+      </c>
+      <c r="D12" s="63">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="60">
+        <f>C12*D12</f>
+        <v>358.25</v>
+      </c>
+      <c r="J12" s="60">
+        <f>I12*0.9</f>
+        <v>322.42500000000001</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+    </row>
+    <row r="13" spans="1:14" s="13" customFormat="1">
+      <c r="A13" s="66">
+        <v>45460</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D13" s="101">
+        <v>10.5</v>
+      </c>
+      <c r="E13" s="20">
+        <f>C13*D13</f>
+        <v>26250</v>
+      </c>
+      <c r="F13" s="20">
+        <f>E13*0.002</f>
+        <v>52.5</v>
+      </c>
+      <c r="G13" s="20">
+        <f>E13*0.00006</f>
+        <v>1.575</v>
+      </c>
+      <c r="H13" s="20">
+        <f>E13*0.00001</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="I13" s="20">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>3.8036250000000007</v>
+      </c>
+      <c r="J13" s="20">
+        <f>E13+F13+I13+G13+H13</f>
+        <v>26308.141125000002</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A14" s="55">
         <v>45525</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
-        <f>C11</f>
+      <c r="C14" s="10">
+        <f>C13</f>
         <v>2500</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D14" s="34">
         <v>11.5</v>
       </c>
-      <c r="E12" s="11">
-        <f>C12*D12</f>
+      <c r="E14" s="11">
+        <f>C14*D14</f>
         <v>28750</v>
       </c>
-      <c r="F12" s="35">
-        <f>E12*0.002</f>
+      <c r="F14" s="35">
+        <f>E14*0.002</f>
         <v>57.5</v>
       </c>
-      <c r="G12" s="34">
-        <f>E12*0.000068</f>
+      <c r="G14" s="34">
+        <f>E14*0.000068</f>
         <v>1.9550000000000001</v>
       </c>
-      <c r="H12" s="34">
-        <f>E12*0.00001</f>
+      <c r="H14" s="34">
+        <f>E14*0.00001</f>
         <v>0.28750000000000003</v>
       </c>
-      <c r="I12" s="34">
-        <f>(F12+G12+H12)*0.07</f>
+      <c r="I14" s="34">
+        <f>(F14+G14+H14)*0.07</f>
         <v>4.1819750000000004</v>
       </c>
-      <c r="J12" s="34">
-        <f>E12-F12-G12-H12-I12</f>
+      <c r="J14" s="34">
+        <f>E14-F14-G14-H14-I14</f>
         <v>28686.075525</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="55"/>
-      <c r="B13" s="12">
-        <f>(D12-D11)/D11</f>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="55"/>
+      <c r="B15" s="12">
+        <f>(D14-D13)/D13</f>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="55" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="20">
-        <f>E12-E11</f>
+      <c r="B16" s="13"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="20">
+        <f>E14-E13</f>
         <v>2500</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20">
-        <f>J12-J11</f>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20">
+        <f>J14-J13</f>
         <v>2377.9343999999983</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="J15" s="53">
-        <f>J10+J14</f>
+    <row r="17" spans="10:10">
+      <c r="J17" s="53">
+        <f>J12+J16</f>
         <v>2700.3593999999985</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1145" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87A5880A-72C6-48CB-8F5A-D0316CC94134}"/>
+  <xr:revisionPtr revIDLastSave="1155" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7C1550-1E5B-4421-BC9F-9F54DAA8B3BE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2292" windowWidth="10752" windowHeight="9948" tabRatio="461" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="624" windowWidth="10752" windowHeight="9948" tabRatio="461" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="39">
   <si>
     <t>BUY</t>
   </si>
@@ -3736,10 +3736,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -5589,380 +5589,458 @@
       <c r="K50" s="25"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="8">
-        <v>45604</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="10">
+      <c r="A51" s="14">
+        <v>45883</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16">
         <v>10000</v>
       </c>
-      <c r="D51" s="46">
-        <v>8.35</v>
-      </c>
-      <c r="E51" s="20">
+      <c r="D51" s="41">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E51" s="18">
         <f>C51*D51</f>
-        <v>83500</v>
-      </c>
-      <c r="F51" s="20">
+        <v>84500</v>
+      </c>
+      <c r="F51" s="18">
         <f>E51*0.002</f>
-        <v>167</v>
-      </c>
-      <c r="G51" s="20">
+        <v>169</v>
+      </c>
+      <c r="G51" s="18">
         <f>E51*0.000068</f>
-        <v>5.6779999999999999</v>
-      </c>
-      <c r="H51" s="20">
+        <v>5.7459999999999996</v>
+      </c>
+      <c r="H51" s="18">
         <f>E51*0.00001</f>
-        <v>0.83500000000000008</v>
-      </c>
-      <c r="I51" s="20">
+        <v>0.84500000000000008</v>
+      </c>
+      <c r="I51" s="18">
         <f>(F51+G51+H51)*0.07</f>
-        <v>12.145910000000001</v>
-      </c>
-      <c r="J51" s="20">
+        <v>12.291370000000002</v>
+      </c>
+      <c r="J51" s="18">
         <f>E51+F51+I51+G51+H51</f>
-        <v>83685.658910000013</v>
+        <v>84687.882370000007</v>
       </c>
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="44"/>
-      <c r="B52" s="79">
+      <c r="A52" s="42"/>
+      <c r="B52" s="85">
         <f>(D51-D50)/D50</f>
-        <v>-0.36259541984732824</v>
-      </c>
-      <c r="C52" s="22">
+        <v>-0.35496183206106874</v>
+      </c>
+      <c r="C52" s="5">
         <f>SUM(C50:C51)</f>
         <v>50000</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="36">
         <f>E52/C52</f>
-        <v>12.15</v>
-      </c>
-      <c r="E52" s="22">
+        <v>12.17</v>
+      </c>
+      <c r="E52" s="5">
         <f t="shared" ref="E52:J52" si="20">SUM(E50:E51)</f>
-        <v>607500</v>
-      </c>
-      <c r="F52" s="22">
+        <v>608500</v>
+      </c>
+      <c r="F52" s="5">
         <f t="shared" si="20"/>
-        <v>1215</v>
-      </c>
-      <c r="G52" s="22">
+        <v>1217</v>
+      </c>
+      <c r="G52" s="5">
         <f t="shared" si="20"/>
-        <v>41.309999999999995</v>
-      </c>
-      <c r="H52" s="22">
+        <v>41.378</v>
+      </c>
+      <c r="H52" s="5">
         <f t="shared" si="20"/>
-        <v>6.0750000000000002</v>
-      </c>
-      <c r="I52" s="22">
+        <v>6.085</v>
+      </c>
+      <c r="I52" s="5">
         <f t="shared" si="20"/>
-        <v>88.366950000000017</v>
-      </c>
-      <c r="J52" s="22">
+        <v>88.512410000000017</v>
+      </c>
+      <c r="J52" s="5">
         <f t="shared" si="20"/>
-        <v>608850.75194999995</v>
+        <v>609852.97540999996</v>
       </c>
       <c r="K52" s="25"/>
     </row>
+    <row r="53" spans="1:11" s="21" customFormat="1">
+      <c r="A53" s="8">
+        <v>45883</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D53" s="46">
+        <v>8.15</v>
+      </c>
+      <c r="E53" s="20">
+        <f>C53*D53</f>
+        <v>81500</v>
+      </c>
+      <c r="F53" s="20">
+        <f>E53*0.002</f>
+        <v>163</v>
+      </c>
+      <c r="G53" s="20">
+        <f>E53*0.000068</f>
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="H53" s="20">
+        <f>E53*0.00001</f>
+        <v>0.81500000000000006</v>
+      </c>
+      <c r="I53" s="20">
+        <f>(F53+G53+H53)*0.07</f>
+        <v>11.854990000000001</v>
+      </c>
+      <c r="J53" s="20">
+        <f>E53+F53+I53+G53+H53</f>
+        <v>81681.211990000011</v>
+      </c>
+    </row>
     <row r="54" spans="1:11" s="21" customFormat="1">
-      <c r="A54" s="14">
+      <c r="A54" s="44"/>
+      <c r="B54" s="79">
+        <f>(D53-D52)/D52</f>
+        <v>-0.33032046014790467</v>
+      </c>
+      <c r="C54" s="22">
+        <f>SUM(C52:C53)</f>
+        <v>60000</v>
+      </c>
+      <c r="D54" s="33">
+        <f>E54/C54</f>
+        <v>11.5</v>
+      </c>
+      <c r="E54" s="22">
+        <f t="shared" ref="E54:J54" si="21">SUM(E52:E53)</f>
+        <v>690000</v>
+      </c>
+      <c r="F54" s="22">
+        <f t="shared" si="21"/>
+        <v>1380</v>
+      </c>
+      <c r="G54" s="22">
+        <f t="shared" si="21"/>
+        <v>46.92</v>
+      </c>
+      <c r="H54" s="22">
+        <f t="shared" si="21"/>
+        <v>6.9</v>
+      </c>
+      <c r="I54" s="22">
+        <f t="shared" si="21"/>
+        <v>100.36740000000002</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" si="21"/>
+        <v>691534.18739999994</v>
+      </c>
+      <c r="K54" s="25"/>
+    </row>
+    <row r="56" spans="1:11" s="21" customFormat="1">
+      <c r="A56" s="14">
         <v>43630</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="16">
+      <c r="B56" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16">
         <v>10000</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D56" s="41">
         <v>16.600000000000001</v>
       </c>
-      <c r="E54" s="18">
-        <f>C54*D54</f>
+      <c r="E56" s="18">
+        <f>C56*D56</f>
         <v>166000</v>
       </c>
-      <c r="F54" s="18">
-        <f>E54*0.002</f>
+      <c r="F56" s="18">
+        <f>E56*0.002</f>
         <v>332</v>
       </c>
-      <c r="G54" s="18">
-        <f>E54*0.000068</f>
+      <c r="G56" s="18">
+        <f>E56*0.000068</f>
         <v>11.288</v>
       </c>
-      <c r="H54" s="18">
-        <f>E54*0.00001</f>
+      <c r="H56" s="18">
+        <f>E56*0.00001</f>
         <v>1.6600000000000001</v>
       </c>
-      <c r="I54" s="18">
-        <f>(F54+G54+H54)*0.07</f>
+      <c r="I56" s="18">
+        <f>(F56+G56+H56)*0.07</f>
         <v>24.146360000000005</v>
       </c>
-      <c r="J54" s="18">
-        <f>E54+F54+I54+G54+H54</f>
+      <c r="J56" s="18">
+        <f>E56+F56+I56+G56+H56</f>
         <v>166369.09436000002</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="13" customFormat="1">
-      <c r="A55" s="14">
+    <row r="57" spans="1:11" s="13" customFormat="1">
+      <c r="A57" s="14">
         <v>43643</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B57" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="16">
-        <f>C54</f>
+      <c r="C57" s="16">
+        <f>C56</f>
         <v>10000</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D57" s="26">
         <v>16.7</v>
       </c>
-      <c r="E55" s="17">
-        <f>C55*D55</f>
+      <c r="E57" s="17">
+        <f>C57*D57</f>
         <v>167000</v>
       </c>
-      <c r="F55" s="27">
-        <f>E55*0.002</f>
+      <c r="F57" s="27">
+        <f>E57*0.002</f>
         <v>334</v>
       </c>
-      <c r="G55" s="26">
-        <f>E55*0.000068</f>
+      <c r="G57" s="26">
+        <f>E57*0.000068</f>
         <v>11.356</v>
       </c>
-      <c r="H55" s="26">
-        <f>E55*0.00001</f>
+      <c r="H57" s="26">
+        <f>E57*0.00001</f>
         <v>1.6700000000000002</v>
       </c>
-      <c r="I55" s="26">
-        <f>(F55+G55+H55)*0.07</f>
+      <c r="I57" s="26">
+        <f>(F57+G57+H57)*0.07</f>
         <v>24.291820000000001</v>
       </c>
-      <c r="J55" s="26">
-        <f>E55-F55-G55-H55-I55</f>
+      <c r="J57" s="26">
+        <f>E57-F57-G57-H57-I57</f>
         <v>166628.68217999997</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A56" s="14" t="s">
+    <row r="58" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A58" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18">
-        <f>E55-E54</f>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18">
+        <f>E57-E56</f>
         <v>1000</v>
       </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18">
-        <f>J55-J54</f>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18">
+        <f>J57-J56</f>
         <v>259.58781999995699</v>
       </c>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11" s="21" customFormat="1">
-      <c r="A57" s="14">
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="1:11" s="21" customFormat="1">
+      <c r="A59" s="14">
         <v>45100</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="16">
+      <c r="B59" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="16">
         <v>2000</v>
       </c>
-      <c r="D57" s="41">
+      <c r="D59" s="41">
         <v>10.6</v>
       </c>
-      <c r="E57" s="18">
-        <f>C57*D57</f>
+      <c r="E59" s="18">
+        <f>C59*D59</f>
         <v>21200</v>
       </c>
-      <c r="F57" s="18">
-        <f>E57*0.002</f>
+      <c r="F59" s="18">
+        <f>E59*0.002</f>
         <v>42.4</v>
       </c>
-      <c r="G57" s="18">
-        <f>E57*0.000068</f>
+      <c r="G59" s="18">
+        <f>E59*0.000068</f>
         <v>1.4416</v>
       </c>
-      <c r="H57" s="18">
-        <f>E57*0.00001</f>
+      <c r="H59" s="18">
+        <f>E59*0.00001</f>
         <v>0.21200000000000002</v>
       </c>
-      <c r="I57" s="18">
-        <f>(F57+G57+H57)*0.07</f>
+      <c r="I59" s="18">
+        <f>(F59+G59+H59)*0.07</f>
         <v>3.0837520000000005</v>
       </c>
-      <c r="J57" s="18">
-        <f>E57+F57+I57+G57+H57</f>
+      <c r="J59" s="18">
+        <f>E59+F59+I59+G59+H59</f>
         <v>21247.137351999998</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="13" customFormat="1">
-      <c r="A58" s="14">
+    <row r="60" spans="1:11" s="13" customFormat="1">
+      <c r="A60" s="14">
         <v>45106</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B60" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="16">
-        <f>C57</f>
+      <c r="C60" s="16">
+        <f>C59</f>
         <v>2000</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D60" s="26">
         <v>11.2</v>
       </c>
-      <c r="E58" s="17">
-        <f>C58*D58</f>
+      <c r="E60" s="17">
+        <f>C60*D60</f>
         <v>22400</v>
       </c>
-      <c r="F58" s="27">
-        <f>E58*0.002</f>
+      <c r="F60" s="27">
+        <f>E60*0.002</f>
         <v>44.800000000000004</v>
       </c>
-      <c r="G58" s="26">
-        <f>E58*0.000068</f>
+      <c r="G60" s="26">
+        <f>E60*0.000068</f>
         <v>1.5231999999999999</v>
       </c>
-      <c r="H58" s="26">
-        <f>E58*0.00001</f>
+      <c r="H60" s="26">
+        <f>E60*0.00001</f>
         <v>0.224</v>
       </c>
-      <c r="I58" s="26">
-        <f>(F58+G58+H58)*0.07</f>
+      <c r="I60" s="26">
+        <f>(F60+G60+H60)*0.07</f>
         <v>3.2583040000000008</v>
       </c>
-      <c r="J58" s="26">
-        <f>E58-F58-G58-H58-I58</f>
+      <c r="J60" s="26">
+        <f>E60-F60-G60-H60-I60</f>
         <v>22350.194496000004</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A59" s="14" t="s">
+    <row r="61" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A61" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18">
-        <f>E58-E57</f>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18">
+        <f>E60-E59</f>
         <v>1200</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18">
-        <f>J58-J57</f>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18">
+        <f>J60-J59</f>
         <v>1103.0571440000058</v>
       </c>
-      <c r="K59" s="12"/>
-    </row>
-    <row r="60" spans="1:11" s="21" customFormat="1">
-      <c r="A60" s="14">
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" spans="1:11" s="21" customFormat="1">
+      <c r="A62" s="14">
         <v>45330</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="16">
+      <c r="B62" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="16">
         <v>3000</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D62" s="41">
         <v>7.95</v>
       </c>
-      <c r="E60" s="18">
-        <f>C60*D60</f>
+      <c r="E62" s="18">
+        <f>C62*D62</f>
         <v>23850</v>
       </c>
-      <c r="F60" s="18">
-        <f>E60*0.002</f>
+      <c r="F62" s="18">
+        <f>E62*0.002</f>
         <v>47.7</v>
       </c>
-      <c r="G60" s="18">
-        <f>E60*0.000068</f>
+      <c r="G62" s="18">
+        <f>E62*0.000068</f>
         <v>1.6217999999999999</v>
       </c>
-      <c r="H60" s="18">
-        <f>E60*0.00001</f>
+      <c r="H62" s="18">
+        <f>E62*0.00001</f>
         <v>0.23850000000000002</v>
       </c>
-      <c r="I60" s="18">
-        <f>(F60+G60+H60)*0.07</f>
+      <c r="I62" s="18">
+        <f>(F62+G62+H62)*0.07</f>
         <v>3.4692210000000006</v>
       </c>
-      <c r="J60" s="18">
-        <f>E60+F60+I60+G60+H60</f>
+      <c r="J62" s="18">
+        <f>E62+F62+I62+G62+H62</f>
         <v>23903.029521</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="13" customFormat="1">
-      <c r="A61" s="14">
+    <row r="63" spans="1:11" s="13" customFormat="1">
+      <c r="A63" s="14">
         <v>45355</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B63" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="16">
-        <f>C60</f>
+      <c r="C63" s="16">
+        <f>C62</f>
         <v>3000</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D63" s="26">
         <v>7.9</v>
       </c>
-      <c r="E61" s="17">
-        <f>C61*D61</f>
+      <c r="E63" s="17">
+        <f>C63*D63</f>
         <v>23700</v>
       </c>
-      <c r="F61" s="27">
-        <f>E61*0.002</f>
+      <c r="F63" s="27">
+        <f>E63*0.002</f>
         <v>47.4</v>
       </c>
-      <c r="G61" s="26">
-        <f>E61*0.000068</f>
+      <c r="G63" s="26">
+        <f>E63*0.000068</f>
         <v>1.6115999999999999</v>
       </c>
-      <c r="H61" s="26">
-        <f>E61*0.00001</f>
+      <c r="H63" s="26">
+        <f>E63*0.00001</f>
         <v>0.23700000000000002</v>
       </c>
-      <c r="I61" s="26">
-        <f>(F61+G61+H61)*0.07</f>
+      <c r="I63" s="26">
+        <f>(F63+G63+H63)*0.07</f>
         <v>3.4474020000000007</v>
       </c>
-      <c r="J61" s="26">
-        <f>E61-F61-G61-H61-I61</f>
+      <c r="J63" s="26">
+        <f>E63-F63-G63-H63-I63</f>
         <v>23647.303997999996</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A62" s="14" t="s">
+    <row r="64" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A64" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="7">
-        <f>J62/J60</f>
+      <c r="B64" s="7">
+        <f>J64/J62</f>
         <v>-1.0698456560719093E-2</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="18">
-        <f>E61-E60</f>
+      <c r="C64" s="16"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18">
+        <f>E63-E62</f>
         <v>-150</v>
       </c>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18">
-        <f>J61-J60</f>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18">
+        <f>J63-J62</f>
         <v>-255.72552300000461</v>
       </c>
-      <c r="K62" s="12"/>
+      <c r="K64" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -23540,7 +23618,7 @@
   </sheetPr>
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1155" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C7C1550-1E5B-4421-BC9F-9F54DAA8B3BE}"/>
+  <xr:revisionPtr revIDLastSave="1172" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE0A757-2059-4A72-A162-03FC846B5D14}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="624" windowWidth="10752" windowHeight="9948" tabRatio="461" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="10380" yWindow="972" windowWidth="11520" windowHeight="9948" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -21,31 +21,30 @@
     <sheet name="AIMIRT" sheetId="210" r:id="rId6"/>
     <sheet name="AWC" sheetId="212" r:id="rId7"/>
     <sheet name="BCH" sheetId="150" r:id="rId8"/>
-    <sheet name="BEM" sheetId="219" r:id="rId9"/>
-    <sheet name="CRC" sheetId="220" r:id="rId10"/>
-    <sheet name="POM" sheetId="208" r:id="rId11"/>
-    <sheet name="CPNREIT" sheetId="194" r:id="rId12"/>
-    <sheet name="DIF" sheetId="57" r:id="rId13"/>
-    <sheet name="GVREIT" sheetId="195" r:id="rId14"/>
-    <sheet name="IVL" sheetId="196" r:id="rId15"/>
-    <sheet name="JMART" sheetId="204" r:id="rId16"/>
-    <sheet name="JMT" sheetId="205" r:id="rId17"/>
-    <sheet name="MCS" sheetId="20" r:id="rId18"/>
-    <sheet name="NER" sheetId="117" r:id="rId19"/>
-    <sheet name="ORI" sheetId="184" r:id="rId20"/>
-    <sheet name="PTG" sheetId="216" r:id="rId21"/>
-    <sheet name="RCL (2)" sheetId="222" r:id="rId22"/>
-    <sheet name="RCL" sheetId="161" r:id="rId23"/>
-    <sheet name="SCC" sheetId="152" r:id="rId24"/>
-    <sheet name="SENA" sheetId="183" r:id="rId25"/>
-    <sheet name="SINGER" sheetId="203" r:id="rId26"/>
-    <sheet name="SYNEX" sheetId="199" r:id="rId27"/>
-    <sheet name="TFFIF" sheetId="214" r:id="rId28"/>
-    <sheet name="TMT" sheetId="145" r:id="rId29"/>
-    <sheet name="TOA" sheetId="218" r:id="rId30"/>
-    <sheet name="TVO" sheetId="221" r:id="rId31"/>
-    <sheet name="WHAIR" sheetId="157" r:id="rId32"/>
-    <sheet name="WHART" sheetId="171" r:id="rId33"/>
+    <sheet name="CPF" sheetId="223" r:id="rId9"/>
+    <sheet name="CPN-POM" sheetId="208" r:id="rId10"/>
+    <sheet name="CPNREIT" sheetId="194" r:id="rId11"/>
+    <sheet name="DIF" sheetId="57" r:id="rId12"/>
+    <sheet name="GVREIT" sheetId="195" r:id="rId13"/>
+    <sheet name="IVL" sheetId="196" r:id="rId14"/>
+    <sheet name="JMART" sheetId="204" r:id="rId15"/>
+    <sheet name="JMT" sheetId="205" r:id="rId16"/>
+    <sheet name="MCS" sheetId="20" r:id="rId17"/>
+    <sheet name="NER" sheetId="117" r:id="rId18"/>
+    <sheet name="ORI" sheetId="184" r:id="rId19"/>
+    <sheet name="PTG" sheetId="216" r:id="rId20"/>
+    <sheet name="RCL (2)" sheetId="222" r:id="rId21"/>
+    <sheet name="RCL" sheetId="161" r:id="rId22"/>
+    <sheet name="SCC" sheetId="152" r:id="rId23"/>
+    <sheet name="SENA" sheetId="183" r:id="rId24"/>
+    <sheet name="SINGER" sheetId="203" r:id="rId25"/>
+    <sheet name="SYNEX" sheetId="199" r:id="rId26"/>
+    <sheet name="TFFIF" sheetId="214" r:id="rId27"/>
+    <sheet name="TMT" sheetId="145" r:id="rId28"/>
+    <sheet name="TOA" sheetId="218" r:id="rId29"/>
+    <sheet name="TVO" sheetId="221" r:id="rId30"/>
+    <sheet name="WHAIR" sheetId="157" r:id="rId31"/>
+    <sheet name="WHART" sheetId="171" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -68,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="40">
   <si>
     <t>BUY</t>
   </si>
@@ -185,6 +184,9 @@
   </si>
   <si>
     <t>-----------</t>
+  </si>
+  <si>
+    <t>CPF</t>
   </si>
 </sst>
 </file>
@@ -2434,121 +2436,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BA26F4-EA51-4501-B217-15494ABD3413}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="55">
-        <v>44242</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>600</v>
-      </c>
-      <c r="D1" s="46">
-        <v>35</v>
-      </c>
-      <c r="E1" s="20">
-        <f>C1*D1</f>
-        <v>21000</v>
-      </c>
-      <c r="F1" s="20">
-        <f>E1*0.002</f>
-        <v>42</v>
-      </c>
-      <c r="G1" s="20">
-        <f>E1*0.00006</f>
-        <v>1.26</v>
-      </c>
-      <c r="H1" s="20">
-        <f>E1*0.00001</f>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="I1" s="20">
-        <f>(F1+G1+H1)*0.07</f>
-        <v>3.0429000000000004</v>
-      </c>
-      <c r="J1" s="20">
-        <f>E1+F1+I1+G1+H1</f>
-        <v>21046.512899999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.8">
-      <c r="A2" s="55">
-        <v>44277</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10">
-        <f>C1</f>
-        <v>600</v>
-      </c>
-      <c r="D2" s="34">
-        <v>35.25</v>
-      </c>
-      <c r="E2" s="11">
-        <f>C2*D2</f>
-        <v>21150</v>
-      </c>
-      <c r="F2" s="35">
-        <f>E2*0.002</f>
-        <v>42.300000000000004</v>
-      </c>
-      <c r="G2" s="34">
-        <f>E2*0.000068</f>
-        <v>1.4381999999999999</v>
-      </c>
-      <c r="H2" s="34">
-        <f>E2*0.00001</f>
-        <v>0.21150000000000002</v>
-      </c>
-      <c r="I2" s="34">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>3.0764790000000009</v>
-      </c>
-      <c r="J2" s="34">
-        <f>E2-F2-G2-H2-I2</f>
-        <v>21102.973821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="21">
-      <c r="A3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="75">
-        <f>(D2-D1)/D1</f>
-        <v>7.1428571428571426E-3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="20">
-        <f>E2-E1</f>
-        <v>150</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20">
-        <f>J2-J1</f>
-        <v>56.46092100000169</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC55B7C3-78D7-44E5-8B97-354EA18B466F}">
   <dimension ref="A1:K8"/>
   <sheetViews>
@@ -2856,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB529E6-7221-4171-9EDF-80891E84F736}">
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -3734,11 +3621,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -6050,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4115D497-67E5-4755-A37C-D801F1CE1CC8}">
   <dimension ref="A1:N39"/>
   <sheetViews>
@@ -7489,7 +7376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECE484-9DAC-4EE9-A8FE-27A01698073E}">
   <dimension ref="A1:N18"/>
   <sheetViews>
@@ -8075,7 +7962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
   <dimension ref="A1:M32"/>
   <sheetViews>
@@ -8997,7 +8884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
   <dimension ref="A1:O40"/>
   <sheetViews>
@@ -10325,7 +10212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
@@ -12675,7 +12562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C5701E-1EA3-43D6-ACCE-96288D740D8D}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -13447,6 +13334,1069 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="21"/>
+    <col min="13" max="13" width="8.88671875" style="25"/>
+    <col min="14" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1">
+      <c r="A2" s="49">
+        <v>44658</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>15000</v>
+      </c>
+      <c r="D2" s="41">
+        <v>11</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>165000</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>330</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>9.9</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>23.9085</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>165365.45849999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1">
+      <c r="A3" s="49">
+        <v>44659</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="41">
+        <v>11</v>
+      </c>
+      <c r="E3" s="18">
+        <f>C3*D3</f>
+        <v>165000</v>
+      </c>
+      <c r="F3" s="18">
+        <f>E3*0.002</f>
+        <v>330</v>
+      </c>
+      <c r="G3" s="18">
+        <f>E3*0.00006</f>
+        <v>9.9</v>
+      </c>
+      <c r="H3" s="18">
+        <f>E3*0.00001</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I3" s="18">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>23.9085</v>
+      </c>
+      <c r="J3" s="18">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>165365.45849999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1">
+      <c r="A4" s="49"/>
+      <c r="B4" s="30">
+        <f>(D3-D2)/D2</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <f>SUM(C2:C3)</f>
+        <v>30000</v>
+      </c>
+      <c r="D4" s="17">
+        <f>E4/C4</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>330000</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
+        <v>47.817</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>330730.91699999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1">
+      <c r="A5" s="49">
+        <v>44676</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="41">
+        <v>11</v>
+      </c>
+      <c r="E5" s="18">
+        <f>C5*D5</f>
+        <v>165000</v>
+      </c>
+      <c r="F5" s="18">
+        <f>E5*0.002</f>
+        <v>330</v>
+      </c>
+      <c r="G5" s="18">
+        <f>E5*0.00006</f>
+        <v>9.9</v>
+      </c>
+      <c r="H5" s="18">
+        <f>E5*0.00001</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I5" s="18">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>23.9085</v>
+      </c>
+      <c r="J5" s="18">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>165365.45849999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16">
+        <f>SUM(C4:C5)</f>
+        <v>45000</v>
+      </c>
+      <c r="D6" s="17">
+        <f>E6/C6</f>
+        <v>11</v>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" ref="E6:J8" si="1">SUM(E4:E5)</f>
+        <v>495000</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" si="1"/>
+        <v>29.700000000000003</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>4.95</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
+        <v>71.725499999999997</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="1"/>
+        <v>496096.37549999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1">
+      <c r="A7" s="49">
+        <v>45561</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D7" s="41">
+        <v>5</v>
+      </c>
+      <c r="E7" s="68">
+        <f>C7*D7</f>
+        <v>25000</v>
+      </c>
+      <c r="F7" s="18">
+        <f>E7*0.002</f>
+        <v>50</v>
+      </c>
+      <c r="G7" s="18">
+        <f>E7*0.00006</f>
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="18">
+        <f>E7*0.00001</f>
+        <v>0.25</v>
+      </c>
+      <c r="I7" s="18">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>3.6225000000000005</v>
+      </c>
+      <c r="J7" s="68">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>25055.372500000001</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A8" s="49"/>
+      <c r="B8" s="30">
+        <f>(D7-D6)/D6</f>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="C8" s="16">
+        <f>SUM(C6:C7)</f>
+        <v>50000</v>
+      </c>
+      <c r="D8" s="103">
+        <f>E8/C8</f>
+        <v>10.4</v>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="1"/>
+        <v>520000</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="1"/>
+        <v>1040</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" si="1"/>
+        <v>31.200000000000003</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" si="1"/>
+        <v>75.347999999999999</v>
+      </c>
+      <c r="J8" s="16">
+        <f t="shared" si="1"/>
+        <v>521151.74799999996</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A9" s="49">
+        <v>45747</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="41">
+        <v>1.85</v>
+      </c>
+      <c r="E9" s="68">
+        <f>C9*D9</f>
+        <v>18500</v>
+      </c>
+      <c r="F9" s="18">
+        <f>E9*0.002</f>
+        <v>37</v>
+      </c>
+      <c r="G9" s="18">
+        <f>E9*0.00006</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H9" s="18">
+        <f>E9*0.00001</f>
+        <v>0.18500000000000003</v>
+      </c>
+      <c r="I9" s="18">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>2.6806500000000004</v>
+      </c>
+      <c r="J9" s="68">
+        <f>E9+F9+I9+G9+H9</f>
+        <v>18540.97565</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A10" s="49"/>
+      <c r="B10" s="30">
+        <f>(D9-D8)/D8</f>
+        <v>-0.82211538461538469</v>
+      </c>
+      <c r="C10" s="16">
+        <f>SUM(C8:C9)</f>
+        <v>60000</v>
+      </c>
+      <c r="D10" s="103">
+        <f>E10/C10</f>
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" ref="E10:J10" si="2">SUM(E8:E9)</f>
+        <v>538500</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="2"/>
+        <v>1077</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" si="2"/>
+        <v>32.31</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="2"/>
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="2"/>
+        <v>78.028649999999999</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="2"/>
+        <v>539692.72364999994</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A11" s="55">
+        <v>45705</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="46">
+        <v>1.8</v>
+      </c>
+      <c r="E11" s="61">
+        <f>C11*D11</f>
+        <v>18000</v>
+      </c>
+      <c r="F11" s="20">
+        <f>E11*0.002</f>
+        <v>36</v>
+      </c>
+      <c r="G11" s="20">
+        <f>E11*0.00006</f>
+        <v>1.08</v>
+      </c>
+      <c r="H11" s="20">
+        <f>E11*0.00001</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="I11" s="20">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>2.6082000000000001</v>
+      </c>
+      <c r="J11" s="61">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>18039.868200000001</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A12" s="55"/>
+      <c r="B12" s="12">
+        <f>(D11-D10)/D10</f>
+        <v>-0.79944289693593318</v>
+      </c>
+      <c r="C12" s="10">
+        <f>SUM(C10:C11)</f>
+        <v>70000</v>
+      </c>
+      <c r="D12" s="102">
+        <f>E12/C12</f>
+        <v>7.95</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ref="E12:J12" si="3">SUM(E10:E11)</f>
+        <v>556500</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="3"/>
+        <v>1113</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="3"/>
+        <v>33.39</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="3"/>
+        <v>5.5649999999999995</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>80.636849999999995</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="3"/>
+        <v>557732.59184999997</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A13" s="55"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1">
+      <c r="A14" s="49">
+        <v>45063</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="41">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E14" s="18">
+        <f>C14*D14</f>
+        <v>30599.999999999996</v>
+      </c>
+      <c r="F14" s="18">
+        <f>E14*0.002</f>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="G14" s="18">
+        <f>E14*0.00006</f>
+        <v>1.8359999999999999</v>
+      </c>
+      <c r="H14" s="18">
+        <f>E14*0.00001</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I14" s="18">
+        <f>(F14+G14+H14)*0.07</f>
+        <v>4.4339399999999998</v>
+      </c>
+      <c r="J14" s="18">
+        <f>E14+F14+I14+G14+H14</f>
+        <v>30667.775939999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1">
+      <c r="A15" s="49">
+        <v>45086</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16">
+        <f>C14</f>
+        <v>3000</v>
+      </c>
+      <c r="D15" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C15*D15</f>
+        <v>33600</v>
+      </c>
+      <c r="F15" s="27">
+        <f>E15*0.002</f>
+        <v>67.2</v>
+      </c>
+      <c r="G15" s="26">
+        <f>E15*0.000068</f>
+        <v>2.2848000000000002</v>
+      </c>
+      <c r="H15" s="26">
+        <f>E15*0.00001</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I15" s="26">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>4.8874560000000011</v>
+      </c>
+      <c r="J15" s="26">
+        <f>E15-F15-G15-H15-I15</f>
+        <v>33525.291744000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1">
+      <c r="A16" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12">
+        <f>(D15-D14)/D14</f>
+        <v>9.8039215686274522E-2</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18">
+        <f>E15-E14</f>
+        <v>3000.0000000000036</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18">
+        <f>J15-J14</f>
+        <v>2857.515804000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1">
+      <c r="A17" s="49">
+        <v>45489</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E17" s="68">
+        <f>C17*D17</f>
+        <v>13799.999999999998</v>
+      </c>
+      <c r="F17" s="18">
+        <f>E17*0.002</f>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="G17" s="18">
+        <f>E17*0.00006</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="H17" s="18">
+        <f>E17*0.00001</f>
+        <v>0.13799999999999998</v>
+      </c>
+      <c r="I17" s="18">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>1.9996200000000002</v>
+      </c>
+      <c r="J17" s="68">
+        <f>E17+F17+I17+G17+H17</f>
+        <v>13830.565619999999</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A18" s="49">
+        <v>45541</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="16">
+        <f>C17</f>
+        <v>3000</v>
+      </c>
+      <c r="D18" s="26">
+        <v>5.6</v>
+      </c>
+      <c r="E18" s="17">
+        <f>C18*D18</f>
+        <v>16800</v>
+      </c>
+      <c r="F18" s="27">
+        <f>E18*0.002</f>
+        <v>33.6</v>
+      </c>
+      <c r="G18" s="26">
+        <f>E18*0.000068</f>
+        <v>1.1424000000000001</v>
+      </c>
+      <c r="H18" s="26">
+        <f>E18*0.00001</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I18" s="26">
+        <f>(F18+G18+H18)*0.07</f>
+        <v>2.4437280000000006</v>
+      </c>
+      <c r="J18" s="26">
+        <f>E18-F18-G18-H18-I18</f>
+        <v>16762.645872000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A19" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="30">
+        <f>(D18-D17)/D17</f>
+        <v>0.21739130434782611</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18">
+        <f>E18-E17</f>
+        <v>3000.0000000000018</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18">
+        <f>J18-J17</f>
+        <v>2932.0802520000016</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A20" s="49">
+        <v>45705</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="41">
+        <v>2.9</v>
+      </c>
+      <c r="E20" s="68">
+        <f>C20*D20</f>
+        <v>29000</v>
+      </c>
+      <c r="F20" s="18">
+        <f>E20*0.002</f>
+        <v>58</v>
+      </c>
+      <c r="G20" s="18">
+        <f>E20*0.00006</f>
+        <v>1.74</v>
+      </c>
+      <c r="H20" s="18">
+        <f>E20*0.00001</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="I20" s="18">
+        <f>(F20+G20+H20)*0.07</f>
+        <v>4.2021000000000006</v>
+      </c>
+      <c r="J20" s="68">
+        <f>E20+F20+I20+G20+H20</f>
+        <v>29064.232100000001</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="49">
+        <v>45719</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="16">
+        <f>C20</f>
+        <v>10000</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2.82</v>
+      </c>
+      <c r="E21" s="17">
+        <f>C21*D21</f>
+        <v>28200</v>
+      </c>
+      <c r="F21" s="27">
+        <f>E21*0.002</f>
+        <v>56.4</v>
+      </c>
+      <c r="G21" s="26">
+        <f>E21*0.000068</f>
+        <v>1.9176</v>
+      </c>
+      <c r="H21" s="26">
+        <f>E21*0.00001</f>
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="I21" s="26">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>4.101972</v>
+      </c>
+      <c r="J21" s="26">
+        <f>E21-F21-G21-H21-I21</f>
+        <v>28137.298427999998</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="30">
+        <f>(D21-D20)/D20</f>
+        <v>-2.7586206896551748E-2</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18">
+        <f>E21-E20</f>
+        <v>-800</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18">
+        <f>J21-J20</f>
+        <v>-926.93367200000284</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A23" s="49">
+        <v>45874</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1.88</v>
+      </c>
+      <c r="E23" s="68">
+        <f>C23*D23</f>
+        <v>18800</v>
+      </c>
+      <c r="F23" s="18">
+        <f>E23*0.002</f>
+        <v>37.6</v>
+      </c>
+      <c r="G23" s="18">
+        <f>E23*0.00006</f>
+        <v>1.1280000000000001</v>
+      </c>
+      <c r="H23" s="18">
+        <f>E23*0.00001</f>
+        <v>0.18800000000000003</v>
+      </c>
+      <c r="I23" s="18">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>2.7241200000000005</v>
+      </c>
+      <c r="J23" s="68">
+        <f>E23+F23+I23+G23+H23</f>
+        <v>18841.640119999996</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="49">
+        <v>45874</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C23</f>
+        <v>10000</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="E24" s="17">
+        <f>C24*D24</f>
+        <v>19000</v>
+      </c>
+      <c r="F24" s="27">
+        <f>E24*0.002</f>
+        <v>38</v>
+      </c>
+      <c r="G24" s="26">
+        <f>E24*0.000068</f>
+        <v>1.292</v>
+      </c>
+      <c r="H24" s="26">
+        <f>E24*0.00001</f>
+        <v>0.19</v>
+      </c>
+      <c r="I24" s="26">
+        <f>(F24+G24+H24)*0.07</f>
+        <v>2.7637400000000003</v>
+      </c>
+      <c r="J24" s="26">
+        <f>E24-F24-G24-H24-I24</f>
+        <v>18957.754260000002</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="30">
+        <f>(D24-D23)/D23</f>
+        <v>1.0638297872340436E-2</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18">
+        <f>E24-E23</f>
+        <v>200</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <f>J24-J23</f>
+        <v>116.11414000000514</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A26" s="49">
+        <v>45747</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="41">
+        <v>1.85</v>
+      </c>
+      <c r="E26" s="68">
+        <f>C26*D26</f>
+        <v>18500</v>
+      </c>
+      <c r="F26" s="18">
+        <f>E26*0.002</f>
+        <v>37</v>
+      </c>
+      <c r="G26" s="18">
+        <f>E26*0.00006</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H26" s="18">
+        <f>E26*0.00001</f>
+        <v>0.18500000000000003</v>
+      </c>
+      <c r="I26" s="18">
+        <f>(F26+G26+H26)*0.07</f>
+        <v>2.6806500000000004</v>
+      </c>
+      <c r="J26" s="68">
+        <f>E26+F26+I26+G26+H26</f>
+        <v>18540.97565</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="49">
+        <v>45876</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="16">
+        <f>C26</f>
+        <v>10000</v>
+      </c>
+      <c r="D27" s="26">
+        <v>2.06</v>
+      </c>
+      <c r="E27" s="17">
+        <f>C27*D27</f>
+        <v>20600</v>
+      </c>
+      <c r="F27" s="27">
+        <f>E27*0.002</f>
+        <v>41.2</v>
+      </c>
+      <c r="G27" s="26">
+        <f>E27*0.000068</f>
+        <v>1.4008</v>
+      </c>
+      <c r="H27" s="26">
+        <f>E27*0.00001</f>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="I27" s="26">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>2.9964760000000004</v>
+      </c>
+      <c r="J27" s="26">
+        <f>E27-F27-G27-H27-I27</f>
+        <v>20554.196724000001</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="30">
+        <f>(D27-D26)/D26</f>
+        <v>0.11351351351351349</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18">
+        <f>E27-E26</f>
+        <v>2100</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18">
+        <f>J27-J26</f>
+        <v>2013.221074000001</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -15293,1069 +16243,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="21"/>
-    <col min="13" max="13" width="8.88671875" style="25"/>
-    <col min="14" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="B1" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1">
-      <c r="A2" s="49">
-        <v>44658</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>15000</v>
-      </c>
-      <c r="D2" s="41">
-        <v>11</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>165000</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>330</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>9.9</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>23.9085</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>165365.45849999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1">
-      <c r="A3" s="49">
-        <v>44659</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>15000</v>
-      </c>
-      <c r="D3" s="41">
-        <v>11</v>
-      </c>
-      <c r="E3" s="18">
-        <f>C3*D3</f>
-        <v>165000</v>
-      </c>
-      <c r="F3" s="18">
-        <f>E3*0.002</f>
-        <v>330</v>
-      </c>
-      <c r="G3" s="18">
-        <f>E3*0.00006</f>
-        <v>9.9</v>
-      </c>
-      <c r="H3" s="18">
-        <f>E3*0.00001</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>23.9085</v>
-      </c>
-      <c r="J3" s="18">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>165365.45849999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="30">
-        <f>(D3-D2)/D2</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="16">
-        <f>SUM(C2:C3)</f>
-        <v>30000</v>
-      </c>
-      <c r="D4" s="17">
-        <f>E4/C4</f>
-        <v>11</v>
-      </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>330000</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>19.8</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>47.817</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>330730.91699999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="49">
-        <v>44676</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="16">
-        <v>15000</v>
-      </c>
-      <c r="D5" s="41">
-        <v>11</v>
-      </c>
-      <c r="E5" s="18">
-        <f>C5*D5</f>
-        <v>165000</v>
-      </c>
-      <c r="F5" s="18">
-        <f>E5*0.002</f>
-        <v>330</v>
-      </c>
-      <c r="G5" s="18">
-        <f>E5*0.00006</f>
-        <v>9.9</v>
-      </c>
-      <c r="H5" s="18">
-        <f>E5*0.00001</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="I5" s="18">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>23.9085</v>
-      </c>
-      <c r="J5" s="18">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>165365.45849999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
-        <f>SUM(C4:C5)</f>
-        <v>45000</v>
-      </c>
-      <c r="D6" s="17">
-        <f>E6/C6</f>
-        <v>11</v>
-      </c>
-      <c r="E6" s="16">
-        <f t="shared" ref="E6:J8" si="1">SUM(E4:E5)</f>
-        <v>495000</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>990</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" si="1"/>
-        <v>29.700000000000003</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" si="1"/>
-        <v>4.95</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="1"/>
-        <v>71.725499999999997</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="1"/>
-        <v>496096.37549999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="13" customFormat="1">
-      <c r="A7" s="49">
-        <v>45561</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D7" s="41">
-        <v>5</v>
-      </c>
-      <c r="E7" s="68">
-        <f>C7*D7</f>
-        <v>25000</v>
-      </c>
-      <c r="F7" s="18">
-        <f>E7*0.002</f>
-        <v>50</v>
-      </c>
-      <c r="G7" s="18">
-        <f>E7*0.00006</f>
-        <v>1.5</v>
-      </c>
-      <c r="H7" s="18">
-        <f>E7*0.00001</f>
-        <v>0.25</v>
-      </c>
-      <c r="I7" s="18">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>3.6225000000000005</v>
-      </c>
-      <c r="J7" s="68">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>25055.372500000001</v>
-      </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A8" s="49"/>
-      <c r="B8" s="30">
-        <f>(D7-D6)/D6</f>
-        <v>-0.54545454545454541</v>
-      </c>
-      <c r="C8" s="16">
-        <f>SUM(C6:C7)</f>
-        <v>50000</v>
-      </c>
-      <c r="D8" s="103">
-        <f>E8/C8</f>
-        <v>10.4</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" si="1"/>
-        <v>520000</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>1040</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="1"/>
-        <v>31.200000000000003</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" si="1"/>
-        <v>75.347999999999999</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="1"/>
-        <v>521151.74799999996</v>
-      </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A9" s="49">
-        <v>45747</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="41">
-        <v>1.85</v>
-      </c>
-      <c r="E9" s="68">
-        <f>C9*D9</f>
-        <v>18500</v>
-      </c>
-      <c r="F9" s="18">
-        <f>E9*0.002</f>
-        <v>37</v>
-      </c>
-      <c r="G9" s="18">
-        <f>E9*0.00006</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H9" s="18">
-        <f>E9*0.00001</f>
-        <v>0.18500000000000003</v>
-      </c>
-      <c r="I9" s="18">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>2.6806500000000004</v>
-      </c>
-      <c r="J9" s="68">
-        <f>E9+F9+I9+G9+H9</f>
-        <v>18540.97565</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A10" s="49"/>
-      <c r="B10" s="30">
-        <f>(D9-D8)/D8</f>
-        <v>-0.82211538461538469</v>
-      </c>
-      <c r="C10" s="16">
-        <f>SUM(C8:C9)</f>
-        <v>60000</v>
-      </c>
-      <c r="D10" s="103">
-        <f>E10/C10</f>
-        <v>8.9749999999999996</v>
-      </c>
-      <c r="E10" s="16">
-        <f t="shared" ref="E10:J10" si="2">SUM(E8:E9)</f>
-        <v>538500</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="2"/>
-        <v>1077</v>
-      </c>
-      <c r="G10" s="16">
-        <f t="shared" si="2"/>
-        <v>32.31</v>
-      </c>
-      <c r="H10" s="16">
-        <f t="shared" si="2"/>
-        <v>5.3849999999999998</v>
-      </c>
-      <c r="I10" s="16">
-        <f t="shared" si="2"/>
-        <v>78.028649999999999</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
-        <v>539692.72364999994</v>
-      </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A11" s="55">
-        <v>45705</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="46">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="61">
-        <f>C11*D11</f>
-        <v>18000</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E11*0.002</f>
-        <v>36</v>
-      </c>
-      <c r="G11" s="20">
-        <f>E11*0.00006</f>
-        <v>1.08</v>
-      </c>
-      <c r="H11" s="20">
-        <f>E11*0.00001</f>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="I11" s="20">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>2.6082000000000001</v>
-      </c>
-      <c r="J11" s="61">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>18039.868200000001</v>
-      </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-    </row>
-    <row r="12" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A12" s="55"/>
-      <c r="B12" s="12">
-        <f>(D11-D10)/D10</f>
-        <v>-0.79944289693593318</v>
-      </c>
-      <c r="C12" s="10">
-        <f>SUM(C10:C11)</f>
-        <v>70000</v>
-      </c>
-      <c r="D12" s="102">
-        <f>E12/C12</f>
-        <v>7.95</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="E12:J12" si="3">SUM(E10:E11)</f>
-        <v>556500</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="3"/>
-        <v>1113</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="3"/>
-        <v>33.39</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="3"/>
-        <v>5.5649999999999995</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="3"/>
-        <v>80.636849999999995</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="3"/>
-        <v>557732.59184999997</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A13" s="55"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
-      <c r="A14" s="49">
-        <v>45063</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="41">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E14" s="18">
-        <f>C14*D14</f>
-        <v>30599.999999999996</v>
-      </c>
-      <c r="F14" s="18">
-        <f>E14*0.002</f>
-        <v>61.199999999999996</v>
-      </c>
-      <c r="G14" s="18">
-        <f>E14*0.00006</f>
-        <v>1.8359999999999999</v>
-      </c>
-      <c r="H14" s="18">
-        <f>E14*0.00001</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="I14" s="18">
-        <f>(F14+G14+H14)*0.07</f>
-        <v>4.4339399999999998</v>
-      </c>
-      <c r="J14" s="18">
-        <f>E14+F14+I14+G14+H14</f>
-        <v>30667.775939999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
-      <c r="A15" s="49">
-        <v>45086</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="16">
-        <f>C14</f>
-        <v>3000</v>
-      </c>
-      <c r="D15" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="E15" s="17">
-        <f>C15*D15</f>
-        <v>33600</v>
-      </c>
-      <c r="F15" s="27">
-        <f>E15*0.002</f>
-        <v>67.2</v>
-      </c>
-      <c r="G15" s="26">
-        <f>E15*0.000068</f>
-        <v>2.2848000000000002</v>
-      </c>
-      <c r="H15" s="26">
-        <f>E15*0.00001</f>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="I15" s="26">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>4.8874560000000011</v>
-      </c>
-      <c r="J15" s="26">
-        <f>E15-F15-G15-H15-I15</f>
-        <v>33525.291744000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
-      <c r="A16" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="12">
-        <f>(D15-D14)/D14</f>
-        <v>9.8039215686274522E-2</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18">
-        <f>E15-E14</f>
-        <v>3000.0000000000036</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18">
-        <f>J15-J14</f>
-        <v>2857.515804000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1">
-      <c r="A17" s="49">
-        <v>45489</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D17" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E17" s="68">
-        <f>C17*D17</f>
-        <v>13799.999999999998</v>
-      </c>
-      <c r="F17" s="18">
-        <f>E17*0.002</f>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="G17" s="18">
-        <f>E17*0.00006</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="H17" s="18">
-        <f>E17*0.00001</f>
-        <v>0.13799999999999998</v>
-      </c>
-      <c r="I17" s="18">
-        <f>(F17+G17+H17)*0.07</f>
-        <v>1.9996200000000002</v>
-      </c>
-      <c r="J17" s="68">
-        <f>E17+F17+I17+G17+H17</f>
-        <v>13830.565619999999</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A18" s="49">
-        <v>45541</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="16">
-        <f>C17</f>
-        <v>3000</v>
-      </c>
-      <c r="D18" s="26">
-        <v>5.6</v>
-      </c>
-      <c r="E18" s="17">
-        <f>C18*D18</f>
-        <v>16800</v>
-      </c>
-      <c r="F18" s="27">
-        <f>E18*0.002</f>
-        <v>33.6</v>
-      </c>
-      <c r="G18" s="26">
-        <f>E18*0.000068</f>
-        <v>1.1424000000000001</v>
-      </c>
-      <c r="H18" s="26">
-        <f>E18*0.00001</f>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="I18" s="26">
-        <f>(F18+G18+H18)*0.07</f>
-        <v>2.4437280000000006</v>
-      </c>
-      <c r="J18" s="26">
-        <f>E18-F18-G18-H18-I18</f>
-        <v>16762.645872000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A19" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="30">
-        <f>(D18-D17)/D17</f>
-        <v>0.21739130434782611</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18">
-        <f>E18-E17</f>
-        <v>3000.0000000000018</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <f>J18-J17</f>
-        <v>2932.0802520000016</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A20" s="49">
-        <v>45705</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D20" s="41">
-        <v>2.9</v>
-      </c>
-      <c r="E20" s="68">
-        <f>C20*D20</f>
-        <v>29000</v>
-      </c>
-      <c r="F20" s="18">
-        <f>E20*0.002</f>
-        <v>58</v>
-      </c>
-      <c r="G20" s="18">
-        <f>E20*0.00006</f>
-        <v>1.74</v>
-      </c>
-      <c r="H20" s="18">
-        <f>E20*0.00001</f>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="I20" s="18">
-        <f>(F20+G20+H20)*0.07</f>
-        <v>4.2021000000000006</v>
-      </c>
-      <c r="J20" s="68">
-        <f>E20+F20+I20+G20+H20</f>
-        <v>29064.232100000001</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="49">
-        <v>45719</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="16">
-        <f>C20</f>
-        <v>10000</v>
-      </c>
-      <c r="D21" s="26">
-        <v>2.82</v>
-      </c>
-      <c r="E21" s="17">
-        <f>C21*D21</f>
-        <v>28200</v>
-      </c>
-      <c r="F21" s="27">
-        <f>E21*0.002</f>
-        <v>56.4</v>
-      </c>
-      <c r="G21" s="26">
-        <f>E21*0.000068</f>
-        <v>1.9176</v>
-      </c>
-      <c r="H21" s="26">
-        <f>E21*0.00001</f>
-        <v>0.28200000000000003</v>
-      </c>
-      <c r="I21" s="26">
-        <f>(F21+G21+H21)*0.07</f>
-        <v>4.101972</v>
-      </c>
-      <c r="J21" s="26">
-        <f>E21-F21-G21-H21-I21</f>
-        <v>28137.298427999998</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="30">
-        <f>(D21-D20)/D20</f>
-        <v>-2.7586206896551748E-2</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18">
-        <f>E21-E20</f>
-        <v>-800</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18">
-        <f>J21-J20</f>
-        <v>-926.93367200000284</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A23" s="49">
-        <v>45874</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D23" s="41">
-        <v>1.88</v>
-      </c>
-      <c r="E23" s="68">
-        <f>C23*D23</f>
-        <v>18800</v>
-      </c>
-      <c r="F23" s="18">
-        <f>E23*0.002</f>
-        <v>37.6</v>
-      </c>
-      <c r="G23" s="18">
-        <f>E23*0.00006</f>
-        <v>1.1280000000000001</v>
-      </c>
-      <c r="H23" s="18">
-        <f>E23*0.00001</f>
-        <v>0.18800000000000003</v>
-      </c>
-      <c r="I23" s="18">
-        <f>(F23+G23+H23)*0.07</f>
-        <v>2.7241200000000005</v>
-      </c>
-      <c r="J23" s="68">
-        <f>E23+F23+I23+G23+H23</f>
-        <v>18841.640119999996</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="49">
-        <v>45874</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="16">
-        <f>C23</f>
-        <v>10000</v>
-      </c>
-      <c r="D24" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="E24" s="17">
-        <f>C24*D24</f>
-        <v>19000</v>
-      </c>
-      <c r="F24" s="27">
-        <f>E24*0.002</f>
-        <v>38</v>
-      </c>
-      <c r="G24" s="26">
-        <f>E24*0.000068</f>
-        <v>1.292</v>
-      </c>
-      <c r="H24" s="26">
-        <f>E24*0.00001</f>
-        <v>0.19</v>
-      </c>
-      <c r="I24" s="26">
-        <f>(F24+G24+H24)*0.07</f>
-        <v>2.7637400000000003</v>
-      </c>
-      <c r="J24" s="26">
-        <f>E24-F24-G24-H24-I24</f>
-        <v>18957.754260000002</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="30">
-        <f>(D24-D23)/D23</f>
-        <v>1.0638297872340436E-2</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18">
-        <f>E24-E23</f>
-        <v>200</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <f>J24-J23</f>
-        <v>116.11414000000514</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A26" s="49">
-        <v>45747</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="41">
-        <v>1.85</v>
-      </c>
-      <c r="E26" s="68">
-        <f>C26*D26</f>
-        <v>18500</v>
-      </c>
-      <c r="F26" s="18">
-        <f>E26*0.002</f>
-        <v>37</v>
-      </c>
-      <c r="G26" s="18">
-        <f>E26*0.00006</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H26" s="18">
-        <f>E26*0.00001</f>
-        <v>0.18500000000000003</v>
-      </c>
-      <c r="I26" s="18">
-        <f>(F26+G26+H26)*0.07</f>
-        <v>2.6806500000000004</v>
-      </c>
-      <c r="J26" s="68">
-        <f>E26+F26+I26+G26+H26</f>
-        <v>18540.97565</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="49">
-        <v>45876</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="16">
-        <f>C26</f>
-        <v>10000</v>
-      </c>
-      <c r="D27" s="26">
-        <v>2.06</v>
-      </c>
-      <c r="E27" s="17">
-        <f>C27*D27</f>
-        <v>20600</v>
-      </c>
-      <c r="F27" s="27">
-        <f>E27*0.002</f>
-        <v>41.2</v>
-      </c>
-      <c r="G27" s="26">
-        <f>E27*0.000068</f>
-        <v>1.4008</v>
-      </c>
-      <c r="H27" s="26">
-        <f>E27*0.00001</f>
-        <v>0.20600000000000002</v>
-      </c>
-      <c r="I27" s="26">
-        <f>(F27+G27+H27)*0.07</f>
-        <v>2.9964760000000004</v>
-      </c>
-      <c r="J27" s="26">
-        <f>E27-F27-G27-H27-I27</f>
-        <v>20554.196724000001</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="30">
-        <f>(D27-D26)/D26</f>
-        <v>0.11351351351351349</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18">
-        <f>E27-E26</f>
-        <v>2100</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18">
-        <f>J27-J26</f>
-        <v>2013.221074000001</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E8F5AF-E88A-4677-AEAF-7B4DD5AE4F27}">
   <dimension ref="A1:M10"/>
   <sheetViews>
@@ -16646,7 +16533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C873F-5F0B-4599-8F07-1242EBE1E2BF}">
   <dimension ref="A1:N44"/>
   <sheetViews>
@@ -18320,7 +18207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
   <dimension ref="A1:N42"/>
   <sheetViews>
@@ -19867,7 +19754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D376F-67DD-4980-BF1B-8A055D89D41A}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -20187,7 +20074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -20808,7 +20695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248C1A-0BE1-4664-895A-D29EA068DDA6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -21119,11 +21006,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -21935,31 +21822,31 @@
         <v>2500</v>
       </c>
       <c r="D22" s="11">
-        <v>12</v>
+        <v>11.2</v>
       </c>
       <c r="E22" s="20">
         <f>C22*D22</f>
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="F22" s="20">
         <f>E22*0.002</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G22" s="20">
         <f>E22*0.000068</f>
-        <v>2.04</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="H22" s="20">
         <f>E22*0.00001</f>
-        <v>0.30000000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I22" s="20">
         <f>(F22+G22+H22)*0.07</f>
-        <v>4.3638000000000003</v>
+        <v>4.0728800000000005</v>
       </c>
       <c r="J22" s="20">
         <f>E22+F22+I22+G22+H22</f>
-        <v>30066.703799999999</v>
+        <v>28062.256879999997</v>
       </c>
       <c r="M22" s="21"/>
     </row>
@@ -21967,7 +21854,7 @@
       <c r="A23" s="44"/>
       <c r="B23" s="25">
         <f>(D22-D21)/D21</f>
-        <v>-0.54545454545454541</v>
+        <v>-0.5757575757575758</v>
       </c>
       <c r="C23" s="22">
         <f>SUM(C21:C22)</f>
@@ -21975,31 +21862,31 @@
       </c>
       <c r="D23" s="64">
         <f>E23/C23</f>
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="E23" s="22">
         <f t="shared" ref="E23:J23" si="11">SUM(E21:E22)</f>
-        <v>492000</v>
+        <v>490000</v>
       </c>
       <c r="F23" s="22">
         <f t="shared" si="11"/>
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G23" s="22">
         <f t="shared" si="11"/>
-        <v>33.455999999999996</v>
+        <v>33.319999999999993</v>
       </c>
       <c r="H23" s="22">
         <f t="shared" si="11"/>
-        <v>4.92</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="11"/>
-        <v>71.566320000000005</v>
+        <v>71.275400000000005</v>
       </c>
       <c r="J23" s="22">
         <f t="shared" si="11"/>
-        <v>493093.94232000003</v>
+        <v>491089.49540000001</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="25"/>
@@ -22549,7 +22436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -23172,7 +23059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC4F4F3-83CC-4355-B28D-286BFFC2FE1C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -23602,6 +23489,305 @@
       <c r="L13" s="13"/>
       <c r="M13" s="61"/>
       <c r="N13" s="61"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18" style="21" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="21"/>
+    <col min="13" max="13" width="8.88671875" style="25"/>
+    <col min="14" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="13" customFormat="1">
+      <c r="A2" s="39">
+        <v>45175</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="17">
+        <v>26</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>26000</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>52</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>1.56</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.26</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>3.7674000000000003</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>26057.5874</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:14" s="13" customFormat="1">
+      <c r="A3" s="66">
+        <v>44473</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="E3" s="20">
+        <f>C3*D3</f>
+        <v>19000</v>
+      </c>
+      <c r="F3" s="20">
+        <f>E3*0.002</f>
+        <v>38</v>
+      </c>
+      <c r="G3" s="20">
+        <f>E3*0.00006</f>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="H3" s="20">
+        <f>E3*0.00001</f>
+        <v>0.19</v>
+      </c>
+      <c r="I3" s="20">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>2.7531000000000003</v>
+      </c>
+      <c r="J3" s="20">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>19042.0831</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A4" s="55"/>
+      <c r="B4" s="75">
+        <f>(D3-D2)/D2</f>
+        <v>-0.63461538461538458</v>
+      </c>
+      <c r="C4" s="10">
+        <f>SUM(C2:C3)</f>
+        <v>3000</v>
+      </c>
+      <c r="D4" s="63">
+        <f>E4/C4</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>45000</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" si="0"/>
+        <v>6.5205000000000002</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" si="0"/>
+        <v>45099.6705</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+    </row>
+    <row r="5" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A5" s="49"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+    </row>
+    <row r="6" spans="1:14" s="13" customFormat="1">
+      <c r="A6" s="39">
+        <v>45175</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>26</v>
+      </c>
+      <c r="E6" s="18">
+        <f>C6*D6</f>
+        <v>26000</v>
+      </c>
+      <c r="F6" s="18">
+        <f>E6*0.002</f>
+        <v>52</v>
+      </c>
+      <c r="G6" s="18">
+        <f>E6*0.00006</f>
+        <v>1.56</v>
+      </c>
+      <c r="H6" s="18">
+        <f>E6*0.00001</f>
+        <v>0.26</v>
+      </c>
+      <c r="I6" s="18">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>3.7674000000000003</v>
+      </c>
+      <c r="J6" s="18">
+        <f>E6+F6+I6+G6+H6</f>
+        <v>26057.5874</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1">
+      <c r="A7" s="55">
+        <v>44923</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C6</f>
+        <v>1000</v>
+      </c>
+      <c r="D7" s="34">
+        <v>27.5</v>
+      </c>
+      <c r="E7" s="11">
+        <f>C7*D7</f>
+        <v>27500</v>
+      </c>
+      <c r="F7" s="35">
+        <f>E7*0.002</f>
+        <v>55</v>
+      </c>
+      <c r="G7" s="34">
+        <f>E7*0.000068</f>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="H7" s="34">
+        <f>E7*0.00001</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="I7" s="34">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>4.0001500000000005</v>
+      </c>
+      <c r="J7" s="34">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>27438.85485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12">
+        <f>J8/J6</f>
+        <v>5.3008263151791225E-2</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="20">
+        <f>E7-E6</f>
+        <v>1500</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <f>J7-J6</f>
+        <v>1381.2674499999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A9" s="55"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -25597,305 +25783,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
-  <dimension ref="A1:N9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18" style="21" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="21"/>
-    <col min="13" max="13" width="8.88671875" style="25"/>
-    <col min="14" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1">
-      <c r="A2" s="39">
-        <v>45175</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="17">
-        <v>26</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>26000</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>52</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>1.56</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.26</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>3.7674000000000003</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>26057.5874</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1">
-      <c r="A3" s="66">
-        <v>44473</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="11">
-        <v>9.5</v>
-      </c>
-      <c r="E3" s="20">
-        <f>C3*D3</f>
-        <v>19000</v>
-      </c>
-      <c r="F3" s="20">
-        <f>E3*0.002</f>
-        <v>38</v>
-      </c>
-      <c r="G3" s="20">
-        <f>E3*0.00006</f>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="H3" s="20">
-        <f>E3*0.00001</f>
-        <v>0.19</v>
-      </c>
-      <c r="I3" s="20">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>2.7531000000000003</v>
-      </c>
-      <c r="J3" s="20">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>19042.0831</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A4" s="55"/>
-      <c r="B4" s="75">
-        <f>(D3-D2)/D2</f>
-        <v>-0.63461538461538458</v>
-      </c>
-      <c r="C4" s="10">
-        <f>SUM(C2:C3)</f>
-        <v>3000</v>
-      </c>
-      <c r="D4" s="63">
-        <f>E4/C4</f>
-        <v>15</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>45000</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G4" s="10">
-        <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="I4" s="10">
-        <f t="shared" si="0"/>
-        <v>6.5205000000000002</v>
-      </c>
-      <c r="J4" s="10">
-        <f t="shared" si="0"/>
-        <v>45099.6705</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-    </row>
-    <row r="5" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A5" s="49"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-    </row>
-    <row r="6" spans="1:14" s="13" customFormat="1">
-      <c r="A6" s="39">
-        <v>45175</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="17">
-        <v>26</v>
-      </c>
-      <c r="E6" s="18">
-        <f>C6*D6</f>
-        <v>26000</v>
-      </c>
-      <c r="F6" s="18">
-        <f>E6*0.002</f>
-        <v>52</v>
-      </c>
-      <c r="G6" s="18">
-        <f>E6*0.00006</f>
-        <v>1.56</v>
-      </c>
-      <c r="H6" s="18">
-        <f>E6*0.00001</f>
-        <v>0.26</v>
-      </c>
-      <c r="I6" s="18">
-        <f>(F6+G6+H6)*0.07</f>
-        <v>3.7674000000000003</v>
-      </c>
-      <c r="J6" s="18">
-        <f>E6+F6+I6+G6+H6</f>
-        <v>26057.5874</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1">
-      <c r="A7" s="55">
-        <v>44923</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <f>C6</f>
-        <v>1000</v>
-      </c>
-      <c r="D7" s="34">
-        <v>27.5</v>
-      </c>
-      <c r="E7" s="11">
-        <f>C7*D7</f>
-        <v>27500</v>
-      </c>
-      <c r="F7" s="35">
-        <f>E7*0.002</f>
-        <v>55</v>
-      </c>
-      <c r="G7" s="34">
-        <f>E7*0.000068</f>
-        <v>1.8699999999999999</v>
-      </c>
-      <c r="H7" s="34">
-        <f>E7*0.00001</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="I7" s="34">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>4.0001500000000005</v>
-      </c>
-      <c r="J7" s="34">
-        <f>E7-F7-G7-H7-I7</f>
-        <v>27438.85485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1">
-      <c r="A8" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12">
-        <f>J8/J6</f>
-        <v>5.3008263151791225E-2</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="20">
-        <f>E7-E6</f>
-        <v>1500</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20">
-        <f>J7-J6</f>
-        <v>1381.2674499999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A9" s="55"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -26140,7 +26027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D35EBD-FACE-4A0A-BE47-8E8EEE95DB23}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -26794,7 +26681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38AEBDA-97A4-44E7-92FF-AB904E0EA610}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -30486,116 +30373,170 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428E3725-C2C9-48E5-85FA-D5C68C4735D5}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="55">
-        <v>44242</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10">
-        <v>3000</v>
-      </c>
-      <c r="D1" s="46">
-        <v>7.5</v>
-      </c>
-      <c r="E1" s="20">
-        <f>C1*D1</f>
-        <v>22500</v>
-      </c>
-      <c r="F1" s="20">
-        <f>E1*0.002</f>
-        <v>45</v>
-      </c>
-      <c r="G1" s="20">
-        <f>E1*0.00006</f>
-        <v>1.35</v>
-      </c>
-      <c r="H1" s="20">
-        <f>E1*0.00001</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="I1" s="20">
-        <f>(F1+G1+H1)*0.07</f>
-        <v>3.2602500000000005</v>
-      </c>
-      <c r="J1" s="20">
-        <f>E1+F1+I1+G1+H1</f>
-        <v>22549.835249999996</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="13.8">
-      <c r="A2" s="55">
-        <v>44277</v>
+    <row r="1" spans="1:14">
+      <c r="B1" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="66">
+        <v>45817</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="E2" s="20">
+        <f>C2*D2</f>
+        <v>96400</v>
+      </c>
+      <c r="F2" s="20">
+        <f>E2*0.002</f>
+        <v>192.8</v>
+      </c>
+      <c r="G2" s="20">
+        <f>E2*0.00006</f>
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="H2" s="20">
+        <f>E2*0.00001</f>
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I2" s="20">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>13.968360000000002</v>
+      </c>
+      <c r="J2" s="20">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>96613.516360000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="55">
+        <v>45868</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
-        <f>C1</f>
-        <v>3000</v>
-      </c>
-      <c r="D2" s="34">
-        <v>7.55</v>
-      </c>
-      <c r="E2" s="11">
-        <f>C2*D2</f>
-        <v>22650</v>
-      </c>
-      <c r="F2" s="35">
-        <f>E2*0.002</f>
-        <v>45.300000000000004</v>
-      </c>
-      <c r="G2" s="34">
-        <f>E2*0.000068</f>
-        <v>1.5402</v>
-      </c>
-      <c r="H2" s="34">
-        <f>E2*0.00001</f>
-        <v>0.22650000000000001</v>
-      </c>
-      <c r="I2" s="34">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>3.2946690000000007</v>
-      </c>
-      <c r="J2" s="34">
-        <f>E2-F2-G2-H2-I2</f>
-        <v>22599.638631000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="21">
-      <c r="A3" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="75">
-        <f>(D2-D1)/D1</f>
-        <v>6.6666666666666428E-3</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="20">
-        <f>E2-E1</f>
-        <v>150</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20">
-        <f>J2-J1</f>
-        <v>49.803381000005174</v>
-      </c>
+      <c r="C3" s="10">
+        <f>C2</f>
+        <v>4000</v>
+      </c>
+      <c r="D3" s="34">
+        <v>24.3</v>
+      </c>
+      <c r="E3" s="11">
+        <f>C3*D3</f>
+        <v>97200</v>
+      </c>
+      <c r="F3" s="35">
+        <f>E3*0.002</f>
+        <v>194.4</v>
+      </c>
+      <c r="G3" s="34">
+        <f>E3*0.000068</f>
+        <v>6.6096000000000004</v>
+      </c>
+      <c r="H3" s="34">
+        <f>E3*0.00001</f>
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="I3" s="34">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>14.138712000000002</v>
+      </c>
+      <c r="J3" s="34">
+        <f>E3-F3-G3-H3-I3</f>
+        <v>96983.879688000015</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="38"/>
+      <c r="B4" s="12">
+        <f>(D3-D2)/D2</f>
+        <v>8.2987551867219622E-3</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="20">
+        <f>E3-E2</f>
+        <v>800</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20">
+        <f>J3-J2</f>
+        <v>370.36332800000673</v>
+      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:14" s="13" customFormat="1">
+      <c r="A5" s="49"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1172" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDE0A757-2059-4A72-A162-03FC846B5D14}"/>
+  <xr:revisionPtr revIDLastSave="1177" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6FD5F91-2FCF-4F4E-BDD6-725CBE6D59D5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10380" yWindow="972" windowWidth="11520" windowHeight="9948" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9696" yWindow="0" windowWidth="12552" windowHeight="12336" tabRatio="461" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="40">
   <si>
     <t>BUY</t>
   </si>
@@ -3623,10 +3623,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -5928,6 +5928,108 @@
         <v>-255.72552300000461</v>
       </c>
       <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="14">
+        <v>45756</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D65" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="E65" s="18">
+        <f>C65*D65</f>
+        <v>37500</v>
+      </c>
+      <c r="F65" s="18">
+        <f>E65*0.002</f>
+        <v>75</v>
+      </c>
+      <c r="G65" s="18">
+        <f>E65*0.000068</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H65" s="18">
+        <f>E65*0.00001</f>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="I65" s="18">
+        <f>(F65+G65+H65)*0.07</f>
+        <v>5.4547500000000007</v>
+      </c>
+      <c r="J65" s="18">
+        <f>E65+F65+I65+G65+H65</f>
+        <v>37583.37975</v>
+      </c>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" s="13" customFormat="1">
+      <c r="A66" s="8">
+        <v>45355</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="10">
+        <f>C65</f>
+        <v>5000</v>
+      </c>
+      <c r="D66" s="34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E66" s="11">
+        <f>C66*D66</f>
+        <v>41500</v>
+      </c>
+      <c r="F66" s="35">
+        <f>E66*0.002</f>
+        <v>83</v>
+      </c>
+      <c r="G66" s="34">
+        <f>E66*0.000068</f>
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="H66" s="34">
+        <f>E66*0.00001</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="I66" s="34">
+        <f>(F66+G66+H66)*0.07</f>
+        <v>6.0365900000000012</v>
+      </c>
+      <c r="J66" s="34">
+        <f>E66-F66-G66-H66-I66</f>
+        <v>41407.726409999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="25">
+        <f>J67/J65</f>
+        <v>0.10175632647832838</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="20">
+        <f>E66-E65</f>
+        <v>4000</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20">
+        <f>J66-J65</f>
+        <v>3824.3466599999956</v>
+      </c>
+      <c r="K67" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -30376,7 +30478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1177" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6FD5F91-2FCF-4F4E-BDD6-725CBE6D59D5}"/>
+  <xr:revisionPtr revIDLastSave="1204" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23C0DD2A-42C4-467D-BC0A-A21F2896DBB1}"/>
   <bookViews>
-    <workbookView xWindow="9696" yWindow="0" windowWidth="12552" windowHeight="12336" tabRatio="461" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1836" yWindow="1404" windowWidth="10692" windowHeight="9948" tabRatio="461" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -33,18 +33,17 @@
     <sheet name="NER" sheetId="117" r:id="rId18"/>
     <sheet name="ORI" sheetId="184" r:id="rId19"/>
     <sheet name="PTG" sheetId="216" r:id="rId20"/>
-    <sheet name="RCL (2)" sheetId="222" r:id="rId21"/>
-    <sheet name="RCL" sheetId="161" r:id="rId22"/>
-    <sheet name="SCC" sheetId="152" r:id="rId23"/>
-    <sheet name="SENA" sheetId="183" r:id="rId24"/>
-    <sheet name="SINGER" sheetId="203" r:id="rId25"/>
-    <sheet name="SYNEX" sheetId="199" r:id="rId26"/>
-    <sheet name="TFFIF" sheetId="214" r:id="rId27"/>
-    <sheet name="TMT" sheetId="145" r:id="rId28"/>
-    <sheet name="TOA" sheetId="218" r:id="rId29"/>
-    <sheet name="TVO" sheetId="221" r:id="rId30"/>
-    <sheet name="WHAIR" sheetId="157" r:id="rId31"/>
-    <sheet name="WHART" sheetId="171" r:id="rId32"/>
+    <sheet name="RCL" sheetId="161" r:id="rId21"/>
+    <sheet name="SCC" sheetId="152" r:id="rId22"/>
+    <sheet name="SENA" sheetId="183" r:id="rId23"/>
+    <sheet name="SINGER" sheetId="203" r:id="rId24"/>
+    <sheet name="SYNEX" sheetId="199" r:id="rId25"/>
+    <sheet name="TFFIF" sheetId="214" r:id="rId26"/>
+    <sheet name="TMT" sheetId="145" r:id="rId27"/>
+    <sheet name="TOA" sheetId="218" r:id="rId28"/>
+    <sheet name="TVO" sheetId="221" r:id="rId29"/>
+    <sheet name="WHAIR" sheetId="157" r:id="rId30"/>
+    <sheet name="WHART" sheetId="171" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -187,6 +186,9 @@
   </si>
   <si>
     <t>CPF</t>
+  </si>
+  <si>
+    <t>ORI-W2</t>
   </si>
 </sst>
 </file>
@@ -3625,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -13442,10 +13444,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13750,41 +13752,41 @@
       <c r="O8" s="21"/>
     </row>
     <row r="9" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A9" s="49">
-        <v>45747</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="16">
+      <c r="A9" s="55">
+        <v>45705</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
         <v>10000</v>
       </c>
-      <c r="D9" s="41">
-        <v>1.85</v>
-      </c>
-      <c r="E9" s="68">
+      <c r="D9" s="46">
+        <v>2</v>
+      </c>
+      <c r="E9" s="61">
         <f>C9*D9</f>
-        <v>18500</v>
-      </c>
-      <c r="F9" s="18">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="20">
         <f>E9*0.002</f>
-        <v>37</v>
-      </c>
-      <c r="G9" s="18">
+        <v>40</v>
+      </c>
+      <c r="G9" s="20">
         <f>E9*0.00006</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H9" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="H9" s="20">
         <f>E9*0.00001</f>
-        <v>0.18500000000000003</v>
-      </c>
-      <c r="I9" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="20">
         <f>(F9+G9+H9)*0.07</f>
-        <v>2.6806500000000004</v>
-      </c>
-      <c r="J9" s="68">
+        <v>2.8980000000000006</v>
+      </c>
+      <c r="J9" s="61">
         <f>E9+F9+I9+G9+H9</f>
-        <v>18540.97565</v>
+        <v>20044.298000000003</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -13793,42 +13795,42 @@
       <c r="O9" s="21"/>
     </row>
     <row r="10" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A10" s="49"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="30">
         <f>(D9-D8)/D8</f>
-        <v>-0.82211538461538469</v>
-      </c>
-      <c r="C10" s="16">
-        <f>SUM(C8:C9)</f>
+        <v>-0.80769230769230771</v>
+      </c>
+      <c r="C10" s="10">
+        <f>C8+C9</f>
         <v>60000</v>
       </c>
-      <c r="D10" s="103">
+      <c r="D10" s="102">
         <f>E10/C10</f>
-        <v>8.9749999999999996</v>
-      </c>
-      <c r="E10" s="16">
-        <f t="shared" ref="E10:J10" si="2">SUM(E8:E9)</f>
-        <v>538500</v>
-      </c>
-      <c r="F10" s="16">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10">
+        <f>E8+E9</f>
+        <v>540000</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:J10" si="2">F8+F9</f>
+        <v>1080</v>
+      </c>
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>1077</v>
-      </c>
-      <c r="G10" s="16">
+        <v>32.400000000000006</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>32.31</v>
-      </c>
-      <c r="H10" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>5.3849999999999998</v>
-      </c>
-      <c r="I10" s="16">
+        <v>78.245999999999995</v>
+      </c>
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>78.028649999999999</v>
-      </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
-        <v>539692.72364999994</v>
+        <v>541196.04599999997</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
@@ -13837,312 +13839,312 @@
       <c r="O10" s="21"/>
     </row>
     <row r="11" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A11" s="55">
-        <v>45705</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="46">
-        <v>1.8</v>
-      </c>
-      <c r="E11" s="61">
-        <f>C11*D11</f>
-        <v>18000</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E11*0.002</f>
-        <v>36</v>
-      </c>
-      <c r="G11" s="20">
-        <f>E11*0.00006</f>
-        <v>1.08</v>
-      </c>
-      <c r="H11" s="20">
-        <f>E11*0.00001</f>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="I11" s="20">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>2.6082000000000001</v>
-      </c>
-      <c r="J11" s="61">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>18039.868200000001</v>
-      </c>
+      <c r="A11" s="55"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="21"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A12" s="55"/>
-      <c r="B12" s="12">
-        <f>(D11-D10)/D10</f>
-        <v>-0.79944289693593318</v>
-      </c>
-      <c r="C12" s="10">
-        <f>SUM(C10:C11)</f>
-        <v>70000</v>
-      </c>
-      <c r="D12" s="102">
-        <f>E12/C12</f>
-        <v>7.95</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="E12:J12" si="3">SUM(E10:E11)</f>
-        <v>556500</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="3"/>
-        <v>1113</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="3"/>
-        <v>33.39</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="3"/>
-        <v>5.5649999999999995</v>
-      </c>
-      <c r="I12" s="10">
-        <f t="shared" si="3"/>
-        <v>80.636849999999995</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="3"/>
-        <v>557732.59184999997</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A13" s="55"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+    <row r="12" spans="1:15" s="1" customFormat="1">
+      <c r="A12" s="49">
+        <v>45063</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="41">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E12" s="18">
+        <f>C12*D12</f>
+        <v>30599.999999999996</v>
+      </c>
+      <c r="F12" s="18">
+        <f>E12*0.002</f>
+        <v>61.199999999999996</v>
+      </c>
+      <c r="G12" s="18">
+        <f>E12*0.00006</f>
+        <v>1.8359999999999999</v>
+      </c>
+      <c r="H12" s="18">
+        <f>E12*0.00001</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I12" s="18">
+        <f>(F12+G12+H12)*0.07</f>
+        <v>4.4339399999999998</v>
+      </c>
+      <c r="J12" s="18">
+        <f>E12+F12+I12+G12+H12</f>
+        <v>30667.775939999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1">
+      <c r="A13" s="49">
+        <v>45086</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <f>C12</f>
+        <v>3000</v>
+      </c>
+      <c r="D13" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="E13" s="17">
+        <f>C13*D13</f>
+        <v>33600</v>
+      </c>
+      <c r="F13" s="27">
+        <f>E13*0.002</f>
+        <v>67.2</v>
+      </c>
+      <c r="G13" s="26">
+        <f>E13*0.000068</f>
+        <v>2.2848000000000002</v>
+      </c>
+      <c r="H13" s="26">
+        <f>E13*0.00001</f>
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="I13" s="26">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>4.8874560000000011</v>
+      </c>
+      <c r="J13" s="26">
+        <f>E13-F13-G13-H13-I13</f>
+        <v>33525.291744000002</v>
+      </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1">
-      <c r="A14" s="49">
-        <v>45063</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="41">
-        <v>10.199999999999999</v>
-      </c>
+      <c r="A14" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12">
+        <f>(D13-D12)/D12</f>
+        <v>9.8039215686274522E-2</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="18">
-        <f>C14*D14</f>
-        <v>30599.999999999996</v>
-      </c>
-      <c r="F14" s="18">
-        <f>E14*0.002</f>
-        <v>61.199999999999996</v>
-      </c>
-      <c r="G14" s="18">
-        <f>E14*0.00006</f>
-        <v>1.8359999999999999</v>
-      </c>
-      <c r="H14" s="18">
-        <f>E14*0.00001</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="I14" s="18">
-        <f>(F14+G14+H14)*0.07</f>
-        <v>4.4339399999999998</v>
-      </c>
+        <f>E13-E12</f>
+        <v>3000.0000000000036</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="18">
-        <f>E14+F14+I14+G14+H14</f>
-        <v>30667.775939999996</v>
+        <f>J13-J12</f>
+        <v>2857.515804000006</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1">
       <c r="A15" s="49">
-        <v>45086</v>
+        <v>45489</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E15" s="68">
+        <f>C15*D15</f>
+        <v>13799.999999999998</v>
+      </c>
+      <c r="F15" s="18">
+        <f>E15*0.002</f>
+        <v>27.599999999999998</v>
+      </c>
+      <c r="G15" s="18">
+        <f>E15*0.00006</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="H15" s="18">
+        <f>E15*0.00001</f>
+        <v>0.13799999999999998</v>
+      </c>
+      <c r="I15" s="18">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>1.9996200000000002</v>
+      </c>
+      <c r="J15" s="68">
+        <f>E15+F15+I15+G15+H15</f>
+        <v>13830.565619999999</v>
+      </c>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A16" s="49">
+        <v>45541</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="16">
-        <f>C14</f>
+      <c r="C16" s="16">
+        <f>C15</f>
         <v>3000</v>
       </c>
-      <c r="D15" s="26">
-        <v>11.2</v>
-      </c>
-      <c r="E15" s="17">
-        <f>C15*D15</f>
-        <v>33600</v>
-      </c>
-      <c r="F15" s="27">
-        <f>E15*0.002</f>
-        <v>67.2</v>
-      </c>
-      <c r="G15" s="26">
-        <f>E15*0.000068</f>
-        <v>2.2848000000000002</v>
-      </c>
-      <c r="H15" s="26">
-        <f>E15*0.00001</f>
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="I15" s="26">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>4.8874560000000011</v>
-      </c>
-      <c r="J15" s="26">
-        <f>E15-F15-G15-H15-I15</f>
-        <v>33525.291744000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
-      <c r="A16" s="49" t="s">
+      <c r="D16" s="26">
+        <v>5.6</v>
+      </c>
+      <c r="E16" s="17">
+        <f>C16*D16</f>
+        <v>16800</v>
+      </c>
+      <c r="F16" s="27">
+        <f>E16*0.002</f>
+        <v>33.6</v>
+      </c>
+      <c r="G16" s="26">
+        <f>E16*0.000068</f>
+        <v>1.1424000000000001</v>
+      </c>
+      <c r="H16" s="26">
+        <f>E16*0.00001</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="I16" s="26">
+        <f>(F16+G16+H16)*0.07</f>
+        <v>2.4437280000000006</v>
+      </c>
+      <c r="J16" s="26">
+        <f>E16-F16-G16-H16-I16</f>
+        <v>16762.645872000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="31" customFormat="1" ht="18.600000000000001">
+      <c r="A17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="12">
-        <f>(D15-D14)/D14</f>
-        <v>9.8039215686274522E-2</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18">
-        <f>E15-E14</f>
-        <v>3000.0000000000036</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18">
-        <f>J15-J14</f>
-        <v>2857.515804000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1">
-      <c r="A17" s="49">
-        <v>45489</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D17" s="41">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E17" s="68">
-        <f>C17*D17</f>
-        <v>13799.999999999998</v>
-      </c>
-      <c r="F17" s="18">
-        <f>E17*0.002</f>
-        <v>27.599999999999998</v>
-      </c>
-      <c r="G17" s="18">
-        <f>E17*0.00006</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="H17" s="18">
-        <f>E17*0.00001</f>
-        <v>0.13799999999999998</v>
-      </c>
-      <c r="I17" s="18">
-        <f>(F17+G17+H17)*0.07</f>
-        <v>1.9996200000000002</v>
-      </c>
-      <c r="J17" s="68">
-        <f>E17+F17+I17+G17+H17</f>
-        <v>13830.565619999999</v>
-      </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="12.6" customHeight="1">
+      <c r="B17" s="30">
+        <f>(D16-D15)/D15</f>
+        <v>0.21739130434782611</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18">
+        <f>E16-E15</f>
+        <v>3000.0000000000018</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18">
+        <f>J16-J15</f>
+        <v>2932.0802520000016</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" s="62" customFormat="1" ht="21">
       <c r="A18" s="49">
-        <v>45541</v>
+        <v>45705</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="41">
+        <v>2.9</v>
+      </c>
+      <c r="E18" s="68">
+        <f>C18*D18</f>
+        <v>29000</v>
+      </c>
+      <c r="F18" s="18">
+        <f>E18*0.002</f>
+        <v>58</v>
+      </c>
+      <c r="G18" s="18">
+        <f>E18*0.00006</f>
+        <v>1.74</v>
+      </c>
+      <c r="H18" s="18">
+        <f>E18*0.00001</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="I18" s="18">
+        <f>(F18+G18+H18)*0.07</f>
+        <v>4.2021000000000006</v>
+      </c>
+      <c r="J18" s="68">
+        <f>E18+F18+I18+G18+H18</f>
+        <v>29064.232100000001</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="49">
+        <v>45719</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="16">
-        <f>C17</f>
-        <v>3000</v>
-      </c>
-      <c r="D18" s="26">
-        <v>5.6</v>
-      </c>
-      <c r="E18" s="17">
-        <f>C18*D18</f>
-        <v>16800</v>
-      </c>
-      <c r="F18" s="27">
-        <f>E18*0.002</f>
-        <v>33.6</v>
-      </c>
-      <c r="G18" s="26">
-        <f>E18*0.000068</f>
-        <v>1.1424000000000001</v>
-      </c>
-      <c r="H18" s="26">
-        <f>E18*0.00001</f>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="I18" s="26">
-        <f>(F18+G18+H18)*0.07</f>
-        <v>2.4437280000000006</v>
-      </c>
-      <c r="J18" s="26">
-        <f>E18-F18-G18-H18-I18</f>
-        <v>16762.645872000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A19" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="30">
-        <f>(D18-D17)/D17</f>
-        <v>0.21739130434782611</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18">
-        <f>E18-E17</f>
-        <v>3000.0000000000018</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18">
-        <f>J18-J17</f>
-        <v>2932.0802520000016</v>
+      <c r="C19" s="16">
+        <f>C18</f>
+        <v>10000</v>
+      </c>
+      <c r="D19" s="26">
+        <v>2.82</v>
+      </c>
+      <c r="E19" s="17">
+        <f>C19*D19</f>
+        <v>28200</v>
+      </c>
+      <c r="F19" s="27">
+        <f>E19*0.002</f>
+        <v>56.4</v>
+      </c>
+      <c r="G19" s="26">
+        <f>E19*0.000068</f>
+        <v>1.9176</v>
+      </c>
+      <c r="H19" s="26">
+        <f>E19*0.00001</f>
+        <v>0.28200000000000003</v>
+      </c>
+      <c r="I19" s="26">
+        <f>(F19+G19+H19)*0.07</f>
+        <v>4.101972</v>
+      </c>
+      <c r="J19" s="26">
+        <f>E19-F19-G19-H19-I19</f>
+        <v>28137.298427999998</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -14150,114 +14152,114 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A20" s="49">
-        <v>45705</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="16">
+    <row r="20" spans="1:15">
+      <c r="A20" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="30">
+        <f>(D19-D18)/D18</f>
+        <v>-2.7586206896551748E-2</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18">
+        <f>E19-E18</f>
+        <v>-800</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18">
+        <f>J19-J18</f>
+        <v>-926.93367200000284</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A21" s="49">
+        <v>45874</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
         <v>10000</v>
       </c>
-      <c r="D20" s="41">
-        <v>2.9</v>
-      </c>
-      <c r="E20" s="68">
-        <f>C20*D20</f>
-        <v>29000</v>
-      </c>
-      <c r="F20" s="18">
-        <f>E20*0.002</f>
-        <v>58</v>
-      </c>
-      <c r="G20" s="18">
-        <f>E20*0.00006</f>
-        <v>1.74</v>
-      </c>
-      <c r="H20" s="18">
-        <f>E20*0.00001</f>
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="I20" s="18">
-        <f>(F20+G20+H20)*0.07</f>
-        <v>4.2021000000000006</v>
-      </c>
-      <c r="J20" s="68">
-        <f>E20+F20+I20+G20+H20</f>
-        <v>29064.232100000001</v>
-      </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="49">
-        <v>45719</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="D21" s="41">
+        <v>1.88</v>
+      </c>
+      <c r="E21" s="68">
+        <f>C21*D21</f>
+        <v>18800</v>
+      </c>
+      <c r="F21" s="18">
+        <f>E21*0.002</f>
+        <v>37.6</v>
+      </c>
+      <c r="G21" s="18">
+        <f>E21*0.00006</f>
+        <v>1.1280000000000001</v>
+      </c>
+      <c r="H21" s="18">
+        <f>E21*0.00001</f>
+        <v>0.18800000000000003</v>
+      </c>
+      <c r="I21" s="18">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>2.7241200000000005</v>
+      </c>
+      <c r="J21" s="68">
+        <f>E21+F21+I21+G21+H21</f>
+        <v>18841.640119999996</v>
+      </c>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="49">
+        <v>45874</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="16">
-        <f>C20</f>
+      <c r="C22" s="16">
+        <f>C21</f>
         <v>10000</v>
       </c>
-      <c r="D21" s="26">
-        <v>2.82</v>
-      </c>
-      <c r="E21" s="17">
-        <f>C21*D21</f>
-        <v>28200</v>
-      </c>
-      <c r="F21" s="27">
-        <f>E21*0.002</f>
-        <v>56.4</v>
-      </c>
-      <c r="G21" s="26">
-        <f>E21*0.000068</f>
-        <v>1.9176</v>
-      </c>
-      <c r="H21" s="26">
-        <f>E21*0.00001</f>
-        <v>0.28200000000000003</v>
-      </c>
-      <c r="I21" s="26">
-        <f>(F21+G21+H21)*0.07</f>
-        <v>4.101972</v>
-      </c>
-      <c r="J21" s="26">
-        <f>E21-F21-G21-H21-I21</f>
-        <v>28137.298427999998</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="30">
-        <f>(D21-D20)/D20</f>
-        <v>-2.7586206896551748E-2</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18">
-        <f>E21-E20</f>
-        <v>-800</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18">
-        <f>J21-J20</f>
-        <v>-926.93367200000284</v>
+      <c r="D22" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="E22" s="17">
+        <f>C22*D22</f>
+        <v>19000</v>
+      </c>
+      <c r="F22" s="27">
+        <f>E22*0.002</f>
+        <v>38</v>
+      </c>
+      <c r="G22" s="26">
+        <f>E22*0.000068</f>
+        <v>1.292</v>
+      </c>
+      <c r="H22" s="26">
+        <f>E22*0.00001</f>
+        <v>0.19</v>
+      </c>
+      <c r="I22" s="26">
+        <f>(F22+G22+H22)*0.07</f>
+        <v>2.7637400000000003</v>
+      </c>
+      <c r="J22" s="26">
+        <f>E22-F22-G22-H22-I22</f>
+        <v>18957.754260000002</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -14265,114 +14267,114 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A23" s="49">
-        <v>45874</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
+    <row r="23" spans="1:15">
+      <c r="A23" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="30">
+        <f>(D22-D21)/D21</f>
+        <v>1.0638297872340436E-2</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18">
+        <f>E22-E21</f>
+        <v>200</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18">
+        <f>J22-J21</f>
+        <v>116.11414000000514</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A24" s="49">
+        <v>45747</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
         <v>10000</v>
       </c>
-      <c r="D23" s="41">
-        <v>1.88</v>
-      </c>
-      <c r="E23" s="68">
-        <f>C23*D23</f>
-        <v>18800</v>
-      </c>
-      <c r="F23" s="18">
-        <f>E23*0.002</f>
-        <v>37.6</v>
-      </c>
-      <c r="G23" s="18">
-        <f>E23*0.00006</f>
-        <v>1.1280000000000001</v>
-      </c>
-      <c r="H23" s="18">
-        <f>E23*0.00001</f>
-        <v>0.18800000000000003</v>
-      </c>
-      <c r="I23" s="18">
-        <f>(F23+G23+H23)*0.07</f>
-        <v>2.7241200000000005</v>
-      </c>
-      <c r="J23" s="68">
-        <f>E23+F23+I23+G23+H23</f>
-        <v>18841.640119999996</v>
-      </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="49">
-        <v>45874</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="D24" s="41">
+        <v>1.85</v>
+      </c>
+      <c r="E24" s="68">
+        <f>C24*D24</f>
+        <v>18500</v>
+      </c>
+      <c r="F24" s="18">
+        <f>E24*0.002</f>
+        <v>37</v>
+      </c>
+      <c r="G24" s="18">
+        <f>E24*0.00006</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H24" s="18">
+        <f>E24*0.00001</f>
+        <v>0.18500000000000003</v>
+      </c>
+      <c r="I24" s="18">
+        <f>(F24+G24+H24)*0.07</f>
+        <v>2.6806500000000004</v>
+      </c>
+      <c r="J24" s="68">
+        <f>E24+F24+I24+G24+H24</f>
+        <v>18540.97565</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="49">
+        <v>45876</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="16">
-        <f>C23</f>
+      <c r="C25" s="16">
+        <f>C24</f>
         <v>10000</v>
       </c>
-      <c r="D24" s="26">
-        <v>1.9</v>
-      </c>
-      <c r="E24" s="17">
-        <f>C24*D24</f>
-        <v>19000</v>
-      </c>
-      <c r="F24" s="27">
-        <f>E24*0.002</f>
-        <v>38</v>
-      </c>
-      <c r="G24" s="26">
-        <f>E24*0.000068</f>
-        <v>1.292</v>
-      </c>
-      <c r="H24" s="26">
-        <f>E24*0.00001</f>
-        <v>0.19</v>
-      </c>
-      <c r="I24" s="26">
-        <f>(F24+G24+H24)*0.07</f>
-        <v>2.7637400000000003</v>
-      </c>
-      <c r="J24" s="26">
-        <f>E24-F24-G24-H24-I24</f>
-        <v>18957.754260000002</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="30">
-        <f>(D24-D23)/D23</f>
-        <v>1.0638297872340436E-2</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18">
-        <f>E24-E23</f>
-        <v>200</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18">
-        <f>J24-J23</f>
-        <v>116.11414000000514</v>
+      <c r="D25" s="26">
+        <v>2.06</v>
+      </c>
+      <c r="E25" s="17">
+        <f>C25*D25</f>
+        <v>20600</v>
+      </c>
+      <c r="F25" s="27">
+        <f>E25*0.002</f>
+        <v>41.2</v>
+      </c>
+      <c r="G25" s="26">
+        <f>E25*0.000068</f>
+        <v>1.4008</v>
+      </c>
+      <c r="H25" s="26">
+        <f>E25*0.00001</f>
+        <v>0.20600000000000002</v>
+      </c>
+      <c r="I25" s="26">
+        <f>(F25+G25+H25)*0.07</f>
+        <v>2.9964760000000004</v>
+      </c>
+      <c r="J25" s="26">
+        <f>E25-F25-G25-H25-I25</f>
+        <v>20554.196724000001</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -14380,120 +14382,196 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A26" s="49">
+    <row r="26" spans="1:15">
+      <c r="A26" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="30">
+        <f>(D25-D24)/D24</f>
+        <v>0.11351351351351349</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18">
+        <f>E25-E24</f>
+        <v>2100</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18">
+        <f>J25-J24</f>
+        <v>2013.221074000001</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" s="62" customFormat="1" ht="21">
+      <c r="A27" s="55">
         <v>45747</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="41">
-        <v>1.85</v>
-      </c>
-      <c r="E26" s="68">
-        <f>C26*D26</f>
-        <v>18500</v>
-      </c>
-      <c r="F26" s="18">
-        <f>E26*0.002</f>
-        <v>37</v>
-      </c>
-      <c r="G26" s="18">
-        <f>E26*0.00006</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="H26" s="18">
-        <f>E26*0.00001</f>
-        <v>0.18500000000000003</v>
-      </c>
-      <c r="I26" s="18">
-        <f>(F26+G26+H26)*0.07</f>
-        <v>2.6806500000000004</v>
-      </c>
-      <c r="J26" s="68">
-        <f>E26+F26+I26+G26+H26</f>
-        <v>18540.97565</v>
-      </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="49">
-        <v>45876</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E27" s="61">
+        <f>C27*D27</f>
+        <v>11000</v>
+      </c>
+      <c r="F27" s="20">
+        <f>E27*0.002</f>
+        <v>22</v>
+      </c>
+      <c r="G27" s="20">
+        <f>E27*0.00006</f>
+        <v>0.66</v>
+      </c>
+      <c r="H27" s="20">
+        <f>E27*0.00001</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="I27" s="20">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>1.5939000000000001</v>
+      </c>
+      <c r="J27" s="61">
+        <f>E27+F27+I27+G27+H27</f>
+        <v>11024.3639</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="49">
+        <v>45887</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="16">
-        <f>C26</f>
-        <v>10000</v>
-      </c>
-      <c r="D27" s="26">
-        <v>2.06</v>
-      </c>
-      <c r="E27" s="17">
-        <f>C27*D27</f>
-        <v>20600</v>
-      </c>
-      <c r="F27" s="27">
-        <f>E27*0.002</f>
-        <v>41.2</v>
-      </c>
-      <c r="G27" s="26">
-        <f>E27*0.000068</f>
-        <v>1.4008</v>
-      </c>
-      <c r="H27" s="26">
-        <f>E27*0.00001</f>
-        <v>0.20600000000000002</v>
-      </c>
-      <c r="I27" s="26">
-        <f>(F27+G27+H27)*0.07</f>
-        <v>2.9964760000000004</v>
-      </c>
-      <c r="J27" s="26">
-        <f>E27-F27-G27-H27-I27</f>
-        <v>20554.196724000001</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="30">
-        <f>(D27-D26)/D26</f>
-        <v>0.11351351351351349</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18">
-        <f>E27-E26</f>
-        <v>2100</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18">
-        <f>J27-J26</f>
-        <v>2013.221074000001</v>
+      <c r="C28" s="16">
+        <f>C27</f>
+        <v>5000</v>
+      </c>
+      <c r="D28" s="26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E28" s="17">
+        <f>C28*D28</f>
+        <v>11500</v>
+      </c>
+      <c r="F28" s="27">
+        <f>E28*0.002</f>
+        <v>23</v>
+      </c>
+      <c r="G28" s="26">
+        <f>E28*0.000068</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="H28" s="26">
+        <f>E28*0.00001</f>
+        <v>0.115</v>
+      </c>
+      <c r="I28" s="26">
+        <f>(F28+G28+H28)*0.07</f>
+        <v>1.67279</v>
+      </c>
+      <c r="J28" s="26">
+        <f>E28-F28-G28-H28-I28</f>
+        <v>11474.43021</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="12">
+        <f>(D28-D27)/D27</f>
+        <v>4.5454545454545289E-2</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="20">
+        <f>E28-E27</f>
+        <v>500</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20">
+        <f>J28-J27</f>
+        <v>450.06631000000016</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="49">
+        <v>45887</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="16">
+        <v>15000</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0.38</v>
+      </c>
+      <c r="E31" s="17">
+        <f>C31*D31</f>
+        <v>5700</v>
+      </c>
+      <c r="F31" s="27">
+        <f>E31*0.002</f>
+        <v>11.4</v>
+      </c>
+      <c r="G31" s="26">
+        <f>E31*0.000068</f>
+        <v>0.3876</v>
+      </c>
+      <c r="H31" s="26">
+        <f>E31*0.00001</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I31" s="26">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>0.82912200000000014</v>
+      </c>
+      <c r="J31" s="26">
+        <f>E31-F31-G31-H31-I31</f>
+        <v>5687.3262780000005</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -16636,1685 +16714,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1C873F-5F0B-4599-8F07-1242EBE1E2BF}">
-  <dimension ref="A1:N44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="87" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="21"/>
-    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18" style="21" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="21"/>
-    <col min="13" max="13" width="8.88671875" style="25"/>
-    <col min="14" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="13" customFormat="1">
-      <c r="A2" s="55">
-        <v>44508</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="11">
-        <v>44</v>
-      </c>
-      <c r="E2" s="20">
-        <f>C2*D2</f>
-        <v>132000</v>
-      </c>
-      <c r="F2" s="20">
-        <f>E2*0.002</f>
-        <v>264</v>
-      </c>
-      <c r="G2" s="20">
-        <f>E2*0.00006</f>
-        <v>7.92</v>
-      </c>
-      <c r="H2" s="20">
-        <f>E2*0.00001</f>
-        <v>1.32</v>
-      </c>
-      <c r="I2" s="20">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>19.126800000000003</v>
-      </c>
-      <c r="J2" s="20">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>132292.36680000002</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="55">
-        <v>44517</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1500</v>
-      </c>
-      <c r="D3" s="11">
-        <v>41</v>
-      </c>
-      <c r="E3" s="20">
-        <f>C3*D3</f>
-        <v>61500</v>
-      </c>
-      <c r="F3" s="20">
-        <f>E3*0.002</f>
-        <v>123</v>
-      </c>
-      <c r="G3" s="20">
-        <f>E3*0.000068</f>
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="H3" s="20">
-        <f>E3*0.00001</f>
-        <v>0.6150000000000001</v>
-      </c>
-      <c r="I3" s="20">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>8.9457900000000006</v>
-      </c>
-      <c r="J3" s="20">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>61636.742789999997</v>
-      </c>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="25">
-        <f>(D3-D2)/D2</f>
-        <v>-6.8181818181818177E-2</v>
-      </c>
-      <c r="C4" s="22">
-        <f>SUM(C2:C3)</f>
-        <v>4500</v>
-      </c>
-      <c r="D4" s="64">
-        <f>E4/C4</f>
-        <v>43</v>
-      </c>
-      <c r="E4" s="22">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>193500</v>
-      </c>
-      <c r="F4" s="22">
-        <f t="shared" si="0"/>
-        <v>387</v>
-      </c>
-      <c r="G4" s="22">
-        <f t="shared" si="0"/>
-        <v>12.102</v>
-      </c>
-      <c r="H4" s="22">
-        <f t="shared" si="0"/>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="I4" s="22">
-        <f t="shared" si="0"/>
-        <v>28.072590000000005</v>
-      </c>
-      <c r="J4" s="22">
-        <f t="shared" si="0"/>
-        <v>193929.10959000001</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="55">
-        <v>44543</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>900</v>
-      </c>
-      <c r="D5" s="34">
-        <v>46</v>
-      </c>
-      <c r="E5" s="11">
-        <f>C5*D5</f>
-        <v>41400</v>
-      </c>
-      <c r="F5" s="35">
-        <f>E5*0.002</f>
-        <v>82.8</v>
-      </c>
-      <c r="G5" s="34">
-        <f>E5*0.000068</f>
-        <v>2.8151999999999999</v>
-      </c>
-      <c r="H5" s="34">
-        <f>E5*0.00001</f>
-        <v>0.41400000000000003</v>
-      </c>
-      <c r="I5" s="34">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>6.0220440000000011</v>
-      </c>
-      <c r="J5" s="34">
-        <f>E5-F5-G5-H5-I5</f>
-        <v>41307.948756000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <f>C4-C5</f>
-        <v>3600</v>
-      </c>
-      <c r="D6" s="11">
-        <v>43</v>
-      </c>
-      <c r="E6" s="20">
-        <f>C6*D6</f>
-        <v>154800</v>
-      </c>
-      <c r="F6" s="20">
-        <f>E6*0.002</f>
-        <v>309.60000000000002</v>
-      </c>
-      <c r="G6" s="20">
-        <f>E6*0.000068</f>
-        <v>10.526400000000001</v>
-      </c>
-      <c r="H6" s="20">
-        <f>E6*0.00001</f>
-        <v>1.548</v>
-      </c>
-      <c r="I6" s="20">
-        <f>(F6+G6+H6)*0.07</f>
-        <v>22.517208000000007</v>
-      </c>
-      <c r="J6" s="20">
-        <f>E6+F6+I6+G6+H6</f>
-        <v>155144.19160800002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="55">
-        <v>44545</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2400</v>
-      </c>
-      <c r="D7" s="11">
-        <v>43</v>
-      </c>
-      <c r="E7" s="20">
-        <f>C7*D7</f>
-        <v>103200</v>
-      </c>
-      <c r="F7" s="20">
-        <f>E7*0.002</f>
-        <v>206.4</v>
-      </c>
-      <c r="G7" s="20">
-        <f>E7*0.000068</f>
-        <v>7.0175999999999998</v>
-      </c>
-      <c r="H7" s="20">
-        <f>E7*0.00001</f>
-        <v>1.032</v>
-      </c>
-      <c r="I7" s="20">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>15.011472000000001</v>
-      </c>
-      <c r="J7" s="20">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>103429.46107200001</v>
-      </c>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="25">
-        <f>(D7-D6)/D6</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
-        <f>SUM(C6:C7)</f>
-        <v>6000</v>
-      </c>
-      <c r="D8" s="64">
-        <f>E8/C8</f>
-        <v>43</v>
-      </c>
-      <c r="E8" s="22">
-        <f t="shared" ref="E8:J8" si="1">SUM(E6:E7)</f>
-        <v>258000</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="G8" s="22">
-        <f t="shared" si="1"/>
-        <v>17.544</v>
-      </c>
-      <c r="H8" s="22">
-        <f t="shared" si="1"/>
-        <v>2.58</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>37.528680000000008</v>
-      </c>
-      <c r="J8" s="22">
-        <f t="shared" si="1"/>
-        <v>258573.65268000003</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="55">
-        <v>44551</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1500</v>
-      </c>
-      <c r="D9" s="34">
-        <v>48.5</v>
-      </c>
-      <c r="E9" s="11">
-        <f>C9*D9</f>
-        <v>72750</v>
-      </c>
-      <c r="F9" s="35">
-        <f>E9*0.002</f>
-        <v>145.5</v>
-      </c>
-      <c r="G9" s="34">
-        <f>E9*0.000068</f>
-        <v>4.9470000000000001</v>
-      </c>
-      <c r="H9" s="34">
-        <f>E9*0.00001</f>
-        <v>0.72750000000000004</v>
-      </c>
-      <c r="I9" s="34">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>10.582215000000001</v>
-      </c>
-      <c r="J9" s="34">
-        <f>E9-F9-G9-H9-I9</f>
-        <v>72588.243285000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1">
-      <c r="A10" s="55">
-        <v>44551</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
-        <f>C8-C9</f>
-        <v>4500</v>
-      </c>
-      <c r="D10" s="11">
-        <v>43</v>
-      </c>
-      <c r="E10" s="20">
-        <f>C10*D10</f>
-        <v>193500</v>
-      </c>
-      <c r="F10" s="20">
-        <f>E10*0.002</f>
-        <v>387</v>
-      </c>
-      <c r="G10" s="20">
-        <f>E10*0.000068</f>
-        <v>13.157999999999999</v>
-      </c>
-      <c r="H10" s="20">
-        <f>E10*0.00001</f>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="I10" s="20">
-        <f>(F10+G10+H10)*0.07</f>
-        <v>28.146510000000003</v>
-      </c>
-      <c r="J10" s="20">
-        <f>E10+F10+I10+G10+H10</f>
-        <v>193930.23950999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="55">
-        <v>44578</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1500</v>
-      </c>
-      <c r="D11" s="11">
-        <v>49</v>
-      </c>
-      <c r="E11" s="20">
-        <f>C11*D11</f>
-        <v>73500</v>
-      </c>
-      <c r="F11" s="20">
-        <f>E11*0.002</f>
-        <v>147</v>
-      </c>
-      <c r="G11" s="20">
-        <f>E11*0.000068</f>
-        <v>4.9980000000000002</v>
-      </c>
-      <c r="H11" s="20">
-        <f>E11*0.00001</f>
-        <v>0.7350000000000001</v>
-      </c>
-      <c r="I11" s="20">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>10.691310000000001</v>
-      </c>
-      <c r="J11" s="20">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>73663.424310000002</v>
-      </c>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="25">
-        <f>(D11-D10)/D10</f>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="C12" s="22">
-        <f>SUM(C10:C11)</f>
-        <v>6000</v>
-      </c>
-      <c r="D12" s="64">
-        <f>E12/C12</f>
-        <v>44.5</v>
-      </c>
-      <c r="E12" s="22">
-        <f t="shared" ref="E12:J12" si="2">SUM(E10:E11)</f>
-        <v>267000</v>
-      </c>
-      <c r="F12" s="22">
-        <f t="shared" si="2"/>
-        <v>534</v>
-      </c>
-      <c r="G12" s="22">
-        <f t="shared" si="2"/>
-        <v>18.155999999999999</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" si="2"/>
-        <v>2.67</v>
-      </c>
-      <c r="I12" s="22">
-        <f t="shared" si="2"/>
-        <v>38.837820000000008</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="2"/>
-        <v>267593.66382000002</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" s="13" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="55">
-        <v>44580</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1500</v>
-      </c>
-      <c r="D13" s="34">
-        <v>49.5</v>
-      </c>
-      <c r="E13" s="11">
-        <f>C13*D13</f>
-        <v>74250</v>
-      </c>
-      <c r="F13" s="35">
-        <f>E13*0.002</f>
-        <v>148.5</v>
-      </c>
-      <c r="G13" s="34">
-        <f>E13*0.000068</f>
-        <v>5.0490000000000004</v>
-      </c>
-      <c r="H13" s="34">
-        <f>E13*0.00001</f>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="I13" s="34">
-        <f>(F13+G13+H13)*0.07</f>
-        <v>10.800405000000001</v>
-      </c>
-      <c r="J13" s="34">
-        <f>E13-F13-G13-H13-I13</f>
-        <v>74084.908095000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1">
-      <c r="A14" s="49">
-        <v>44580</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <f>C12-C13</f>
-        <v>4500</v>
-      </c>
-      <c r="D14" s="17">
-        <v>44.5</v>
-      </c>
-      <c r="E14" s="18">
-        <f>C14*D14</f>
-        <v>200250</v>
-      </c>
-      <c r="F14" s="18">
-        <f>E14*0.002</f>
-        <v>400.5</v>
-      </c>
-      <c r="G14" s="18">
-        <f>E14*0.000068</f>
-        <v>13.616999999999999</v>
-      </c>
-      <c r="H14" s="18">
-        <f>E14*0.00001</f>
-        <v>2.0024999999999999</v>
-      </c>
-      <c r="I14" s="18">
-        <f>(F14+G14+H14)*0.07</f>
-        <v>29.128365000000002</v>
-      </c>
-      <c r="J14" s="18">
-        <f>E14+F14+I14+G14+H14</f>
-        <v>200695.24786500001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="49">
-        <v>44617</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1500</v>
-      </c>
-      <c r="D15" s="17">
-        <v>48.5</v>
-      </c>
-      <c r="E15" s="18">
-        <f>C15*D15</f>
-        <v>72750</v>
-      </c>
-      <c r="F15" s="18">
-        <f>E15*0.002</f>
-        <v>145.5</v>
-      </c>
-      <c r="G15" s="18">
-        <f>E15*0.000068</f>
-        <v>4.9470000000000001</v>
-      </c>
-      <c r="H15" s="18">
-        <f>E15*0.00001</f>
-        <v>0.72750000000000004</v>
-      </c>
-      <c r="I15" s="18">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>10.582215000000001</v>
-      </c>
-      <c r="J15" s="18">
-        <f>E15+F15+I15+G15+H15</f>
-        <v>72911.756714999996</v>
-      </c>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="88"/>
-      <c r="B16" s="7">
-        <f>(D15-D12)/D12</f>
-        <v>8.98876404494382E-2</v>
-      </c>
-      <c r="C16" s="5">
-        <f>SUM(C14:C15)</f>
-        <v>6000</v>
-      </c>
-      <c r="D16" s="65">
-        <f>E16/C16</f>
-        <v>45.5</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16:J16" si="3">SUM(E14:E15)</f>
-        <v>273000</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="3"/>
-        <v>546</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>18.564</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="3"/>
-        <v>2.73</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>39.710580000000007</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="3"/>
-        <v>273607.00458000001</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="49">
-        <v>44617</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1500</v>
-      </c>
-      <c r="D17" s="17">
-        <v>48</v>
-      </c>
-      <c r="E17" s="18">
-        <f>C17*D17</f>
-        <v>72000</v>
-      </c>
-      <c r="F17" s="18">
-        <f>E17*0.002</f>
-        <v>144</v>
-      </c>
-      <c r="G17" s="18">
-        <f>E17*0.000068</f>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="H17" s="18">
-        <f>E17*0.00001</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="I17" s="18">
-        <f>(F17+G17+H17)*0.07</f>
-        <v>10.47312</v>
-      </c>
-      <c r="J17" s="18">
-        <f>E17+F17+I17+G17+H17</f>
-        <v>72160.08911999999</v>
-      </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="88"/>
-      <c r="B18" s="7">
-        <f>(D17-D15)/D15</f>
-        <v>-1.0309278350515464E-2</v>
-      </c>
-      <c r="C18" s="5">
-        <f>SUM(C16:C17)</f>
-        <v>7500</v>
-      </c>
-      <c r="D18" s="65">
-        <f>E18/C18</f>
-        <v>46</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:J18" si="4">SUM(E16:E17)</f>
-        <v>345000</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="4"/>
-        <v>690</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="4"/>
-        <v>23.46</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="4"/>
-        <v>3.45</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="4"/>
-        <v>50.183700000000009</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="4"/>
-        <v>345767.09369999997</v>
-      </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="49">
-        <v>44617</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1500</v>
-      </c>
-      <c r="D19" s="17">
-        <v>47.5</v>
-      </c>
-      <c r="E19" s="18">
-        <f>C19*D19</f>
-        <v>71250</v>
-      </c>
-      <c r="F19" s="18">
-        <f>E19*0.002</f>
-        <v>142.5</v>
-      </c>
-      <c r="G19" s="18">
-        <f>E19*0.000068</f>
-        <v>4.8449999999999998</v>
-      </c>
-      <c r="H19" s="18">
-        <f>E19*0.00001</f>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="I19" s="18">
-        <f>(F19+G19+H19)*0.07</f>
-        <v>10.364025000000002</v>
-      </c>
-      <c r="J19" s="18">
-        <f>E19+F19+I19+G19+H19</f>
-        <v>71408.421524999998</v>
-      </c>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="88"/>
-      <c r="B20" s="7">
-        <f>(D19-D17)/D17</f>
-        <v>-1.0416666666666666E-2</v>
-      </c>
-      <c r="C20" s="5">
-        <f>SUM(C18:C19)</f>
-        <v>9000</v>
-      </c>
-      <c r="D20" s="65">
-        <f>E20/C20</f>
-        <v>46.25</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" ref="E20:J20" si="5">SUM(E18:E19)</f>
-        <v>416250</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="5"/>
-        <v>832.5</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="5"/>
-        <v>28.305</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="5"/>
-        <v>4.1625000000000005</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="5"/>
-        <v>60.547725000000014</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="5"/>
-        <v>417175.51522499998</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="49">
-        <v>44642</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="17">
-        <v>50.25</v>
-      </c>
-      <c r="E21" s="18">
-        <f>C21*D21</f>
-        <v>150750</v>
-      </c>
-      <c r="F21" s="18">
-        <f>E21*0.002</f>
-        <v>301.5</v>
-      </c>
-      <c r="G21" s="18">
-        <f>E21*0.000068</f>
-        <v>10.250999999999999</v>
-      </c>
-      <c r="H21" s="18">
-        <f>E21*0.00001</f>
-        <v>1.5075000000000001</v>
-      </c>
-      <c r="I21" s="18">
-        <f>(F21+G21+H21)*0.07</f>
-        <v>21.928094999999999</v>
-      </c>
-      <c r="J21" s="18">
-        <f>E21+F21+I21+G21+H21</f>
-        <v>151085.18659500001</v>
-      </c>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="88"/>
-      <c r="B22" s="7">
-        <f>(D21-D19)/D19</f>
-        <v>5.7894736842105263E-2</v>
-      </c>
-      <c r="C22" s="5">
-        <f>SUM(C20:C21)</f>
-        <v>12000</v>
-      </c>
-      <c r="D22" s="65">
-        <f>E22/C22</f>
-        <v>47.25</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" ref="E22:J22" si="6">SUM(E20:E21)</f>
-        <v>567000</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="6"/>
-        <v>1134</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="6"/>
-        <v>38.555999999999997</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="6"/>
-        <v>5.6700000000000008</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="6"/>
-        <v>82.475820000000013</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="6"/>
-        <v>568260.70181999996</v>
-      </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="49">
-        <v>44741</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D23" s="17">
-        <v>39.75</v>
-      </c>
-      <c r="E23" s="18">
-        <f>C23*D23</f>
-        <v>119250</v>
-      </c>
-      <c r="F23" s="18">
-        <f>E23*0.002</f>
-        <v>238.5</v>
-      </c>
-      <c r="G23" s="18">
-        <f>E23*0.000068</f>
-        <v>8.109</v>
-      </c>
-      <c r="H23" s="18">
-        <f>E23*0.00001</f>
-        <v>1.1925000000000001</v>
-      </c>
-      <c r="I23" s="18">
-        <f>(F23+G23+H23)*0.07</f>
-        <v>17.346105000000001</v>
-      </c>
-      <c r="J23" s="18">
-        <f>E23+F23+I23+G23+H23</f>
-        <v>119515.14760500001</v>
-      </c>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="88"/>
-      <c r="B24" s="7">
-        <f>(D23-D21)/D21</f>
-        <v>-0.20895522388059701</v>
-      </c>
-      <c r="C24" s="5">
-        <f>SUM(C22:C23)</f>
-        <v>15000</v>
-      </c>
-      <c r="D24" s="65">
-        <f>E24/C24</f>
-        <v>45.75</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:J24" si="7">SUM(E22:E23)</f>
-        <v>686250</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="7"/>
-        <v>1372.5</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="7"/>
-        <v>46.664999999999999</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="7"/>
-        <v>6.8625000000000007</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="7"/>
-        <v>99.821925000000022</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="7"/>
-        <v>687775.84942499991</v>
-      </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="49">
-        <v>44854</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D25" s="17">
-        <v>27.75</v>
-      </c>
-      <c r="E25" s="18">
-        <f>C25*D25</f>
-        <v>83250</v>
-      </c>
-      <c r="F25" s="18">
-        <f>E25*0.002</f>
-        <v>166.5</v>
-      </c>
-      <c r="G25" s="18">
-        <f>E25*0.000068</f>
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="H25" s="18">
-        <f>E25*0.00001</f>
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="I25" s="18">
-        <f>(F25+G25+H25)*0.07</f>
-        <v>12.109545000000002</v>
-      </c>
-      <c r="J25" s="18">
-        <f>E25+F25+I25+G25+H25</f>
-        <v>83435.103044999996</v>
-      </c>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="88"/>
-      <c r="B26" s="7">
-        <f>(D25-D24)/D24</f>
-        <v>-0.39344262295081966</v>
-      </c>
-      <c r="C26" s="5">
-        <f>SUM(C24:C25)</f>
-        <v>18000</v>
-      </c>
-      <c r="D26" s="65">
-        <f>E26/C26</f>
-        <v>42.75</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" ref="E26:J26" si="8">SUM(E24:E25)</f>
-        <v>769500</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="8"/>
-        <v>1539</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="8"/>
-        <v>52.326000000000001</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="8"/>
-        <v>7.6950000000000003</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="8"/>
-        <v>111.93147000000002</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="8"/>
-        <v>771210.9524699999</v>
-      </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="49">
-        <v>44876</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D27" s="17">
-        <v>30.5</v>
-      </c>
-      <c r="E27" s="18">
-        <f>C27*D27</f>
-        <v>91500</v>
-      </c>
-      <c r="F27" s="18">
-        <f>E27*0.002</f>
-        <v>183</v>
-      </c>
-      <c r="G27" s="18">
-        <f>E27*0.000068</f>
-        <v>6.2219999999999995</v>
-      </c>
-      <c r="H27" s="18">
-        <f>E27*0.00001</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="I27" s="18">
-        <f>(F27+G27+H27)*0.07</f>
-        <v>13.309590000000002</v>
-      </c>
-      <c r="J27" s="18">
-        <f>E27+F27+I27+G27+H27</f>
-        <v>91703.446589999992</v>
-      </c>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="88"/>
-      <c r="B28" s="7">
-        <f>(D27-D26)/D26</f>
-        <v>-0.28654970760233917</v>
-      </c>
-      <c r="C28" s="5">
-        <f>SUM(C26:C27)</f>
-        <v>21000</v>
-      </c>
-      <c r="D28" s="65">
-        <f>E28/C28</f>
-        <v>41</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" ref="E28:J28" si="9">SUM(E26:E27)</f>
-        <v>861000</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="9"/>
-        <v>1722</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="9"/>
-        <v>58.548000000000002</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="9"/>
-        <v>8.61</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="9"/>
-        <v>125.24106000000002</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="9"/>
-        <v>862914.39905999985</v>
-      </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="49">
-        <v>44887</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D29" s="17">
-        <v>31.5</v>
-      </c>
-      <c r="E29" s="18">
-        <f>C29*D29</f>
-        <v>94500</v>
-      </c>
-      <c r="F29" s="18">
-        <f>E29*0.002</f>
-        <v>189</v>
-      </c>
-      <c r="G29" s="18">
-        <f>E29*0.000068</f>
-        <v>6.4260000000000002</v>
-      </c>
-      <c r="H29" s="18">
-        <f>E29*0.00001</f>
-        <v>0.94500000000000006</v>
-      </c>
-      <c r="I29" s="18">
-        <f>(F29+G29+H29)*0.07</f>
-        <v>13.74597</v>
-      </c>
-      <c r="J29" s="18">
-        <f>E29+F29+I29+G29+H29</f>
-        <v>94710.116970000017</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="88"/>
-      <c r="B30" s="7">
-        <f>(D29-D28)/D28</f>
-        <v>-0.23170731707317074</v>
-      </c>
-      <c r="C30" s="5">
-        <f>SUM(C28:C29)</f>
-        <v>24000</v>
-      </c>
-      <c r="D30" s="65">
-        <f>E30/C30</f>
-        <v>39.8125</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ref="E30:J30" si="10">SUM(E28:E29)</f>
-        <v>955500</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="10"/>
-        <v>1911</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="10"/>
-        <v>64.974000000000004</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="10"/>
-        <v>9.5549999999999997</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="10"/>
-        <v>138.98703</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="10"/>
-        <v>957624.51602999982</v>
-      </c>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="49">
-        <v>44959</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D31" s="17">
-        <v>30.25</v>
-      </c>
-      <c r="E31" s="18">
-        <f>C31*D31</f>
-        <v>90750</v>
-      </c>
-      <c r="F31" s="18">
-        <f>E31*0.002</f>
-        <v>181.5</v>
-      </c>
-      <c r="G31" s="18">
-        <f>E31*0.000068</f>
-        <v>6.1710000000000003</v>
-      </c>
-      <c r="H31" s="18">
-        <f>E31*0.00001</f>
-        <v>0.90750000000000008</v>
-      </c>
-      <c r="I31" s="18">
-        <f>(F31+G31+H31)*0.07</f>
-        <v>13.200495</v>
-      </c>
-      <c r="J31" s="18">
-        <f>E31+F31+I31+G31+H31</f>
-        <v>90951.778995000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="88"/>
-      <c r="B32" s="7">
-        <f>(D31-D30)/D30</f>
-        <v>-0.24018838304552589</v>
-      </c>
-      <c r="C32" s="5">
-        <f>SUM(C30:C31)</f>
-        <v>27000</v>
-      </c>
-      <c r="D32" s="65">
-        <f>E32/C32</f>
-        <v>38.75</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" ref="E32:J32" si="11">SUM(E30:E31)</f>
-        <v>1046250</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="11"/>
-        <v>2092.5</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="11"/>
-        <v>71.14500000000001</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="11"/>
-        <v>10.4625</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="11"/>
-        <v>152.18752499999999</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="11"/>
-        <v>1048576.2950249999</v>
-      </c>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="55">
-        <v>44959</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D33" s="11">
-        <v>24.75</v>
-      </c>
-      <c r="E33" s="20">
-        <f>C33*D33</f>
-        <v>24750</v>
-      </c>
-      <c r="F33" s="20">
-        <f>E33*0.002</f>
-        <v>49.5</v>
-      </c>
-      <c r="G33" s="20">
-        <f>E33*0.000068</f>
-        <v>1.6830000000000001</v>
-      </c>
-      <c r="H33" s="20">
-        <f>E33*0.00001</f>
-        <v>0.24750000000000003</v>
-      </c>
-      <c r="I33" s="20">
-        <f>(F33+G33+H33)*0.07</f>
-        <v>3.6001350000000003</v>
-      </c>
-      <c r="J33" s="20">
-        <f>E33+F33+I33+G33+H33</f>
-        <v>24805.030635000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="B34" s="25">
-        <f>(D33-D32)/D32</f>
-        <v>-0.36129032258064514</v>
-      </c>
-      <c r="C34" s="22">
-        <f>SUM(C32:C33)</f>
-        <v>28000</v>
-      </c>
-      <c r="D34" s="64">
-        <f>E34/C34</f>
-        <v>38.25</v>
-      </c>
-      <c r="E34" s="22">
-        <f t="shared" ref="E34:J34" si="12">SUM(E32:E33)</f>
-        <v>1071000</v>
-      </c>
-      <c r="F34" s="22">
-        <f t="shared" si="12"/>
-        <v>2142</v>
-      </c>
-      <c r="G34" s="22">
-        <f t="shared" si="12"/>
-        <v>72.828000000000017</v>
-      </c>
-      <c r="H34" s="22">
-        <f t="shared" si="12"/>
-        <v>10.71</v>
-      </c>
-      <c r="I34" s="22">
-        <f t="shared" si="12"/>
-        <v>155.78765999999999</v>
-      </c>
-      <c r="J34" s="22">
-        <f t="shared" si="12"/>
-        <v>1073381.3256599999</v>
-      </c>
-      <c r="K34" s="25"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" spans="1:14" s="13" customFormat="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A36" s="49">
-        <v>44846</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D36" s="17">
-        <v>27.75</v>
-      </c>
-      <c r="E36" s="18">
-        <f>C36*D36</f>
-        <v>83250</v>
-      </c>
-      <c r="F36" s="18">
-        <f>E36*0.002</f>
-        <v>166.5</v>
-      </c>
-      <c r="G36" s="18">
-        <f>E36*0.000068</f>
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="H36" s="18">
-        <f>E36*0.00001</f>
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="I36" s="18">
-        <f>(F36+G36+H36)*0.07</f>
-        <v>12.109545000000002</v>
-      </c>
-      <c r="J36" s="18">
-        <f>E36+F36+I36+G36+H36</f>
-        <v>83435.103044999996</v>
-      </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="49">
-        <v>44853</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="16">
-        <f>C36</f>
-        <v>3000</v>
-      </c>
-      <c r="D37" s="26">
-        <v>29.25</v>
-      </c>
-      <c r="E37" s="17">
-        <f>C37*D37</f>
-        <v>87750</v>
-      </c>
-      <c r="F37" s="27">
-        <f>E37*0.002</f>
-        <v>175.5</v>
-      </c>
-      <c r="G37" s="26">
-        <f>E37*0.000068</f>
-        <v>5.9669999999999996</v>
-      </c>
-      <c r="H37" s="26">
-        <f>E37*0.00001</f>
-        <v>0.87750000000000006</v>
-      </c>
-      <c r="I37" s="26">
-        <f>(F37+G37+H37)*0.07</f>
-        <v>12.764115000000002</v>
-      </c>
-      <c r="J37" s="26">
-        <f>E37-F37-G37-H37-I37</f>
-        <v>87554.891384999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="49">
-        <f>DAYS360(A36,A37)</f>
-        <v>7</v>
-      </c>
-      <c r="B38" s="30">
-        <f>(D37-D36)/D36</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18">
-        <f>E37-E36</f>
-        <v>4500</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18">
-        <f>J37-J36</f>
-        <v>4119.7883399999992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A39" s="8">
-        <v>45161</v>
-      </c>
-      <c r="C39" s="10">
-        <f>C40</f>
-        <v>3000</v>
-      </c>
-      <c r="D39" s="63">
-        <v>0.25</v>
-      </c>
-      <c r="E39" s="59">
-        <v>0</v>
-      </c>
-      <c r="F39" s="32">
-        <v>0</v>
-      </c>
-      <c r="G39" s="59">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <f>G39-E39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="12">
-        <v>0</v>
-      </c>
-      <c r="J39" s="60">
-        <f>C39*D39*0.9</f>
-        <v>675</v>
-      </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="49">
-        <v>44959</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="16">
-        <v>3000</v>
-      </c>
-      <c r="D40" s="17">
-        <v>30.25</v>
-      </c>
-      <c r="E40" s="18">
-        <f>C40*D40</f>
-        <v>90750</v>
-      </c>
-      <c r="F40" s="18">
-        <f>E40*0.002</f>
-        <v>181.5</v>
-      </c>
-      <c r="G40" s="18">
-        <f>E40*0.000068</f>
-        <v>6.1710000000000003</v>
-      </c>
-      <c r="H40" s="18">
-        <f>E40*0.00001</f>
-        <v>0.90750000000000008</v>
-      </c>
-      <c r="I40" s="18">
-        <f>(F40+G40+H40)*0.07</f>
-        <v>13.200495</v>
-      </c>
-      <c r="J40" s="18">
-        <f>E40+F40+I40+G40+H40</f>
-        <v>90951.778995000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="55">
-        <v>44853</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="10">
-        <f>C40</f>
-        <v>3000</v>
-      </c>
-      <c r="D41" s="34">
-        <v>30.75</v>
-      </c>
-      <c r="E41" s="11">
-        <f>C41*D41</f>
-        <v>92250</v>
-      </c>
-      <c r="F41" s="35">
-        <f>E41*0.002</f>
-        <v>184.5</v>
-      </c>
-      <c r="G41" s="34">
-        <f>E41*0.000068</f>
-        <v>6.2729999999999997</v>
-      </c>
-      <c r="H41" s="34">
-        <f>E41*0.00001</f>
-        <v>0.9225000000000001</v>
-      </c>
-      <c r="I41" s="34">
-        <f>(F41+G41+H41)*0.07</f>
-        <v>13.418685000000002</v>
-      </c>
-      <c r="J41" s="34">
-        <f>E41-F41-G41-H41-I41</f>
-        <v>92044.885815000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="55"/>
-      <c r="B42" s="12">
-        <f>J42/J40</f>
-        <v>1.2018531490847403E-2</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="20">
-        <f>E41-E40</f>
-        <v>1500</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20">
-        <f>J41-J40</f>
-        <v>1093.1068200000009</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A43" s="8">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="C43" s="10">
-        <f>C44</f>
-        <v>5000</v>
-      </c>
-      <c r="D43" s="63">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="E43" s="59">
-        <v>0</v>
-      </c>
-      <c r="F43" s="32">
-        <v>0</v>
-      </c>
-      <c r="G43" s="59">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <f>G43-E43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43" s="60">
-        <f>C43*D43*0.9</f>
-        <v>904.50000000000011</v>
-      </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="55">
-        <v>44959</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D44" s="11">
-        <v>7.55</v>
-      </c>
-      <c r="E44" s="20">
-        <f>C44*D44</f>
-        <v>37750</v>
-      </c>
-      <c r="F44" s="20">
-        <f>E44*0.002</f>
-        <v>75.5</v>
-      </c>
-      <c r="G44" s="20">
-        <f>E44*0.000068</f>
-        <v>2.5670000000000002</v>
-      </c>
-      <c r="H44" s="20">
-        <f>E44*0.00001</f>
-        <v>0.37750000000000006</v>
-      </c>
-      <c r="I44" s="20">
-        <f>(F44+G44+H44)*0.07</f>
-        <v>5.4911150000000006</v>
-      </c>
-      <c r="J44" s="20">
-        <f>E44+F44+I44+G44+H44</f>
-        <v>37833.935615000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -19494,7 +17898,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="55">
-        <v>44959</v>
+        <v>45887</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>0</v>
@@ -19503,37 +17907,37 @@
         <v>3000</v>
       </c>
       <c r="D31" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="20">
         <f>C31*D31</f>
-        <v>90000</v>
+        <v>84000</v>
       </c>
       <c r="F31" s="20">
         <f>E31*0.002</f>
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G31" s="20">
         <f>E31*0.000068</f>
-        <v>6.12</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="H31" s="20">
         <f>E31*0.00001</f>
-        <v>0.9</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="I31" s="20">
         <f>(F31+G31+H31)*0.07</f>
-        <v>13.091400000000002</v>
+        <v>12.218640000000001</v>
       </c>
       <c r="J31" s="20">
         <f>E31+F31+I31+G31+H31</f>
-        <v>90200.111399999994</v>
+        <v>84186.770640000002</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="B32" s="25">
         <f>(D31-D30)/D30</f>
-        <v>-0.25233644859813081</v>
+        <v>-0.30218068535825543</v>
       </c>
       <c r="C32" s="22">
         <f>SUM(C30:C31)</f>
@@ -19541,31 +17945,31 @@
       </c>
       <c r="D32" s="64">
         <f>E32/C32</f>
-        <v>39</v>
+        <v>38.777777777777779</v>
       </c>
       <c r="E32" s="22">
         <f t="shared" ref="E32:J32" si="11">SUM(E30:E31)</f>
-        <v>1053000</v>
+        <v>1047000</v>
       </c>
       <c r="F32" s="22">
         <f t="shared" si="11"/>
-        <v>2106</v>
+        <v>2094</v>
       </c>
       <c r="G32" s="22">
         <f t="shared" si="11"/>
-        <v>71.604000000000013</v>
+        <v>71.196000000000012</v>
       </c>
       <c r="H32" s="22">
         <f t="shared" si="11"/>
-        <v>10.530000000000001</v>
+        <v>10.47</v>
       </c>
       <c r="I32" s="22">
         <f t="shared" si="11"/>
-        <v>153.16938000000002</v>
+        <v>152.29662000000002</v>
       </c>
       <c r="J32" s="22">
         <f t="shared" si="11"/>
-        <v>1055341.3033799999</v>
+        <v>1049327.9626199999</v>
       </c>
       <c r="K32" s="25"/>
       <c r="M32" s="21"/>
@@ -19856,7 +18260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D376F-67DD-4980-BF1B-8A055D89D41A}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -20176,7 +18580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -20797,7 +19201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248C1A-0BE1-4664-895A-D29EA068DDA6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -21108,7 +19512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -22538,7 +20942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -23161,7 +21565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC4F4F3-83CC-4355-B28D-286BFFC2FE1C}">
   <dimension ref="A1:N13"/>
   <sheetViews>
@@ -23600,7 +22004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -23890,6 +22294,251 @@
       <c r="L9" s="13"/>
       <c r="M9" s="61"/>
       <c r="N9" s="61"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
+    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="21"/>
+    <col min="13" max="13" width="8.88671875" style="25"/>
+    <col min="14" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1">
+      <c r="A2" s="49">
+        <v>45085</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
+        <v>4000</v>
+      </c>
+      <c r="D2" s="41">
+        <v>24.9</v>
+      </c>
+      <c r="E2" s="18">
+        <f>C2*D2</f>
+        <v>99600</v>
+      </c>
+      <c r="F2" s="18">
+        <f>E2*0.002</f>
+        <v>199.20000000000002</v>
+      </c>
+      <c r="G2" s="18">
+        <f>E2*0.00006</f>
+        <v>5.976</v>
+      </c>
+      <c r="H2" s="18">
+        <f>E2*0.00001</f>
+        <v>0.99600000000000011</v>
+      </c>
+      <c r="I2" s="18">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>14.432040000000002</v>
+      </c>
+      <c r="J2" s="18">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>99820.604039999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="13" customFormat="1">
+      <c r="A3" s="39">
+        <v>45728</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="17">
+        <v>23.1</v>
+      </c>
+      <c r="E3" s="18">
+        <f>C3*D3</f>
+        <v>92400</v>
+      </c>
+      <c r="F3" s="18">
+        <f>E3*0.002</f>
+        <v>184.8</v>
+      </c>
+      <c r="G3" s="18">
+        <f>E3*0.00006</f>
+        <v>5.5440000000000005</v>
+      </c>
+      <c r="H3" s="18">
+        <f>E3*0.00001</f>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I3" s="18">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>13.388760000000003</v>
+      </c>
+      <c r="J3" s="18">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>92604.656759999998</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A4" s="49"/>
+      <c r="B4" s="74">
+        <f>(D3-D2)/D2</f>
+        <v>-7.228915662650591E-2</v>
+      </c>
+      <c r="C4" s="16">
+        <f>SUM(C2:C3)</f>
+        <v>8000</v>
+      </c>
+      <c r="D4" s="40">
+        <f>E4/C4</f>
+        <v>24</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>192000</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" si="0"/>
+        <v>11.52</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" si="0"/>
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="0"/>
+        <v>27.820800000000006</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="0"/>
+        <v>192425.26079999999</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+    </row>
+    <row r="5" spans="1:14" s="13" customFormat="1">
+      <c r="A5" s="66">
+        <v>45728</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>21</v>
+      </c>
+      <c r="E5" s="20">
+        <f>C5*D5</f>
+        <v>84000</v>
+      </c>
+      <c r="F5" s="20">
+        <f>E5*0.002</f>
+        <v>168</v>
+      </c>
+      <c r="G5" s="20">
+        <f>E5*0.00006</f>
+        <v>5.04</v>
+      </c>
+      <c r="H5" s="20">
+        <f>E5*0.00001</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I5" s="20">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>12.171600000000002</v>
+      </c>
+      <c r="J5" s="20">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>84186.051599999992</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" s="62" customFormat="1" ht="21">
+      <c r="A6" s="55"/>
+      <c r="B6" s="75">
+        <f>(D5-D4)/D4</f>
+        <v>-0.125</v>
+      </c>
+      <c r="C6" s="10">
+        <f>SUM(C4:C5)</f>
+        <v>12000</v>
+      </c>
+      <c r="D6" s="63">
+        <f>E6/C6</f>
+        <v>23</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>276000</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>552</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>16.559999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="1"/>
+        <v>39.992400000000004</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="1"/>
+        <v>276611.3124</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -25885,251 +24534,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
-  <dimension ref="A1:N6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9" style="21"/>
-    <col min="7" max="7" width="6.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="11.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="21"/>
-    <col min="13" max="13" width="8.88671875" style="25"/>
-    <col min="14" max="16384" width="8.88671875" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
-      <c r="A2" s="49">
-        <v>45085</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="16">
-        <v>4000</v>
-      </c>
-      <c r="D2" s="41">
-        <v>24.9</v>
-      </c>
-      <c r="E2" s="18">
-        <f>C2*D2</f>
-        <v>99600</v>
-      </c>
-      <c r="F2" s="18">
-        <f>E2*0.002</f>
-        <v>199.20000000000002</v>
-      </c>
-      <c r="G2" s="18">
-        <f>E2*0.00006</f>
-        <v>5.976</v>
-      </c>
-      <c r="H2" s="18">
-        <f>E2*0.00001</f>
-        <v>0.99600000000000011</v>
-      </c>
-      <c r="I2" s="18">
-        <f>(F2+G2+H2)*0.07</f>
-        <v>14.432040000000002</v>
-      </c>
-      <c r="J2" s="18">
-        <f>E2+F2+I2+G2+H2</f>
-        <v>99820.604039999991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="13" customFormat="1">
-      <c r="A3" s="39">
-        <v>45728</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16">
-        <v>4000</v>
-      </c>
-      <c r="D3" s="17">
-        <v>23.1</v>
-      </c>
-      <c r="E3" s="18">
-        <f>C3*D3</f>
-        <v>92400</v>
-      </c>
-      <c r="F3" s="18">
-        <f>E3*0.002</f>
-        <v>184.8</v>
-      </c>
-      <c r="G3" s="18">
-        <f>E3*0.00006</f>
-        <v>5.5440000000000005</v>
-      </c>
-      <c r="H3" s="18">
-        <f>E3*0.00001</f>
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I3" s="18">
-        <f>(F3+G3+H3)*0.07</f>
-        <v>13.388760000000003</v>
-      </c>
-      <c r="J3" s="18">
-        <f>E3+F3+I3+G3+H3</f>
-        <v>92604.656759999998</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A4" s="49"/>
-      <c r="B4" s="74">
-        <f>(D3-D2)/D2</f>
-        <v>-7.228915662650591E-2</v>
-      </c>
-      <c r="C4" s="16">
-        <f>SUM(C2:C3)</f>
-        <v>8000</v>
-      </c>
-      <c r="D4" s="40">
-        <f>E4/C4</f>
-        <v>24</v>
-      </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>192000</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" si="0"/>
-        <v>11.52</v>
-      </c>
-      <c r="H4" s="16">
-        <f t="shared" si="0"/>
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" si="0"/>
-        <v>27.820800000000006</v>
-      </c>
-      <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>192425.26079999999</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-    </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
-      <c r="A5" s="66">
-        <v>45728</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4000</v>
-      </c>
-      <c r="D5" s="11">
-        <v>21</v>
-      </c>
-      <c r="E5" s="20">
-        <f>C5*D5</f>
-        <v>84000</v>
-      </c>
-      <c r="F5" s="20">
-        <f>E5*0.002</f>
-        <v>168</v>
-      </c>
-      <c r="G5" s="20">
-        <f>E5*0.00006</f>
-        <v>5.04</v>
-      </c>
-      <c r="H5" s="20">
-        <f>E5*0.00001</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="I5" s="20">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>12.171600000000002</v>
-      </c>
-      <c r="J5" s="20">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>84186.051599999992</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A6" s="55"/>
-      <c r="B6" s="75">
-        <f>(D5-D4)/D4</f>
-        <v>-0.125</v>
-      </c>
-      <c r="C6" s="10">
-        <f>SUM(C4:C5)</f>
-        <v>12000</v>
-      </c>
-      <c r="D6" s="63">
-        <f>E6/C6</f>
-        <v>23</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>276000</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" si="1"/>
-        <v>552</v>
-      </c>
-      <c r="G6" s="10">
-        <f t="shared" si="1"/>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="H6" s="10">
-        <f t="shared" si="1"/>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="I6" s="10">
-        <f t="shared" si="1"/>
-        <v>39.992400000000004</v>
-      </c>
-      <c r="J6" s="10">
-        <f t="shared" si="1"/>
-        <v>276611.3124</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D35EBD-FACE-4A0A-BE47-8E8EEE95DB23}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -26783,7 +25187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38AEBDA-97A4-44E7-92FF-AB904E0EA610}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1204" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23C0DD2A-42C4-467D-BC0A-A21F2896DBB1}"/>
+  <xr:revisionPtr revIDLastSave="1207" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{496B6B83-94D2-468D-8D96-5C6B77B86981}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1836" yWindow="1404" windowWidth="10692" windowHeight="9948" tabRatio="461" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10452" yWindow="1668" windowWidth="11448" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -13446,7 +13446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -28882,8 +28882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -28907,78 +28907,78 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="66">
-        <v>45817</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="39">
+        <v>45887</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16">
         <v>4000</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="17">
         <v>24.1</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <f>C2*D2</f>
         <v>96400</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <f>E2*0.002</f>
         <v>192.8</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="18">
         <f>E2*0.00006</f>
         <v>5.7839999999999998</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <f>E2*0.00001</f>
         <v>0.96400000000000008</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="18">
         <f>(F2+G2+H2)*0.07</f>
         <v>13.968360000000002</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="18">
         <f>E2+F2+I2+G2+H2</f>
         <v>96613.516360000009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="55">
-        <v>45868</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="49">
+        <v>45889</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="16">
         <f>C2</f>
         <v>4000</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="26">
         <v>24.3</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="17">
         <f>C3*D3</f>
         <v>97200</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="27">
         <f>E3*0.002</f>
         <v>194.4</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="26">
         <f>E3*0.000068</f>
         <v>6.6096000000000004</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="26">
         <f>E3*0.00001</f>
         <v>0.97200000000000009</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="26">
         <f>(F3+G3+H3)*0.07</f>
         <v>14.138712000000002</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="26">
         <f>E3-F3-G3-H3-I3</f>
         <v>96983.879688000015</v>
       </c>
@@ -28988,22 +28988,22 @@
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="38"/>
-      <c r="B4" s="12">
+      <c r="A4" s="69"/>
+      <c r="B4" s="30">
         <f>(D3-D2)/D2</f>
         <v>8.2987551867219622E-3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="20">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18">
         <f>E3-E2</f>
         <v>800</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18">
         <f>J3-J2</f>
         <v>370.36332800000673</v>
       </c>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1207" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{496B6B83-94D2-468D-8D96-5C6B77B86981}"/>
+  <xr:revisionPtr revIDLastSave="1221" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB37D6E-9A06-4D54-8BEA-2C83271CBB21}"/>
   <bookViews>
-    <workbookView xWindow="10452" yWindow="1668" windowWidth="11448" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10104" yWindow="1320" windowWidth="11448" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -7482,10 +7482,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BECE484-9DAC-4EE9-A8FE-27A01698073E}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -8031,7 +8031,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:13" s="13" customFormat="1">
+    <row r="17" spans="1:10" s="13" customFormat="1">
       <c r="A17" s="49"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
@@ -8043,20 +8043,103 @@
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:13" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A18" s="28"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+    <row r="18" spans="1:10" s="21" customFormat="1">
+      <c r="A18" s="66">
+        <v>45817</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2400</v>
+      </c>
+      <c r="D18" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="E18" s="20">
+        <f>C18*D18</f>
+        <v>54960</v>
+      </c>
+      <c r="F18" s="20">
+        <f>E18*0.002</f>
+        <v>109.92</v>
+      </c>
+      <c r="G18" s="20">
+        <f>E18*0.00006</f>
+        <v>3.2976000000000001</v>
+      </c>
+      <c r="H18" s="20">
+        <f>E18*0.00001</f>
+        <v>0.54960000000000009</v>
+      </c>
+      <c r="I18" s="20">
+        <f>(F18+G18+H18)*0.07</f>
+        <v>7.9637040000000008</v>
+      </c>
+      <c r="J18" s="20">
+        <f>E18+F18+I18+G18+H18</f>
+        <v>55081.730903999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="21" customFormat="1">
+      <c r="A19" s="55">
+        <v>45868</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <f>C18</f>
+        <v>2400</v>
+      </c>
+      <c r="D19" s="34">
+        <v>23.2</v>
+      </c>
+      <c r="E19" s="11">
+        <f>C19*D19</f>
+        <v>55680</v>
+      </c>
+      <c r="F19" s="35">
+        <f>E19*0.002</f>
+        <v>111.36</v>
+      </c>
+      <c r="G19" s="34">
+        <f>E19*0.000068</f>
+        <v>3.7862399999999998</v>
+      </c>
+      <c r="H19" s="34">
+        <f>E19*0.00001</f>
+        <v>0.55680000000000007</v>
+      </c>
+      <c r="I19" s="34">
+        <f>(F19+G19+H19)*0.07</f>
+        <v>8.0992128000000001</v>
+      </c>
+      <c r="J19" s="34">
+        <f>E19-F19-G19-H19-I19</f>
+        <v>55556.1977472</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="21" customFormat="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="12">
+        <f>(D19-D18)/D18</f>
+        <v>1.310043668122274E-2</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="20">
+        <f>E19-E18</f>
+        <v>720</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20">
+        <f>J19-J18</f>
+        <v>474.4668432000035</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -14588,14 +14671,14 @@
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
@@ -16211,31 +16294,31 @@
         <v>2000</v>
       </c>
       <c r="D48" s="46">
-        <v>66.75</v>
+        <v>27.25</v>
       </c>
       <c r="E48" s="20">
         <f>C48*D48</f>
-        <v>133500</v>
+        <v>54500</v>
       </c>
       <c r="F48" s="20">
         <f>E48*0.002</f>
-        <v>267</v>
+        <v>109</v>
       </c>
       <c r="G48" s="20">
         <f>E48*0.00006</f>
-        <v>8.01</v>
+        <v>3.27</v>
       </c>
       <c r="H48" s="20">
         <f>E48*0.00001</f>
-        <v>1.3350000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I48" s="20">
         <f>(F48+G48+H48)*0.07</f>
-        <v>19.344149999999999</v>
+        <v>7.897050000000001</v>
       </c>
       <c r="J48" s="20">
         <f>E48+F48+I48+G48+H48</f>
-        <v>133795.68914999999</v>
+        <v>54620.712049999995</v>
       </c>
       <c r="K48" s="56"/>
       <c r="L48" s="57"/>
@@ -16255,32 +16338,31 @@
         <v>2000</v>
       </c>
       <c r="D49" s="34">
-        <f>D43</f>
-        <v>58</v>
+        <v>27.75</v>
       </c>
       <c r="E49" s="11">
         <f>C49*D49</f>
-        <v>116000</v>
+        <v>55500</v>
       </c>
       <c r="F49" s="35">
         <f>E49*0.002</f>
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="G49" s="34">
         <f>E49*0.000068</f>
-        <v>7.8879999999999999</v>
+        <v>3.774</v>
       </c>
       <c r="H49" s="34">
         <f>E49*0.00001</f>
-        <v>1.1600000000000001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="I49" s="34">
         <f>(F49+G49+H49)*0.07</f>
-        <v>16.873360000000002</v>
+        <v>8.073030000000001</v>
       </c>
       <c r="J49" s="34">
         <f>E49-F49-G49-H49-I49</f>
-        <v>115742.07863999999</v>
+        <v>55376.597970000003</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="31" customFormat="1" ht="18.600000000000001">
@@ -16289,13 +16371,13 @@
       </c>
       <c r="B50" s="25">
         <f>(D49-D48)/D48</f>
-        <v>-0.13108614232209737</v>
+        <v>1.834862385321101E-2</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="20">
         <f>E49-E48</f>
-        <v>-17500</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
@@ -16303,7 +16385,7 @@
       <c r="I50" s="20"/>
       <c r="J50" s="18">
         <f>J49-J48</f>
-        <v>-18053.610509999999</v>
+        <v>755.8859200000079</v>
       </c>
       <c r="K50" s="20"/>
     </row>
@@ -28880,10 +28962,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -29012,32 +29094,111 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" s="13" customFormat="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" spans="1:14" s="31" customFormat="1" ht="18.600000000000001">
-      <c r="A6" s="28"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="39">
+        <v>45890</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4000</v>
+      </c>
+      <c r="D5" s="17">
+        <v>24.1</v>
+      </c>
+      <c r="E5" s="18">
+        <f>C5*D5</f>
+        <v>96400</v>
+      </c>
+      <c r="F5" s="18">
+        <f>E5*0.002</f>
+        <v>192.8</v>
+      </c>
+      <c r="G5" s="18">
+        <f>E5*0.00006</f>
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="H5" s="18">
+        <f>E5*0.00001</f>
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I5" s="18">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>13.968360000000002</v>
+      </c>
+      <c r="J5" s="18">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>96613.516360000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="49">
+        <v>45890</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <f>C5</f>
+        <v>4000</v>
+      </c>
+      <c r="D6" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="E6" s="17">
+        <f>C6*D6</f>
+        <v>97200</v>
+      </c>
+      <c r="F6" s="27">
+        <f>E6*0.002</f>
+        <v>194.4</v>
+      </c>
+      <c r="G6" s="26">
+        <f>E6*0.000068</f>
+        <v>6.6096000000000004</v>
+      </c>
+      <c r="H6" s="26">
+        <f>E6*0.00001</f>
+        <v>0.97200000000000009</v>
+      </c>
+      <c r="I6" s="26">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>14.138712000000002</v>
+      </c>
+      <c r="J6" s="26">
+        <f>E6-F6-G6-H6-I6</f>
+        <v>96983.879688000015</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="69"/>
+      <c r="B7" s="30">
+        <f>(D6-D5)/D5</f>
+        <v>8.2987551867219622E-3</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18">
+        <f>E6-E5</f>
+        <v>800</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18">
+        <f>J6-J5</f>
+        <v>370.36332800000673</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1221" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB37D6E-9A06-4D54-8BEA-2C83271CBB21}"/>
+  <xr:revisionPtr revIDLastSave="1225" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9FB9F3-39D8-4E9A-AEEF-23F7F3833DA0}"/>
   <bookViews>
     <workbookView xWindow="10104" yWindow="1320" windowWidth="11448" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -28962,10 +28962,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -29200,6 +29200,112 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="39">
+        <v>45891</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="17">
+        <v>24.1</v>
+      </c>
+      <c r="E8" s="18">
+        <f>C8*D8</f>
+        <v>120500</v>
+      </c>
+      <c r="F8" s="18">
+        <f>E8*0.002</f>
+        <v>241</v>
+      </c>
+      <c r="G8" s="18">
+        <f>E8*0.00006</f>
+        <v>7.23</v>
+      </c>
+      <c r="H8" s="18">
+        <f>E8*0.00001</f>
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="I8" s="18">
+        <f>(F8+G8+H8)*0.07</f>
+        <v>17.460450000000002</v>
+      </c>
+      <c r="J8" s="18">
+        <f>E8+F8+I8+G8+H8</f>
+        <v>120766.89545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="49">
+        <v>45891</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <f>C8</f>
+        <v>5000</v>
+      </c>
+      <c r="D9" s="26">
+        <v>24.3</v>
+      </c>
+      <c r="E9" s="17">
+        <f>C9*D9</f>
+        <v>121500</v>
+      </c>
+      <c r="F9" s="27">
+        <f>E9*0.002</f>
+        <v>243</v>
+      </c>
+      <c r="G9" s="26">
+        <f>E9*0.000068</f>
+        <v>8.2620000000000005</v>
+      </c>
+      <c r="H9" s="26">
+        <f>E9*0.00001</f>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="I9" s="26">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>17.673390000000001</v>
+      </c>
+      <c r="J9" s="26">
+        <f>E9-F9-G9-H9-I9</f>
+        <v>121229.84961</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="69"/>
+      <c r="B10" s="30">
+        <f>(D9-D8)/D8</f>
+        <v>8.2987551867219622E-3</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18">
+        <f>E9-E8</f>
+        <v>1000</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18">
+        <f>J9-J8</f>
+        <v>462.95416000000841</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1225" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D9FB9F3-39D8-4E9A-AEEF-23F7F3833DA0}"/>
+  <xr:revisionPtr revIDLastSave="1305" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1826BFF6-CF6E-4CAD-B465-C4D8BD1AD157}"/>
   <bookViews>
-    <workbookView xWindow="10104" yWindow="1320" windowWidth="11448" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11016" yWindow="2040" windowWidth="11676" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="42">
   <si>
     <t>BUY</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>ORI-W2</t>
+  </si>
+  <si>
+    <t>DIVISEND</t>
   </si>
 </sst>
 </file>
@@ -10401,24 +10404,24 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="44" customWidth="1"/>
     <col min="2" max="2" width="7.21875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="7.21875" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.21875" style="21" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
@@ -12324,421 +12327,595 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="42"/>
-      <c r="B57" s="30">
+      <c r="B57" s="12">
         <f>(D56-D55)/D55</f>
         <v>-0.52597402597402609</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="22">
         <f>SUM(C55:C56)</f>
         <v>81000</v>
       </c>
-      <c r="D57" s="65">
+      <c r="D57" s="64">
         <f>E57/C57</f>
         <v>14.8</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="22">
         <f t="shared" ref="E57:J57" si="17">SUM(E55:E56)</f>
         <v>1198800</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="22">
         <f t="shared" si="17"/>
         <v>2397.6</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="22">
         <f t="shared" si="17"/>
         <v>81.5184</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="22">
         <f t="shared" si="17"/>
         <v>11.988000000000001</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="22">
         <f t="shared" si="17"/>
         <v>174.37744800000002</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="22">
         <f t="shared" si="17"/>
         <v>1201465.4838479999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="13" customFormat="1">
-      <c r="A58" s="8">
+    <row r="58" spans="1:10">
+      <c r="A58" s="49">
+        <v>45896</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D58" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="E58" s="17">
+        <f>C58*D58</f>
+        <v>50400</v>
+      </c>
+      <c r="F58" s="27">
+        <f>E58*0.002</f>
+        <v>100.8</v>
+      </c>
+      <c r="G58" s="26">
+        <f>E58*0.000068</f>
+        <v>3.4272</v>
+      </c>
+      <c r="H58" s="26">
+        <f>E58*0.00001</f>
+        <v>0.504</v>
+      </c>
+      <c r="I58" s="26">
+        <f>(F58+G58+H58)*0.07</f>
+        <v>7.3311840000000004</v>
+      </c>
+      <c r="J58" s="26">
+        <f>E58-F58-G58-H58-I58</f>
+        <v>50287.937615999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="28">
+        <f>DAYS360(A57,A58)</f>
+        <v>45237</v>
+      </c>
+      <c r="B59" s="30">
+        <f>(D58-D57)/D57</f>
+        <v>-0.43243243243243246</v>
+      </c>
+      <c r="C59" s="16">
+        <f>C57-C58</f>
+        <v>75000</v>
+      </c>
+      <c r="D59" s="41">
+        <f>E59/C59</f>
+        <v>15.311999999999999</v>
+      </c>
+      <c r="E59" s="18">
+        <f>E57-E58</f>
+        <v>1148400</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18">
+        <f>J58-J57</f>
+        <v>-1151177.546232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="13" customFormat="1">
+      <c r="A60" s="8">
         <v>45709</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="10">
-        <v>4000</v>
-      </c>
-      <c r="D58" s="63">
-        <v>6.3</v>
-      </c>
-      <c r="E58" s="20">
-        <f>C58*D58</f>
-        <v>25200</v>
-      </c>
-      <c r="F58" s="20">
-        <f>E58*0.002</f>
-        <v>50.4</v>
-      </c>
-      <c r="G58" s="20">
-        <f>E58*0.000068</f>
-        <v>1.7136</v>
-      </c>
-      <c r="H58" s="20">
-        <f>E58*0.00001</f>
-        <v>0.252</v>
-      </c>
-      <c r="I58" s="20">
-        <f>(F58+G58+H58)*0.07</f>
-        <v>3.6655920000000002</v>
-      </c>
-      <c r="J58" s="20">
-        <f>E58+F58+I58+G58+H58</f>
-        <v>25256.031192000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="12">
-        <f>(D58-D57)/D57</f>
-        <v>-0.57432432432432434</v>
-      </c>
-      <c r="C59" s="22">
-        <f>SUM(C57:C58)</f>
-        <v>85000</v>
-      </c>
-      <c r="D59" s="64">
-        <f>E59/C59</f>
-        <v>14.4</v>
-      </c>
-      <c r="E59" s="22">
-        <f t="shared" ref="E59:J59" si="18">SUM(E57:E58)</f>
-        <v>1224000</v>
-      </c>
-      <c r="F59" s="22">
+      <c r="B60" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D60" s="63">
+        <v>8</v>
+      </c>
+      <c r="E60" s="20">
+        <f>C60*D60</f>
+        <v>40000</v>
+      </c>
+      <c r="F60" s="20">
+        <f>E60*0.002</f>
+        <v>80</v>
+      </c>
+      <c r="G60" s="20">
+        <f>E60*0.000068</f>
+        <v>2.72</v>
+      </c>
+      <c r="H60" s="20">
+        <f>E60*0.00001</f>
+        <v>0.4</v>
+      </c>
+      <c r="I60" s="20">
+        <f>(F60+G60+H60)*0.07</f>
+        <v>5.8184000000000005</v>
+      </c>
+      <c r="J60" s="20">
+        <f>E60+F60+I60+G60+H60</f>
+        <v>40088.938399999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="12">
+        <f>(D60-D59)/D59</f>
+        <v>-0.47753396029258094</v>
+      </c>
+      <c r="C61" s="22">
+        <f>SUM(C59:C60)</f>
+        <v>80000</v>
+      </c>
+      <c r="D61" s="64">
+        <f>E61/C61</f>
+        <v>14.855</v>
+      </c>
+      <c r="E61" s="22">
+        <f t="shared" ref="E61:J61" si="18">SUM(E59:E60)</f>
+        <v>1188400</v>
+      </c>
+      <c r="F61" s="22">
         <f t="shared" si="18"/>
-        <v>2448</v>
-      </c>
-      <c r="G59" s="22">
+        <v>80</v>
+      </c>
+      <c r="G61" s="22">
         <f t="shared" si="18"/>
-        <v>83.231999999999999</v>
-      </c>
-      <c r="H59" s="22">
+        <v>2.72</v>
+      </c>
+      <c r="H61" s="22">
         <f t="shared" si="18"/>
-        <v>12.240000000000002</v>
-      </c>
-      <c r="I59" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I61" s="22">
         <f t="shared" si="18"/>
-        <v>178.04304000000002</v>
-      </c>
-      <c r="J59" s="22">
+        <v>5.8184000000000005</v>
+      </c>
+      <c r="J61" s="22">
         <f t="shared" si="18"/>
-        <v>1226721.51504</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="13" customFormat="1">
-      <c r="A61" s="14">
+        <v>-1111088.6078319999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="13" customFormat="1">
+      <c r="A63" s="14">
         <v>44672</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="16">
+      <c r="B63" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="16">
         <v>15000</v>
       </c>
-      <c r="D61" s="40">
+      <c r="D63" s="40">
         <v>12.1</v>
       </c>
-      <c r="E61" s="18">
-        <f>C61*D61</f>
+      <c r="E63" s="18">
+        <f>C63*D63</f>
         <v>181500</v>
       </c>
-      <c r="F61" s="18">
-        <f>E61*0.002</f>
+      <c r="F63" s="18">
+        <f>E63*0.002</f>
         <v>363</v>
       </c>
-      <c r="G61" s="18">
-        <f>E61*0.000068</f>
+      <c r="G63" s="18">
+        <f>E63*0.000068</f>
         <v>12.342000000000001</v>
       </c>
-      <c r="H61" s="18">
-        <f>E61*0.00001</f>
+      <c r="H63" s="18">
+        <f>E63*0.00001</f>
         <v>1.8150000000000002</v>
       </c>
-      <c r="I61" s="18">
-        <f>(F61+G61+H61)*0.07</f>
+      <c r="I63" s="18">
+        <f>(F63+G63+H63)*0.07</f>
         <v>26.40099</v>
       </c>
-      <c r="J61" s="18">
-        <f>E61+F61+I61+G61+H61</f>
+      <c r="J63" s="18">
+        <f>E63+F63+I63+G63+H63</f>
         <v>181903.55799</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="49">
+    <row r="64" spans="1:10">
+      <c r="A64" s="49">
         <v>44679</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B64" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="16">
-        <f>C61</f>
+      <c r="C64" s="16">
+        <f>C63</f>
         <v>15000</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D64" s="26">
         <v>12.5</v>
       </c>
-      <c r="E62" s="17">
-        <f>C62*D62</f>
+      <c r="E64" s="17">
+        <f>C64*D64</f>
         <v>187500</v>
       </c>
-      <c r="F62" s="27">
-        <f>E62*0.002</f>
+      <c r="F64" s="27">
+        <f>E64*0.002</f>
         <v>375</v>
       </c>
-      <c r="G62" s="26">
-        <f>E62*0.000068</f>
+      <c r="G64" s="26">
+        <f>E64*0.000068</f>
         <v>12.75</v>
       </c>
-      <c r="H62" s="26">
-        <f>E62*0.00001</f>
+      <c r="H64" s="26">
+        <f>E64*0.00001</f>
         <v>1.8750000000000002</v>
       </c>
-      <c r="I62" s="26">
-        <f>(F62+G62+H62)*0.07</f>
+      <c r="I64" s="26">
+        <f>(F64+G64+H64)*0.07</f>
         <v>27.273750000000003</v>
       </c>
-      <c r="J62" s="26">
-        <f>E62-F62-G62-H62-I62</f>
+      <c r="J64" s="26">
+        <f>E64-F64-G64-H64-I64</f>
         <v>187083.10125000001</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" s="28">
-        <f>DAYS360(A61,A62)</f>
+    <row r="65" spans="1:10">
+      <c r="A65" s="28">
+        <f>DAYS360(A63,A64)</f>
         <v>7</v>
       </c>
-      <c r="B63" s="30">
-        <f>(D62-D61)/D61</f>
+      <c r="B65" s="30">
+        <f>(D64-D63)/D63</f>
         <v>3.305785123966945E-2</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="18">
-        <f>E62-E61</f>
+      <c r="C65" s="16"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18">
+        <f>E64-E63</f>
         <v>6000</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18">
-        <f>J62-J61</f>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18">
+        <f>J64-J63</f>
         <v>5179.5432600000058</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="13" customFormat="1">
-      <c r="A64" s="14">
+    <row r="66" spans="1:10" s="13" customFormat="1">
+      <c r="A66" s="14">
         <v>44740</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="16">
+      <c r="B66" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="16">
         <v>3000</v>
       </c>
-      <c r="D64" s="40">
+      <c r="D66" s="40">
         <v>7.6</v>
       </c>
-      <c r="E64" s="18">
-        <f>C64*D64</f>
+      <c r="E66" s="18">
+        <f>C66*D66</f>
         <v>22800</v>
       </c>
-      <c r="F64" s="18">
-        <f>E64*0.002</f>
+      <c r="F66" s="18">
+        <f>E66*0.002</f>
         <v>45.6</v>
       </c>
-      <c r="G64" s="18">
-        <f>E64*0.000068</f>
+      <c r="G66" s="18">
+        <f>E66*0.000068</f>
         <v>1.5504</v>
       </c>
-      <c r="H64" s="18">
-        <f>E64*0.00001</f>
+      <c r="H66" s="18">
+        <f>E66*0.00001</f>
         <v>0.22800000000000001</v>
       </c>
-      <c r="I64" s="18">
-        <f>(F64+G64+H64)*0.07</f>
+      <c r="I66" s="18">
+        <f>(F66+G66+H66)*0.07</f>
         <v>3.3164880000000005</v>
       </c>
-      <c r="J64" s="18">
-        <f>E64+F64+I64+G64+H64</f>
+      <c r="J66" s="18">
+        <f>E66+F66+I66+G66+H66</f>
         <v>22850.694887999998</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="49">
+    <row r="67" spans="1:10">
+      <c r="A67" s="49">
         <v>44741</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="16">
-        <f>C64</f>
+      <c r="C67" s="16">
+        <f>C66</f>
         <v>3000</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D67" s="26">
         <v>11.7</v>
       </c>
-      <c r="E65" s="17">
-        <f>C65*D65</f>
+      <c r="E67" s="17">
+        <f>C67*D67</f>
         <v>35100</v>
       </c>
-      <c r="F65" s="27">
-        <f>E65*0.002</f>
+      <c r="F67" s="27">
+        <f>E67*0.002</f>
         <v>70.2</v>
       </c>
-      <c r="G65" s="26">
-        <f>E65*0.000068</f>
+      <c r="G67" s="26">
+        <f>E67*0.000068</f>
         <v>2.3868</v>
       </c>
-      <c r="H65" s="26">
-        <f>E65*0.00001</f>
+      <c r="H67" s="26">
+        <f>E67*0.00001</f>
         <v>0.35100000000000003</v>
       </c>
-      <c r="I65" s="26">
-        <f>(F65+G65+H65)*0.07</f>
+      <c r="I67" s="26">
+        <f>(F67+G67+H67)*0.07</f>
         <v>5.1056460000000001</v>
       </c>
-      <c r="J65" s="26">
-        <f>E65-F65-G65-H65-I65</f>
+      <c r="J67" s="26">
+        <f>E67-F67-G67-H67-I67</f>
         <v>35021.956553999997</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="28">
-        <f>DAYS360(A64,A65)</f>
+    <row r="68" spans="1:10">
+      <c r="A68" s="28">
+        <f>DAYS360(A66,A67)</f>
         <v>1</v>
       </c>
-      <c r="B66" s="30">
-        <f>(D65-D64)/D64</f>
+      <c r="B68" s="30">
+        <f>(D67-D66)/D66</f>
         <v>0.53947368421052633</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="18">
-        <f>E65-E64</f>
+      <c r="C68" s="16"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18">
+        <f>E67-E66</f>
         <v>12300</v>
       </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18">
-        <f>J65-J64</f>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18">
+        <f>J67-J66</f>
         <v>12171.261665999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="15" customFormat="1">
-      <c r="A67" s="14">
+    <row r="69" spans="1:10" s="15" customFormat="1">
+      <c r="A69" s="14">
         <v>45063</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C67" s="16">
+      <c r="B69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="16">
         <v>3000</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D69" s="40">
         <v>7.6</v>
       </c>
-      <c r="E67" s="18">
-        <f>C67*D67</f>
+      <c r="E69" s="18">
+        <f>C69*D69</f>
         <v>22800</v>
       </c>
-      <c r="F67" s="18">
-        <f>E67*0.002</f>
+      <c r="F69" s="18">
+        <f>E69*0.002</f>
         <v>45.6</v>
       </c>
-      <c r="G67" s="18">
-        <f>E67*0.000068</f>
+      <c r="G69" s="18">
+        <f>E69*0.000068</f>
         <v>1.5504</v>
       </c>
-      <c r="H67" s="18">
-        <f>E67*0.00001</f>
+      <c r="H69" s="18">
+        <f>E69*0.00001</f>
         <v>0.22800000000000001</v>
       </c>
-      <c r="I67" s="18">
-        <f>(F67+G67+H67)*0.07</f>
+      <c r="I69" s="18">
+        <f>(F69+G69+H69)*0.07</f>
         <v>3.3164880000000005</v>
       </c>
-      <c r="J67" s="18">
-        <f>E67+F67+I67+G67+H67</f>
+      <c r="J69" s="18">
+        <f>E69+F69+I69+G69+H69</f>
         <v>22850.694887999998</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="49">
+    <row r="70" spans="1:10">
+      <c r="A70" s="49">
         <v>45560</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B70" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="16">
-        <f>C67</f>
+      <c r="C70" s="16">
+        <f>C69</f>
         <v>3000</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D70" s="26">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E68" s="17">
-        <f>C68*D68</f>
+      <c r="E70" s="17">
+        <f>C70*D70</f>
         <v>24150.000000000004</v>
       </c>
-      <c r="F68" s="27">
-        <f>E68*0.002</f>
+      <c r="F70" s="27">
+        <f>E70*0.002</f>
         <v>48.300000000000011</v>
       </c>
-      <c r="G68" s="26">
-        <f>E68*0.000068</f>
+      <c r="G70" s="26">
+        <f>E70*0.000068</f>
         <v>1.6422000000000003</v>
       </c>
-      <c r="H68" s="26">
-        <f>E68*0.00001</f>
+      <c r="H70" s="26">
+        <f>E70*0.00001</f>
         <v>0.24150000000000005</v>
       </c>
-      <c r="I68" s="26">
-        <f>(F68+G68+H68)*0.07</f>
+      <c r="I70" s="26">
+        <f>(F70+G70+H70)*0.07</f>
         <v>3.5128590000000015</v>
       </c>
-      <c r="J68" s="26">
-        <f>E68-F68-G68-H68-I68</f>
+      <c r="J70" s="26">
+        <f>E70-F70-G70-H70-I70</f>
         <v>24096.303441000007</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" s="28">
-        <f>DAYS360(A67,A68)</f>
+    <row r="71" spans="1:10">
+      <c r="A71" s="28">
+        <f>DAYS360(A69,A70)</f>
         <v>488</v>
       </c>
-      <c r="B69" s="30">
-        <f>(D68-D67)/D67</f>
+      <c r="B71" s="30">
+        <f>(D70-D69)/D69</f>
         <v>5.9210526315789616E-2</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="18">
-        <f>E68-E67</f>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18">
+        <f>E70-E69</f>
         <v>1350.0000000000036</v>
       </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18">
-        <f>J68-J67</f>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18">
+        <f>J70-J69</f>
         <v>1245.6085530000091</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" s="13" customFormat="1">
+      <c r="A72" s="14">
+        <v>45709</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="16">
+        <v>6000</v>
+      </c>
+      <c r="D72" s="40">
+        <v>7.3</v>
+      </c>
+      <c r="E72" s="18">
+        <f>C72*D72</f>
+        <v>43800</v>
+      </c>
+      <c r="F72" s="18">
+        <f>E72*0.002</f>
+        <v>87.600000000000009</v>
+      </c>
+      <c r="G72" s="18">
+        <f>E72*0.000068</f>
+        <v>2.9784000000000002</v>
+      </c>
+      <c r="H72" s="18">
+        <f>E72*0.00001</f>
+        <v>0.43800000000000006</v>
+      </c>
+      <c r="I72" s="18">
+        <f>(F72+G72+H72)*0.07</f>
+        <v>6.3711480000000007</v>
+      </c>
+      <c r="J72" s="18">
+        <f>E72+F72+I72+G72+H72</f>
+        <v>43897.387547999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="49">
+        <v>45896</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="16">
+        <f>C72</f>
+        <v>6000</v>
+      </c>
+      <c r="D73" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="E73" s="17">
+        <f>C73*D73</f>
+        <v>50400</v>
+      </c>
+      <c r="F73" s="27">
+        <f>E73*0.002</f>
+        <v>100.8</v>
+      </c>
+      <c r="G73" s="26">
+        <f>E73*0.000068</f>
+        <v>3.4272</v>
+      </c>
+      <c r="H73" s="26">
+        <f>E73*0.00001</f>
+        <v>0.504</v>
+      </c>
+      <c r="I73" s="26">
+        <f>(F73+G73+H73)*0.07</f>
+        <v>7.3311840000000004</v>
+      </c>
+      <c r="J73" s="26">
+        <f>E73-F73-G73-H73-I73</f>
+        <v>50287.937615999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="28">
+        <f>DAYS360(A72,A73)</f>
+        <v>186</v>
+      </c>
+      <c r="B74" s="30">
+        <f>(D73-D72)/D72</f>
+        <v>0.15068493150684939</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18">
+        <f>E73-E72</f>
+        <v>6600</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18">
+        <f>J73-J72</f>
+        <v>6390.5500679999968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="E76" s="24">
+        <f>E55+E72</f>
+        <v>1198800</v>
       </c>
     </row>
   </sheetData>
@@ -16797,10 +16974,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A42" sqref="A42:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -17979,77 +18156,78 @@
       <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="55">
+      <c r="A31" s="49">
         <v>45887</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
         <v>3000</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="17">
         <v>28</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <f>C31*D31</f>
         <v>84000</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <f>E31*0.002</f>
         <v>168</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <f>E31*0.000068</f>
         <v>5.7119999999999997</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="18">
         <f>E31*0.00001</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <f>(F31+G31+H31)*0.07</f>
         <v>12.218640000000001</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="18">
         <f>E31+F31+I31+G31+H31</f>
         <v>84186.770640000002</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" s="25">
+      <c r="A32" s="88"/>
+      <c r="B32" s="7">
         <f>(D31-D30)/D30</f>
         <v>-0.30218068535825543</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="5">
         <f>SUM(C30:C31)</f>
         <v>27000</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="65">
         <f>E32/C32</f>
         <v>38.777777777777779</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="5">
         <f t="shared" ref="E32:J32" si="11">SUM(E30:E31)</f>
         <v>1047000</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="5">
         <f t="shared" si="11"/>
         <v>2094</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="5">
         <f t="shared" si="11"/>
         <v>71.196000000000012</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="5">
         <f t="shared" si="11"/>
         <v>10.47</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I32" s="5">
         <f t="shared" si="11"/>
         <v>152.29662000000002</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="5">
         <f t="shared" si="11"/>
         <v>1049327.9626199999</v>
       </c>
@@ -18307,32 +18485,103 @@
         <v>9358.1151750000136</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="62" customFormat="1" ht="21">
-      <c r="A41" s="8"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="61"/>
-      <c r="N41" s="61"/>
+    <row r="41" spans="1:14">
+      <c r="A41" s="49">
+        <v>45887</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="17">
+        <v>28</v>
+      </c>
+      <c r="E41" s="18">
+        <f>C41*D41</f>
+        <v>84000</v>
+      </c>
+      <c r="F41" s="18">
+        <f>E41*0.002</f>
+        <v>168</v>
+      </c>
+      <c r="G41" s="18">
+        <f>E41*0.000068</f>
+        <v>5.7119999999999997</v>
+      </c>
+      <c r="H41" s="18">
+        <f>E41*0.00001</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I41" s="18">
+        <f>(F41+G41+H41)*0.07</f>
+        <v>12.218640000000001</v>
+      </c>
+      <c r="J41" s="18">
+        <f>E41+F41+I41+G41+H41</f>
+        <v>84186.770640000002</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="55"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="A42" s="55">
+        <v>45877</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10">
+        <f>C41</f>
+        <v>3000</v>
+      </c>
+      <c r="D42" s="34">
+        <v>31</v>
+      </c>
+      <c r="E42" s="11">
+        <f>C42*D42</f>
+        <v>93000</v>
+      </c>
+      <c r="F42" s="35">
+        <f>E42*0.002</f>
+        <v>186</v>
+      </c>
+      <c r="G42" s="34">
+        <f>E42*0.000068</f>
+        <v>6.3239999999999998</v>
+      </c>
+      <c r="H42" s="34">
+        <f>E42*0.00001</f>
+        <v>0.93</v>
+      </c>
+      <c r="I42" s="34">
+        <f>(F42+G42+H42)*0.07</f>
+        <v>13.527780000000003</v>
+      </c>
+      <c r="J42" s="34">
+        <f>E42-F42-G42-H42-I42</f>
+        <v>92793.21822000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="55"/>
+      <c r="B43" s="12">
+        <f>J43/J41</f>
+        <v>0.1022304040714776</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="20">
+        <f>E42-E41</f>
+        <v>9000</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20">
+        <f>J42-J41</f>
+        <v>8606.4475800000073</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -28962,16 +29211,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
@@ -29306,6 +29555,230 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
     </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="39">
+        <v>45895</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="17">
+        <v>24.1</v>
+      </c>
+      <c r="E11" s="18">
+        <f>C11*D11</f>
+        <v>120500</v>
+      </c>
+      <c r="F11" s="18">
+        <f>E11*0.002</f>
+        <v>241</v>
+      </c>
+      <c r="G11" s="18">
+        <f>E11*0.00006</f>
+        <v>7.23</v>
+      </c>
+      <c r="H11" s="18">
+        <f>E11*0.00001</f>
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="I11" s="18">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>17.460450000000002</v>
+      </c>
+      <c r="J11" s="18">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>120766.89545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="21" customFormat="1">
+      <c r="A12" s="55">
+        <v>45896</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
+        <f>C11</f>
+        <v>5000</v>
+      </c>
+      <c r="D12" s="34">
+        <v>24.4</v>
+      </c>
+      <c r="E12" s="11">
+        <f>C12*D12</f>
+        <v>122000</v>
+      </c>
+      <c r="F12" s="35">
+        <f>E12*0.002</f>
+        <v>244</v>
+      </c>
+      <c r="G12" s="34">
+        <f>E12*0.000068</f>
+        <v>8.2959999999999994</v>
+      </c>
+      <c r="H12" s="34">
+        <f>E12*0.00001</f>
+        <v>1.2200000000000002</v>
+      </c>
+      <c r="I12" s="34">
+        <f>(F12+G12+H12)*0.07</f>
+        <v>17.746120000000001</v>
+      </c>
+      <c r="J12" s="34">
+        <f>E12-F12-G12-H12-I12</f>
+        <v>121728.73788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="21" customFormat="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="12">
+        <f>(D12-D11)/D11</f>
+        <v>1.2448132780082869E-2</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="20">
+        <f>E12-E11</f>
+        <v>1500</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
+        <f>J12-J11</f>
+        <v>961.84243000000424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="50">
+        <v>45871</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="47">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <f>C15*D15</f>
+        <v>5000</v>
+      </c>
+      <c r="J15" s="1">
+        <f>E15*0.9</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="39">
+        <v>45895</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="17">
+        <v>24.1</v>
+      </c>
+      <c r="E16" s="18">
+        <f>C16*D16</f>
+        <v>120500</v>
+      </c>
+      <c r="F16" s="18">
+        <f>E16*0.002</f>
+        <v>241</v>
+      </c>
+      <c r="G16" s="18">
+        <f>E16*0.00006</f>
+        <v>7.23</v>
+      </c>
+      <c r="H16" s="18">
+        <f>E16*0.00001</f>
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="I16" s="18">
+        <f>(F16+G16+H16)*0.07</f>
+        <v>17.460450000000002</v>
+      </c>
+      <c r="J16" s="18">
+        <f>E16+F16+I16+G16+H16</f>
+        <v>120766.89545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="21" customFormat="1">
+      <c r="A17" s="55">
+        <v>45896</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <f>C16</f>
+        <v>5000</v>
+      </c>
+      <c r="D17" s="34">
+        <v>23.4</v>
+      </c>
+      <c r="E17" s="11">
+        <f>C17*D17</f>
+        <v>117000</v>
+      </c>
+      <c r="F17" s="35">
+        <f>E17*0.002</f>
+        <v>234</v>
+      </c>
+      <c r="G17" s="34">
+        <f>E17*0.000068</f>
+        <v>7.9559999999999995</v>
+      </c>
+      <c r="H17" s="34">
+        <f>E17*0.00001</f>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="I17" s="34">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>17.018820000000002</v>
+      </c>
+      <c r="J17" s="34">
+        <f>E17-F17-G17-H17-I17</f>
+        <v>116739.85518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="21" customFormat="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="12">
+        <f>(D17-D16)/D16</f>
+        <v>-2.9045643153527086E-2</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="20">
+        <f>E17-E16</f>
+        <v>-3500</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20">
+        <f>J17-J16</f>
+        <v>-4027.0402699999977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="J19" s="53">
+        <f>J15+J18</f>
+        <v>472.95973000000231</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1305" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1826BFF6-CF6E-4CAD-B465-C4D8BD1AD157}"/>
+  <xr:revisionPtr revIDLastSave="1309" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47100C67-9E5D-4673-9CD7-4AB2DAB9BFA0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11016" yWindow="2040" windowWidth="11676" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10692" yWindow="1644" windowWidth="11292" windowHeight="9960" tabRatio="461" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -13706,8 +13706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -14671,39 +14671,39 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" s="62" customFormat="1" ht="21">
-      <c r="A27" s="55">
-        <v>45747</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="A27" s="49">
+        <v>45887</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
         <v>5000</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="41">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="68">
         <f>C27*D27</f>
         <v>11000</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <f>E27*0.002</f>
         <v>22</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <f>E27*0.00006</f>
         <v>0.66</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="18">
         <f>E27*0.00001</f>
         <v>0.11000000000000001</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="18">
         <f>(F27+G27+H27)*0.07</f>
         <v>1.5939000000000001</v>
       </c>
-      <c r="J27" s="61">
+      <c r="J27" s="68">
         <f>E27+F27+I27+G27+H27</f>
         <v>11024.3639</v>
       </c>
@@ -14715,7 +14715,7 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="49">
-        <v>45887</v>
+        <v>45897</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>2</v>
@@ -14761,21 +14761,21 @@
       <c r="A29" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="30">
         <f>(D28-D27)/D27</f>
         <v>4.5454545454545289E-2</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="20">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18">
         <f>E28-E27</f>
         <v>500</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18">
         <f>J28-J27</f>
         <v>450.06631000000016</v>
       </c>
@@ -29213,7 +29213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1309" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47100C67-9E5D-4673-9CD7-4AB2DAB9BFA0}"/>
+  <xr:revisionPtr revIDLastSave="1310" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C904705-12B4-4FA1-BEC3-917DD5F67B68}"/>
   <bookViews>
-    <workbookView xWindow="10692" yWindow="1644" windowWidth="11292" windowHeight="9960" tabRatio="461" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10692" yWindow="1644" windowWidth="11292" windowHeight="9960" tabRatio="461" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KCE" sheetId="206" r:id="rId1"/>
@@ -191,7 +191,7 @@
     <t>ORI-W2</t>
   </si>
   <si>
-    <t>DIVISEND</t>
+    <t>DIVIDEND</t>
   </si>
 </sst>
 </file>
@@ -13706,7 +13706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:J29"/>
     </sheetView>
   </sheetViews>
@@ -29213,8 +29213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1348" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D11E697-003C-4039-A965-2600DD1138C7}"/>
+  <xr:revisionPtr revIDLastSave="1372" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4CE1E0-AD57-401D-B6F1-A41B94AA049F}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10116" windowHeight="9960" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1908" yWindow="0" windowWidth="19164" windowHeight="12336" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -2664,10 +2664,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -4439,40 +4439,40 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="13">
-        <v>45756</v>
+        <v>45883</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C49" s="15">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D49" s="38">
-        <v>7.5</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="E49" s="17">
         <f>C49*D49</f>
-        <v>37500</v>
+        <v>84500</v>
       </c>
       <c r="F49" s="17">
         <f>E49*0.002</f>
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="G49" s="17">
         <f>E49*0.000068</f>
-        <v>2.5499999999999998</v>
+        <v>5.7459999999999996</v>
       </c>
       <c r="H49" s="17">
         <f>E49*0.00001</f>
-        <v>0.37500000000000006</v>
+        <v>0.84500000000000008</v>
       </c>
       <c r="I49" s="17">
         <f>(F49+G49+H49)*0.07</f>
-        <v>5.4547500000000007</v>
+        <v>12.291370000000002</v>
       </c>
       <c r="J49" s="17">
         <f>E49+F49+I49+G49+H49</f>
-        <v>37583.37975</v>
+        <v>84687.882370000007</v>
       </c>
       <c r="K49" s="20"/>
     </row>
@@ -4480,597 +4480,518 @@
       <c r="A50" s="39"/>
       <c r="B50" s="82">
         <f>(D49-D48)/D48</f>
-        <v>-0.46043165467625902</v>
+        <v>-0.39208633093525186</v>
       </c>
       <c r="C50" s="5">
         <f>SUM(C48:C49)</f>
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="D50" s="34">
         <f>E50/C50</f>
-        <v>13.1</v>
+        <v>12.688888888888888</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" ref="E50:J50" si="19">SUM(E48:E49)</f>
-        <v>524000</v>
+        <v>571000</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="19"/>
-        <v>1048</v>
+        <v>1142</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" si="19"/>
-        <v>35.631999999999998</v>
+        <v>38.828000000000003</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="19"/>
-        <v>5.24</v>
+        <v>5.71</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="19"/>
-        <v>76.221040000000016</v>
+        <v>83.057660000000013</v>
       </c>
       <c r="J50" s="5">
         <f t="shared" si="19"/>
-        <v>525165.09303999995</v>
+        <v>572269.59565999999</v>
       </c>
       <c r="K50" s="23"/>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="13">
+    <row r="51" spans="1:11" s="20" customFormat="1">
+      <c r="A51" s="7">
         <v>45883</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="15">
-        <v>10000</v>
-      </c>
-      <c r="D51" s="38">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="E51" s="17">
+      <c r="B51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D51" s="43">
+        <v>7.8</v>
+      </c>
+      <c r="E51" s="19">
         <f>C51*D51</f>
-        <v>84500</v>
-      </c>
-      <c r="F51" s="17">
+        <v>39000</v>
+      </c>
+      <c r="F51" s="19">
         <f>E51*0.002</f>
-        <v>169</v>
-      </c>
-      <c r="G51" s="17">
+        <v>78</v>
+      </c>
+      <c r="G51" s="19">
         <f>E51*0.000068</f>
-        <v>5.7459999999999996</v>
-      </c>
-      <c r="H51" s="17">
+        <v>2.6520000000000001</v>
+      </c>
+      <c r="H51" s="19">
         <f>E51*0.00001</f>
-        <v>0.84500000000000008</v>
-      </c>
-      <c r="I51" s="17">
+        <v>0.39</v>
+      </c>
+      <c r="I51" s="19">
         <f>(F51+G51+H51)*0.07</f>
-        <v>12.291370000000002</v>
-      </c>
-      <c r="J51" s="17">
+        <v>5.6729400000000005</v>
+      </c>
+      <c r="J51" s="19">
         <f>E51+F51+I51+G51+H51</f>
-        <v>84687.882370000007</v>
-      </c>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="39"/>
-      <c r="B52" s="82">
+        <v>39086.714939999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="20" customFormat="1">
+      <c r="A52" s="41"/>
+      <c r="B52" s="76">
         <f>(D51-D50)/D50</f>
-        <v>-0.35496183206106874</v>
-      </c>
-      <c r="C52" s="5">
+        <v>-0.38528896672504376</v>
+      </c>
+      <c r="C52" s="21">
         <f>SUM(C50:C51)</f>
         <v>50000</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="31">
         <f>E52/C52</f>
-        <v>12.17</v>
-      </c>
-      <c r="E52" s="5">
+        <v>12.2</v>
+      </c>
+      <c r="E52" s="21">
         <f t="shared" ref="E52:J52" si="20">SUM(E50:E51)</f>
-        <v>608500</v>
-      </c>
-      <c r="F52" s="5">
+        <v>610000</v>
+      </c>
+      <c r="F52" s="21">
         <f t="shared" si="20"/>
-        <v>1217</v>
-      </c>
-      <c r="G52" s="5">
+        <v>1220</v>
+      </c>
+      <c r="G52" s="21">
         <f t="shared" si="20"/>
-        <v>41.378</v>
-      </c>
-      <c r="H52" s="5">
+        <v>41.480000000000004</v>
+      </c>
+      <c r="H52" s="21">
         <f t="shared" si="20"/>
-        <v>6.085</v>
-      </c>
-      <c r="I52" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="I52" s="21">
         <f t="shared" si="20"/>
-        <v>88.512410000000017</v>
-      </c>
-      <c r="J52" s="5">
+        <v>88.73060000000001</v>
+      </c>
+      <c r="J52" s="21">
         <f t="shared" si="20"/>
-        <v>609852.97540999996</v>
+        <v>611356.31059999997</v>
       </c>
       <c r="K52" s="23"/>
     </row>
-    <row r="53" spans="1:11" s="20" customFormat="1">
-      <c r="A53" s="7">
-        <v>45883</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="9">
+    <row r="54" spans="1:11" s="20" customFormat="1">
+      <c r="A54" s="13">
+        <v>43630</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="15">
         <v>10000</v>
       </c>
-      <c r="D53" s="43">
-        <v>8.15</v>
-      </c>
-      <c r="E53" s="19">
-        <f>C53*D53</f>
-        <v>81500</v>
-      </c>
-      <c r="F53" s="19">
-        <f>E53*0.002</f>
-        <v>163</v>
-      </c>
-      <c r="G53" s="19">
-        <f>E53*0.000068</f>
-        <v>5.5419999999999998</v>
-      </c>
-      <c r="H53" s="19">
-        <f>E53*0.00001</f>
-        <v>0.81500000000000006</v>
-      </c>
-      <c r="I53" s="19">
-        <f>(F53+G53+H53)*0.07</f>
-        <v>11.854990000000001</v>
-      </c>
-      <c r="J53" s="19">
-        <f>E53+F53+I53+G53+H53</f>
-        <v>81681.211990000011</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="20" customFormat="1">
-      <c r="A54" s="41"/>
-      <c r="B54" s="76">
-        <f>(D53-D52)/D52</f>
-        <v>-0.33032046014790467</v>
-      </c>
-      <c r="C54" s="21">
-        <f>SUM(C52:C53)</f>
-        <v>60000</v>
-      </c>
-      <c r="D54" s="31">
-        <f>E54/C54</f>
-        <v>11.5</v>
-      </c>
-      <c r="E54" s="21">
-        <f t="shared" ref="E54:J54" si="21">SUM(E52:E53)</f>
-        <v>690000</v>
-      </c>
-      <c r="F54" s="21">
-        <f t="shared" si="21"/>
-        <v>1380</v>
-      </c>
-      <c r="G54" s="21">
-        <f t="shared" si="21"/>
-        <v>46.92</v>
-      </c>
-      <c r="H54" s="21">
-        <f t="shared" si="21"/>
-        <v>6.9</v>
-      </c>
-      <c r="I54" s="21">
-        <f t="shared" si="21"/>
-        <v>100.36740000000002</v>
-      </c>
-      <c r="J54" s="21">
-        <f t="shared" si="21"/>
-        <v>691534.18739999994</v>
-      </c>
-      <c r="K54" s="23"/>
-    </row>
-    <row r="56" spans="1:11" s="20" customFormat="1">
-      <c r="A56" s="13">
-        <v>43630</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="15">
+      <c r="D54" s="38">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E54" s="17">
+        <f>C54*D54</f>
+        <v>166000</v>
+      </c>
+      <c r="F54" s="17">
+        <f>E54*0.002</f>
+        <v>332</v>
+      </c>
+      <c r="G54" s="17">
+        <f>E54*0.000068</f>
+        <v>11.288</v>
+      </c>
+      <c r="H54" s="17">
+        <f>E54*0.00001</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="I54" s="17">
+        <f>(F54+G54+H54)*0.07</f>
+        <v>24.146360000000005</v>
+      </c>
+      <c r="J54" s="17">
+        <f>E54+F54+I54+G54+H54</f>
+        <v>166369.09436000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="12" customFormat="1">
+      <c r="A55" s="13">
+        <v>43643</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="15">
+        <f>C54</f>
         <v>10000</v>
       </c>
-      <c r="D56" s="38">
-        <v>16.600000000000001</v>
-      </c>
+      <c r="D55" s="24">
+        <v>16.7</v>
+      </c>
+      <c r="E55" s="16">
+        <f>C55*D55</f>
+        <v>167000</v>
+      </c>
+      <c r="F55" s="25">
+        <f>E55*0.002</f>
+        <v>334</v>
+      </c>
+      <c r="G55" s="24">
+        <f>E55*0.000068</f>
+        <v>11.356</v>
+      </c>
+      <c r="H55" s="24">
+        <f>E55*0.00001</f>
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="I55" s="24">
+        <f>(F55+G55+H55)*0.07</f>
+        <v>24.291820000000001</v>
+      </c>
+      <c r="J55" s="24">
+        <f>E55-F55-G55-H55-I55</f>
+        <v>166628.68217999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A56" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="17">
-        <f>C56*D56</f>
-        <v>166000</v>
-      </c>
-      <c r="F56" s="17">
-        <f>E56*0.002</f>
-        <v>332</v>
-      </c>
-      <c r="G56" s="17">
-        <f>E56*0.000068</f>
-        <v>11.288</v>
-      </c>
-      <c r="H56" s="17">
-        <f>E56*0.00001</f>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="I56" s="17">
-        <f>(F56+G56+H56)*0.07</f>
-        <v>24.146360000000005</v>
-      </c>
+        <f>E55-E54</f>
+        <v>1000</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
       <c r="J56" s="17">
-        <f>E56+F56+I56+G56+H56</f>
-        <v>166369.09436000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+        <f>J55-J54</f>
+        <v>259.58781999995699</v>
+      </c>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" s="20" customFormat="1">
       <c r="A57" s="13">
-        <v>43643</v>
+        <v>45100</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D57" s="38">
+        <v>10.6</v>
+      </c>
+      <c r="E57" s="17">
+        <f>C57*D57</f>
+        <v>21200</v>
+      </c>
+      <c r="F57" s="17">
+        <f>E57*0.002</f>
+        <v>42.4</v>
+      </c>
+      <c r="G57" s="17">
+        <f>E57*0.000068</f>
+        <v>1.4416</v>
+      </c>
+      <c r="H57" s="17">
+        <f>E57*0.00001</f>
+        <v>0.21200000000000002</v>
+      </c>
+      <c r="I57" s="17">
+        <f>(F57+G57+H57)*0.07</f>
+        <v>3.0837520000000005</v>
+      </c>
+      <c r="J57" s="17">
+        <f>E57+F57+I57+G57+H57</f>
+        <v>21247.137351999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="12" customFormat="1">
+      <c r="A58" s="13">
+        <v>45106</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="15">
-        <f>C56</f>
-        <v>10000</v>
-      </c>
-      <c r="D57" s="24">
-        <v>16.7</v>
-      </c>
-      <c r="E57" s="16">
-        <f>C57*D57</f>
-        <v>167000</v>
-      </c>
-      <c r="F57" s="25">
-        <f>E57*0.002</f>
-        <v>334</v>
-      </c>
-      <c r="G57" s="24">
-        <f>E57*0.000068</f>
-        <v>11.356</v>
-      </c>
-      <c r="H57" s="24">
-        <f>E57*0.00001</f>
-        <v>1.6700000000000002</v>
-      </c>
-      <c r="I57" s="24">
-        <f>(F57+G57+H57)*0.07</f>
-        <v>24.291820000000001</v>
-      </c>
-      <c r="J57" s="24">
-        <f>E57-F57-G57-H57-I57</f>
-        <v>166628.68217999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
-      <c r="A58" s="13" t="s">
+      <c r="C58" s="15">
+        <f>C57</f>
+        <v>2000</v>
+      </c>
+      <c r="D58" s="24">
+        <v>11.2</v>
+      </c>
+      <c r="E58" s="16">
+        <f>C58*D58</f>
+        <v>22400</v>
+      </c>
+      <c r="F58" s="25">
+        <f>E58*0.002</f>
+        <v>44.800000000000004</v>
+      </c>
+      <c r="G58" s="24">
+        <f>E58*0.000068</f>
+        <v>1.5231999999999999</v>
+      </c>
+      <c r="H58" s="24">
+        <f>E58*0.00001</f>
+        <v>0.224</v>
+      </c>
+      <c r="I58" s="24">
+        <f>(F58+G58+H58)*0.07</f>
+        <v>3.2583040000000008</v>
+      </c>
+      <c r="J58" s="24">
+        <f>E58-F58-G58-H58-I58</f>
+        <v>22350.194496000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A59" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17">
-        <f>E57-E56</f>
-        <v>1000</v>
-      </c>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17">
-        <f>J57-J56</f>
-        <v>259.58781999995699</v>
-      </c>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" s="20" customFormat="1">
-      <c r="A59" s="13">
-        <v>45100</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="15">
-        <v>2000</v>
-      </c>
-      <c r="D59" s="38">
-        <v>10.6</v>
-      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="17">
-        <f>C59*D59</f>
-        <v>21200</v>
-      </c>
-      <c r="F59" s="17">
-        <f>E59*0.002</f>
-        <v>42.4</v>
-      </c>
-      <c r="G59" s="17">
-        <f>E59*0.000068</f>
-        <v>1.4416</v>
-      </c>
-      <c r="H59" s="17">
-        <f>E59*0.00001</f>
-        <v>0.21200000000000002</v>
-      </c>
-      <c r="I59" s="17">
-        <f>(F59+G59+H59)*0.07</f>
-        <v>3.0837520000000005</v>
-      </c>
+        <f>E58-E57</f>
+        <v>1200</v>
+      </c>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="17">
-        <f>E59+F59+I59+G59+H59</f>
-        <v>21247.137351999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+        <f>J58-J57</f>
+        <v>1103.0571440000058</v>
+      </c>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" s="20" customFormat="1">
       <c r="A60" s="13">
-        <v>45106</v>
+        <v>45330</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D60" s="38">
+        <v>7.95</v>
+      </c>
+      <c r="E60" s="17">
+        <f>C60*D60</f>
+        <v>23850</v>
+      </c>
+      <c r="F60" s="17">
+        <f>E60*0.002</f>
+        <v>47.7</v>
+      </c>
+      <c r="G60" s="17">
+        <f>E60*0.000068</f>
+        <v>1.6217999999999999</v>
+      </c>
+      <c r="H60" s="17">
+        <f>E60*0.00001</f>
+        <v>0.23850000000000002</v>
+      </c>
+      <c r="I60" s="17">
+        <f>(F60+G60+H60)*0.07</f>
+        <v>3.4692210000000006</v>
+      </c>
+      <c r="J60" s="17">
+        <f>E60+F60+I60+G60+H60</f>
+        <v>23903.029521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="12" customFormat="1">
+      <c r="A61" s="13">
+        <v>45355</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="15">
-        <f>C59</f>
-        <v>2000</v>
-      </c>
-      <c r="D60" s="24">
-        <v>11.2</v>
-      </c>
-      <c r="E60" s="16">
-        <f>C60*D60</f>
-        <v>22400</v>
-      </c>
-      <c r="F60" s="25">
-        <f>E60*0.002</f>
-        <v>44.800000000000004</v>
-      </c>
-      <c r="G60" s="24">
-        <f>E60*0.000068</f>
-        <v>1.5231999999999999</v>
-      </c>
-      <c r="H60" s="24">
-        <f>E60*0.00001</f>
-        <v>0.224</v>
-      </c>
-      <c r="I60" s="24">
-        <f>(F60+G60+H60)*0.07</f>
-        <v>3.2583040000000008</v>
-      </c>
-      <c r="J60" s="24">
-        <f>E60-F60-G60-H60-I60</f>
-        <v>22350.194496000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
-      <c r="A61" s="13" t="s">
+      <c r="C61" s="15">
+        <f>C60</f>
+        <v>3000</v>
+      </c>
+      <c r="D61" s="24">
+        <v>7.9</v>
+      </c>
+      <c r="E61" s="16">
+        <f>C61*D61</f>
+        <v>23700</v>
+      </c>
+      <c r="F61" s="25">
+        <f>E61*0.002</f>
+        <v>47.4</v>
+      </c>
+      <c r="G61" s="24">
+        <f>E61*0.000068</f>
+        <v>1.6115999999999999</v>
+      </c>
+      <c r="H61" s="24">
+        <f>E61*0.00001</f>
+        <v>0.23700000000000002</v>
+      </c>
+      <c r="I61" s="24">
+        <f>(F61+G61+H61)*0.07</f>
+        <v>3.4474020000000007</v>
+      </c>
+      <c r="J61" s="24">
+        <f>E61-F61-G61-H61-I61</f>
+        <v>23647.303997999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A62" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="17">
-        <f>E60-E59</f>
-        <v>1200</v>
-      </c>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17">
-        <f>J60-J59</f>
-        <v>1103.0571440000058</v>
-      </c>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" s="20" customFormat="1">
-      <c r="A62" s="13">
-        <v>45330</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D62" s="38">
-        <v>7.95</v>
-      </c>
+      <c r="B62" s="6">
+        <f>J62/J60</f>
+        <v>-1.0698456560719093E-2</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="17">
-        <f>C62*D62</f>
-        <v>23850</v>
-      </c>
-      <c r="F62" s="17">
-        <f>E62*0.002</f>
-        <v>47.7</v>
-      </c>
-      <c r="G62" s="17">
-        <f>E62*0.000068</f>
-        <v>1.6217999999999999</v>
-      </c>
-      <c r="H62" s="17">
-        <f>E62*0.00001</f>
-        <v>0.23850000000000002</v>
-      </c>
-      <c r="I62" s="17">
-        <f>(F62+G62+H62)*0.07</f>
-        <v>3.4692210000000006</v>
-      </c>
+        <f>E61-E60</f>
+        <v>-150</v>
+      </c>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="17">
-        <f>E62+F62+I62+G62+H62</f>
-        <v>23903.029521</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+        <f>J61-J60</f>
+        <v>-255.72552300000461</v>
+      </c>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="13">
-        <v>45355</v>
+        <v>45756</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D63" s="38">
+        <v>7.5</v>
+      </c>
+      <c r="E63" s="17">
+        <f>C63*D63</f>
+        <v>37500</v>
+      </c>
+      <c r="F63" s="17">
+        <f>E63*0.002</f>
+        <v>75</v>
+      </c>
+      <c r="G63" s="17">
+        <f>E63*0.000068</f>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H63" s="17">
+        <f>E63*0.00001</f>
+        <v>0.37500000000000006</v>
+      </c>
+      <c r="I63" s="17">
+        <f>(F63+G63+H63)*0.07</f>
+        <v>5.4547500000000007</v>
+      </c>
+      <c r="J63" s="17">
+        <f>E63+F63+I63+G63+H63</f>
+        <v>37583.37975</v>
+      </c>
+      <c r="K63" s="20"/>
+    </row>
+    <row r="64" spans="1:11" s="12" customFormat="1">
+      <c r="A64" s="13">
+        <v>45903</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="15">
-        <f>C62</f>
-        <v>3000</v>
-      </c>
-      <c r="D63" s="24">
-        <v>7.9</v>
-      </c>
-      <c r="E63" s="16">
-        <f>C63*D63</f>
-        <v>23700</v>
-      </c>
-      <c r="F63" s="25">
-        <f>E63*0.002</f>
-        <v>47.4</v>
-      </c>
-      <c r="G63" s="24">
-        <f>E63*0.000068</f>
-        <v>1.6115999999999999</v>
-      </c>
-      <c r="H63" s="24">
-        <f>E63*0.00001</f>
-        <v>0.23700000000000002</v>
-      </c>
-      <c r="I63" s="24">
-        <f>(F63+G63+H63)*0.07</f>
-        <v>3.4474020000000007</v>
-      </c>
-      <c r="J63" s="24">
-        <f>E63-F63-G63-H63-I63</f>
-        <v>23647.303997999996</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
-      <c r="A64" s="13" t="s">
+      <c r="C64" s="15">
+        <f>C63</f>
+        <v>5000</v>
+      </c>
+      <c r="D64" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E64" s="16">
+        <f>C64*D64</f>
+        <v>41500</v>
+      </c>
+      <c r="F64" s="25">
+        <f>E64*0.002</f>
+        <v>83</v>
+      </c>
+      <c r="G64" s="24">
+        <f>E64*0.000068</f>
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="H64" s="24">
+        <f>E64*0.00001</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="I64" s="24">
+        <f>(F64+G64+H64)*0.07</f>
+        <v>6.0365900000000012</v>
+      </c>
+      <c r="J64" s="24">
+        <f>E64-F64-G64-H64-I64</f>
+        <v>41407.726409999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A65" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="6">
-        <f>J64/J62</f>
-        <v>-1.0698456560719093E-2</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="17">
-        <f>E63-E62</f>
-        <v>-150</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17">
-        <f>J63-J62</f>
-        <v>-255.72552300000461</v>
-      </c>
-      <c r="K64" s="11"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="13">
-        <v>45756</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C65" s="15">
-        <v>5000</v>
-      </c>
-      <c r="D65" s="38">
-        <v>7.5</v>
-      </c>
+      <c r="B65" s="6">
+        <f>J65/J63</f>
+        <v>0.10175632647832838</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="17">
-        <f>C65*D65</f>
-        <v>37500</v>
-      </c>
-      <c r="F65" s="17">
-        <f>E65*0.002</f>
-        <v>75</v>
-      </c>
-      <c r="G65" s="17">
-        <f>E65*0.000068</f>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H65" s="17">
-        <f>E65*0.00001</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="I65" s="17">
-        <f>(F65+G65+H65)*0.07</f>
-        <v>5.4547500000000007</v>
-      </c>
+        <f>E64-E63</f>
+        <v>4000</v>
+      </c>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="17">
-        <f>E65+F65+I65+G65+H65</f>
-        <v>37583.37975</v>
-      </c>
-      <c r="K65" s="20"/>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
-      <c r="A66" s="7">
-        <v>45355</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="9">
-        <f>C65</f>
-        <v>5000</v>
-      </c>
-      <c r="D66" s="32">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E66" s="10">
-        <f>C66*D66</f>
-        <v>41500</v>
-      </c>
-      <c r="F66" s="33">
-        <f>E66*0.002</f>
-        <v>83</v>
-      </c>
-      <c r="G66" s="32">
-        <f>E66*0.000068</f>
-        <v>2.8220000000000001</v>
-      </c>
-      <c r="H66" s="32">
-        <f>E66*0.00001</f>
-        <v>0.41500000000000004</v>
-      </c>
-      <c r="I66" s="32">
-        <f>(F66+G66+H66)*0.07</f>
-        <v>6.0365900000000012</v>
-      </c>
-      <c r="J66" s="32">
-        <f>E66-F66-G66-H66-I66</f>
-        <v>41407.726409999996</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="29" customFormat="1" ht="18.600000000000001">
-      <c r="A67" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="23">
-        <f>J67/J65</f>
-        <v>0.10175632647832838</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="19">
-        <f>E66-E65</f>
-        <v>4000</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19">
-        <f>J66-J65</f>
+        <f>J64-J63</f>
         <v>3824.3466599999956</v>
       </c>
-      <c r="K67" s="11"/>
+      <c r="K65" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7190,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -8101,6 +8022,108 @@
         <v>347.55728319999616</v>
       </c>
       <c r="M32" s="20"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="52">
+        <v>45876</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D34" s="43">
+        <v>9</v>
+      </c>
+      <c r="E34" s="19">
+        <f>C34*D34</f>
+        <v>45000</v>
+      </c>
+      <c r="F34" s="19">
+        <f>E34*0.002</f>
+        <v>90</v>
+      </c>
+      <c r="G34" s="19">
+        <f>E34*0.00006</f>
+        <v>2.7</v>
+      </c>
+      <c r="H34" s="19">
+        <f>E34*0.00001</f>
+        <v>0.45</v>
+      </c>
+      <c r="I34" s="19">
+        <f>(F34+G34+H34)*0.07</f>
+        <v>6.5205000000000011</v>
+      </c>
+      <c r="J34" s="19">
+        <f>E34+F34+I34+G34+H34</f>
+        <v>45099.670499999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="52">
+        <v>45876</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D35" s="32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E35" s="10">
+        <f>C35*D35</f>
+        <v>46000</v>
+      </c>
+      <c r="F35" s="33">
+        <f>E35*0.002</f>
+        <v>92</v>
+      </c>
+      <c r="G35" s="32">
+        <f>E35*0.000068</f>
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="H35" s="32">
+        <f>E35*0.00001</f>
+        <v>0.46</v>
+      </c>
+      <c r="I35" s="32">
+        <f>(F35+G35+H35)*0.07</f>
+        <v>6.69116</v>
+      </c>
+      <c r="J35" s="32">
+        <f>E35-F35-G35-H35-I35</f>
+        <v>45897.720840000002</v>
+      </c>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8">
+        <f>DAYS360(A34,A35)</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="11">
+        <f>(D35-D34)/D34</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="19">
+        <f>E35-E34</f>
+        <v>1000</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19">
+        <f>J35-J34</f>
+        <v>798.05034000000887</v>
+      </c>
+      <c r="M36" s="20"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -21077,7 +21100,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -21373,10 +21396,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -21390,7 +21413,7 @@
     <col min="7" max="7" width="6.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="10" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="20"/>
     <col min="13" max="13" width="8.88671875" style="23"/>
@@ -21607,6 +21630,103 @@
       <c r="L6" s="12"/>
       <c r="M6" s="58"/>
       <c r="N6" s="58"/>
+    </row>
+    <row r="8" spans="1:14" s="12" customFormat="1">
+      <c r="A8" s="36">
+        <v>45175</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>8000</v>
+      </c>
+      <c r="D8" s="16">
+        <v>24</v>
+      </c>
+      <c r="E8" s="17">
+        <v>192000</v>
+      </c>
+      <c r="F8" s="17">
+        <v>384</v>
+      </c>
+      <c r="G8" s="17">
+        <v>11.52</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.9200000000000002</v>
+      </c>
+      <c r="I8" s="17">
+        <v>27.820800000000006</v>
+      </c>
+      <c r="J8" s="17">
+        <v>192425.26079999999</v>
+      </c>
+      <c r="K8" s="27"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1">
+      <c r="A9" s="52">
+        <v>44923</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <f>C8</f>
+        <v>8000</v>
+      </c>
+      <c r="D9" s="32">
+        <v>26.5</v>
+      </c>
+      <c r="E9" s="10">
+        <f>C9*D9</f>
+        <v>212000</v>
+      </c>
+      <c r="F9" s="33">
+        <f>E9*0.002</f>
+        <v>424</v>
+      </c>
+      <c r="G9" s="32">
+        <f>E9*0.000068</f>
+        <v>14.416</v>
+      </c>
+      <c r="H9" s="32">
+        <f>E9*0.00001</f>
+        <v>2.12</v>
+      </c>
+      <c r="I9" s="32">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>30.837520000000001</v>
+      </c>
+      <c r="J9" s="32">
+        <f>E9-F9-G9-H9-I9</f>
+        <v>211528.62648000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1">
+      <c r="A10" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
+        <f>J10/J8</f>
+        <v>9.9276808047854895E-2</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="19">
+        <f>E9-E8</f>
+        <v>20000</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19">
+        <f>J9-J8</f>
+        <v>19103.365680000017</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1372" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4CE1E0-AD57-401D-B6F1-A41B94AA049F}"/>
+  <xr:revisionPtr revIDLastSave="1391" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C84CB9-71B8-4F36-8D51-6918D5333E81}"/>
   <bookViews>
-    <workbookView xWindow="1908" yWindow="0" windowWidth="19164" windowHeight="12336" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11592" yWindow="0" windowWidth="10728" windowHeight="12336" tabRatio="461" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -455,6 +455,7 @@
     <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12760,10 +12761,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:J29"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13888,6 +13889,121 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
+    </row>
+    <row r="33" spans="1:15" s="59" customFormat="1" ht="21">
+      <c r="A33" s="52">
+        <v>45887</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <f>C34</f>
+        <v>10000</v>
+      </c>
+      <c r="D33" s="43">
+        <v>2.62</v>
+      </c>
+      <c r="E33" s="58">
+        <f>C33*D33</f>
+        <v>26200</v>
+      </c>
+      <c r="F33" s="19">
+        <f>E33*0.002</f>
+        <v>52.4</v>
+      </c>
+      <c r="G33" s="19">
+        <f>E33*0.00006</f>
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="H33" s="19">
+        <f>E33*0.00001</f>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I33" s="19">
+        <f>(F33+G33+H33)*0.07</f>
+        <v>3.7963800000000005</v>
+      </c>
+      <c r="J33" s="58">
+        <f>E33+F33+I33+G33+H33</f>
+        <v>26258.03038</v>
+      </c>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="46">
+        <v>45908</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D34" s="24">
+        <v>2.72</v>
+      </c>
+      <c r="E34" s="16">
+        <f>C34*D34</f>
+        <v>27200.000000000004</v>
+      </c>
+      <c r="F34" s="25">
+        <f>E34*0.002</f>
+        <v>54.400000000000006</v>
+      </c>
+      <c r="G34" s="24">
+        <f>E34*0.000068</f>
+        <v>1.8496000000000001</v>
+      </c>
+      <c r="H34" s="24">
+        <f>E34*0.00001</f>
+        <v>0.27200000000000008</v>
+      </c>
+      <c r="I34" s="24">
+        <f>(F34+G34+H34)*0.07</f>
+        <v>3.9565120000000009</v>
+      </c>
+      <c r="J34" s="24">
+        <f>E34-F34-G34-H34-I34</f>
+        <v>27139.521887999999</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="11">
+        <f>(D34-D33)/D33</f>
+        <v>3.8167938931297746E-2</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="19">
+        <f>E34-E33</f>
+        <v>1000.0000000000036</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19">
+        <f>J34-J33</f>
+        <v>881.49150799999916</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -14190,10 +14306,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -15450,352 +15566,430 @@
       <c r="K32" s="23"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" spans="1:14" s="12" customFormat="1">
-      <c r="A33" s="83"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="1:14" s="29" customFormat="1" ht="18.600000000000001">
-      <c r="A34" s="46">
+    <row r="33" spans="1:14">
+      <c r="A33" s="52">
+        <v>45887</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>26</v>
+      </c>
+      <c r="E33" s="19">
+        <f>C33*D33</f>
+        <v>78000</v>
+      </c>
+      <c r="F33" s="19">
+        <f>E33*0.002</f>
+        <v>156</v>
+      </c>
+      <c r="G33" s="19">
+        <f>E33*0.000068</f>
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="H33" s="19">
+        <f>E33*0.00001</f>
+        <v>0.78</v>
+      </c>
+      <c r="I33" s="19">
+        <f>(F33+G33+H33)*0.07</f>
+        <v>11.345880000000001</v>
+      </c>
+      <c r="J33" s="19">
+        <f>E33+F33+I33+G33+H33</f>
+        <v>78173.429879999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="23">
+        <f>(D33-D32)/D32</f>
+        <v>-0.32951289398280803</v>
+      </c>
+      <c r="C34" s="21">
+        <f>SUM(C32:C33)</f>
+        <v>30000</v>
+      </c>
+      <c r="D34" s="61">
+        <f>E34/C34</f>
+        <v>37.5</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" ref="E34:J34" si="12">SUM(E32:E33)</f>
+        <v>1125000</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="12"/>
+        <v>2250</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="12"/>
+        <v>76.500000000000014</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="12"/>
+        <v>11.25</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="12"/>
+        <v>163.64250000000001</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="12"/>
+        <v>1127501.3924999998</v>
+      </c>
+      <c r="K34" s="23"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" s="12" customFormat="1">
+      <c r="A35" s="83"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A36" s="46">
         <v>44846</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="15">
+      <c r="B36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
         <v>3000</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D36" s="16">
         <v>27.75</v>
       </c>
-      <c r="E34" s="17">
-        <f>C34*D34</f>
+      <c r="E36" s="17">
+        <f>C36*D36</f>
         <v>83250</v>
       </c>
-      <c r="F34" s="17">
-        <f>E34*0.002</f>
+      <c r="F36" s="17">
+        <f>E36*0.002</f>
         <v>166.5</v>
       </c>
-      <c r="G34" s="17">
-        <f>E34*0.000068</f>
+      <c r="G36" s="17">
+        <f>E36*0.000068</f>
         <v>5.6609999999999996</v>
       </c>
-      <c r="H34" s="17">
-        <f>E34*0.00001</f>
+      <c r="H36" s="17">
+        <f>E36*0.00001</f>
         <v>0.83250000000000002</v>
       </c>
-      <c r="I34" s="17">
-        <f>(F34+G34+H34)*0.07</f>
+      <c r="I36" s="17">
+        <f>(F36+G36+H36)*0.07</f>
         <v>12.109545000000002</v>
       </c>
-      <c r="J34" s="17">
-        <f>E34+F34+I34+G34+H34</f>
+      <c r="J36" s="17">
+        <f>E36+F36+I36+G36+H36</f>
         <v>83435.103044999996</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="46">
+      <c r="K36" s="30"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="46">
         <v>44853</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="15">
-        <f>C34</f>
+      <c r="C37" s="15">
+        <f>C36</f>
         <v>3000</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D37" s="24">
         <v>29.25</v>
       </c>
-      <c r="E35" s="16">
-        <f>C35*D35</f>
+      <c r="E37" s="16">
+        <f>C37*D37</f>
         <v>87750</v>
       </c>
-      <c r="F35" s="25">
-        <f>E35*0.002</f>
+      <c r="F37" s="25">
+        <f>E37*0.002</f>
         <v>175.5</v>
       </c>
-      <c r="G35" s="24">
-        <f>E35*0.000068</f>
+      <c r="G37" s="24">
+        <f>E37*0.000068</f>
         <v>5.9669999999999996</v>
       </c>
-      <c r="H35" s="24">
-        <f>E35*0.00001</f>
+      <c r="H37" s="24">
+        <f>E37*0.00001</f>
         <v>0.87750000000000006</v>
       </c>
-      <c r="I35" s="24">
-        <f>(F35+G35+H35)*0.07</f>
+      <c r="I37" s="24">
+        <f>(F37+G37+H37)*0.07</f>
         <v>12.764115000000002</v>
       </c>
-      <c r="J35" s="24">
-        <f>E35-F35-G35-H35-I35</f>
+      <c r="J37" s="24">
+        <f>E37-F37-G37-H37-I37</f>
         <v>87554.891384999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="46">
-        <f>DAYS360(A34,A35)</f>
-        <v>7</v>
-      </c>
-      <c r="B36" s="28">
-        <f>(D35-D34)/D34</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17">
-        <f>E35-E34</f>
-        <v>4500</v>
-      </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17">
-        <f>J35-J34</f>
-        <v>4119.7883399999992</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="59" customFormat="1" ht="21">
-      <c r="A37" s="7">
-        <v>45161</v>
-      </c>
-      <c r="C37" s="9">
-        <f>C38</f>
-        <v>3000</v>
-      </c>
-      <c r="D37" s="60">
-        <v>0.25</v>
-      </c>
-      <c r="E37" s="56">
-        <v>0</v>
-      </c>
-      <c r="F37" s="30">
-        <v>0</v>
-      </c>
-      <c r="G37" s="56">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
-        <f>G37-E37</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="57">
-        <f>C37*D37*0.9</f>
-        <v>675</v>
-      </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="46">
+        <f>DAYS360(A36,A37)</f>
+        <v>7</v>
+      </c>
+      <c r="B38" s="28">
+        <f>(D37-D36)/D36</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17">
+        <f>E37-E36</f>
+        <v>4500</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17">
+        <f>J37-J36</f>
+        <v>4119.7883399999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="59" customFormat="1" ht="21">
+      <c r="A39" s="7">
+        <v>45161</v>
+      </c>
+      <c r="C39" s="9">
+        <f>C40</f>
+        <v>3000</v>
+      </c>
+      <c r="D39" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="56">
+        <v>0</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0</v>
+      </c>
+      <c r="G39" s="56">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <f>G39-E39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="57">
+        <f>C39*D39*0.9</f>
+        <v>675</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="46">
         <v>44854</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="15">
         <v>3000</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D40" s="16">
         <v>27.75</v>
       </c>
-      <c r="E38" s="17">
-        <f>C38*D38</f>
+      <c r="E40" s="17">
+        <f>C40*D40</f>
         <v>83250</v>
       </c>
-      <c r="F38" s="17">
-        <f>E38*0.002</f>
+      <c r="F40" s="17">
+        <f>E40*0.002</f>
         <v>166.5</v>
       </c>
-      <c r="G38" s="17">
-        <f>E38*0.000068</f>
+      <c r="G40" s="17">
+        <f>E40*0.000068</f>
         <v>5.6609999999999996</v>
       </c>
-      <c r="H38" s="17">
-        <f>E38*0.00001</f>
+      <c r="H40" s="17">
+        <f>E40*0.00001</f>
         <v>0.83250000000000002</v>
       </c>
-      <c r="I38" s="17">
-        <f>(F38+G38+H38)*0.07</f>
+      <c r="I40" s="17">
+        <f>(F40+G40+H40)*0.07</f>
         <v>12.109545000000002</v>
       </c>
-      <c r="J38" s="17">
-        <f>E38+F38+I38+G38+H38</f>
+      <c r="J40" s="17">
+        <f>E40+F40+I40+G40+H40</f>
         <v>83435.103044999996</v>
       </c>
-      <c r="M38" s="20"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="46">
-        <v>45877</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="15">
-        <f>C38</f>
-        <v>3000</v>
-      </c>
-      <c r="D39" s="24">
-        <v>31</v>
-      </c>
-      <c r="E39" s="16">
-        <f>C39*D39</f>
-        <v>93000</v>
-      </c>
-      <c r="F39" s="25">
-        <f>E39*0.002</f>
-        <v>186</v>
-      </c>
-      <c r="G39" s="24">
-        <f>E39*0.000068</f>
-        <v>6.3239999999999998</v>
-      </c>
-      <c r="H39" s="24">
-        <f>E39*0.00001</f>
-        <v>0.93</v>
-      </c>
-      <c r="I39" s="24">
-        <f>(F39+G39+H39)*0.07</f>
-        <v>13.527780000000003</v>
-      </c>
-      <c r="J39" s="24">
-        <f>E39-F39-G39-H39-I39</f>
-        <v>92793.21822000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="46"/>
-      <c r="B40" s="28">
-        <f>J40/J38</f>
-        <v>0.11216040771176126</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17">
-        <f>E39-E38</f>
-        <v>9750</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17">
-        <f>J39-J38</f>
-        <v>9358.1151750000136</v>
-      </c>
+      <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="15">
+        <f>C40</f>
+        <v>3000</v>
+      </c>
+      <c r="D41" s="24">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16">
+        <f>C41*D41</f>
+        <v>93000</v>
+      </c>
+      <c r="F41" s="25">
+        <f>E41*0.002</f>
+        <v>186</v>
+      </c>
+      <c r="G41" s="24">
+        <f>E41*0.000068</f>
+        <v>6.3239999999999998</v>
+      </c>
+      <c r="H41" s="24">
+        <f>E41*0.00001</f>
+        <v>0.93</v>
+      </c>
+      <c r="I41" s="24">
+        <f>(F41+G41+H41)*0.07</f>
+        <v>13.527780000000003</v>
+      </c>
+      <c r="J41" s="24">
+        <f>E41-F41-G41-H41-I41</f>
+        <v>92793.21822000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="46"/>
+      <c r="B42" s="28">
+        <f>J42/J40</f>
+        <v>0.11216040771176126</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17">
+        <f>E41-E40</f>
+        <v>9750</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17">
+        <f>J41-J40</f>
+        <v>9358.1151750000136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="46">
         <v>45887</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="15">
+      <c r="B43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15">
         <v>3000</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D43" s="16">
         <v>28</v>
       </c>
-      <c r="E41" s="17">
-        <f>C41*D41</f>
+      <c r="E43" s="17">
+        <f>C43*D43</f>
         <v>84000</v>
       </c>
-      <c r="F41" s="17">
-        <f>E41*0.002</f>
+      <c r="F43" s="17">
+        <f>E43*0.002</f>
         <v>168</v>
       </c>
-      <c r="G41" s="17">
-        <f>E41*0.000068</f>
+      <c r="G43" s="17">
+        <f>E43*0.000068</f>
         <v>5.7119999999999997</v>
       </c>
-      <c r="H41" s="17">
-        <f>E41*0.00001</f>
+      <c r="H43" s="17">
+        <f>E43*0.00001</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="I41" s="17">
-        <f>(F41+G41+H41)*0.07</f>
+      <c r="I43" s="17">
+        <f>(F43+G43+H43)*0.07</f>
         <v>12.218640000000001</v>
       </c>
-      <c r="J41" s="17">
-        <f>E41+F41+I41+G41+H41</f>
+      <c r="J43" s="17">
+        <f>E43+F43+I43+G43+H43</f>
         <v>84186.770640000002</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="52">
+    <row r="44" spans="1:14">
+      <c r="A44" s="46">
         <v>45877</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B44" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="9">
-        <f>C41</f>
+      <c r="C44" s="15">
+        <f>C43</f>
         <v>3000</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D44" s="24">
         <v>31</v>
       </c>
-      <c r="E42" s="10">
-        <f>C42*D42</f>
+      <c r="E44" s="16">
+        <f>C44*D44</f>
         <v>93000</v>
       </c>
-      <c r="F42" s="33">
-        <f>E42*0.002</f>
+      <c r="F44" s="25">
+        <f>E44*0.002</f>
         <v>186</v>
       </c>
-      <c r="G42" s="32">
-        <f>E42*0.000068</f>
+      <c r="G44" s="24">
+        <f>E44*0.000068</f>
         <v>6.3239999999999998</v>
       </c>
-      <c r="H42" s="32">
-        <f>E42*0.00001</f>
+      <c r="H44" s="24">
+        <f>E44*0.00001</f>
         <v>0.93</v>
       </c>
-      <c r="I42" s="32">
-        <f>(F42+G42+H42)*0.07</f>
+      <c r="I44" s="24">
+        <f>(F44+G44+H44)*0.07</f>
         <v>13.527780000000003</v>
       </c>
-      <c r="J42" s="32">
-        <f>E42-F42-G42-H42-I42</f>
+      <c r="J44" s="24">
+        <f>E44-F44-G44-H44-I44</f>
         <v>92793.21822000001</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="52"/>
-      <c r="B43" s="11">
-        <f>J43/J41</f>
+    <row r="45" spans="1:14">
+      <c r="A45" s="46"/>
+      <c r="B45" s="28">
+        <f>J45/J43</f>
         <v>0.1022304040714776</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="19">
-        <f>E42-E41</f>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17">
+        <f>E44-E43</f>
         <v>9000</v>
       </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19">
-        <f>J42-J41</f>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17">
+        <f>J44-J43</f>
         <v>8606.4475800000073</v>
       </c>
     </row>
@@ -26085,8 +26279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -26586,67 +26780,67 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="20" customFormat="1">
-      <c r="A17" s="52">
-        <v>45896</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="46">
+        <v>45908</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="15">
         <f>C16</f>
         <v>5000</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="24">
         <v>23.4</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="16">
         <f>C17*D17</f>
         <v>117000</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="25">
         <f>E17*0.002</f>
         <v>234</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="24">
         <f>E17*0.000068</f>
         <v>7.9559999999999995</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="24">
         <f>E17*0.00001</f>
         <v>1.1700000000000002</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="24">
         <f>(F17+G17+H17)*0.07</f>
         <v>17.018820000000002</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="24">
         <f>E17-F17-G17-H17-I17</f>
         <v>116739.85518</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="20" customFormat="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="11">
+      <c r="A18" s="66"/>
+      <c r="B18" s="28">
         <f>(D17-D16)/D16</f>
         <v>-2.9045643153527086E-2</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="19">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17">
         <f>E17-E16</f>
         <v>-3500</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19">
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17">
         <f>J17-J16</f>
         <v>-4027.0402699999977</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="J19" s="50">
+      <c r="J19" s="99">
         <f>J15+J18</f>
         <v>472.95973000000231</v>
       </c>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1391" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32C84CB9-71B8-4F36-8D51-6918D5333E81}"/>
+  <xr:revisionPtr revIDLastSave="1394" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CB7005-BF9D-41AD-BE40-C483821B1163}"/>
   <bookViews>
-    <workbookView xWindow="11592" yWindow="0" windowWidth="10728" windowHeight="12336" tabRatio="461" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11988" yWindow="4140" windowWidth="10332" windowHeight="8100" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -14308,7 +14308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -26277,10 +26277,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -26946,6 +26946,104 @@
       <c r="J23" s="19">
         <f>J22-J21</f>
         <v>402.49041200000647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="63">
+        <v>45895</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="10">
+        <v>23.2</v>
+      </c>
+      <c r="E25" s="19">
+        <f>C25*D25</f>
+        <v>116000</v>
+      </c>
+      <c r="F25" s="19">
+        <f>E25*0.002</f>
+        <v>232</v>
+      </c>
+      <c r="G25" s="19">
+        <f>E25*0.00006</f>
+        <v>6.96</v>
+      </c>
+      <c r="H25" s="19">
+        <f>E25*0.00001</f>
+        <v>1.1600000000000001</v>
+      </c>
+      <c r="I25" s="19">
+        <f>(F25+G25+H25)*0.07</f>
+        <v>16.808400000000002</v>
+      </c>
+      <c r="J25" s="19">
+        <f>E25+F25+I25+G25+H25</f>
+        <v>116256.9284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="20" customFormat="1">
+      <c r="A26" s="52">
+        <v>45908</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9">
+        <f>C25</f>
+        <v>5000</v>
+      </c>
+      <c r="D26" s="32">
+        <v>23.4</v>
+      </c>
+      <c r="E26" s="10">
+        <f>C26*D26</f>
+        <v>117000</v>
+      </c>
+      <c r="F26" s="33">
+        <f>E26*0.002</f>
+        <v>234</v>
+      </c>
+      <c r="G26" s="32">
+        <f>E26*0.000068</f>
+        <v>7.9559999999999995</v>
+      </c>
+      <c r="H26" s="32">
+        <f>E26*0.00001</f>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="I26" s="32">
+        <f>(F26+G26+H26)*0.07</f>
+        <v>17.018820000000002</v>
+      </c>
+      <c r="J26" s="32">
+        <f>E26-F26-G26-H26-I26</f>
+        <v>116739.85518</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="20" customFormat="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="11">
+        <f>(D26-D25)/D25</f>
+        <v>8.6206896551723842E-3</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="19">
+        <f>E26-E25</f>
+        <v>1000</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19">
+        <f>J26-J25</f>
+        <v>482.92677999999432</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1394" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CB7005-BF9D-41AD-BE40-C483821B1163}"/>
+  <xr:revisionPtr revIDLastSave="1397" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95F5F0C4-E622-48AC-8303-1B2D844048CF}"/>
   <bookViews>
-    <workbookView xWindow="11988" yWindow="4140" windowWidth="10332" windowHeight="8100" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1416" windowWidth="10332" windowHeight="11544" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -473,10 +473,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -26949,99 +26945,99 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="63">
-        <v>45895</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="A25" s="36">
+        <v>45909</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15">
         <v>5000</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="16">
         <v>23.2</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <f>C25*D25</f>
         <v>116000</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <f>E25*0.002</f>
         <v>232</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <f>E25*0.00006</f>
         <v>6.96</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <f>E25*0.00001</f>
         <v>1.1600000000000001</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="17">
         <f>(F25+G25+H25)*0.07</f>
         <v>16.808400000000002</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="17">
         <f>E25+F25+I25+G25+H25</f>
         <v>116256.9284</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="20" customFormat="1">
-      <c r="A26" s="52">
-        <v>45908</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="46">
+        <v>45911</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="15">
         <f>C25</f>
         <v>5000</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="24">
         <v>23.4</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="16">
         <f>C26*D26</f>
         <v>117000</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="25">
         <f>E26*0.002</f>
         <v>234</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="24">
         <f>E26*0.000068</f>
         <v>7.9559999999999995</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="24">
         <f>E26*0.00001</f>
         <v>1.1700000000000002</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="24">
         <f>(F26+G26+H26)*0.07</f>
         <v>17.018820000000002</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="24">
         <f>E26-F26-G26-H26-I26</f>
         <v>116739.85518</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="20" customFormat="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="11">
+      <c r="A27" s="66"/>
+      <c r="B27" s="28">
         <f>(D26-D25)/D25</f>
         <v>8.6206896551723842E-3</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="19">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17">
         <f>E26-E25</f>
         <v>1000</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17">
         <f>J26-J25</f>
         <v>482.92677999999432</v>
       </c>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1397" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95F5F0C4-E622-48AC-8303-1B2D844048CF}"/>
+  <xr:revisionPtr revIDLastSave="1437" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7D6BB8C-58D8-4462-B000-FD40829AA7B7}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1416" windowWidth="10332" windowHeight="11544" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="492" windowWidth="9768" windowHeight="11544" tabRatio="461" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -21586,10 +21586,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -21654,269 +21654,293 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="12" customFormat="1">
-      <c r="A3" s="36">
+      <c r="A3" s="63">
         <v>45728</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>4000</v>
       </c>
-      <c r="D3" s="16">
-        <v>23.1</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="D3" s="10">
+        <v>24.1</v>
+      </c>
+      <c r="E3" s="19">
         <f>C3*D3</f>
-        <v>92400</v>
-      </c>
-      <c r="F3" s="17">
+        <v>96400</v>
+      </c>
+      <c r="F3" s="19">
         <f>E3*0.002</f>
-        <v>184.8</v>
-      </c>
-      <c r="G3" s="17">
+        <v>192.8</v>
+      </c>
+      <c r="G3" s="19">
         <f>E3*0.00006</f>
-        <v>5.5440000000000005</v>
-      </c>
-      <c r="H3" s="17">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="H3" s="19">
         <f>E3*0.00001</f>
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I3" s="17">
+        <v>0.96400000000000008</v>
+      </c>
+      <c r="I3" s="19">
         <f>(F3+G3+H3)*0.07</f>
-        <v>13.388760000000003</v>
-      </c>
-      <c r="J3" s="17">
+        <v>13.968360000000002</v>
+      </c>
+      <c r="J3" s="19">
         <f>E3+F3+I3+G3+H3</f>
-        <v>92604.656759999998</v>
+        <v>96613.516360000009</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="10"/>
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="1:14" s="59" customFormat="1" ht="21">
-      <c r="A4" s="46"/>
-      <c r="B4" s="71">
-        <f>(D3-D2)/D2</f>
-        <v>-7.228915662650591E-2</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="A4" s="52"/>
+      <c r="B4" s="72" t="e">
+        <f>(D3-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="9">
         <f>SUM(C2:C3)</f>
         <v>8000</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="60">
         <f>E4/C4</f>
-        <v>24</v>
-      </c>
-      <c r="E4" s="15">
+        <v>24.5</v>
+      </c>
+      <c r="E4" s="9">
         <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>192000</v>
-      </c>
-      <c r="F4" s="15">
+        <v>196000</v>
+      </c>
+      <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="G4" s="15">
+        <v>392</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>11.52</v>
-      </c>
-      <c r="H4" s="15">
+        <v>11.76</v>
+      </c>
+      <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="I4" s="15">
+        <v>1.9600000000000002</v>
+      </c>
+      <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>27.820800000000006</v>
-      </c>
-      <c r="J4" s="15">
+        <v>28.400400000000005</v>
+      </c>
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>192425.26079999999</v>
+        <v>196434.12040000001</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1">
-      <c r="A5" s="63">
+    <row r="6" spans="1:14" s="12" customFormat="1">
+      <c r="A6" s="36">
         <v>45728</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
         <v>4000</v>
       </c>
-      <c r="D5" s="10">
-        <v>21</v>
-      </c>
-      <c r="E5" s="19">
-        <f>C5*D5</f>
-        <v>84000</v>
-      </c>
-      <c r="F5" s="19">
-        <f>E5*0.002</f>
-        <v>168</v>
-      </c>
-      <c r="G5" s="19">
-        <f>E5*0.00006</f>
-        <v>5.04</v>
-      </c>
-      <c r="H5" s="19">
-        <f>E5*0.00001</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="I5" s="19">
-        <f>(F5+G5+H5)*0.07</f>
-        <v>12.171600000000002</v>
-      </c>
-      <c r="J5" s="19">
-        <f>E5+F5+I5+G5+H5</f>
-        <v>84186.051599999992</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" s="59" customFormat="1" ht="21">
-      <c r="A6" s="52"/>
-      <c r="B6" s="72">
-        <f>(D5-D4)/D4</f>
-        <v>-0.125</v>
-      </c>
-      <c r="C6" s="9">
-        <f>SUM(C4:C5)</f>
-        <v>12000</v>
-      </c>
-      <c r="D6" s="60">
-        <f>E6/C6</f>
-        <v>23</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>276000</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>552</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="1"/>
-        <v>16.559999999999999</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="1"/>
-        <v>2.7600000000000002</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="1"/>
-        <v>39.992400000000004</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="1"/>
-        <v>276611.3124</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1">
-      <c r="A8" s="36">
-        <v>45175</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>8000</v>
-      </c>
-      <c r="D8" s="16">
-        <v>24</v>
-      </c>
+      <c r="D6" s="16">
+        <v>23.1</v>
+      </c>
+      <c r="E6" s="17">
+        <f>C6*D6</f>
+        <v>92400</v>
+      </c>
+      <c r="F6" s="17">
+        <f>E6*0.002</f>
+        <v>184.8</v>
+      </c>
+      <c r="G6" s="17">
+        <f>E6*0.00006</f>
+        <v>5.5440000000000005</v>
+      </c>
+      <c r="H6" s="17">
+        <f>E6*0.00001</f>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I6" s="17">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>13.388760000000003</v>
+      </c>
+      <c r="J6" s="17">
+        <f>E6+F6+I6+G6+H6</f>
+        <v>92604.656759999998</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1">
+      <c r="A7" s="46">
+        <v>45915</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <f>C6</f>
+        <v>4000</v>
+      </c>
+      <c r="D7" s="24">
+        <v>25.75</v>
+      </c>
+      <c r="E7" s="16">
+        <f>C7*D7</f>
+        <v>103000</v>
+      </c>
+      <c r="F7" s="25">
+        <f>E7*0.002</f>
+        <v>206</v>
+      </c>
+      <c r="G7" s="24">
+        <f>E7*0.000068</f>
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H7" s="24">
+        <f>E7*0.00001</f>
+        <v>1.03</v>
+      </c>
+      <c r="I7" s="24">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>14.982380000000001</v>
+      </c>
+      <c r="J7" s="24">
+        <f>E7-F7-G7-H7-I7</f>
+        <v>102770.98362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1">
+      <c r="A8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28">
+        <f>J8/J6</f>
+        <v>0.10978202625757458</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="17">
-        <v>192000</v>
-      </c>
-      <c r="F8" s="17">
-        <v>384</v>
-      </c>
-      <c r="G8" s="17">
-        <v>11.52</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1.9200000000000002</v>
-      </c>
-      <c r="I8" s="17">
-        <v>27.820800000000006</v>
-      </c>
+        <f>E7-E6</f>
+        <v>10600</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="17">
-        <v>192425.26079999999</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="28"/>
+        <f>J7-J6</f>
+        <v>10166.326860000001</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1">
-      <c r="A9" s="52">
-        <v>44923</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="46">
+        <v>45085</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4000</v>
+      </c>
+      <c r="D9" s="38">
+        <v>24.9</v>
+      </c>
+      <c r="E9" s="17">
+        <f>C9*D9</f>
+        <v>99600</v>
+      </c>
+      <c r="F9" s="17">
+        <f>E9*0.002</f>
+        <v>199.20000000000002</v>
+      </c>
+      <c r="G9" s="17">
+        <f>E9*0.00006</f>
+        <v>5.976</v>
+      </c>
+      <c r="H9" s="17">
+        <f>E9*0.00001</f>
+        <v>0.99600000000000011</v>
+      </c>
+      <c r="I9" s="17">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>14.432040000000002</v>
+      </c>
+      <c r="J9" s="17">
+        <f>E9+F9+I9+G9+H9</f>
+        <v>99820.604039999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="52">
+        <v>45915</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
-        <f>C8</f>
-        <v>8000</v>
-      </c>
-      <c r="D9" s="32">
-        <v>26.5</v>
-      </c>
-      <c r="E9" s="10">
-        <f>C9*D9</f>
-        <v>212000</v>
-      </c>
-      <c r="F9" s="33">
-        <f>E9*0.002</f>
-        <v>424</v>
-      </c>
-      <c r="G9" s="32">
-        <f>E9*0.000068</f>
-        <v>14.416</v>
-      </c>
-      <c r="H9" s="32">
-        <f>E9*0.00001</f>
-        <v>2.12</v>
-      </c>
-      <c r="I9" s="32">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>30.837520000000001</v>
-      </c>
-      <c r="J9" s="32">
-        <f>E9-F9-G9-H9-I9</f>
-        <v>211528.62648000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1">
-      <c r="A10" s="52" t="s">
+      <c r="C10" s="9">
+        <f>C9</f>
+        <v>4000</v>
+      </c>
+      <c r="D10" s="32">
+        <v>27.75</v>
+      </c>
+      <c r="E10" s="10">
+        <f>C10*D10</f>
+        <v>111000</v>
+      </c>
+      <c r="F10" s="33">
+        <f>E10*0.002</f>
+        <v>222</v>
+      </c>
+      <c r="G10" s="32">
+        <f>E10*0.000068</f>
+        <v>7.548</v>
+      </c>
+      <c r="H10" s="32">
+        <f>E10*0.00001</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I10" s="32">
+        <f>(F10+G10+H10)*0.07</f>
+        <v>16.146060000000002</v>
+      </c>
+      <c r="J10" s="32">
+        <f>E10-F10-G10-H10-I10</f>
+        <v>110753.19594000001</v>
+      </c>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11">
-        <f>J10/J8</f>
-        <v>9.9276808047854895E-2</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="19">
-        <f>E9-E8</f>
-        <v>20000</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19">
-        <f>J9-J8</f>
-        <v>19103.365680000017</v>
-      </c>
+      <c r="B11" s="11">
+        <f>J11/J9</f>
+        <v>0.1095223977568711</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="19">
+        <f>E10-E9</f>
+        <v>11400</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19">
+        <f>J10-J9</f>
+        <v>10932.591900000014</v>
+      </c>
+      <c r="M11" s="20"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -21934,7 +21958,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J18"/>
+      <selection activeCell="E17" sqref="E17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -22585,10 +22609,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -22736,81 +22760,81 @@
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>45846</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>5000</v>
       </c>
-      <c r="D5" s="38">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="D5" s="43">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E5" s="19">
         <f>C5*D5</f>
-        <v>44000</v>
-      </c>
-      <c r="F5" s="17">
+        <v>41500</v>
+      </c>
+      <c r="F5" s="19">
         <f>E5*0.002</f>
-        <v>88</v>
-      </c>
-      <c r="G5" s="17">
+        <v>83</v>
+      </c>
+      <c r="G5" s="19">
         <f>E5*0.000068</f>
-        <v>2.992</v>
-      </c>
-      <c r="H5" s="17">
+        <v>2.8220000000000001</v>
+      </c>
+      <c r="H5" s="19">
         <f>E5*0.00001</f>
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="I5" s="17">
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="I5" s="19">
         <f>(F5+G5+H5)*0.07</f>
-        <v>6.400240000000001</v>
-      </c>
-      <c r="J5" s="17">
+        <v>6.0365900000000012</v>
+      </c>
+      <c r="J5" s="19">
         <f>E5+F5+I5+G5+H5</f>
-        <v>44097.832240000003</v>
+        <v>41592.273590000004</v>
       </c>
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:14" s="59" customFormat="1" ht="21">
-      <c r="A6" s="39"/>
-      <c r="B6" s="6">
-        <f>(D5-D4)/D4</f>
-        <v>-0.28455284552845528</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="41"/>
+      <c r="B6" s="70" t="e">
+        <f>(D5-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="21">
         <f>SUM(C4:C5)</f>
         <v>25000</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <f>E6/C6</f>
-        <v>11.6</v>
-      </c>
-      <c r="E6" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="E6" s="21">
         <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>290000</v>
-      </c>
-      <c r="F6" s="5">
+        <v>287500</v>
+      </c>
+      <c r="F6" s="21">
         <f t="shared" si="1"/>
-        <v>580</v>
-      </c>
-      <c r="G6" s="5">
+        <v>575</v>
+      </c>
+      <c r="G6" s="21">
         <f t="shared" si="1"/>
-        <v>18.72</v>
-      </c>
-      <c r="H6" s="5">
+        <v>18.55</v>
+      </c>
+      <c r="H6" s="21">
         <f t="shared" si="1"/>
-        <v>2.9</v>
-      </c>
-      <c r="I6" s="5">
+        <v>2.875</v>
+      </c>
+      <c r="I6" s="21">
         <f t="shared" si="1"/>
-        <v>42.113400000000006</v>
-      </c>
-      <c r="J6" s="5">
+        <v>41.749750000000006</v>
+      </c>
+      <c r="J6" s="21">
         <f t="shared" si="1"/>
-        <v>290643.73340000003</v>
+        <v>288138.17475000001</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="20"/>
@@ -22818,335 +22842,293 @@
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="7">
-        <v>45846</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" s="87" customFormat="1" ht="20.399999999999999">
+      <c r="A8" s="46">
+        <v>45524</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="15">
         <v>5000</v>
       </c>
-      <c r="D7" s="43">
-        <v>8</v>
-      </c>
-      <c r="E7" s="19">
-        <f>C7*D7</f>
-        <v>40000</v>
-      </c>
-      <c r="F7" s="19">
-        <f>E7*0.002</f>
-        <v>80</v>
-      </c>
-      <c r="G7" s="19">
-        <f>E7*0.000068</f>
-        <v>2.72</v>
-      </c>
-      <c r="H7" s="19">
-        <f>E7*0.00001</f>
-        <v>0.4</v>
-      </c>
-      <c r="I7" s="19">
-        <f>(F7+G7+H7)*0.07</f>
-        <v>5.8184000000000005</v>
-      </c>
-      <c r="J7" s="19">
-        <f>E7+F7+I7+G7+H7</f>
-        <v>40088.938399999999</v>
-      </c>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:14" s="59" customFormat="1" ht="21">
-      <c r="A8" s="41"/>
-      <c r="B8" s="70">
-        <f>(D7-D6)/D6</f>
-        <v>-0.31034482758620685</v>
-      </c>
-      <c r="C8" s="21">
-        <f>SUM(C6:C7)</f>
-        <v>30000</v>
-      </c>
-      <c r="D8" s="31">
-        <f>E8/C8</f>
-        <v>11</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>330000</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="2"/>
-        <v>660</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="2"/>
-        <v>21.439999999999998</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="2"/>
-        <v>3.3</v>
-      </c>
-      <c r="I8" s="21">
-        <f t="shared" si="2"/>
-        <v>47.93180000000001</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="2"/>
-        <v>330732.67180000001</v>
-      </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:14" s="87" customFormat="1" ht="20.399999999999999">
+      <c r="D8" s="37">
+        <v>0.193</v>
+      </c>
+      <c r="E8" s="91"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="92">
+        <v>965</v>
+      </c>
+      <c r="J8" s="92">
+        <v>868.5</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+    </row>
+    <row r="9" spans="1:14" s="87" customFormat="1">
+      <c r="A9" s="46">
+        <v>44956</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="38">
+        <v>8.6</v>
+      </c>
+      <c r="E9" s="17">
+        <v>43000</v>
+      </c>
+      <c r="F9" s="17">
+        <v>86</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2.58</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="I9" s="17">
+        <v>6.2307000000000006</v>
+      </c>
+      <c r="J9" s="17">
+        <v>43095.240700000002</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1">
       <c r="A10" s="46">
-        <v>45524</v>
-      </c>
-      <c r="B10" s="90"/>
+        <v>45525</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="15">
         <v>5000</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="24">
+        <v>10.1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>50500</v>
+      </c>
+      <c r="F10" s="25">
+        <v>101</v>
+      </c>
+      <c r="G10" s="24">
+        <v>3.4340000000000002</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.505</v>
+      </c>
+      <c r="I10" s="24">
+        <v>7.3457300000000005</v>
+      </c>
+      <c r="J10" s="24">
+        <v>50387.715270000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17">
+        <v>7500</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17">
+        <v>7292.4745699999985</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="51"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="93">
+        <v>8160.9745699999985</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.399999999999999">
+      <c r="A14" s="46">
+        <v>45524</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="37">
         <v>0.193</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="92">
+      <c r="E14" s="91"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="92">
         <v>965</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J14" s="92">
         <v>868.5</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-    </row>
-    <row r="11" spans="1:14" s="87" customFormat="1">
-      <c r="A11" s="46">
-        <v>44956</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="K14" s="10"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="13">
+        <v>45436</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
         <v>5000</v>
       </c>
-      <c r="D11" s="38">
-        <v>8.6</v>
-      </c>
-      <c r="E11" s="17">
-        <v>43000</v>
-      </c>
-      <c r="F11" s="17">
-        <v>86</v>
-      </c>
-      <c r="G11" s="17">
-        <v>2.58</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0.43000000000000005</v>
-      </c>
-      <c r="I11" s="17">
-        <v>6.2307000000000006</v>
-      </c>
-      <c r="J11" s="17">
-        <v>43095.240700000002</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1">
-      <c r="A12" s="46">
-        <v>45525</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="D15" s="89">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E15" s="17">
+        <v>44000</v>
+      </c>
+      <c r="F15" s="17">
+        <v>88</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2.992</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="I15" s="17">
+        <v>6.400240000000001</v>
+      </c>
+      <c r="J15" s="17">
+        <v>44097.832240000003</v>
+      </c>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="46">
+        <v>45530</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="15">
-        <v>5000</v>
-      </c>
-      <c r="D12" s="24">
-        <v>10.1</v>
-      </c>
-      <c r="E12" s="16">
-        <v>50500</v>
-      </c>
-      <c r="F12" s="25">
-        <v>101</v>
-      </c>
-      <c r="G12" s="24">
-        <v>3.4340000000000002</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0.505</v>
-      </c>
-      <c r="I12" s="24">
-        <v>7.3457300000000005</v>
-      </c>
-      <c r="J12" s="24">
-        <v>50387.715270000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17">
-        <v>7500</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17">
-        <v>7292.4745699999985</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="51"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="93">
-        <v>8160.9745699999985</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="20.399999999999999">
-      <c r="A16" s="46">
-        <v>45524</v>
-      </c>
-      <c r="B16" s="90"/>
       <c r="C16" s="15">
         <v>5000</v>
       </c>
-      <c r="D16" s="37">
-        <v>0.193</v>
-      </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="92">
-        <v>965</v>
-      </c>
-      <c r="J16" s="92">
-        <v>868.5</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="D16" s="24">
+        <v>10.3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>51500</v>
+      </c>
+      <c r="F16" s="25">
+        <v>103</v>
+      </c>
+      <c r="G16" s="24">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="H16" s="24">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="I16" s="24">
+        <v>7.4911900000000005</v>
+      </c>
+      <c r="J16" s="24">
+        <v>51385.49181</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="13">
-        <v>45436</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="89">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E17" s="17">
-        <v>44000</v>
-      </c>
-      <c r="F17" s="17">
-        <v>88</v>
-      </c>
-      <c r="G17" s="17">
-        <v>2.992</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="I17" s="17">
-        <v>6.400240000000001</v>
-      </c>
-      <c r="J17" s="17">
-        <v>44097.832240000003</v>
-      </c>
-      <c r="M17" s="20"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="28">
+        <v>0.17045454545454544</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="46">
-        <v>45530</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15">
-        <v>5000</v>
-      </c>
-      <c r="D18" s="24">
-        <v>10.3</v>
-      </c>
-      <c r="E18" s="16">
-        <v>51500</v>
-      </c>
-      <c r="F18" s="25">
-        <v>103</v>
-      </c>
-      <c r="G18" s="24">
-        <v>3.5019999999999998</v>
-      </c>
-      <c r="H18" s="24">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="I18" s="24">
-        <v>7.4911900000000005</v>
-      </c>
-      <c r="J18" s="24">
-        <v>51385.49181</v>
+      <c r="A18" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17">
+        <v>7500</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17">
+        <v>7287.6595699999962</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -23154,62 +23136,125 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="46"/>
-      <c r="B19" s="28">
-        <v>0.17045454545454544</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="93">
+        <v>8156.1595699999962</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="13">
+        <v>45846</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="38">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="E20" s="17">
-        <v>7500</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+        <f>C20*D20</f>
+        <v>44000</v>
+      </c>
+      <c r="F20" s="17">
+        <f>E20*0.002</f>
+        <v>88</v>
+      </c>
+      <c r="G20" s="17">
+        <f>E20*0.000068</f>
+        <v>2.992</v>
+      </c>
+      <c r="H20" s="17">
+        <f>E20*0.00001</f>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="I20" s="17">
+        <f>(F20+G20+H20)*0.07</f>
+        <v>6.400240000000001</v>
+      </c>
       <c r="J20" s="17">
-        <v>7287.6595699999962</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="51"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="93">
-        <v>8156.1595699999962</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+        <f>E20+F20+I20+G20+H20</f>
+        <v>44097.832240000003</v>
+      </c>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1">
+      <c r="A21" s="46">
+        <v>45915</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="15">
+        <v>5000</v>
+      </c>
+      <c r="D21" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E21" s="16">
+        <f>C21*D21</f>
+        <v>48500</v>
+      </c>
+      <c r="F21" s="25">
+        <f>E21*0.002</f>
+        <v>97</v>
+      </c>
+      <c r="G21" s="24">
+        <f>E21*0.000068</f>
+        <v>3.298</v>
+      </c>
+      <c r="H21" s="24">
+        <f>E21*0.00001</f>
+        <v>0.48500000000000004</v>
+      </c>
+      <c r="I21" s="24">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>7.0548100000000007</v>
+      </c>
+      <c r="J21" s="24">
+        <f>E21-F21-G21-H21-I21</f>
+        <v>48392.162189999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="E22" s="17">
+        <f>E21-E20</f>
+        <v>4500</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" ref="F22:J22" si="2">F21-F20</f>
+        <v>9</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.30600000000000005</v>
+      </c>
+      <c r="H22" s="17">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999984E-2</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="2"/>
+        <v>0.65456999999999965</v>
+      </c>
+      <c r="J22" s="17">
+        <f t="shared" si="2"/>
+        <v>4294.3299499999921</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -26275,7 +26320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:J27"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1437" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7D6BB8C-58D8-4462-B000-FD40829AA7B7}"/>
+  <xr:revisionPtr revIDLastSave="1460" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE297E71-0B9C-4EA6-B18B-42DBCFCE8DA7}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="492" windowWidth="9768" windowHeight="11544" tabRatio="461" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8988" yWindow="0" windowWidth="14100" windowHeight="12336" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="41">
   <si>
     <t>BUY</t>
   </si>
@@ -473,6 +473,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22611,7 +22615,7 @@
   </sheetPr>
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -26318,17 +26322,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:J27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="47" customWidth="1"/>
     <col min="2" max="2" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -26664,7 +26668,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="36">
-        <v>45895</v>
+        <v>45916</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>0</v>
@@ -26673,91 +26677,105 @@
         <v>5000</v>
       </c>
       <c r="D11" s="16">
-        <v>24.1</v>
+        <v>23.5</v>
       </c>
       <c r="E11" s="17">
         <f>C11*D11</f>
-        <v>120500</v>
+        <v>117500</v>
       </c>
       <c r="F11" s="17">
         <f>E11*0.002</f>
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G11" s="17">
         <f>E11*0.00006</f>
-        <v>7.23</v>
+        <v>7.05</v>
       </c>
       <c r="H11" s="17">
         <f>E11*0.00001</f>
-        <v>1.2050000000000001</v>
+        <v>1.175</v>
       </c>
       <c r="I11" s="17">
         <f>(F11+G11+H11)*0.07</f>
-        <v>17.460450000000002</v>
+        <v>17.025750000000002</v>
       </c>
       <c r="J11" s="17">
         <f>E11+F11+I11+G11+H11</f>
-        <v>120766.89545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="20" customFormat="1">
-      <c r="A12" s="52">
-        <v>45896</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
-        <f>C11</f>
+        <v>117760.25075000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="36">
+        <v>45917</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
         <v>5000</v>
       </c>
-      <c r="D12" s="32">
-        <v>24.4</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="16">
+        <v>23.3</v>
+      </c>
+      <c r="E12" s="17">
         <f>C12*D12</f>
-        <v>122000</v>
-      </c>
-      <c r="F12" s="33">
+        <v>116500</v>
+      </c>
+      <c r="F12" s="17">
         <f>E12*0.002</f>
-        <v>244</v>
-      </c>
-      <c r="G12" s="32">
-        <f>E12*0.000068</f>
-        <v>8.2959999999999994</v>
-      </c>
-      <c r="H12" s="32">
+        <v>233</v>
+      </c>
+      <c r="G12" s="17">
+        <f>E12*0.00006</f>
+        <v>6.99</v>
+      </c>
+      <c r="H12" s="17">
         <f>E12*0.00001</f>
-        <v>1.2200000000000002</v>
-      </c>
-      <c r="I12" s="32">
+        <v>1.165</v>
+      </c>
+      <c r="I12" s="17">
         <f>(F12+G12+H12)*0.07</f>
-        <v>17.746120000000001</v>
-      </c>
-      <c r="J12" s="32">
-        <f>E12-F12-G12-H12-I12</f>
-        <v>121728.73788</v>
+        <v>16.880850000000002</v>
+      </c>
+      <c r="J12" s="17">
+        <f>E12+F12+I12+G12+H12</f>
+        <v>116758.03585</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="20" customFormat="1">
       <c r="A13" s="35"/>
-      <c r="B13" s="11">
-        <f>(D12-D11)/D11</f>
-        <v>1.2448132780082869E-2</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="19">
-        <f>E12-E11</f>
-        <v>1500</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19">
-        <f>J12-J11</f>
-        <v>961.84243000000424</v>
+      <c r="B13" s="11"/>
+      <c r="C13" s="15">
+        <f>C12+C11</f>
+        <v>10000</v>
+      </c>
+      <c r="D13" s="16">
+        <f>E13/C13</f>
+        <v>23.4</v>
+      </c>
+      <c r="E13" s="17">
+        <f>E12+E11</f>
+        <v>234000</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" ref="F13:J13" si="0">F12+F11</f>
+        <v>468</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>14.04</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="0"/>
+        <v>33.906600000000005</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="0"/>
+        <v>234518.28659999999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -26989,6 +27007,11 @@
         <v>402.49041200000647</v>
       </c>
     </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="25" spans="1:10">
       <c r="A25" s="36">
         <v>45909</v>
@@ -27085,6 +27108,98 @@
       <c r="J27" s="17">
         <f>J26-J25</f>
         <v>482.92677999999432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="36">
+        <v>45917</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15">
+        <v>10000</v>
+      </c>
+      <c r="D28" s="16">
+        <v>23.4</v>
+      </c>
+      <c r="E28" s="17">
+        <v>234000</v>
+      </c>
+      <c r="F28" s="17">
+        <v>468</v>
+      </c>
+      <c r="G28" s="17">
+        <v>14.04</v>
+      </c>
+      <c r="H28" s="17">
+        <v>2.34</v>
+      </c>
+      <c r="I28" s="17">
+        <v>33.906600000000005</v>
+      </c>
+      <c r="J28" s="17">
+        <v>234518.28659999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="20" customFormat="1">
+      <c r="A29" s="52">
+        <v>45911</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
+        <f>C28</f>
+        <v>10000</v>
+      </c>
+      <c r="D29" s="32">
+        <v>23.6</v>
+      </c>
+      <c r="E29" s="10">
+        <f>C29*D29</f>
+        <v>236000</v>
+      </c>
+      <c r="F29" s="33">
+        <f>E29*0.002</f>
+        <v>472</v>
+      </c>
+      <c r="G29" s="32">
+        <f>E29*0.000068</f>
+        <v>16.047999999999998</v>
+      </c>
+      <c r="H29" s="32">
+        <f>E29*0.00001</f>
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="I29" s="32">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>34.328560000000003</v>
+      </c>
+      <c r="J29" s="32">
+        <f>E29-F29-G29-H29-I29</f>
+        <v>235475.26344000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="20" customFormat="1">
+      <c r="A30" s="35"/>
+      <c r="B30" s="11">
+        <f>(D29-D28)/D28</f>
+        <v>8.5470085470086693E-3</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="19">
+        <f>E29-E28</f>
+        <v>2000</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19">
+        <f>J29-J28</f>
+        <v>956.97684000001755</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1460" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE297E71-0B9C-4EA6-B18B-42DBCFCE8DA7}"/>
+  <xr:revisionPtr revIDLastSave="1480" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E0D4E66-DC84-4CDA-BF5E-7B0505562F4E}"/>
   <bookViews>
-    <workbookView xWindow="8988" yWindow="0" windowWidth="14100" windowHeight="12336" tabRatio="461" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10068" windowHeight="11544" tabRatio="461" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -31,16 +31,17 @@
     <sheet name="NER" sheetId="117" r:id="rId16"/>
     <sheet name="ORI" sheetId="184" r:id="rId17"/>
     <sheet name="PTG" sheetId="216" r:id="rId18"/>
-    <sheet name="RCL" sheetId="161" r:id="rId19"/>
-    <sheet name="SCC" sheetId="152" r:id="rId20"/>
-    <sheet name="SENA" sheetId="183" r:id="rId21"/>
-    <sheet name="SINGER" sheetId="203" r:id="rId22"/>
-    <sheet name="SYNEX" sheetId="199" r:id="rId23"/>
-    <sheet name="TFFIF" sheetId="214" r:id="rId24"/>
-    <sheet name="TOA" sheetId="218" r:id="rId25"/>
-    <sheet name="TVO" sheetId="221" r:id="rId26"/>
-    <sheet name="WHAIR" sheetId="157" r:id="rId27"/>
-    <sheet name="WHART" sheetId="171" r:id="rId28"/>
+    <sheet name="PTT" sheetId="224" r:id="rId19"/>
+    <sheet name="RCL" sheetId="161" r:id="rId20"/>
+    <sheet name="SCC" sheetId="152" r:id="rId21"/>
+    <sheet name="SENA" sheetId="183" r:id="rId22"/>
+    <sheet name="SINGER" sheetId="203" r:id="rId23"/>
+    <sheet name="SYNEX" sheetId="199" r:id="rId24"/>
+    <sheet name="TFFIF" sheetId="214" r:id="rId25"/>
+    <sheet name="TOA" sheetId="218" r:id="rId26"/>
+    <sheet name="TVO" sheetId="221" r:id="rId27"/>
+    <sheet name="WHAIR" sheetId="157" r:id="rId28"/>
+    <sheet name="WHART" sheetId="171" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="42">
   <si>
     <t>BUY</t>
   </si>
@@ -186,6 +187,9 @@
   </si>
   <si>
     <t>PLANB</t>
+  </si>
+  <si>
+    <t>PTT</t>
   </si>
 </sst>
 </file>
@@ -14305,26 +14309,26 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
-  <dimension ref="A1:N45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF44050E-F770-4816-B0BF-6EDA56061E31}">
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="83" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="20" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="20" customWidth="1"/>
     <col min="5" max="5" width="11.109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9" style="20"/>
+    <col min="6" max="6" width="8.88671875" style="20"/>
     <col min="7" max="7" width="6.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="5.77734375" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="20" customWidth="1"/>
     <col min="10" max="10" width="11.109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="18" style="20" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.88671875" style="20"/>
     <col min="13" max="13" width="8.88671875" style="23"/>
     <col min="14" max="16384" width="8.88671875" style="20"/>
@@ -14332,1671 +14336,309 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="12" customFormat="1">
-      <c r="A2" s="52">
-        <v>44508</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="10">
-        <v>44</v>
-      </c>
-      <c r="E2" s="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1">
+      <c r="A2" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="38">
+        <v>32</v>
+      </c>
+      <c r="E2" s="17">
         <f>C2*D2</f>
-        <v>132000</v>
-      </c>
-      <c r="F2" s="19">
+        <v>80000</v>
+      </c>
+      <c r="F2" s="17">
         <f>E2*0.002</f>
-        <v>264</v>
-      </c>
-      <c r="G2" s="19">
+        <v>160</v>
+      </c>
+      <c r="G2" s="17">
         <f>E2*0.00006</f>
-        <v>7.92</v>
-      </c>
-      <c r="H2" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="H2" s="17">
         <f>E2*0.00001</f>
-        <v>1.32</v>
-      </c>
-      <c r="I2" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="17">
         <f>(F2+G2+H2)*0.07</f>
-        <v>19.126800000000003</v>
-      </c>
-      <c r="J2" s="19">
+        <v>11.592000000000002</v>
+      </c>
+      <c r="J2" s="17">
         <f>E2+F2+I2+G2+H2</f>
-        <v>132292.36680000002</v>
-      </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="52">
-        <v>44517</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D3" s="10">
-        <v>41</v>
-      </c>
-      <c r="E3" s="19">
+        <v>80177.19200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1">
+      <c r="A3" s="46">
+        <v>45901</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="38">
+        <v>31</v>
+      </c>
+      <c r="E3" s="17">
         <f>C3*D3</f>
-        <v>61500</v>
-      </c>
-      <c r="F3" s="19">
+        <v>77500</v>
+      </c>
+      <c r="F3" s="17">
         <f>E3*0.002</f>
-        <v>123</v>
-      </c>
-      <c r="G3" s="19">
-        <f>E3*0.000068</f>
-        <v>4.1820000000000004</v>
-      </c>
-      <c r="H3" s="19">
+        <v>155</v>
+      </c>
+      <c r="G3" s="17">
+        <f>E3*0.00006</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H3" s="17">
         <f>E3*0.00001</f>
-        <v>0.6150000000000001</v>
-      </c>
-      <c r="I3" s="19">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I3" s="17">
         <f>(F3+G3+H3)*0.07</f>
-        <v>8.9457900000000006</v>
-      </c>
-      <c r="J3" s="19">
+        <v>11.229750000000001</v>
+      </c>
+      <c r="J3" s="17">
         <f>E3+F3+I3+G3+H3</f>
-        <v>61636.742789999997</v>
-      </c>
-      <c r="M3" s="20"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="23">
+        <v>77671.654749999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1">
+      <c r="A4" s="46"/>
+      <c r="B4" s="28">
         <f>(D3-D2)/D2</f>
-        <v>-6.8181818181818177E-2</v>
-      </c>
-      <c r="C4" s="21">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="C4" s="15">
         <f>SUM(C2:C3)</f>
-        <v>4500</v>
-      </c>
-      <c r="D4" s="61">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="37">
         <f>E4/C4</f>
-        <v>43</v>
-      </c>
-      <c r="E4" s="21">
+        <v>31.5</v>
+      </c>
+      <c r="E4" s="15">
         <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>193500</v>
-      </c>
-      <c r="F4" s="21">
+        <v>157500</v>
+      </c>
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
-        <v>387</v>
-      </c>
-      <c r="G4" s="21">
+        <v>315</v>
+      </c>
+      <c r="G4" s="15">
         <f t="shared" si="0"/>
-        <v>12.102</v>
-      </c>
-      <c r="H4" s="21">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="I4" s="21">
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
-        <v>28.072590000000005</v>
-      </c>
-      <c r="J4" s="21">
+        <v>22.821750000000002</v>
+      </c>
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
-        <v>193929.10959000001</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="20"/>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A5" s="52">
-        <v>44543</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>900</v>
-      </c>
-      <c r="D5" s="32">
-        <v>46</v>
-      </c>
-      <c r="E5" s="10">
+        <v>157848.84675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1">
+      <c r="A5" s="46">
+        <v>45919</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="38">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17">
         <f>C5*D5</f>
-        <v>41400</v>
-      </c>
-      <c r="F5" s="33">
+        <v>82500</v>
+      </c>
+      <c r="F5" s="17">
         <f>E5*0.002</f>
-        <v>82.8</v>
-      </c>
-      <c r="G5" s="32">
-        <f>E5*0.000068</f>
-        <v>2.8151999999999999</v>
-      </c>
-      <c r="H5" s="32">
+        <v>165</v>
+      </c>
+      <c r="G5" s="17">
+        <f>E5*0.00006</f>
+        <v>4.95</v>
+      </c>
+      <c r="H5" s="17">
         <f>E5*0.00001</f>
-        <v>0.41400000000000003</v>
-      </c>
-      <c r="I5" s="32">
+        <v>0.82500000000000007</v>
+      </c>
+      <c r="I5" s="17">
         <f>(F5+G5+H5)*0.07</f>
-        <v>6.0220440000000011</v>
-      </c>
-      <c r="J5" s="32">
-        <f>E5-F5-G5-H5-I5</f>
-        <v>41307.948756000005</v>
+        <v>11.95425</v>
+      </c>
+      <c r="J5" s="17">
+        <f>E5+F5+I5+G5+H5</f>
+        <v>82682.729249999989</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
-        <f>C4-C5</f>
-        <v>3600</v>
-      </c>
-      <c r="D6" s="10">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19">
-        <f>C6*D6</f>
-        <v>154800</v>
-      </c>
-      <c r="F6" s="19">
-        <f>E6*0.002</f>
-        <v>309.60000000000002</v>
-      </c>
-      <c r="G6" s="19">
-        <f>E6*0.000068</f>
-        <v>10.526400000000001</v>
-      </c>
-      <c r="H6" s="19">
-        <f>E6*0.00001</f>
-        <v>1.548</v>
-      </c>
-      <c r="I6" s="19">
-        <f>(F6+G6+H6)*0.07</f>
-        <v>22.517208000000007</v>
-      </c>
-      <c r="J6" s="19">
-        <f>E6+F6+I6+G6+H6</f>
-        <v>155144.19160800002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="A6" s="46"/>
+      <c r="B6" s="28">
+        <f>(D5-D4)/D4</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="C6" s="15">
+        <f>SUM(C4:C5)</f>
+        <v>7500</v>
+      </c>
+      <c r="D6" s="37">
+        <f>E6/C6</f>
+        <v>32</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
+        <v>240000</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="1"/>
+        <v>34.776000000000003</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="1"/>
+        <v>240531.576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1">
       <c r="A7" s="52">
-        <v>44545</v>
+        <v>45919</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="9">
-        <v>2400</v>
-      </c>
-      <c r="D7" s="10">
-        <v>43</v>
+        <v>2500</v>
+      </c>
+      <c r="D7" s="43">
+        <v>32</v>
       </c>
       <c r="E7" s="19">
         <f>C7*D7</f>
-        <v>103200</v>
+        <v>80000</v>
       </c>
       <c r="F7" s="19">
         <f>E7*0.002</f>
-        <v>206.4</v>
+        <v>160</v>
       </c>
       <c r="G7" s="19">
-        <f>E7*0.000068</f>
-        <v>7.0175999999999998</v>
+        <f>E7*0.00006</f>
+        <v>4.8</v>
       </c>
       <c r="H7" s="19">
         <f>E7*0.00001</f>
-        <v>1.032</v>
+        <v>0.8</v>
       </c>
       <c r="I7" s="19">
         <f>(F7+G7+H7)*0.07</f>
-        <v>15.011472000000001</v>
+        <v>11.592000000000002</v>
       </c>
       <c r="J7" s="19">
         <f>E7+F7+I7+G7+H7</f>
-        <v>103429.46107200001</v>
-      </c>
-      <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="23">
+        <v>80177.19200000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="11">
         <f>(D7-D6)/D6</f>
         <v>0</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="9">
         <f>SUM(C6:C7)</f>
-        <v>6000</v>
-      </c>
-      <c r="D8" s="61">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="60">
         <f>E8/C8</f>
-        <v>43</v>
-      </c>
-      <c r="E8" s="21">
-        <f t="shared" ref="E8:J8" si="1">SUM(E6:E7)</f>
-        <v>258000</v>
-      </c>
-      <c r="F8" s="21">
-        <f t="shared" si="1"/>
-        <v>516</v>
-      </c>
-      <c r="G8" s="21">
-        <f t="shared" si="1"/>
-        <v>17.544</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="1"/>
-        <v>2.58</v>
-      </c>
-      <c r="I8" s="21">
-        <f t="shared" si="1"/>
-        <v>37.528680000000008</v>
-      </c>
-      <c r="J8" s="21">
-        <f t="shared" si="1"/>
-        <v>258573.65268000003</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A9" s="52">
-        <v>44551</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D9" s="32">
-        <v>48.5</v>
-      </c>
-      <c r="E9" s="10">
-        <f>C9*D9</f>
-        <v>72750</v>
-      </c>
-      <c r="F9" s="33">
-        <f>E9*0.002</f>
-        <v>145.5</v>
-      </c>
-      <c r="G9" s="32">
-        <f>E9*0.000068</f>
-        <v>4.9470000000000001</v>
-      </c>
-      <c r="H9" s="32">
-        <f>E9*0.00001</f>
-        <v>0.72750000000000004</v>
-      </c>
-      <c r="I9" s="32">
-        <f>(F9+G9+H9)*0.07</f>
-        <v>10.582215000000001</v>
-      </c>
-      <c r="J9" s="32">
-        <f>E9-F9-G9-H9-I9</f>
-        <v>72588.243285000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1">
-      <c r="A10" s="52">
-        <v>44551</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <f>C8-C9</f>
-        <v>4500</v>
-      </c>
-      <c r="D10" s="10">
-        <v>43</v>
-      </c>
-      <c r="E10" s="19">
-        <f>C10*D10</f>
-        <v>193500</v>
-      </c>
-      <c r="F10" s="19">
-        <f>E10*0.002</f>
-        <v>387</v>
-      </c>
-      <c r="G10" s="19">
-        <f>E10*0.000068</f>
-        <v>13.157999999999999</v>
-      </c>
-      <c r="H10" s="19">
-        <f>E10*0.00001</f>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="I10" s="19">
-        <f>(F10+G10+H10)*0.07</f>
-        <v>28.146510000000003</v>
-      </c>
-      <c r="J10" s="19">
-        <f>E10+F10+I10+G10+H10</f>
-        <v>193930.23950999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="52">
-        <v>44578</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D11" s="10">
-        <v>49</v>
-      </c>
-      <c r="E11" s="19">
-        <f>C11*D11</f>
-        <v>73500</v>
-      </c>
-      <c r="F11" s="19">
-        <f>E11*0.002</f>
-        <v>147</v>
-      </c>
-      <c r="G11" s="19">
-        <f>E11*0.000068</f>
-        <v>4.9980000000000002</v>
-      </c>
-      <c r="H11" s="19">
-        <f>E11*0.00001</f>
-        <v>0.7350000000000001</v>
-      </c>
-      <c r="I11" s="19">
-        <f>(F11+G11+H11)*0.07</f>
-        <v>10.691310000000001</v>
-      </c>
-      <c r="J11" s="19">
-        <f>E11+F11+I11+G11+H11</f>
-        <v>73663.424310000002</v>
-      </c>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="23">
-        <f>(D11-D10)/D10</f>
-        <v>0.13953488372093023</v>
-      </c>
-      <c r="C12" s="21">
-        <f>SUM(C10:C11)</f>
-        <v>6000</v>
-      </c>
-      <c r="D12" s="61">
-        <f>E12/C12</f>
-        <v>44.5</v>
-      </c>
-      <c r="E12" s="21">
-        <f t="shared" ref="E12:J12" si="2">SUM(E10:E11)</f>
-        <v>267000</v>
-      </c>
-      <c r="F12" s="21">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
+        <v>320000</v>
+      </c>
+      <c r="F8" s="9">
         <f t="shared" si="2"/>
-        <v>534</v>
-      </c>
-      <c r="G12" s="21">
+        <v>640</v>
+      </c>
+      <c r="G8" s="9">
         <f t="shared" si="2"/>
-        <v>18.155999999999999</v>
-      </c>
-      <c r="H12" s="21">
+        <v>19.2</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="2"/>
-        <v>2.67</v>
-      </c>
-      <c r="I12" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="2"/>
-        <v>38.837820000000008</v>
-      </c>
-      <c r="J12" s="21">
+        <v>46.368000000000009</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>267593.66382000002</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A13" s="52">
-        <v>44580</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D13" s="32">
-        <v>49.5</v>
-      </c>
-      <c r="E13" s="10">
-        <f>C13*D13</f>
-        <v>74250</v>
-      </c>
-      <c r="F13" s="33">
-        <f>E13*0.002</f>
-        <v>148.5</v>
-      </c>
-      <c r="G13" s="32">
-        <f>E13*0.000068</f>
-        <v>5.0490000000000004</v>
-      </c>
-      <c r="H13" s="32">
-        <f>E13*0.00001</f>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="I13" s="32">
-        <f>(F13+G13+H13)*0.07</f>
-        <v>10.800405000000001</v>
-      </c>
-      <c r="J13" s="32">
-        <f>E13-F13-G13-H13-I13</f>
-        <v>74084.908095000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1">
-      <c r="A14" s="46">
-        <v>44580</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="15">
-        <f>C12-C13</f>
-        <v>4500</v>
-      </c>
-      <c r="D14" s="16">
-        <v>44.5</v>
-      </c>
-      <c r="E14" s="17">
-        <f>C14*D14</f>
-        <v>200250</v>
-      </c>
-      <c r="F14" s="17">
-        <f>E14*0.002</f>
-        <v>400.5</v>
-      </c>
-      <c r="G14" s="17">
-        <f>E14*0.000068</f>
-        <v>13.616999999999999</v>
-      </c>
-      <c r="H14" s="17">
-        <f>E14*0.00001</f>
-        <v>2.0024999999999999</v>
-      </c>
-      <c r="I14" s="17">
-        <f>(F14+G14+H14)*0.07</f>
-        <v>29.128365000000002</v>
-      </c>
-      <c r="J14" s="17">
-        <f>E14+F14+I14+G14+H14</f>
-        <v>200695.24786500001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="46">
-        <v>44617</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="15">
-        <v>1500</v>
-      </c>
-      <c r="D15" s="16">
-        <v>48.5</v>
-      </c>
-      <c r="E15" s="17">
-        <f>C15*D15</f>
-        <v>72750</v>
-      </c>
-      <c r="F15" s="17">
-        <f>E15*0.002</f>
-        <v>145.5</v>
-      </c>
-      <c r="G15" s="17">
-        <f>E15*0.000068</f>
-        <v>4.9470000000000001</v>
-      </c>
-      <c r="H15" s="17">
-        <f>E15*0.00001</f>
-        <v>0.72750000000000004</v>
-      </c>
-      <c r="I15" s="17">
-        <f>(F15+G15+H15)*0.07</f>
-        <v>10.582215000000001</v>
-      </c>
-      <c r="J15" s="17">
-        <f>E15+F15+I15+G15+H15</f>
-        <v>72911.756714999996</v>
-      </c>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="84"/>
-      <c r="B16" s="6">
-        <f>(D15-D12)/D12</f>
-        <v>8.98876404494382E-2</v>
-      </c>
-      <c r="C16" s="5">
-        <f>SUM(C14:C15)</f>
-        <v>6000</v>
-      </c>
-      <c r="D16" s="62">
-        <f>E16/C16</f>
-        <v>45.5</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" ref="E16:J16" si="3">SUM(E14:E15)</f>
-        <v>273000</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="3"/>
-        <v>546</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>18.564</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="3"/>
-        <v>2.73</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>39.710580000000007</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="3"/>
-        <v>273607.00458000001</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="46">
-        <v>44617</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1500</v>
-      </c>
-      <c r="D17" s="16">
-        <v>48</v>
-      </c>
-      <c r="E17" s="17">
-        <f>C17*D17</f>
-        <v>72000</v>
-      </c>
-      <c r="F17" s="17">
-        <f>E17*0.002</f>
-        <v>144</v>
-      </c>
-      <c r="G17" s="17">
-        <f>E17*0.000068</f>
-        <v>4.8959999999999999</v>
-      </c>
-      <c r="H17" s="17">
-        <f>E17*0.00001</f>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="I17" s="17">
-        <f>(F17+G17+H17)*0.07</f>
-        <v>10.47312</v>
-      </c>
-      <c r="J17" s="17">
-        <f>E17+F17+I17+G17+H17</f>
-        <v>72160.08911999999</v>
-      </c>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="84"/>
-      <c r="B18" s="6">
-        <f>(D17-D15)/D15</f>
-        <v>-1.0309278350515464E-2</v>
-      </c>
-      <c r="C18" s="5">
-        <f>SUM(C16:C17)</f>
-        <v>7500</v>
-      </c>
-      <c r="D18" s="62">
-        <f>E18/C18</f>
-        <v>46</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18:J18" si="4">SUM(E16:E17)</f>
-        <v>345000</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="4"/>
-        <v>690</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="4"/>
-        <v>23.46</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="4"/>
-        <v>3.45</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="4"/>
-        <v>50.183700000000009</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="4"/>
-        <v>345767.09369999997</v>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="46">
-        <v>44617</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1500</v>
-      </c>
-      <c r="D19" s="16">
-        <v>47.5</v>
-      </c>
-      <c r="E19" s="17">
-        <f>C19*D19</f>
-        <v>71250</v>
-      </c>
-      <c r="F19" s="17">
-        <f>E19*0.002</f>
-        <v>142.5</v>
-      </c>
-      <c r="G19" s="17">
-        <f>E19*0.000068</f>
-        <v>4.8449999999999998</v>
-      </c>
-      <c r="H19" s="17">
-        <f>E19*0.00001</f>
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="I19" s="17">
-        <f>(F19+G19+H19)*0.07</f>
-        <v>10.364025000000002</v>
-      </c>
-      <c r="J19" s="17">
-        <f>E19+F19+I19+G19+H19</f>
-        <v>71408.421524999998</v>
-      </c>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="84"/>
-      <c r="B20" s="6">
-        <f>(D19-D17)/D17</f>
-        <v>-1.0416666666666666E-2</v>
-      </c>
-      <c r="C20" s="5">
-        <f>SUM(C18:C19)</f>
-        <v>9000</v>
-      </c>
-      <c r="D20" s="62">
-        <f>E20/C20</f>
-        <v>46.25</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" ref="E20:J20" si="5">SUM(E18:E19)</f>
-        <v>416250</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="5"/>
-        <v>832.5</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="5"/>
-        <v>28.305</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="5"/>
-        <v>4.1625000000000005</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="5"/>
-        <v>60.547725000000014</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="5"/>
-        <v>417175.51522499998</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="20"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="46">
-        <v>44642</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="16">
-        <v>50.25</v>
-      </c>
-      <c r="E21" s="17">
-        <f>C21*D21</f>
-        <v>150750</v>
-      </c>
-      <c r="F21" s="17">
-        <f>E21*0.002</f>
-        <v>301.5</v>
-      </c>
-      <c r="G21" s="17">
-        <f>E21*0.000068</f>
-        <v>10.250999999999999</v>
-      </c>
-      <c r="H21" s="17">
-        <f>E21*0.00001</f>
-        <v>1.5075000000000001</v>
-      </c>
-      <c r="I21" s="17">
-        <f>(F21+G21+H21)*0.07</f>
-        <v>21.928094999999999</v>
-      </c>
-      <c r="J21" s="17">
-        <f>E21+F21+I21+G21+H21</f>
-        <v>151085.18659500001</v>
-      </c>
-      <c r="M21" s="20"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="84"/>
-      <c r="B22" s="6">
-        <f>(D21-D19)/D19</f>
-        <v>5.7894736842105263E-2</v>
-      </c>
-      <c r="C22" s="5">
-        <f>SUM(C20:C21)</f>
-        <v>12000</v>
-      </c>
-      <c r="D22" s="62">
-        <f>E22/C22</f>
-        <v>47.25</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" ref="E22:J22" si="6">SUM(E20:E21)</f>
-        <v>567000</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="6"/>
-        <v>1134</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="6"/>
-        <v>38.555999999999997</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="6"/>
-        <v>5.6700000000000008</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="6"/>
-        <v>82.475820000000013</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="6"/>
-        <v>568260.70181999996</v>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="46">
-        <v>44741</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D23" s="16">
-        <v>39.75</v>
-      </c>
-      <c r="E23" s="17">
-        <f>C23*D23</f>
-        <v>119250</v>
-      </c>
-      <c r="F23" s="17">
-        <f>E23*0.002</f>
-        <v>238.5</v>
-      </c>
-      <c r="G23" s="17">
-        <f>E23*0.000068</f>
-        <v>8.109</v>
-      </c>
-      <c r="H23" s="17">
-        <f>E23*0.00001</f>
-        <v>1.1925000000000001</v>
-      </c>
-      <c r="I23" s="17">
-        <f>(F23+G23+H23)*0.07</f>
-        <v>17.346105000000001</v>
-      </c>
-      <c r="J23" s="17">
-        <f>E23+F23+I23+G23+H23</f>
-        <v>119515.14760500001</v>
-      </c>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="84"/>
-      <c r="B24" s="6">
-        <f>(D23-D21)/D21</f>
-        <v>-0.20895522388059701</v>
-      </c>
-      <c r="C24" s="5">
-        <f>SUM(C22:C23)</f>
-        <v>15000</v>
-      </c>
-      <c r="D24" s="62">
-        <f>E24/C24</f>
-        <v>45.75</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:J24" si="7">SUM(E22:E23)</f>
-        <v>686250</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="7"/>
-        <v>1372.5</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="7"/>
-        <v>46.664999999999999</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="7"/>
-        <v>6.8625000000000007</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="7"/>
-        <v>99.821925000000022</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="7"/>
-        <v>687775.84942499991</v>
-      </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="46">
-        <v>44876</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D25" s="16">
-        <v>30.5</v>
-      </c>
-      <c r="E25" s="17">
-        <f>C25*D25</f>
-        <v>91500</v>
-      </c>
-      <c r="F25" s="17">
-        <f>E25*0.002</f>
-        <v>183</v>
-      </c>
-      <c r="G25" s="17">
-        <f>E25*0.000068</f>
-        <v>6.2219999999999995</v>
-      </c>
-      <c r="H25" s="17">
-        <f>E25*0.00001</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="I25" s="17">
-        <f>(F25+G25+H25)*0.07</f>
-        <v>13.309590000000002</v>
-      </c>
-      <c r="J25" s="17">
-        <f>E25+F25+I25+G25+H25</f>
-        <v>91703.446589999992</v>
-      </c>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="84"/>
-      <c r="B26" s="6">
-        <f>(D25-D23)/D23</f>
-        <v>-0.23270440251572327</v>
-      </c>
-      <c r="C26" s="5">
-        <f>C24+C25</f>
-        <v>18000</v>
-      </c>
-      <c r="D26" s="62">
-        <f>E26/C26</f>
-        <v>43.208333333333336</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" ref="E26:J26" si="8">E24+E25</f>
-        <v>777750</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="8"/>
-        <v>1555.5</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="8"/>
-        <v>52.887</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="8"/>
-        <v>7.7775000000000007</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="8"/>
-        <v>113.13151500000002</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="8"/>
-        <v>779479.29601499985</v>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="46">
-        <v>44887</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D27" s="16">
-        <v>31.5</v>
-      </c>
-      <c r="E27" s="17">
-        <f>C27*D27</f>
-        <v>94500</v>
-      </c>
-      <c r="F27" s="17">
-        <f>E27*0.002</f>
-        <v>189</v>
-      </c>
-      <c r="G27" s="17">
-        <f>E27*0.000068</f>
-        <v>6.4260000000000002</v>
-      </c>
-      <c r="H27" s="17">
-        <f>E27*0.00001</f>
-        <v>0.94500000000000006</v>
-      </c>
-      <c r="I27" s="17">
-        <f>(F27+G27+H27)*0.07</f>
-        <v>13.74597</v>
-      </c>
-      <c r="J27" s="17">
-        <f>E27+F27+I27+G27+H27</f>
-        <v>94710.116970000017</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="84"/>
-      <c r="B28" s="6">
-        <f>(D27-D26)/D26</f>
-        <v>-0.27097396335583418</v>
-      </c>
-      <c r="C28" s="5">
-        <f>SUM(C26:C27)</f>
-        <v>21000</v>
-      </c>
-      <c r="D28" s="62">
-        <f>E28/C28</f>
-        <v>41.535714285714285</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" ref="E28:J28" si="9">SUM(E26:E27)</f>
-        <v>872250</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="9"/>
-        <v>1744.5</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="9"/>
-        <v>59.313000000000002</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="9"/>
-        <v>8.7225000000000001</v>
-      </c>
-      <c r="I28" s="5">
-        <f t="shared" si="9"/>
-        <v>126.87748500000002</v>
-      </c>
-      <c r="J28" s="5">
-        <f t="shared" si="9"/>
-        <v>874189.41298499983</v>
-      </c>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="46">
-        <v>44959</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D29" s="16">
-        <v>30.25</v>
-      </c>
-      <c r="E29" s="17">
-        <f>C29*D29</f>
-        <v>90750</v>
-      </c>
-      <c r="F29" s="17">
-        <f>E29*0.002</f>
-        <v>181.5</v>
-      </c>
-      <c r="G29" s="17">
-        <f>E29*0.000068</f>
-        <v>6.1710000000000003</v>
-      </c>
-      <c r="H29" s="17">
-        <f>E29*0.00001</f>
-        <v>0.90750000000000008</v>
-      </c>
-      <c r="I29" s="17">
-        <f>(F29+G29+H29)*0.07</f>
-        <v>13.200495</v>
-      </c>
-      <c r="J29" s="17">
-        <f>E29+F29+I29+G29+H29</f>
-        <v>90951.778995000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="84"/>
-      <c r="B30" s="6">
-        <f>(D29-D28)/D28</f>
-        <v>-0.27171109200343935</v>
-      </c>
-      <c r="C30" s="5">
-        <f>SUM(C28:C29)</f>
-        <v>24000</v>
-      </c>
-      <c r="D30" s="62">
-        <f>E30/C30</f>
-        <v>40.125</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" ref="E30:J30" si="10">SUM(E28:E29)</f>
-        <v>963000</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="10"/>
-        <v>1926</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="10"/>
-        <v>65.484000000000009</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="10"/>
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="10"/>
-        <v>140.07798000000003</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" si="10"/>
-        <v>965141.19197999989</v>
-      </c>
-      <c r="M30" s="20"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="46">
-        <v>45887</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D31" s="16">
-        <v>28</v>
-      </c>
-      <c r="E31" s="17">
-        <f>C31*D31</f>
-        <v>84000</v>
-      </c>
-      <c r="F31" s="17">
-        <f>E31*0.002</f>
-        <v>168</v>
-      </c>
-      <c r="G31" s="17">
-        <f>E31*0.000068</f>
-        <v>5.7119999999999997</v>
-      </c>
-      <c r="H31" s="17">
-        <f>E31*0.00001</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="I31" s="17">
-        <f>(F31+G31+H31)*0.07</f>
-        <v>12.218640000000001</v>
-      </c>
-      <c r="J31" s="17">
-        <f>E31+F31+I31+G31+H31</f>
-        <v>84186.770640000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="84"/>
-      <c r="B32" s="6">
-        <f>(D31-D30)/D30</f>
-        <v>-0.30218068535825543</v>
-      </c>
-      <c r="C32" s="5">
-        <f>SUM(C30:C31)</f>
-        <v>27000</v>
-      </c>
-      <c r="D32" s="62">
-        <f>E32/C32</f>
-        <v>38.777777777777779</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" ref="E32:J32" si="11">SUM(E30:E31)</f>
-        <v>1047000</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="11"/>
-        <v>2094</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="11"/>
-        <v>71.196000000000012</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="11"/>
-        <v>10.47</v>
-      </c>
-      <c r="I32" s="5">
-        <f t="shared" si="11"/>
-        <v>152.29662000000002</v>
-      </c>
-      <c r="J32" s="5">
-        <f t="shared" si="11"/>
-        <v>1049327.9626199999</v>
-      </c>
-      <c r="K32" s="23"/>
-      <c r="M32" s="20"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="52">
-        <v>45887</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D33" s="10">
-        <v>26</v>
-      </c>
-      <c r="E33" s="19">
-        <f>C33*D33</f>
-        <v>78000</v>
-      </c>
-      <c r="F33" s="19">
-        <f>E33*0.002</f>
-        <v>156</v>
-      </c>
-      <c r="G33" s="19">
-        <f>E33*0.000068</f>
-        <v>5.3040000000000003</v>
-      </c>
-      <c r="H33" s="19">
-        <f>E33*0.00001</f>
-        <v>0.78</v>
-      </c>
-      <c r="I33" s="19">
-        <f>(F33+G33+H33)*0.07</f>
-        <v>11.345880000000001</v>
-      </c>
-      <c r="J33" s="19">
-        <f>E33+F33+I33+G33+H33</f>
-        <v>78173.429879999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="B34" s="23">
-        <f>(D33-D32)/D32</f>
-        <v>-0.32951289398280803</v>
-      </c>
-      <c r="C34" s="21">
-        <f>SUM(C32:C33)</f>
-        <v>30000</v>
-      </c>
-      <c r="D34" s="61">
-        <f>E34/C34</f>
-        <v>37.5</v>
-      </c>
-      <c r="E34" s="21">
-        <f t="shared" ref="E34:J34" si="12">SUM(E32:E33)</f>
-        <v>1125000</v>
-      </c>
-      <c r="F34" s="21">
-        <f t="shared" si="12"/>
-        <v>2250</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" si="12"/>
-        <v>76.500000000000014</v>
-      </c>
-      <c r="H34" s="21">
-        <f t="shared" si="12"/>
-        <v>11.25</v>
-      </c>
-      <c r="I34" s="21">
-        <f t="shared" si="12"/>
-        <v>163.64250000000001</v>
-      </c>
-      <c r="J34" s="21">
-        <f t="shared" si="12"/>
-        <v>1127501.3924999998</v>
-      </c>
-      <c r="K34" s="23"/>
-      <c r="M34" s="20"/>
-    </row>
-    <row r="35" spans="1:14" s="12" customFormat="1">
-      <c r="A35" s="83"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:14" s="29" customFormat="1" ht="18.600000000000001">
-      <c r="A36" s="46">
-        <v>44846</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D36" s="16">
-        <v>27.75</v>
-      </c>
-      <c r="E36" s="17">
-        <f>C36*D36</f>
-        <v>83250</v>
-      </c>
-      <c r="F36" s="17">
-        <f>E36*0.002</f>
-        <v>166.5</v>
-      </c>
-      <c r="G36" s="17">
-        <f>E36*0.000068</f>
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="H36" s="17">
-        <f>E36*0.00001</f>
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="I36" s="17">
-        <f>(F36+G36+H36)*0.07</f>
-        <v>12.109545000000002</v>
-      </c>
-      <c r="J36" s="17">
-        <f>E36+F36+I36+G36+H36</f>
-        <v>83435.103044999996</v>
-      </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="46">
-        <v>44853</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="15">
-        <f>C36</f>
-        <v>3000</v>
-      </c>
-      <c r="D37" s="24">
-        <v>29.25</v>
-      </c>
-      <c r="E37" s="16">
-        <f>C37*D37</f>
-        <v>87750</v>
-      </c>
-      <c r="F37" s="25">
-        <f>E37*0.002</f>
-        <v>175.5</v>
-      </c>
-      <c r="G37" s="24">
-        <f>E37*0.000068</f>
-        <v>5.9669999999999996</v>
-      </c>
-      <c r="H37" s="24">
-        <f>E37*0.00001</f>
-        <v>0.87750000000000006</v>
-      </c>
-      <c r="I37" s="24">
-        <f>(F37+G37+H37)*0.07</f>
-        <v>12.764115000000002</v>
-      </c>
-      <c r="J37" s="24">
-        <f>E37-F37-G37-H37-I37</f>
-        <v>87554.891384999995</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="46">
-        <f>DAYS360(A36,A37)</f>
-        <v>7</v>
-      </c>
-      <c r="B38" s="28">
-        <f>(D37-D36)/D36</f>
-        <v>5.4054054054054057E-2</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17">
-        <f>E37-E36</f>
-        <v>4500</v>
-      </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17">
-        <f>J37-J36</f>
-        <v>4119.7883399999992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="59" customFormat="1" ht="21">
-      <c r="A39" s="7">
-        <v>45161</v>
-      </c>
-      <c r="C39" s="9">
-        <f>C40</f>
-        <v>3000</v>
-      </c>
-      <c r="D39" s="60">
-        <v>0.25</v>
-      </c>
-      <c r="E39" s="56">
-        <v>0</v>
-      </c>
-      <c r="F39" s="30">
-        <v>0</v>
-      </c>
-      <c r="G39" s="56">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <f>G39-E39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="57">
-        <f>C39*D39*0.9</f>
-        <v>675</v>
-      </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="46">
-        <v>44854</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D40" s="16">
-        <v>27.75</v>
-      </c>
-      <c r="E40" s="17">
-        <f>C40*D40</f>
-        <v>83250</v>
-      </c>
-      <c r="F40" s="17">
-        <f>E40*0.002</f>
-        <v>166.5</v>
-      </c>
-      <c r="G40" s="17">
-        <f>E40*0.000068</f>
-        <v>5.6609999999999996</v>
-      </c>
-      <c r="H40" s="17">
-        <f>E40*0.00001</f>
-        <v>0.83250000000000002</v>
-      </c>
-      <c r="I40" s="17">
-        <f>(F40+G40+H40)*0.07</f>
-        <v>12.109545000000002</v>
-      </c>
-      <c r="J40" s="17">
-        <f>E40+F40+I40+G40+H40</f>
-        <v>83435.103044999996</v>
-      </c>
-      <c r="M40" s="20"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="46">
-        <v>45877</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="15">
-        <f>C40</f>
-        <v>3000</v>
-      </c>
-      <c r="D41" s="24">
-        <v>31</v>
-      </c>
-      <c r="E41" s="16">
-        <f>C41*D41</f>
-        <v>93000</v>
-      </c>
-      <c r="F41" s="25">
-        <f>E41*0.002</f>
-        <v>186</v>
-      </c>
-      <c r="G41" s="24">
-        <f>E41*0.000068</f>
-        <v>6.3239999999999998</v>
-      </c>
-      <c r="H41" s="24">
-        <f>E41*0.00001</f>
-        <v>0.93</v>
-      </c>
-      <c r="I41" s="24">
-        <f>(F41+G41+H41)*0.07</f>
-        <v>13.527780000000003</v>
-      </c>
-      <c r="J41" s="24">
-        <f>E41-F41-G41-H41-I41</f>
-        <v>92793.21822000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="46"/>
-      <c r="B42" s="28">
-        <f>J42/J40</f>
-        <v>0.11216040771176126</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17">
-        <f>E41-E40</f>
-        <v>9750</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17">
-        <f>J41-J40</f>
-        <v>9358.1151750000136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="46">
-        <v>45887</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="15">
-        <v>3000</v>
-      </c>
-      <c r="D43" s="16">
-        <v>28</v>
-      </c>
-      <c r="E43" s="17">
-        <f>C43*D43</f>
-        <v>84000</v>
-      </c>
-      <c r="F43" s="17">
-        <f>E43*0.002</f>
-        <v>168</v>
-      </c>
-      <c r="G43" s="17">
-        <f>E43*0.000068</f>
-        <v>5.7119999999999997</v>
-      </c>
-      <c r="H43" s="17">
-        <f>E43*0.00001</f>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="I43" s="17">
-        <f>(F43+G43+H43)*0.07</f>
-        <v>12.218640000000001</v>
-      </c>
-      <c r="J43" s="17">
-        <f>E43+F43+I43+G43+H43</f>
-        <v>84186.770640000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="46">
-        <v>45877</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="15">
-        <f>C43</f>
-        <v>3000</v>
-      </c>
-      <c r="D44" s="24">
-        <v>31</v>
-      </c>
-      <c r="E44" s="16">
-        <f>C44*D44</f>
-        <v>93000</v>
-      </c>
-      <c r="F44" s="25">
-        <f>E44*0.002</f>
-        <v>186</v>
-      </c>
-      <c r="G44" s="24">
-        <f>E44*0.000068</f>
-        <v>6.3239999999999998</v>
-      </c>
-      <c r="H44" s="24">
-        <f>E44*0.00001</f>
-        <v>0.93</v>
-      </c>
-      <c r="I44" s="24">
-        <f>(F44+G44+H44)*0.07</f>
-        <v>13.527780000000003</v>
-      </c>
-      <c r="J44" s="24">
-        <f>E44-F44-G44-H44-I44</f>
-        <v>92793.21822000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="46"/>
-      <c r="B45" s="28">
-        <f>J45/J43</f>
-        <v>0.1022304040714776</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17">
-        <f>E44-E43</f>
-        <v>9000</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17">
-        <f>J44-J43</f>
-        <v>8606.4475800000073</v>
-      </c>
+        <v>320708.76800000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="12" customFormat="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+    </row>
+    <row r="10" spans="1:13" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -17985,6 +16627,1703 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
+  <dimension ref="A1:N45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="83" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9" style="20"/>
+    <col min="7" max="7" width="6.6640625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="20" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="18" style="20" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="20"/>
+    <col min="13" max="13" width="8.88671875" style="23"/>
+    <col min="14" max="16384" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="12" customFormat="1">
+      <c r="A2" s="52">
+        <v>44508</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="10">
+        <v>44</v>
+      </c>
+      <c r="E2" s="19">
+        <f>C2*D2</f>
+        <v>132000</v>
+      </c>
+      <c r="F2" s="19">
+        <f>E2*0.002</f>
+        <v>264</v>
+      </c>
+      <c r="G2" s="19">
+        <f>E2*0.00006</f>
+        <v>7.92</v>
+      </c>
+      <c r="H2" s="19">
+        <f>E2*0.00001</f>
+        <v>1.32</v>
+      </c>
+      <c r="I2" s="19">
+        <f>(F2+G2+H2)*0.07</f>
+        <v>19.126800000000003</v>
+      </c>
+      <c r="J2" s="19">
+        <f>E2+F2+I2+G2+H2</f>
+        <v>132292.36680000002</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="52">
+        <v>44517</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="10">
+        <v>41</v>
+      </c>
+      <c r="E3" s="19">
+        <f>C3*D3</f>
+        <v>61500</v>
+      </c>
+      <c r="F3" s="19">
+        <f>E3*0.002</f>
+        <v>123</v>
+      </c>
+      <c r="G3" s="19">
+        <f>E3*0.000068</f>
+        <v>4.1820000000000004</v>
+      </c>
+      <c r="H3" s="19">
+        <f>E3*0.00001</f>
+        <v>0.6150000000000001</v>
+      </c>
+      <c r="I3" s="19">
+        <f>(F3+G3+H3)*0.07</f>
+        <v>8.9457900000000006</v>
+      </c>
+      <c r="J3" s="19">
+        <f>E3+F3+I3+G3+H3</f>
+        <v>61636.742789999997</v>
+      </c>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="23">
+        <f>(D3-D2)/D2</f>
+        <v>-6.8181818181818177E-2</v>
+      </c>
+      <c r="C4" s="21">
+        <f>SUM(C2:C3)</f>
+        <v>4500</v>
+      </c>
+      <c r="D4" s="61">
+        <f>E4/C4</f>
+        <v>43</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
+        <v>193500</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="0"/>
+        <v>12.102</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="I4" s="21">
+        <f t="shared" si="0"/>
+        <v>28.072590000000005</v>
+      </c>
+      <c r="J4" s="21">
+        <f t="shared" si="0"/>
+        <v>193929.10959000001</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="52">
+        <v>44543</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>900</v>
+      </c>
+      <c r="D5" s="32">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10">
+        <f>C5*D5</f>
+        <v>41400</v>
+      </c>
+      <c r="F5" s="33">
+        <f>E5*0.002</f>
+        <v>82.8</v>
+      </c>
+      <c r="G5" s="32">
+        <f>E5*0.000068</f>
+        <v>2.8151999999999999</v>
+      </c>
+      <c r="H5" s="32">
+        <f>E5*0.00001</f>
+        <v>0.41400000000000003</v>
+      </c>
+      <c r="I5" s="32">
+        <f>(F5+G5+H5)*0.07</f>
+        <v>6.0220440000000011</v>
+      </c>
+      <c r="J5" s="32">
+        <f>E5-F5-G5-H5-I5</f>
+        <v>41307.948756000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f>C4-C5</f>
+        <v>3600</v>
+      </c>
+      <c r="D6" s="10">
+        <v>43</v>
+      </c>
+      <c r="E6" s="19">
+        <f>C6*D6</f>
+        <v>154800</v>
+      </c>
+      <c r="F6" s="19">
+        <f>E6*0.002</f>
+        <v>309.60000000000002</v>
+      </c>
+      <c r="G6" s="19">
+        <f>E6*0.000068</f>
+        <v>10.526400000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <f>E6*0.00001</f>
+        <v>1.548</v>
+      </c>
+      <c r="I6" s="19">
+        <f>(F6+G6+H6)*0.07</f>
+        <v>22.517208000000007</v>
+      </c>
+      <c r="J6" s="19">
+        <f>E6+F6+I6+G6+H6</f>
+        <v>155144.19160800002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="52">
+        <v>44545</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2400</v>
+      </c>
+      <c r="D7" s="10">
+        <v>43</v>
+      </c>
+      <c r="E7" s="19">
+        <f>C7*D7</f>
+        <v>103200</v>
+      </c>
+      <c r="F7" s="19">
+        <f>E7*0.002</f>
+        <v>206.4</v>
+      </c>
+      <c r="G7" s="19">
+        <f>E7*0.000068</f>
+        <v>7.0175999999999998</v>
+      </c>
+      <c r="H7" s="19">
+        <f>E7*0.00001</f>
+        <v>1.032</v>
+      </c>
+      <c r="I7" s="19">
+        <f>(F7+G7+H7)*0.07</f>
+        <v>15.011472000000001</v>
+      </c>
+      <c r="J7" s="19">
+        <f>E7+F7+I7+G7+H7</f>
+        <v>103429.46107200001</v>
+      </c>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="23">
+        <f>(D7-D6)/D6</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <f>SUM(C6:C7)</f>
+        <v>6000</v>
+      </c>
+      <c r="D8" s="61">
+        <f>E8/C8</f>
+        <v>43</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8:J8" si="1">SUM(E6:E7)</f>
+        <v>258000</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="1"/>
+        <v>17.544</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>2.58</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="1"/>
+        <v>37.528680000000008</v>
+      </c>
+      <c r="J8" s="21">
+        <f t="shared" si="1"/>
+        <v>258573.65268000003</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A9" s="52">
+        <v>44551</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="32">
+        <v>48.5</v>
+      </c>
+      <c r="E9" s="10">
+        <f>C9*D9</f>
+        <v>72750</v>
+      </c>
+      <c r="F9" s="33">
+        <f>E9*0.002</f>
+        <v>145.5</v>
+      </c>
+      <c r="G9" s="32">
+        <f>E9*0.000068</f>
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="H9" s="32">
+        <f>E9*0.00001</f>
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="I9" s="32">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>10.582215000000001</v>
+      </c>
+      <c r="J9" s="32">
+        <f>E9-F9-G9-H9-I9</f>
+        <v>72588.243285000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1">
+      <c r="A10" s="52">
+        <v>44551</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <f>C8-C9</f>
+        <v>4500</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43</v>
+      </c>
+      <c r="E10" s="19">
+        <f>C10*D10</f>
+        <v>193500</v>
+      </c>
+      <c r="F10" s="19">
+        <f>E10*0.002</f>
+        <v>387</v>
+      </c>
+      <c r="G10" s="19">
+        <f>E10*0.000068</f>
+        <v>13.157999999999999</v>
+      </c>
+      <c r="H10" s="19">
+        <f>E10*0.00001</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="I10" s="19">
+        <f>(F10+G10+H10)*0.07</f>
+        <v>28.146510000000003</v>
+      </c>
+      <c r="J10" s="19">
+        <f>E10+F10+I10+G10+H10</f>
+        <v>193930.23950999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="52">
+        <v>44578</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="10">
+        <v>49</v>
+      </c>
+      <c r="E11" s="19">
+        <f>C11*D11</f>
+        <v>73500</v>
+      </c>
+      <c r="F11" s="19">
+        <f>E11*0.002</f>
+        <v>147</v>
+      </c>
+      <c r="G11" s="19">
+        <f>E11*0.000068</f>
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="H11" s="19">
+        <f>E11*0.00001</f>
+        <v>0.7350000000000001</v>
+      </c>
+      <c r="I11" s="19">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>10.691310000000001</v>
+      </c>
+      <c r="J11" s="19">
+        <f>E11+F11+I11+G11+H11</f>
+        <v>73663.424310000002</v>
+      </c>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="23">
+        <f>(D11-D10)/D10</f>
+        <v>0.13953488372093023</v>
+      </c>
+      <c r="C12" s="21">
+        <f>SUM(C10:C11)</f>
+        <v>6000</v>
+      </c>
+      <c r="D12" s="61">
+        <f>E12/C12</f>
+        <v>44.5</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" ref="E12:J12" si="2">SUM(E10:E11)</f>
+        <v>267000</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="2"/>
+        <v>534</v>
+      </c>
+      <c r="G12" s="21">
+        <f t="shared" si="2"/>
+        <v>18.155999999999999</v>
+      </c>
+      <c r="H12" s="21">
+        <f t="shared" si="2"/>
+        <v>2.67</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="2"/>
+        <v>38.837820000000008</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="2"/>
+        <v>267593.66382000002</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" s="12" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A13" s="52">
+        <v>44580</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="32">
+        <v>49.5</v>
+      </c>
+      <c r="E13" s="10">
+        <f>C13*D13</f>
+        <v>74250</v>
+      </c>
+      <c r="F13" s="33">
+        <f>E13*0.002</f>
+        <v>148.5</v>
+      </c>
+      <c r="G13" s="32">
+        <f>E13*0.000068</f>
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="H13" s="32">
+        <f>E13*0.00001</f>
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="I13" s="32">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>10.800405000000001</v>
+      </c>
+      <c r="J13" s="32">
+        <f>E13-F13-G13-H13-I13</f>
+        <v>74084.908095000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1">
+      <c r="A14" s="46">
+        <v>44580</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <f>C12-C13</f>
+        <v>4500</v>
+      </c>
+      <c r="D14" s="16">
+        <v>44.5</v>
+      </c>
+      <c r="E14" s="17">
+        <f>C14*D14</f>
+        <v>200250</v>
+      </c>
+      <c r="F14" s="17">
+        <f>E14*0.002</f>
+        <v>400.5</v>
+      </c>
+      <c r="G14" s="17">
+        <f>E14*0.000068</f>
+        <v>13.616999999999999</v>
+      </c>
+      <c r="H14" s="17">
+        <f>E14*0.00001</f>
+        <v>2.0024999999999999</v>
+      </c>
+      <c r="I14" s="17">
+        <f>(F14+G14+H14)*0.07</f>
+        <v>29.128365000000002</v>
+      </c>
+      <c r="J14" s="17">
+        <f>E14+F14+I14+G14+H14</f>
+        <v>200695.24786500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="46">
+        <v>44617</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D15" s="16">
+        <v>48.5</v>
+      </c>
+      <c r="E15" s="17">
+        <f>C15*D15</f>
+        <v>72750</v>
+      </c>
+      <c r="F15" s="17">
+        <f>E15*0.002</f>
+        <v>145.5</v>
+      </c>
+      <c r="G15" s="17">
+        <f>E15*0.000068</f>
+        <v>4.9470000000000001</v>
+      </c>
+      <c r="H15" s="17">
+        <f>E15*0.00001</f>
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="I15" s="17">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>10.582215000000001</v>
+      </c>
+      <c r="J15" s="17">
+        <f>E15+F15+I15+G15+H15</f>
+        <v>72911.756714999996</v>
+      </c>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="84"/>
+      <c r="B16" s="6">
+        <f>(D15-D12)/D12</f>
+        <v>8.98876404494382E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>SUM(C14:C15)</f>
+        <v>6000</v>
+      </c>
+      <c r="D16" s="62">
+        <f>E16/C16</f>
+        <v>45.5</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16:J16" si="3">SUM(E14:E15)</f>
+        <v>273000</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>546</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>18.564</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="3"/>
+        <v>2.73</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>39.710580000000007</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="3"/>
+        <v>273607.00458000001</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="46">
+        <v>44617</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D17" s="16">
+        <v>48</v>
+      </c>
+      <c r="E17" s="17">
+        <f>C17*D17</f>
+        <v>72000</v>
+      </c>
+      <c r="F17" s="17">
+        <f>E17*0.002</f>
+        <v>144</v>
+      </c>
+      <c r="G17" s="17">
+        <f>E17*0.000068</f>
+        <v>4.8959999999999999</v>
+      </c>
+      <c r="H17" s="17">
+        <f>E17*0.00001</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="I17" s="17">
+        <f>(F17+G17+H17)*0.07</f>
+        <v>10.47312</v>
+      </c>
+      <c r="J17" s="17">
+        <f>E17+F17+I17+G17+H17</f>
+        <v>72160.08911999999</v>
+      </c>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="84"/>
+      <c r="B18" s="6">
+        <f>(D17-D15)/D15</f>
+        <v>-1.0309278350515464E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <f>SUM(C16:C17)</f>
+        <v>7500</v>
+      </c>
+      <c r="D18" s="62">
+        <f>E18/C18</f>
+        <v>46</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18:J18" si="4">SUM(E16:E17)</f>
+        <v>345000</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="4"/>
+        <v>23.46</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="4"/>
+        <v>3.45</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="4"/>
+        <v>50.183700000000009</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
+        <v>345767.09369999997</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="46">
+        <v>44617</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D19" s="16">
+        <v>47.5</v>
+      </c>
+      <c r="E19" s="17">
+        <f>C19*D19</f>
+        <v>71250</v>
+      </c>
+      <c r="F19" s="17">
+        <f>E19*0.002</f>
+        <v>142.5</v>
+      </c>
+      <c r="G19" s="17">
+        <f>E19*0.000068</f>
+        <v>4.8449999999999998</v>
+      </c>
+      <c r="H19" s="17">
+        <f>E19*0.00001</f>
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="I19" s="17">
+        <f>(F19+G19+H19)*0.07</f>
+        <v>10.364025000000002</v>
+      </c>
+      <c r="J19" s="17">
+        <f>E19+F19+I19+G19+H19</f>
+        <v>71408.421524999998</v>
+      </c>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="84"/>
+      <c r="B20" s="6">
+        <f>(D19-D17)/D17</f>
+        <v>-1.0416666666666666E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <f>SUM(C18:C19)</f>
+        <v>9000</v>
+      </c>
+      <c r="D20" s="62">
+        <f>E20/C20</f>
+        <v>46.25</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:J20" si="5">SUM(E18:E19)</f>
+        <v>416250</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="5"/>
+        <v>832.5</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="5"/>
+        <v>28.305</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="5"/>
+        <v>4.1625000000000005</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="5"/>
+        <v>60.547725000000014</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="5"/>
+        <v>417175.51522499998</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="46">
+        <v>44642</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="16">
+        <v>50.25</v>
+      </c>
+      <c r="E21" s="17">
+        <f>C21*D21</f>
+        <v>150750</v>
+      </c>
+      <c r="F21" s="17">
+        <f>E21*0.002</f>
+        <v>301.5</v>
+      </c>
+      <c r="G21" s="17">
+        <f>E21*0.000068</f>
+        <v>10.250999999999999</v>
+      </c>
+      <c r="H21" s="17">
+        <f>E21*0.00001</f>
+        <v>1.5075000000000001</v>
+      </c>
+      <c r="I21" s="17">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>21.928094999999999</v>
+      </c>
+      <c r="J21" s="17">
+        <f>E21+F21+I21+G21+H21</f>
+        <v>151085.18659500001</v>
+      </c>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="84"/>
+      <c r="B22" s="6">
+        <f>(D21-D19)/D19</f>
+        <v>5.7894736842105263E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(C20:C21)</f>
+        <v>12000</v>
+      </c>
+      <c r="D22" s="62">
+        <f>E22/C22</f>
+        <v>47.25</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22:J22" si="6">SUM(E20:E21)</f>
+        <v>567000</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="6"/>
+        <v>1134</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="6"/>
+        <v>38.555999999999997</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="6"/>
+        <v>5.6700000000000008</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="6"/>
+        <v>82.475820000000013</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="6"/>
+        <v>568260.70181999996</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="46">
+        <v>44741</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D23" s="16">
+        <v>39.75</v>
+      </c>
+      <c r="E23" s="17">
+        <f>C23*D23</f>
+        <v>119250</v>
+      </c>
+      <c r="F23" s="17">
+        <f>E23*0.002</f>
+        <v>238.5</v>
+      </c>
+      <c r="G23" s="17">
+        <f>E23*0.000068</f>
+        <v>8.109</v>
+      </c>
+      <c r="H23" s="17">
+        <f>E23*0.00001</f>
+        <v>1.1925000000000001</v>
+      </c>
+      <c r="I23" s="17">
+        <f>(F23+G23+H23)*0.07</f>
+        <v>17.346105000000001</v>
+      </c>
+      <c r="J23" s="17">
+        <f>E23+F23+I23+G23+H23</f>
+        <v>119515.14760500001</v>
+      </c>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="84"/>
+      <c r="B24" s="6">
+        <f>(D23-D21)/D21</f>
+        <v>-0.20895522388059701</v>
+      </c>
+      <c r="C24" s="5">
+        <f>SUM(C22:C23)</f>
+        <v>15000</v>
+      </c>
+      <c r="D24" s="62">
+        <f>E24/C24</f>
+        <v>45.75</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:J24" si="7">SUM(E22:E23)</f>
+        <v>686250</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="7"/>
+        <v>1372.5</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="7"/>
+        <v>46.664999999999999</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="7"/>
+        <v>6.8625000000000007</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="7"/>
+        <v>99.821925000000022</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="7"/>
+        <v>687775.84942499991</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="46">
+        <v>44876</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="16">
+        <v>30.5</v>
+      </c>
+      <c r="E25" s="17">
+        <f>C25*D25</f>
+        <v>91500</v>
+      </c>
+      <c r="F25" s="17">
+        <f>E25*0.002</f>
+        <v>183</v>
+      </c>
+      <c r="G25" s="17">
+        <f>E25*0.000068</f>
+        <v>6.2219999999999995</v>
+      </c>
+      <c r="H25" s="17">
+        <f>E25*0.00001</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I25" s="17">
+        <f>(F25+G25+H25)*0.07</f>
+        <v>13.309590000000002</v>
+      </c>
+      <c r="J25" s="17">
+        <f>E25+F25+I25+G25+H25</f>
+        <v>91703.446589999992</v>
+      </c>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="84"/>
+      <c r="B26" s="6">
+        <f>(D25-D23)/D23</f>
+        <v>-0.23270440251572327</v>
+      </c>
+      <c r="C26" s="5">
+        <f>C24+C25</f>
+        <v>18000</v>
+      </c>
+      <c r="D26" s="62">
+        <f>E26/C26</f>
+        <v>43.208333333333336</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:J26" si="8">E24+E25</f>
+        <v>777750</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="8"/>
+        <v>1555.5</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="8"/>
+        <v>52.887</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="8"/>
+        <v>7.7775000000000007</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="8"/>
+        <v>113.13151500000002</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="8"/>
+        <v>779479.29601499985</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="46">
+        <v>44887</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="16">
+        <v>31.5</v>
+      </c>
+      <c r="E27" s="17">
+        <f>C27*D27</f>
+        <v>94500</v>
+      </c>
+      <c r="F27" s="17">
+        <f>E27*0.002</f>
+        <v>189</v>
+      </c>
+      <c r="G27" s="17">
+        <f>E27*0.000068</f>
+        <v>6.4260000000000002</v>
+      </c>
+      <c r="H27" s="17">
+        <f>E27*0.00001</f>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="I27" s="17">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>13.74597</v>
+      </c>
+      <c r="J27" s="17">
+        <f>E27+F27+I27+G27+H27</f>
+        <v>94710.116970000017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="84"/>
+      <c r="B28" s="6">
+        <f>(D27-D26)/D26</f>
+        <v>-0.27097396335583418</v>
+      </c>
+      <c r="C28" s="5">
+        <f>SUM(C26:C27)</f>
+        <v>21000</v>
+      </c>
+      <c r="D28" s="62">
+        <f>E28/C28</f>
+        <v>41.535714285714285</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:J28" si="9">SUM(E26:E27)</f>
+        <v>872250</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="9"/>
+        <v>1744.5</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="9"/>
+        <v>59.313000000000002</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="9"/>
+        <v>8.7225000000000001</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>126.87748500000002</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="9"/>
+        <v>874189.41298499983</v>
+      </c>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="46">
+        <v>44959</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D29" s="16">
+        <v>30.25</v>
+      </c>
+      <c r="E29" s="17">
+        <f>C29*D29</f>
+        <v>90750</v>
+      </c>
+      <c r="F29" s="17">
+        <f>E29*0.002</f>
+        <v>181.5</v>
+      </c>
+      <c r="G29" s="17">
+        <f>E29*0.000068</f>
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="H29" s="17">
+        <f>E29*0.00001</f>
+        <v>0.90750000000000008</v>
+      </c>
+      <c r="I29" s="17">
+        <f>(F29+G29+H29)*0.07</f>
+        <v>13.200495</v>
+      </c>
+      <c r="J29" s="17">
+        <f>E29+F29+I29+G29+H29</f>
+        <v>90951.778995000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="84"/>
+      <c r="B30" s="6">
+        <f>(D29-D28)/D28</f>
+        <v>-0.27171109200343935</v>
+      </c>
+      <c r="C30" s="5">
+        <f>SUM(C28:C29)</f>
+        <v>24000</v>
+      </c>
+      <c r="D30" s="62">
+        <f>E30/C30</f>
+        <v>40.125</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" ref="E30:J30" si="10">SUM(E28:E29)</f>
+        <v>963000</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="10"/>
+        <v>1926</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="10"/>
+        <v>65.484000000000009</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="10"/>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="10"/>
+        <v>140.07798000000003</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="10"/>
+        <v>965141.19197999989</v>
+      </c>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="46">
+        <v>45887</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D31" s="16">
+        <v>28</v>
+      </c>
+      <c r="E31" s="17">
+        <f>C31*D31</f>
+        <v>84000</v>
+      </c>
+      <c r="F31" s="17">
+        <f>E31*0.002</f>
+        <v>168</v>
+      </c>
+      <c r="G31" s="17">
+        <f>E31*0.000068</f>
+        <v>5.7119999999999997</v>
+      </c>
+      <c r="H31" s="17">
+        <f>E31*0.00001</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I31" s="17">
+        <f>(F31+G31+H31)*0.07</f>
+        <v>12.218640000000001</v>
+      </c>
+      <c r="J31" s="17">
+        <f>E31+F31+I31+G31+H31</f>
+        <v>84186.770640000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="84"/>
+      <c r="B32" s="6">
+        <f>(D31-D30)/D30</f>
+        <v>-0.30218068535825543</v>
+      </c>
+      <c r="C32" s="5">
+        <f>SUM(C30:C31)</f>
+        <v>27000</v>
+      </c>
+      <c r="D32" s="62">
+        <f>E32/C32</f>
+        <v>38.777777777777779</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" ref="E32:J32" si="11">SUM(E30:E31)</f>
+        <v>1047000</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="11"/>
+        <v>2094</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="11"/>
+        <v>71.196000000000012</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="11"/>
+        <v>10.47</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="11"/>
+        <v>152.29662000000002</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="11"/>
+        <v>1049327.9626199999</v>
+      </c>
+      <c r="K32" s="23"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="52">
+        <v>45887</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D33" s="10">
+        <v>26</v>
+      </c>
+      <c r="E33" s="19">
+        <f>C33*D33</f>
+        <v>78000</v>
+      </c>
+      <c r="F33" s="19">
+        <f>E33*0.002</f>
+        <v>156</v>
+      </c>
+      <c r="G33" s="19">
+        <f>E33*0.000068</f>
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="H33" s="19">
+        <f>E33*0.00001</f>
+        <v>0.78</v>
+      </c>
+      <c r="I33" s="19">
+        <f>(F33+G33+H33)*0.07</f>
+        <v>11.345880000000001</v>
+      </c>
+      <c r="J33" s="19">
+        <f>E33+F33+I33+G33+H33</f>
+        <v>78173.429879999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="23">
+        <f>(D33-D32)/D32</f>
+        <v>-0.32951289398280803</v>
+      </c>
+      <c r="C34" s="21">
+        <f>SUM(C32:C33)</f>
+        <v>30000</v>
+      </c>
+      <c r="D34" s="61">
+        <f>E34/C34</f>
+        <v>37.5</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" ref="E34:J34" si="12">SUM(E32:E33)</f>
+        <v>1125000</v>
+      </c>
+      <c r="F34" s="21">
+        <f t="shared" si="12"/>
+        <v>2250</v>
+      </c>
+      <c r="G34" s="21">
+        <f t="shared" si="12"/>
+        <v>76.500000000000014</v>
+      </c>
+      <c r="H34" s="21">
+        <f t="shared" si="12"/>
+        <v>11.25</v>
+      </c>
+      <c r="I34" s="21">
+        <f t="shared" si="12"/>
+        <v>163.64250000000001</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="12"/>
+        <v>1127501.3924999998</v>
+      </c>
+      <c r="K34" s="23"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:14" s="12" customFormat="1">
+      <c r="A35" s="83"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:14" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A36" s="46">
+        <v>44846</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D36" s="16">
+        <v>27.75</v>
+      </c>
+      <c r="E36" s="17">
+        <f>C36*D36</f>
+        <v>83250</v>
+      </c>
+      <c r="F36" s="17">
+        <f>E36*0.002</f>
+        <v>166.5</v>
+      </c>
+      <c r="G36" s="17">
+        <f>E36*0.000068</f>
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="H36" s="17">
+        <f>E36*0.00001</f>
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="I36" s="17">
+        <f>(F36+G36+H36)*0.07</f>
+        <v>12.109545000000002</v>
+      </c>
+      <c r="J36" s="17">
+        <f>E36+F36+I36+G36+H36</f>
+        <v>83435.103044999996</v>
+      </c>
+      <c r="K36" s="30"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="46">
+        <v>44853</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="15">
+        <f>C36</f>
+        <v>3000</v>
+      </c>
+      <c r="D37" s="24">
+        <v>29.25</v>
+      </c>
+      <c r="E37" s="16">
+        <f>C37*D37</f>
+        <v>87750</v>
+      </c>
+      <c r="F37" s="25">
+        <f>E37*0.002</f>
+        <v>175.5</v>
+      </c>
+      <c r="G37" s="24">
+        <f>E37*0.000068</f>
+        <v>5.9669999999999996</v>
+      </c>
+      <c r="H37" s="24">
+        <f>E37*0.00001</f>
+        <v>0.87750000000000006</v>
+      </c>
+      <c r="I37" s="24">
+        <f>(F37+G37+H37)*0.07</f>
+        <v>12.764115000000002</v>
+      </c>
+      <c r="J37" s="24">
+        <f>E37-F37-G37-H37-I37</f>
+        <v>87554.891384999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="46">
+        <f>DAYS360(A36,A37)</f>
+        <v>7</v>
+      </c>
+      <c r="B38" s="28">
+        <f>(D37-D36)/D36</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17">
+        <f>E37-E36</f>
+        <v>4500</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17">
+        <f>J37-J36</f>
+        <v>4119.7883399999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="59" customFormat="1" ht="21">
+      <c r="A39" s="7">
+        <v>45161</v>
+      </c>
+      <c r="C39" s="9">
+        <f>C40</f>
+        <v>3000</v>
+      </c>
+      <c r="D39" s="60">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="56">
+        <v>0</v>
+      </c>
+      <c r="F39" s="30">
+        <v>0</v>
+      </c>
+      <c r="G39" s="56">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <f>G39-E39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0</v>
+      </c>
+      <c r="J39" s="57">
+        <f>C39*D39*0.9</f>
+        <v>675</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="46">
+        <v>44854</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D40" s="16">
+        <v>27.75</v>
+      </c>
+      <c r="E40" s="17">
+        <f>C40*D40</f>
+        <v>83250</v>
+      </c>
+      <c r="F40" s="17">
+        <f>E40*0.002</f>
+        <v>166.5</v>
+      </c>
+      <c r="G40" s="17">
+        <f>E40*0.000068</f>
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="H40" s="17">
+        <f>E40*0.00001</f>
+        <v>0.83250000000000002</v>
+      </c>
+      <c r="I40" s="17">
+        <f>(F40+G40+H40)*0.07</f>
+        <v>12.109545000000002</v>
+      </c>
+      <c r="J40" s="17">
+        <f>E40+F40+I40+G40+H40</f>
+        <v>83435.103044999996</v>
+      </c>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="15">
+        <f>C40</f>
+        <v>3000</v>
+      </c>
+      <c r="D41" s="24">
+        <v>31</v>
+      </c>
+      <c r="E41" s="16">
+        <f>C41*D41</f>
+        <v>93000</v>
+      </c>
+      <c r="F41" s="25">
+        <f>E41*0.002</f>
+        <v>186</v>
+      </c>
+      <c r="G41" s="24">
+        <f>E41*0.000068</f>
+        <v>6.3239999999999998</v>
+      </c>
+      <c r="H41" s="24">
+        <f>E41*0.00001</f>
+        <v>0.93</v>
+      </c>
+      <c r="I41" s="24">
+        <f>(F41+G41+H41)*0.07</f>
+        <v>13.527780000000003</v>
+      </c>
+      <c r="J41" s="24">
+        <f>E41-F41-G41-H41-I41</f>
+        <v>92793.21822000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="46"/>
+      <c r="B42" s="28">
+        <f>J42/J40</f>
+        <v>0.11216040771176126</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17">
+        <f>E41-E40</f>
+        <v>9750</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17">
+        <f>J41-J40</f>
+        <v>9358.1151750000136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="46">
+        <v>45887</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D43" s="16">
+        <v>28</v>
+      </c>
+      <c r="E43" s="17">
+        <f>C43*D43</f>
+        <v>84000</v>
+      </c>
+      <c r="F43" s="17">
+        <f>E43*0.002</f>
+        <v>168</v>
+      </c>
+      <c r="G43" s="17">
+        <f>E43*0.000068</f>
+        <v>5.7119999999999997</v>
+      </c>
+      <c r="H43" s="17">
+        <f>E43*0.00001</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I43" s="17">
+        <f>(F43+G43+H43)*0.07</f>
+        <v>12.218640000000001</v>
+      </c>
+      <c r="J43" s="17">
+        <f>E43+F43+I43+G43+H43</f>
+        <v>84186.770640000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="46">
+        <v>45877</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="15">
+        <f>C43</f>
+        <v>3000</v>
+      </c>
+      <c r="D44" s="24">
+        <v>31</v>
+      </c>
+      <c r="E44" s="16">
+        <f>C44*D44</f>
+        <v>93000</v>
+      </c>
+      <c r="F44" s="25">
+        <f>E44*0.002</f>
+        <v>186</v>
+      </c>
+      <c r="G44" s="24">
+        <f>E44*0.000068</f>
+        <v>6.3239999999999998</v>
+      </c>
+      <c r="H44" s="24">
+        <f>E44*0.00001</f>
+        <v>0.93</v>
+      </c>
+      <c r="I44" s="24">
+        <f>(F44+G44+H44)*0.07</f>
+        <v>13.527780000000003</v>
+      </c>
+      <c r="J44" s="24">
+        <f>E44-F44-G44-H44-I44</f>
+        <v>92793.21822000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="46"/>
+      <c r="B45" s="28">
+        <f>J45/J43</f>
+        <v>0.1022304040714776</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17">
+        <f>E44-E43</f>
+        <v>9000</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17">
+        <f>J44-J43</f>
+        <v>8606.4475800000073</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650D376F-67DD-4980-BF1B-8A055D89D41A}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -18304,7 +18643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5868373-E563-434B-9630-0799FB268869}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -18925,7 +19264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248C1A-0BE1-4664-895A-D29EA068DDA6}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -19236,7 +19575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D015-9A6D-40DB-A099-73BBAC254E19}">
   <dimension ref="A1:M40"/>
   <sheetViews>
@@ -20666,7 +21005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D30CFA7-C46B-4885-A4A3-CF2E8439A3D7}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -21289,7 +21628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
   <dimension ref="A1:N9"/>
   <sheetViews>
@@ -21588,7 +21927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313500C-829E-4589-85F6-0C28EBDE7508}">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -21954,7 +22293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D35EBD-FACE-4A0A-BE47-8E8EEE95DB23}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -22608,7 +22947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38AEBDA-97A4-44E7-92FF-AB904E0EA610}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -26324,7 +26663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3593A5-F4A3-43B6-A6B6-3CA4F1D0F412}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1480" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E0D4E66-DC84-4CDA-BF5E-7B0505562F4E}"/>
+  <xr:revisionPtr revIDLastSave="1551" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE8C608D-73FA-4CA5-9E54-554BF4B5404B}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10068" windowHeight="11544" tabRatio="461" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9876" yWindow="1560" windowWidth="10356" windowHeight="10404" tabRatio="461" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="42">
   <si>
     <t>BUY</t>
   </si>
@@ -832,10 +832,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -2658,6 +2658,112 @@
         <v>-12637.527356999999</v>
       </c>
       <c r="K53" s="19"/>
+    </row>
+    <row r="54" spans="1:15" s="18" customFormat="1" ht="15.6">
+      <c r="A54" s="52">
+        <v>44274</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="43">
+        <v>27.5</v>
+      </c>
+      <c r="E54" s="19">
+        <f>C54*D54</f>
+        <v>55000</v>
+      </c>
+      <c r="F54" s="19">
+        <f>E54*0.002</f>
+        <v>110</v>
+      </c>
+      <c r="G54" s="19">
+        <f>E54*0.00006</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="H54" s="19">
+        <f>E54*0.00001</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I54" s="19">
+        <f>(F54+G54+H54)*0.07</f>
+        <v>7.9695</v>
+      </c>
+      <c r="J54" s="19">
+        <f>E54+F54+I54+G54+H54</f>
+        <v>55121.819500000005</v>
+      </c>
+      <c r="K54" s="53"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+    </row>
+    <row r="55" spans="1:15" s="12" customFormat="1">
+      <c r="A55" s="52">
+        <v>44524</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="9">
+        <f>C54</f>
+        <v>2000</v>
+      </c>
+      <c r="D55" s="32">
+        <v>28</v>
+      </c>
+      <c r="E55" s="10">
+        <f>C55*D55</f>
+        <v>56000</v>
+      </c>
+      <c r="F55" s="33">
+        <f>E55*0.002</f>
+        <v>112</v>
+      </c>
+      <c r="G55" s="32">
+        <f>E55*0.000068</f>
+        <v>3.8079999999999998</v>
+      </c>
+      <c r="H55" s="32">
+        <f>E55*0.00001</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I55" s="32">
+        <f>(F55+G55+H55)*0.07</f>
+        <v>8.145760000000001</v>
+      </c>
+      <c r="J55" s="32">
+        <f>E55-F55-G55-H55-I55</f>
+        <v>55875.486240000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="29" customFormat="1" ht="18.600000000000001">
+      <c r="A56" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="23">
+        <f>(D55-D54)/D54</f>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="19">
+        <f>E55-E54</f>
+        <v>1000</v>
+      </c>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="17">
+        <f>J55-J54</f>
+        <v>753.66674000000057</v>
+      </c>
+      <c r="K56" s="19"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -11994,7 +12100,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12332,38 +12438,38 @@
         <v>5000</v>
       </c>
       <c r="D10" s="43">
-        <v>4.25</v>
+        <v>4.24</v>
       </c>
       <c r="E10" s="19">
         <f>C10*D10</f>
-        <v>21250</v>
+        <v>21200</v>
       </c>
       <c r="F10" s="19">
         <f>E10*0.002</f>
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="G10" s="19">
         <f>E10*0.00006</f>
-        <v>1.2750000000000001</v>
+        <v>1.272</v>
       </c>
       <c r="H10" s="19">
         <f>E10*0.00001</f>
-        <v>0.21250000000000002</v>
+        <v>0.21200000000000002</v>
       </c>
       <c r="I10" s="19">
         <f>(F10+G10+H10)*0.07</f>
-        <v>3.0791249999999999</v>
+        <v>3.0718800000000002</v>
       </c>
       <c r="J10" s="19">
         <f>E10+F10+I10+G10+H10</f>
-        <v>21297.066625000003</v>
+        <v>21246.955880000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1">
       <c r="A11" s="52"/>
       <c r="B11" s="11">
         <f>(D10-D9)/D9</f>
-        <v>-0.42953020134228187</v>
+        <v>-0.43087248322147648</v>
       </c>
       <c r="C11" s="9">
         <f>SUM(C9:C10)</f>
@@ -12371,31 +12477,31 @@
       </c>
       <c r="D11" s="60">
         <f>E11/C11</f>
-        <v>6.95</v>
+        <v>6.9484374999999998</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" ref="E11:J11" si="3">SUM(E9:E10)</f>
-        <v>222400</v>
+        <v>222350</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="3"/>
-        <v>444.8</v>
+        <v>444.7</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="3"/>
-        <v>13.344000000000001</v>
+        <v>13.341000000000001</v>
       </c>
       <c r="H11" s="9">
         <f t="shared" si="3"/>
-        <v>2.2240000000000002</v>
+        <v>2.2235000000000005</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="3"/>
-        <v>32.225760000000008</v>
+        <v>32.218515000000011</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="3"/>
-        <v>222892.59375999999</v>
+        <v>222842.48301499998</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -12768,7 +12874,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:J34"/>
+      <selection activeCell="A33" sqref="A33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -13895,40 +14001,40 @@
       <c r="O31" s="1"/>
     </row>
     <row r="33" spans="1:15" s="59" customFormat="1" ht="21">
-      <c r="A33" s="52">
-        <v>45887</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="A33" s="46">
+        <v>45908</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
         <f>C34</f>
         <v>10000</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="38">
         <v>2.62</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="65">
         <f>C33*D33</f>
         <v>26200</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="17">
         <f>E33*0.002</f>
         <v>52.4</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="17">
         <f>E33*0.00006</f>
         <v>1.5720000000000001</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <f>E33*0.00001</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="17">
         <f>(F33+G33+H33)*0.07</f>
         <v>3.7963800000000005</v>
       </c>
-      <c r="J33" s="58">
+      <c r="J33" s="65">
         <f>E33+F33+I33+G33+H33</f>
         <v>26258.03038</v>
       </c>
@@ -13940,7 +14046,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="46">
-        <v>45908</v>
+        <v>45931</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>2</v>
@@ -14312,7 +14418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF44050E-F770-4816-B0BF-6EDA56061E31}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -16628,9 +16734,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -17890,7 +17996,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="52">
-        <v>45887</v>
+        <v>45936</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>0</v>
@@ -18313,6 +18419,104 @@
       <c r="J45" s="17">
         <f>J44-J43</f>
         <v>8606.4475800000073</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="46">
+        <v>45936</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D46" s="16">
+        <v>26</v>
+      </c>
+      <c r="E46" s="17">
+        <f>C46*D46</f>
+        <v>78000</v>
+      </c>
+      <c r="F46" s="17">
+        <f>E46*0.002</f>
+        <v>156</v>
+      </c>
+      <c r="G46" s="17">
+        <f>E46*0.000068</f>
+        <v>5.3040000000000003</v>
+      </c>
+      <c r="H46" s="17">
+        <f>E46*0.00001</f>
+        <v>0.78</v>
+      </c>
+      <c r="I46" s="17">
+        <f>(F46+G46+H46)*0.07</f>
+        <v>11.345880000000001</v>
+      </c>
+      <c r="J46" s="17">
+        <f>E46+F46+I46+G46+H46</f>
+        <v>78173.429879999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="46">
+        <v>45937</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="15">
+        <f>C46</f>
+        <v>3000</v>
+      </c>
+      <c r="D47" s="24">
+        <v>26.5</v>
+      </c>
+      <c r="E47" s="16">
+        <f>C47*D47</f>
+        <v>79500</v>
+      </c>
+      <c r="F47" s="25">
+        <f>E47*0.002</f>
+        <v>159</v>
+      </c>
+      <c r="G47" s="24">
+        <f>E47*0.000068</f>
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="H47" s="24">
+        <f>E47*0.00001</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="I47" s="24">
+        <f>(F47+G47+H47)*0.07</f>
+        <v>11.564070000000001</v>
+      </c>
+      <c r="J47" s="24">
+        <f>E47-F47-G47-H47-I47</f>
+        <v>79323.234930000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="46"/>
+      <c r="B48" s="28">
+        <f>J48/J46</f>
+        <v>1.4708386874735014E-2</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17">
+        <f>E47-E46</f>
+        <v>1500</v>
+      </c>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17">
+        <f>J47-J46</f>
+        <v>1149.8050500000099</v>
       </c>
     </row>
   </sheetData>
@@ -19266,10 +19470,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0248C1A-0BE1-4664-895A-D29EA068DDA6}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -19565,6 +19769,104 @@
       <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>164162.80061999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="52">
+        <v>45887</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="E10" s="19">
+        <f>C10*D10</f>
+        <v>22500</v>
+      </c>
+      <c r="F10" s="19">
+        <f>E10*0.002</f>
+        <v>45</v>
+      </c>
+      <c r="G10" s="19">
+        <f>E10*0.000068</f>
+        <v>1.53</v>
+      </c>
+      <c r="H10" s="19">
+        <f>E10*0.00001</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I10" s="19">
+        <f>(F10+G10+H10)*0.07</f>
+        <v>3.2728500000000005</v>
+      </c>
+      <c r="J10" s="19">
+        <f>E10+F10+I10+G10+H10</f>
+        <v>22550.027849999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="52">
+        <v>45877</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <f>C10</f>
+        <v>3000</v>
+      </c>
+      <c r="D11" s="32">
+        <v>7.7</v>
+      </c>
+      <c r="E11" s="10">
+        <f>C11*D11</f>
+        <v>23100</v>
+      </c>
+      <c r="F11" s="33">
+        <f>E11*0.002</f>
+        <v>46.2</v>
+      </c>
+      <c r="G11" s="32">
+        <f>E11*0.000068</f>
+        <v>1.5708</v>
+      </c>
+      <c r="H11" s="32">
+        <f>E11*0.00001</f>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I11" s="32">
+        <f>(F11+G11+H11)*0.07</f>
+        <v>3.3601260000000006</v>
+      </c>
+      <c r="J11" s="32">
+        <f>E11-F11-G11-H11-I11</f>
+        <v>23048.638073999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="52"/>
+      <c r="B12" s="11">
+        <f>J12/J10</f>
+        <v>2.2111290829292703E-2</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="19">
+        <f>E11-E10</f>
+        <v>600</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19">
+        <f>J11-J10</f>
+        <v>498.61022400000002</v>
       </c>
     </row>
   </sheetData>
@@ -21630,10 +21932,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E0B64A-B432-4F71-9E82-2EF3D53BA2E8}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -21711,31 +22013,31 @@
         <v>2000</v>
       </c>
       <c r="D3" s="10">
-        <v>9.5</v>
+        <v>13.1</v>
       </c>
       <c r="E3" s="19">
         <f>C3*D3</f>
-        <v>19000</v>
+        <v>26200</v>
       </c>
       <c r="F3" s="19">
         <f>E3*0.002</f>
-        <v>38</v>
+        <v>52.4</v>
       </c>
       <c r="G3" s="19">
         <f>E3*0.00006</f>
-        <v>1.1400000000000001</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="H3" s="19">
         <f>E3*0.00001</f>
-        <v>0.19</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="I3" s="19">
         <f>(F3+G3+H3)*0.07</f>
-        <v>2.7531000000000003</v>
+        <v>3.7963800000000005</v>
       </c>
       <c r="J3" s="19">
         <f>E3+F3+I3+G3+H3</f>
-        <v>19042.0831</v>
+        <v>26258.03038</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="10"/>
@@ -21745,7 +22047,7 @@
       <c r="A4" s="52"/>
       <c r="B4" s="72">
         <f>(D3-D2)/D2</f>
-        <v>-0.63461538461538458</v>
+        <v>-0.49615384615384617</v>
       </c>
       <c r="C4" s="9">
         <f>SUM(C2:C3)</f>
@@ -21753,31 +22055,31 @@
       </c>
       <c r="D4" s="60">
         <f>E4/C4</f>
-        <v>15</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:J4" si="0">SUM(E2:E3)</f>
-        <v>45000</v>
+        <v>52200</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>104.4</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>3.1320000000000001</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>6.5205000000000002</v>
+        <v>7.5637800000000013</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>45099.6705</v>
+        <v>52315.61778</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="12"/>
@@ -21918,6 +22220,48 @@
       <c r="L9" s="12"/>
       <c r="M9" s="58"/>
       <c r="N9" s="58"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>13.1</v>
+      </c>
+      <c r="E10" s="19">
+        <f>C10*D10</f>
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="D11" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="E11" s="19">
+        <f t="shared" ref="E11:E12" si="1">C11*D11</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2.62</v>
+      </c>
+      <c r="E12" s="19">
+        <f t="shared" si="1"/>
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="22">
+        <f>SUM(E10:E12)</f>
+        <v>80400</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -22955,7 +23299,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -23113,31 +23457,31 @@
         <v>5000</v>
       </c>
       <c r="D5" s="43">
-        <v>8.3000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E5" s="19">
         <f>C5*D5</f>
-        <v>41500</v>
+        <v>46500</v>
       </c>
       <c r="F5" s="19">
         <f>E5*0.002</f>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G5" s="19">
         <f>E5*0.000068</f>
-        <v>2.8220000000000001</v>
+        <v>3.1619999999999999</v>
       </c>
       <c r="H5" s="19">
         <f>E5*0.00001</f>
-        <v>0.41500000000000004</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I5" s="19">
         <f>(F5+G5+H5)*0.07</f>
-        <v>6.0365900000000012</v>
+        <v>6.7638900000000017</v>
       </c>
       <c r="J5" s="19">
         <f>E5+F5+I5+G5+H5</f>
-        <v>41592.273590000004</v>
+        <v>46603.390889999995</v>
       </c>
       <c r="M5" s="20"/>
     </row>
@@ -23153,31 +23497,31 @@
       </c>
       <c r="D6" s="31">
         <f>E6/C6</f>
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" ref="E6:J6" si="1">SUM(E4:E5)</f>
-        <v>287500</v>
+        <v>292500</v>
       </c>
       <c r="F6" s="21">
         <f t="shared" si="1"/>
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="G6" s="21">
         <f t="shared" si="1"/>
-        <v>18.55</v>
+        <v>18.89</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" si="1"/>
-        <v>2.875</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="I6" s="21">
         <f t="shared" si="1"/>
-        <v>41.749750000000006</v>
+        <v>42.477050000000006</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" si="1"/>
-        <v>288138.17475000001</v>
+        <v>293149.29204999999</v>
       </c>
       <c r="K6" s="23"/>
       <c r="L6" s="20"/>
@@ -25738,38 +26082,38 @@
         <v>9000</v>
       </c>
       <c r="D3" s="43">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="E3" s="19">
         <f>C3*D3</f>
-        <v>16560</v>
+        <v>18000</v>
       </c>
       <c r="F3" s="19">
         <f>E3*0.002</f>
-        <v>33.119999999999997</v>
+        <v>36</v>
       </c>
       <c r="G3" s="19">
         <f>E3*0.00006</f>
-        <v>0.99360000000000004</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="19">
         <f>E3*0.00001</f>
-        <v>0.16560000000000002</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="I3" s="19">
         <f>(F3+G3+H3)*0.07</f>
-        <v>2.3995440000000001</v>
+        <v>2.6082000000000001</v>
       </c>
       <c r="J3" s="19">
         <f>E3+F3+I3+G3+H3</f>
-        <v>16596.678744000001</v>
+        <v>18039.868200000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="15.6">
       <c r="A4" s="52"/>
       <c r="B4" s="11">
         <f>(D3-D2)/D2</f>
-        <v>-0.62903225806451613</v>
+        <v>-0.59677419354838712</v>
       </c>
       <c r="C4" s="9">
         <f>C2+C3</f>
@@ -25777,31 +26121,31 @@
       </c>
       <c r="D4" s="43">
         <f>E4/C4</f>
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" ref="E4:J4" si="0">E2+E3</f>
-        <v>61200</v>
+        <v>62640</v>
       </c>
       <c r="F4" s="9">
         <f t="shared" si="0"/>
-        <v>122.4</v>
+        <v>125.28</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="0"/>
-        <v>3.6719999999999997</v>
+        <v>3.7584</v>
       </c>
       <c r="H4" s="9">
         <f t="shared" si="0"/>
-        <v>0.6120000000000001</v>
+        <v>0.62640000000000007</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="0"/>
-        <v>8.8678799999999995</v>
+        <v>9.0765360000000008</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>61335.551879999999</v>
+        <v>62778.741335999992</v>
       </c>
       <c r="K4" s="54"/>
       <c r="L4" s="54"/>

--- a/Excel/02-Profit_by_Type.xlsx
+++ b/Excel/02-Profit_by_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1551" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE8C608D-73FA-4CA5-9E54-554BF4B5404B}"/>
+  <xr:revisionPtr revIDLastSave="1593" documentId="13_ncr:1_{952C9640-4145-4BFE-A933-8C66170A3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4857151B-02B6-462E-ADA9-BEC1397FF17D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9876" yWindow="1560" windowWidth="10356" windowHeight="10404" tabRatio="461" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11496" yWindow="564" windowWidth="10356" windowHeight="10404" tabRatio="461" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTTGC" sheetId="42" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="42">
   <si>
     <t>BUY</t>
   </si>
@@ -7224,7 +7224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61165D-6E4D-45AE-A027-1F0635508A9D}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -8246,10 +8246,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF9A6BF-841A-4E49-8659-89A8DE11562A}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:J21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -8700,868 +8700,1031 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="70" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C14" s="48">
         <v>4200</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D14" s="49">
         <v>55.5</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E14" s="48">
         <v>233100</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F14" s="48">
         <v>466.20000000000005</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G14" s="48">
         <v>13.986000000000001</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H14" s="48">
         <v>2.3310000000000004</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I14" s="48">
         <v>33.776190000000007</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J14" s="48">
         <v>233616.29319</v>
       </c>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="46">
+        <v>45243</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>800</v>
+      </c>
+      <c r="D15" s="38">
+        <v>25.5</v>
+      </c>
+      <c r="E15" s="65">
+        <f>C15*D15</f>
+        <v>20400</v>
+      </c>
+      <c r="F15" s="17">
+        <f>E15*0.002</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="G15" s="17">
+        <f>E15*0.00006</f>
+        <v>1.224</v>
+      </c>
+      <c r="H15" s="17">
+        <f>E15*0.00001</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="I15" s="17">
+        <f>(F15+G15+H15)*0.07</f>
+        <v>2.9559600000000006</v>
+      </c>
+      <c r="J15" s="65">
+        <f>E15+F15+I15+G15+H15</f>
+        <v>20445.183959999998</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="46">
-        <v>45243</v>
+        <v>45251</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="15">
+        <f>C15</f>
         <v>800</v>
       </c>
-      <c r="D16" s="38">
-        <v>25.5</v>
-      </c>
-      <c r="E16" s="65">
+      <c r="D16" s="24">
+        <v>28.25</v>
+      </c>
+      <c r="E16" s="16">
         <f>C16*D16</f>
-        <v>20400</v>
-      </c>
-      <c r="F16" s="17">
+        <v>22600</v>
+      </c>
+      <c r="F16" s="25">
         <f>E16*0.002</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="G16" s="17">
-        <f>E16*0.00006</f>
-        <v>1.224</v>
-      </c>
-      <c r="H16" s="17">
+        <v>45.2</v>
+      </c>
+      <c r="G16" s="24">
+        <f>E16*0.000068</f>
+        <v>1.5367999999999999</v>
+      </c>
+      <c r="H16" s="24">
         <f>E16*0.00001</f>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="I16" s="17">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I16" s="24">
         <f>(F16+G16+H16)*0.07</f>
-        <v>2.9559600000000006</v>
-      </c>
-      <c r="J16" s="65">
-        <f>E16+F16+I16+G16+H16</f>
-        <v>20445.183959999998</v>
-      </c>
+        <v>3.2873960000000002</v>
+      </c>
+      <c r="J16" s="24">
+        <f>E16-F16-G16-H16-I16</f>
+        <v>22549.749803999999</v>
+      </c>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="46">
-        <v>45251</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15">
-        <f>C16</f>
-        <v>800</v>
-      </c>
-      <c r="D17" s="24">
-        <v>28.25</v>
-      </c>
-      <c r="E17" s="16">
-        <f>C17*D17</f>
-        <v>22600</v>
-      </c>
-      <c r="F17" s="25">
-        <f>E17*0.002</f>
-        <v>45.2</v>
-      </c>
-      <c r="G17" s="24">
-        <f>E17*0.000068</f>
-        <v>1.5367999999999999</v>
-      </c>
-      <c r="H17" s="24">
-        <f>E17*0.00001</f>
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="I17" s="24">
-        <f>(F17+G17+H17)*0.07</f>
-        <v>3.2873960000000002</v>
-      </c>
-      <c r="J17" s="24">
-        <f>E17-F17-G17-H17-I17</f>
-        <v>22549.749803999999</v>
+      <c r="A17" s="66"/>
+      <c r="B17" s="28">
+        <f>(D16-D15)/D15</f>
+        <v>0.10784313725490197</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17">
+        <f>E16-E15</f>
+        <v>2200</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17">
+        <f>J16-J15</f>
+        <v>2104.5658440000007</v>
       </c>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="66"/>
-      <c r="B18" s="28">
-        <f>(D17-D16)/D16</f>
-        <v>0.10784313725490197</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17">
-        <f>E17-E16</f>
-        <v>2200</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17">
-        <f>J17-J16</f>
-        <v>2104.5658440000007</v>
-      </c>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="70" t="s">
+    <row r="18" spans="1:15" s="1" customFormat="1">
+      <c r="A18" s="51"/>
+      <c r="B18" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C18" s="48">
         <v>4200</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D18" s="49">
         <v>55.5</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E18" s="48">
         <v>233100</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F18" s="48">
         <v>466.20000000000005</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G18" s="48">
         <v>13.986000000000001</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H18" s="48">
         <v>2.3310000000000004</v>
       </c>
-      <c r="I19" s="48">
+      <c r="I18" s="48">
         <v>33.776190000000007</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J18" s="48">
         <v>233616.29319</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="46">
+        <v>45944</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2800</v>
+      </c>
+      <c r="D19" s="38">
+        <v>11</v>
+      </c>
+      <c r="E19" s="65">
+        <f>C19*D19</f>
+        <v>30800</v>
+      </c>
+      <c r="F19" s="17">
+        <f>E19*0.002</f>
+        <v>61.6</v>
+      </c>
+      <c r="G19" s="17">
+        <f>E19*0.00006</f>
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="H19" s="17">
+        <f>E19*0.00001</f>
+        <v>0.30800000000000005</v>
+      </c>
+      <c r="I19" s="17">
+        <f>(F19+G19+H19)*0.07</f>
+        <v>4.4629200000000004</v>
+      </c>
+      <c r="J19" s="65">
+        <f>E19+F19+I19+G19+H19</f>
+        <v>30868.218920000003</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="52">
-        <v>45875</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2800</v>
-      </c>
-      <c r="D20" s="43">
-        <v>11</v>
-      </c>
-      <c r="E20" s="58">
-        <f>C20*D20</f>
-        <v>30800</v>
-      </c>
-      <c r="F20" s="19">
-        <f>E20*0.002</f>
-        <v>61.6</v>
-      </c>
-      <c r="G20" s="19">
-        <f>E20*0.00006</f>
-        <v>1.8480000000000001</v>
-      </c>
-      <c r="H20" s="19">
-        <f>E20*0.00001</f>
-        <v>0.30800000000000005</v>
-      </c>
-      <c r="I20" s="19">
-        <f>(F20+G20+H20)*0.07</f>
-        <v>4.4629200000000004</v>
-      </c>
-      <c r="J20" s="58">
-        <f>E20+F20+I20+G20+H20</f>
-        <v>30868.218920000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="B21" s="11">
-        <f>(D20-D19)/D19</f>
+      <c r="A20" s="66"/>
+      <c r="B20" s="28">
+        <f>(D19-D18)/D18</f>
         <v>-0.80180180180180183</v>
       </c>
-      <c r="C21" s="9">
-        <f>SUM(C19:C20)</f>
+      <c r="C20" s="15">
+        <f>SUM(C18:C19)</f>
         <v>7000</v>
       </c>
-      <c r="D21" s="60">
-        <f>E21/C21</f>
+      <c r="D20" s="37">
+        <f>E20/C20</f>
         <v>37.700000000000003</v>
       </c>
-      <c r="E21" s="9">
-        <f t="shared" ref="E21:J21" si="2">SUM(E19:E20)</f>
+      <c r="E20" s="15">
+        <f t="shared" ref="E20:J20" si="2">SUM(E18:E19)</f>
         <v>263900</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F20" s="15">
         <f t="shared" si="2"/>
         <v>527.80000000000007</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G20" s="15">
         <f t="shared" si="2"/>
         <v>15.834000000000001</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H20" s="15">
         <f t="shared" si="2"/>
         <v>2.6390000000000002</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I20" s="15">
         <f t="shared" si="2"/>
         <v>38.239110000000011</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J20" s="15">
         <f t="shared" si="2"/>
         <v>264484.51211000001</v>
       </c>
     </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="52">
+        <v>45944</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="43">
+        <v>10</v>
+      </c>
+      <c r="E21" s="58">
+        <f>C21*D21</f>
+        <v>30000</v>
+      </c>
+      <c r="F21" s="19">
+        <f>E21*0.002</f>
+        <v>60</v>
+      </c>
+      <c r="G21" s="19">
+        <f>E21*0.00006</f>
+        <v>1.8</v>
+      </c>
+      <c r="H21" s="19">
+        <f>E21*0.00001</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I21" s="19">
+        <f>(F21+G21+H21)*0.07</f>
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="J21" s="58">
+        <f>E21+F21+I21+G21+H21</f>
+        <v>30066.447</v>
+      </c>
+    </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="58"/>
+      <c r="B22" s="11">
+        <f>(D21-D20)/D20</f>
+        <v>-0.73474801061007955</v>
+      </c>
+      <c r="C22" s="9">
+        <f>SUM(C20:C21)</f>
+        <v>10000</v>
+      </c>
+      <c r="D22" s="60">
+        <f>E22/C22</f>
+        <v>29.39</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" ref="E22:J22" si="3">SUM(E20:E21)</f>
+        <v>293900</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="3"/>
+        <v>587.80000000000007</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="3"/>
+        <v>17.634</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="3"/>
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="3"/>
+        <v>42.586110000000012</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="3"/>
+        <v>294550.95911</v>
+      </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="46">
-        <v>45243</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="15">
-        <v>800</v>
-      </c>
-      <c r="D23" s="38">
-        <v>25.5</v>
-      </c>
-      <c r="E23" s="65">
-        <f>C23*D23</f>
-        <v>20400</v>
-      </c>
-      <c r="F23" s="17">
-        <f>E23*0.002</f>
-        <v>40.800000000000004</v>
-      </c>
-      <c r="G23" s="17">
-        <f>E23*0.00006</f>
-        <v>1.224</v>
-      </c>
-      <c r="H23" s="17">
-        <f>E23*0.00001</f>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="I23" s="17">
-        <f>(F23+G23+H23)*0.07</f>
-        <v>2.9559600000000006</v>
-      </c>
-      <c r="J23" s="65">
-        <f>E23+F23+I23+G23+H23</f>
-        <v>20445.183959999998</v>
-      </c>
+      <c r="A23" s="52"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="58"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="46">
+        <v>45243</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15">
+        <v>800</v>
+      </c>
+      <c r="D24" s="38">
+        <v>25.5</v>
+      </c>
+      <c r="E24" s="65">
+        <f>C24*D24</f>
+        <v>20400</v>
+      </c>
+      <c r="F24" s="17">
+        <f>E24*0.002</f>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="G24" s="17">
+        <f>E24*0.00006</f>
+        <v>1.224</v>
+      </c>
+      <c r="H24" s="17">
+        <f>E24*0.00001</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="I24" s="17">
+        <f>(F24+G24+H24)*0.07</f>
+        <v>2.9559600000000006</v>
+      </c>
+      <c r="J24" s="65">
+        <f>E24+F24+I24+G24+H24</f>
+        <v>20445.183959999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="46">
         <v>45251</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="15">
-        <f>C23</f>
+      <c r="C25" s="15">
+        <f>C24</f>
         <v>800</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D25" s="24">
         <v>28.25</v>
       </c>
-      <c r="E24" s="16">
-        <f>C24*D24</f>
+      <c r="E25" s="16">
+        <f>C25*D25</f>
         <v>22600</v>
       </c>
-      <c r="F24" s="25">
-        <f>E24*0.002</f>
+      <c r="F25" s="25">
+        <f>E25*0.002</f>
         <v>45.2</v>
       </c>
-      <c r="G24" s="24">
-        <f>E24*0.000068</f>
+      <c r="G25" s="24">
+        <f>E25*0.000068</f>
         <v>1.5367999999999999</v>
       </c>
-      <c r="H24" s="24">
-        <f>E24*0.00001</f>
+      <c r="H25" s="24">
+        <f>E25*0.00001</f>
         <v>0.22600000000000001</v>
       </c>
-      <c r="I24" s="24">
-        <f>(F24+G24+H24)*0.07</f>
+      <c r="I25" s="24">
+        <f>(F25+G25+H25)*0.07</f>
         <v>3.2873960000000002</v>
       </c>
-      <c r="J24" s="24">
-        <f>E24-F24-G24-H24-I24</f>
+      <c r="J25" s="24">
+        <f>E25-F25-G25-H25-I25</f>
         <v>22549.749803999999</v>
       </c>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="66"/>
-      <c r="B25" s="28">
-        <f>(D24-D23)/D23</f>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="66"/>
+      <c r="B26" s="28">
+        <f>(D25-D24)/D24</f>
         <v>0.10784313725490197</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17">
-        <f>E24-E23</f>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17">
+        <f>E25-E24</f>
         <v>2200</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17">
-        <f>J24-J23</f>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17">
+        <f>J25-J24</f>
         <v>2104.5658440000007</v>
       </c>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="46">
-        <v>45447</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="15">
-        <v>1800</v>
-      </c>
-      <c r="D26" s="38">
-        <v>13.9</v>
-      </c>
-      <c r="E26" s="65">
-        <f>C26*D26</f>
-        <v>25020</v>
-      </c>
-      <c r="F26" s="17">
-        <f>E26*0.002</f>
-        <v>50.04</v>
-      </c>
-      <c r="G26" s="17">
-        <f>E26*0.00006</f>
-        <v>1.5012000000000001</v>
-      </c>
-      <c r="H26" s="17">
-        <f>E26*0.00001</f>
-        <v>0.25020000000000003</v>
-      </c>
-      <c r="I26" s="17">
-        <f>(F26+G26+H26)*0.07</f>
-        <v>3.6253980000000001</v>
-      </c>
-      <c r="J26" s="65">
-        <f>E26+F26+I26+G26+H26</f>
-        <v>25075.416797999998</v>
-      </c>
+      <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="46">
+        <v>45447</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1800</v>
+      </c>
+      <c r="D27" s="38">
+        <v>13.9</v>
+      </c>
+      <c r="E27" s="65">
+        <f>C27*D27</f>
+        <v>25020</v>
+      </c>
+      <c r="F27" s="17">
+        <f>E27*0.002</f>
+        <v>50.04</v>
+      </c>
+      <c r="G27" s="17">
+        <f>E27*0.00006</f>
+        <v>1.5012000000000001</v>
+      </c>
+      <c r="H27" s="17">
+        <f>E27*0.00001</f>
+        <v>0.25020000000000003</v>
+      </c>
+      <c r="I27" s="17">
+        <f>(F27+G27+H27)*0.07</f>
+        <v>3.6253980000000001</v>
+      </c>
+      <c r="J27" s="65">
+        <f>E27+F27+I27+G27+H27</f>
+        <v>25075.416797999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="46">
         <v>45448</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="15">
-        <f>C26</f>
+      <c r="C28" s="15">
+        <f>C27</f>
         <v>1800</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D28" s="24">
         <v>14.6</v>
       </c>
-      <c r="E27" s="16">
-        <f>C27*D27</f>
+      <c r="E28" s="16">
+        <f>C28*D28</f>
         <v>26280</v>
       </c>
-      <c r="F27" s="25">
-        <f>E27*0.002</f>
+      <c r="F28" s="25">
+        <f>E28*0.002</f>
         <v>52.56</v>
       </c>
-      <c r="G27" s="24">
-        <f>E27*0.000068</f>
+      <c r="G28" s="24">
+        <f>E28*0.000068</f>
         <v>1.78704</v>
       </c>
-      <c r="H27" s="24">
-        <f>E27*0.00001</f>
+      <c r="H28" s="24">
+        <f>E28*0.00001</f>
         <v>0.26280000000000003</v>
       </c>
-      <c r="I27" s="24">
-        <f>(F27+G27+H27)*0.07</f>
+      <c r="I28" s="24">
+        <f>(F28+G28+H28)*0.07</f>
         <v>3.8226888000000003</v>
       </c>
-      <c r="J27" s="24">
-        <f>E27-F27-G27-H27-I27</f>
+      <c r="J28" s="24">
+        <f>E28-F28-G28-H28-I28</f>
         <v>26221.5674712</v>
       </c>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="66"/>
-      <c r="B28" s="28">
-        <f>(D27-D26)/D26</f>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="66"/>
+      <c r="B29" s="28">
+        <f>(D28-D27)/D27</f>
         <v>5.0359712230215778E-2</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17">
-        <f>E27-E26</f>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17">
+        <f>E28-E27</f>
         <v>1260</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17">
-        <f>J27-J26</f>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17">
+        <f>J28-J27</f>
         <v>1146.1506732000016</v>
       </c>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="46">
-        <v>45496</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="15">
-        <v>1500</v>
-      </c>
-      <c r="D29" s="89">
-        <v>11.5</v>
-      </c>
-      <c r="E29" s="65">
-        <f>C29*D29</f>
-        <v>17250</v>
-      </c>
-      <c r="F29" s="17">
-        <f>E29*0.002</f>
-        <v>34.5</v>
-      </c>
-      <c r="G29" s="17">
-        <f>E29*0.00006</f>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="H29" s="17">
-        <f>E29*0.00001</f>
-        <v>0.17250000000000001</v>
-      </c>
-      <c r="I29" s="17">
-        <f>(F29+G29+H29)*0.07</f>
-        <v>2.4995249999999998</v>
-      </c>
-      <c r="J29" s="65">
-        <f>E29+F29+I29+G29+H29</f>
-        <v>17288.207025</v>
-      </c>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="46">
+        <v>45496</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D30" s="89">
+        <v>11.5</v>
+      </c>
+      <c r="E30" s="65">
+        <f>C30*D30</f>
+        <v>17250</v>
+      </c>
+      <c r="F30" s="17">
+        <f>E30*0.002</f>
+        <v>34.5</v>
+      </c>
+      <c r="G30" s="17">
+        <f>E30*0.00006</f>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="H30" s="17">
+        <f>E30*0.00001</f>
+        <v>0.17250000000000001</v>
+      </c>
+      <c r="I30" s="17">
+        <f>(F30+G30+H30)*0.07</f>
+        <v>2.4995249999999998</v>
+      </c>
+      <c r="J30" s="65">
+        <f>E30+F30+I30+G30+H30</f>
+        <v>17288.207025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="46">
         <v>45526</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="15">
-        <f>C29</f>
+      <c r="C31" s="15">
+        <f>C30</f>
         <v>1500</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D31" s="24">
         <v>14.9</v>
       </c>
-      <c r="E30" s="16">
-        <f>C30*D30</f>
+      <c r="E31" s="16">
+        <f>C31*D31</f>
         <v>22350</v>
       </c>
-      <c r="F30" s="25">
-        <f>E30*0.002</f>
+      <c r="F31" s="25">
+        <f>E31*0.002</f>
         <v>44.7</v>
       </c>
-      <c r="G30" s="24">
-        <f>E30*0.000068</f>
+      <c r="G31" s="24">
+        <f>E31*0.000068</f>
         <v>1.5198</v>
       </c>
-      <c r="H30" s="24">
-        <f>E30*0.00001</f>
+      <c r="H31" s="24">
+        <f>E31*0.00001</f>
         <v>0.22350000000000003</v>
       </c>
-      <c r="I30" s="24">
-        <f>(F30+G30+H30)*0.07</f>
+      <c r="I31" s="24">
+        <f>(F31+G31+H31)*0.07</f>
         <v>3.2510310000000007</v>
       </c>
-      <c r="J30" s="24">
-        <f>E30-F30-G30-H30-I30</f>
+      <c r="J31" s="24">
+        <f>E31-F31-G31-H31-I31</f>
         <v>22300.305669000001</v>
       </c>
-      <c r="M30" s="20"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="28">
-        <f>(D30-D29)/D29</f>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="66"/>
+      <c r="B32" s="28">
+        <f>(D31-D30)/D30</f>
         <v>0.29565217391304349</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17">
-        <f>E30-E29</f>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17">
+        <f>E31-E30</f>
         <v>5100</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17">
-        <f>J30-J29</f>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17">
+        <f>J31-J30</f>
         <v>5012.0986440000015</v>
       </c>
-      <c r="M31" s="20"/>
-    </row>
-    <row r="32" spans="1:15" s="4" customFormat="1">
-      <c r="A32" s="46">
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="1:13" s="4" customFormat="1">
+      <c r="A33" s="46">
         <v>45471</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="15">
+      <c r="B33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15">
         <v>1800</v>
       </c>
-      <c r="D32" s="89">
+      <c r="D33" s="89">
         <v>13</v>
       </c>
-      <c r="E32" s="65">
-        <f>C32*D32</f>
+      <c r="E33" s="65">
+        <f>C33*D33</f>
         <v>23400</v>
       </c>
-      <c r="F32" s="17">
-        <f>E32*0.002</f>
+      <c r="F33" s="17">
+        <f>E33*0.002</f>
         <v>46.800000000000004</v>
       </c>
-      <c r="G32" s="17">
-        <f>E32*0.00006</f>
+      <c r="G33" s="17">
+        <f>E33*0.00006</f>
         <v>1.4040000000000001</v>
       </c>
-      <c r="H32" s="17">
-        <f>E32*0.00001</f>
+      <c r="H33" s="17">
+        <f>E33*0.00001</f>
         <v>0.23400000000000001</v>
       </c>
-      <c r="I32" s="17">
-        <f>(F32+G32+H32)*0.07</f>
+      <c r="I33" s="17">
+        <f>(F33+G33+H33)*0.07</f>
         <v>3.3906600000000009</v>
       </c>
-      <c r="J32" s="65">
-        <f>E32+F32+I32+G32+H32</f>
+      <c r="J33" s="65">
+        <f>E33+F33+I33+G33+H33</f>
         <v>23451.828659999999</v>
       </c>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1">
-      <c r="A33" s="46">
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1">
+      <c r="A34" s="46">
         <v>45531</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="15">
-        <f>C32</f>
+      <c r="C34" s="15">
+        <f>C33</f>
         <v>1800</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D34" s="24">
         <v>16.399999999999999</v>
       </c>
-      <c r="E33" s="16">
-        <f>C33*D33</f>
+      <c r="E34" s="16">
+        <f>C34*D34</f>
         <v>29519.999999999996</v>
       </c>
-      <c r="F33" s="25">
-        <f>E33*0.002</f>
+      <c r="F34" s="25">
+        <f>E34*0.002</f>
         <v>59.039999999999992</v>
       </c>
-      <c r="G33" s="24">
-        <f>E33*0.000068</f>
+      <c r="G34" s="24">
+        <f>E34*0.000068</f>
         <v>2.0073599999999998</v>
       </c>
-      <c r="H33" s="24">
-        <f>E33*0.00001</f>
+      <c r="H34" s="24">
+        <f>E34*0.00001</f>
         <v>0.29519999999999996</v>
       </c>
-      <c r="I33" s="24">
-        <f>(F33+G33+H33)*0.07</f>
+      <c r="I34" s="24">
+        <f>(F34+G34+H34)*0.07</f>
         <v>4.2939791999999999</v>
       </c>
-      <c r="J33" s="24">
-        <f>E33-F33-G33-H33-I33</f>
+      <c r="J34" s="24">
+        <f>E34-F34-G34-H34-I34</f>
         <v>29454.363460799996</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="4" customFormat="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="28">
-        <f>(D33-D32)/D32</f>
+    <row r="35" spans="1:13" s="4" customFormat="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="28">
+        <f>(D34-D33)/D33</f>
         <v>0.26153846153846144</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17">
-        <f>E33-E32</f>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17">
+        <f>E34-E33</f>
         <v>6119.9999999999964</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17">
-        <f>J33-J32</f>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17">
+        <f>J34-J33</f>
         <v>6002.5348007999964</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="46">
+    <row r="36" spans="1:13">
+      <c r="A36" s="46">
         <v>45812</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="15">
+      <c r="B36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15">
         <v>2500</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D36" s="38">
         <v>9</v>
       </c>
-      <c r="E35" s="65">
-        <f>C35*D35</f>
+      <c r="E36" s="65">
+        <f>C36*D36</f>
         <v>22500</v>
       </c>
-      <c r="F35" s="17">
-        <f>E35*0.002</f>
+      <c r="F36" s="17">
+        <f>E36*0.002</f>
         <v>45</v>
       </c>
-      <c r="G35" s="17">
-        <f>E35*0.00006</f>
+      <c r="G36" s="17">
+        <f>E36*0.00006</f>
         <v>1.35</v>
       </c>
-      <c r="H35" s="17">
-        <f>E35*0.00001</f>
+      <c r="H36" s="17">
+        <f>E36*0.00001</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="I35" s="17">
-        <f>(F35+G35+H35)*0.07</f>
+      <c r="I36" s="17">
+        <f>(F36+G36+H36)*0.07</f>
         <v>3.2602500000000005</v>
       </c>
-      <c r="J35" s="65">
-        <f>E35+F35+I35+G35+H35</f>
+      <c r="J36" s="65">
+        <f>E36+F36+I36+G36+H36</f>
         <v>22549.835249999996</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1">
-      <c r="A36" s="46">
+    <row r="37" spans="1:13" s="4" customFormat="1">
+      <c r="A37" s="46">
         <v>45841</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B37" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="15">
-        <f>C35</f>
+      <c r="C37" s="15">
+        <f>C36</f>
         <v>2500</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D37" s="24">
         <v>10.199999999999999</v>
       </c>
-      <c r="E36" s="16">
-        <f>C36*D36</f>
+      <c r="E37" s="16">
+        <f>C37*D37</f>
         <v>25500</v>
       </c>
-      <c r="F36" s="25">
-        <f>E36*0.002</f>
+      <c r="F37" s="25">
+        <f>E37*0.002</f>
         <v>51</v>
       </c>
-      <c r="G36" s="24">
-        <f>E36*0.000068</f>
+      <c r="G37" s="24">
+        <f>E37*0.000068</f>
         <v>1.734</v>
       </c>
-      <c r="H36" s="24">
-        <f>E36*0.00001</f>
+      <c r="H37" s="24">
+        <f>E37*0.00001</f>
         <v>0.255</v>
       </c>
-      <c r="I36" s="24">
-        <f>(F36+G36+H36)*0.07</f>
+      <c r="I37" s="24">
+        <f>(F37+G37+H37)*0.07</f>
         <v>3.7092300000000007</v>
       </c>
-      <c r="J36" s="24">
-        <f>E36-F36-G36-H36-I36</f>
+      <c r="J37" s="24">
+        <f>E37-F37-G37-H37-I37</f>
         <v>25443.301769999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="28">
-        <f>(D36-D35)/D35</f>
+    <row r="38" spans="1:13" s="4" customFormat="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="28">
+        <f>(D37-D36)/D36</f>
         <v>0.13333333333333325</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17">
-        <f>E36-E35</f>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17">
+        <f>E37-E36</f>
         <v>3000</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17">
-        <f>J36-J35</f>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17">
+        <f>J37-J36</f>
         <v>2893.4665200000018</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="46">
+    <row r="39" spans="1:13">
+      <c r="A39" s="46">
         <v>45796</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="B39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="15">
         <v>2800</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D39" s="38">
         <v>10.5</v>
       </c>
-      <c r="E38" s="65">
-        <f>C38*D38</f>
+      <c r="E39" s="65">
+        <f>C39*D39</f>
         <v>29400</v>
       </c>
-      <c r="F38" s="17">
-        <f>E38*0.002</f>
+      <c r="F39" s="17">
+        <f>E39*0.002</f>
         <v>58.800000000000004</v>
       </c>
-      <c r="G38" s="17">
-        <f>E38*0.00006</f>
+      <c r="G39" s="17">
+        <f>E39*0.00006</f>
         <v>1.764</v>
       </c>
-      <c r="H38" s="17">
-        <f>E38*0.00001</f>
+      <c r="H39" s="17">
+        <f>E39*0.00001</f>
         <v>0.29400000000000004</v>
       </c>
-      <c r="I38" s="17">
-        <f>(F38+G38+H38)*0.07</f>
+      <c r="I39" s="17">
+        <f>(F39+G39+H39)*0.07</f>
         <v>4.2600600000000011</v>
       </c>
-      <c r="J38" s="65">
-        <f>E38+F38+I38+G38+H38</f>
+      <c r="J39" s="65">
+        <f>E39+F39+I39+G39+H39</f>
         <v>29465.118060000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1">
-      <c r="A39" s="46">
+    <row r="40" spans="1:13" s="4" customFormat="1">
+      <c r="A40" s="46">
         <v>45875</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="15">
-        <f>C38</f>
+      <c r="C40" s="15">
+        <f>C39</f>
         <v>2800</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D40" s="24">
         <v>11.6</v>
       </c>
-      <c r="E39" s="16">
-        <f>C39*D39</f>
+      <c r="E40" s="16">
+        <f>C40*D40</f>
         <v>32480</v>
       </c>
-      <c r="F39" s="25">
-        <f>E39*0.002</f>
+      <c r="F40" s="25">
+        <f>E40*0.002</f>
         <v>64.960000000000008</v>
       </c>
-      <c r="G39" s="24">
-        <f>E39*0.000068</f>
+      <c r="G40" s="24">
+        <f>E40*0.000068</f>
         <v>2.2086399999999999</v>
       </c>
-      <c r="H39" s="24">
-        <f>E39*0.00001</f>
+      <c r="H40" s="24">
+        <f>E40*0.00001</f>
         <v>0.32480000000000003</v>
       </c>
-      <c r="I39" s="24">
-        <f>(F39+G39+H39)*0.07</f>
+      <c r="I40" s="24">
+        <f>(F40+G40+H40)*0.07</f>
         <v>4.7245408000000007</v>
       </c>
-      <c r="J39" s="24">
-        <f>E39-F39-G39-H39-I39</f>
+      <c r="J40" s="24">
+        <f>E40-F40-G40-H40-I40</f>
         <v>32407.7820192</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="28">
-        <f>(D39-D38)/D38</f>
+    <row r="41" spans="1:13" s="4" customFormat="1">
+      <c r="A41" s="66"/>
+      <c r="B41" s="28">
+        <f>(D40-D39)/D39</f>
         <v>0.10476190476190472</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17">
-        <f>E39-E38</f>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17">
+        <f>E40-E39</f>
         <v>3080</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17">
-        <f>J39-J38</f>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17">
+        <f>J40-J39</f>
         <v>2942.6639591999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="46">
+        <v>45944</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="15">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="38">
+        <v>11</v>
+      </c>
+      <c r="E42" s="65">
+        <f>C42*D42</f>
+        <v>30800</v>
+      </c>
+      <c r="F42" s="17">
+        <f>E42*0.002</f>
+        <v>61.6</v>
+      </c>
+      <c r="G42" s="17">
+        <f>E42*0.00006</f>
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="H42" s="17">
+        <f>E42*0.00001</f>
+        <v>0.30800000000000005</v>
+      </c>
+      <c r="I42" s="17">
+        <f>(F42+G42+H42)*0.07</f>
+        <v>4.4629200000000004</v>
+      </c>
+      <c r="J42" s="65">
+        <f>E42+F42+I42+G42+H42</f>
+        <v>30868.218920000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="4" customFormat="1">
+      <c r="A43" s="52">
+        <v>45875</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="9">
+        <f>C42</f>
+        <v>2800</v>
+      </c>
+      <c r="D43" s="32">
+        <v>11.2</v>
+      </c>
+      <c r="E43" s="10">
+        <f>C43*D43</f>
+        <v>31359.999999999996</v>
+      </c>
+      <c r="F43" s="33">
+        <f>E43*0.002</f>
+        <v>62.719999999999992</v>
+      </c>
+      <c r="G43" s="32">
+        <f>E43*0.000068</f>
+        <v>2.1324799999999997</v>
+      </c>
+      <c r="H43" s="32">
+        <f>E43*0.00001</f>
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="I43" s="32">
+        <f>(F43+G43+H43)*0.07</f>
+        <v>4.5616255999999993</v>
+      </c>
+      <c r="J43" s="32">
+        <f>E43-F43-G43-H43-I43</f>
+        <v>31290.272294399994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="4" customFormat="1">
+      <c r="A44" s="35"/>
+      <c r="B44" s="11">
+        <f>(D43-D42)/D42</f>
+        <v>1.8181818181818118E-2</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="19">
+        <f>E43-E42</f>
+        <v>559.99999999999636</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19">
+        <f>J43-J42</f>
+        <v>422.0533743999913</v>
       </c>
     </row>
   </sheetData>
@@ -12873,7 +13036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB85145-85AB-4FD8-916A-3D8FBC3904D4}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:J33"/>
     </sheetView>
   </sheetViews>
@@ -14128,7 +14291,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -14416,10 +14579,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF44050E-F770-4816-B0BF-6EDA56061E31}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -14638,108 +14801,270 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1">
-      <c r="A7" s="52">
-        <v>45919</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="A7" s="46">
+        <v>45946</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15">
         <v>2500</v>
       </c>
-      <c r="D7" s="43">
-        <v>32</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="38">
+        <v>31</v>
+      </c>
+      <c r="E7" s="17">
         <f>C7*D7</f>
-        <v>80000</v>
-      </c>
-      <c r="F7" s="19">
+        <v>77500</v>
+      </c>
+      <c r="F7" s="17">
         <f>E7*0.002</f>
-        <v>160</v>
-      </c>
-      <c r="G7" s="19">
+        <v>155</v>
+      </c>
+      <c r="G7" s="17">
         <f>E7*0.00006</f>
-        <v>4.8</v>
-      </c>
-      <c r="H7" s="19">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H7" s="17">
         <f>E7*0.00001</f>
-        <v>0.8</v>
-      </c>
-      <c r="I7" s="19">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I7" s="17">
         <f>(F7+G7+H7)*0.07</f>
-        <v>11.592000000000002</v>
-      </c>
-      <c r="J7" s="19">
+        <v>11.229750000000001</v>
+      </c>
+      <c r="J7" s="17">
         <f>E7+F7+I7+G7+H7</f>
-        <v>80177.19200000001</v>
+        <v>77671.654749999987</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="11">
+      <c r="A8" s="46"/>
+      <c r="B8" s="28">
         <f>(D7-D6)/D6</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="9">
+        <v>-3.125E-2</v>
+      </c>
+      <c r="C8" s="15">
         <f>SUM(C6:C7)</f>
         <v>10000</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="37">
         <f>E8/C8</f>
-        <v>32</v>
-      </c>
-      <c r="E8" s="9">
+        <v>31.75</v>
+      </c>
+      <c r="E8" s="15">
         <f t="shared" ref="E8:J8" si="2">SUM(E6:E7)</f>
-        <v>320000</v>
-      </c>
-      <c r="F8" s="9">
+        <v>317500</v>
+      </c>
+      <c r="F8" s="15">
         <f t="shared" si="2"/>
-        <v>640</v>
-      </c>
-      <c r="G8" s="9">
+        <v>635</v>
+      </c>
+      <c r="G8" s="15">
         <f t="shared" si="2"/>
-        <v>19.2</v>
-      </c>
-      <c r="H8" s="9">
+        <v>19.049999999999997</v>
+      </c>
+      <c r="H8" s="15">
         <f t="shared" si="2"/>
-        <v>3.2</v>
-      </c>
-      <c r="I8" s="9">
+        <v>3.1750000000000003</v>
+      </c>
+      <c r="I8" s="15">
         <f t="shared" si="2"/>
-        <v>46.368000000000009</v>
-      </c>
-      <c r="J8" s="9">
+        <v>46.005750000000006</v>
+      </c>
+      <c r="J8" s="15">
         <f t="shared" si="2"/>
-        <v>320708.76800000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="12" customFormat="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" s="29" customFormat="1" ht="18.600000000000001">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+        <v>318203.23074999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="52">
+        <v>45946</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2500</v>
+      </c>
+      <c r="D9" s="43">
+        <v>30.5</v>
+      </c>
+      <c r="E9" s="19">
+        <f>C9*D9</f>
+        <v>76250</v>
+      </c>
+      <c r="F9" s="19">
+        <f>E9*0.002</f>
+        <v>152.5</v>
+      </c>
+      <c r="G9" s="19">
+        <f>E9*0.00006</f>
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="H9" s="19">
+        <f>E9*0.00001</f>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="I9" s="19">
+        <f>(F9+G9+H9)*0.07</f>
+        <v>11.048624999999999</v>
+      </c>
+      <c r="J9" s="19">
+        <f>E9+F9+I9+G9+H9</f>
+        <v>76418.88612499999</v>
+      </c>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="52"/>
+      <c r="B10" s="11">
+        <f>(D9-D8)/D8</f>
+        <v>-3.937007874015748E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <f>SUM(C8:C9)</f>
+        <v>12500</v>
+      </c>
+      <c r="D10" s="60">
+        <f>E10/C10</f>
+        <v>31.5</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" ref="E10:J10" si="3">SUM(E8:E9)</f>
+        <v>393750</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="3"/>
+        <v>787.5</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="3"/>
+        <v>23.624999999999996</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="3"/>
+        <v>3.9375000000000004</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>57.054375000000007</v>
+      </c>
+      <c r="J10" s="9">
+        <f t="shared" si="3"/>
+        <v>394622.11687499995</v>
+      </c>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1">
+      <c r="A12" s="46">
+        <v>45946</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D12" s="38">
+        <v>31</v>
+      </c>
+      <c r="E12" s="17">
+        <f>C12*D12</f>
+        <v>77500</v>
+      </c>
+      <c r="F12" s="17">
+        <f>E12*0.002</f>
+        <v>155</v>
+      </c>
+      <c r="G12" s="17">
+        <f>E12*0.00006</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="H12" s="17">
+        <f>E12*0.00001</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I12" s="17">
+        <f>(F12+G12+H12)*0.07</f>
+        <v>11.229750000000001</v>
+      </c>
+      <c r="J12" s="17">
+        <f>E12+F12+I12+G12+H12</f>
+        <v>77671.654749999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="52">
+        <v>44853</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <f>C12</f>
+        <v>2500</v>
+      </c>
+      <c r="D13" s="32">
+        <v>31.25</v>
+      </c>
+      <c r="E13" s="10">
+        <f>C13*D13</f>
+        <v>78125</v>
+      </c>
+      <c r="F13" s="33">
+        <f>E13*0.002</f>
+        <v>156.25</v>
+      </c>
+      <c r="G13" s="32">
+        <f>E13*0.000068</f>
+        <v>5.3125</v>
+      </c>
+      <c r="H13" s="32">
+        <f>E13*0.00001</f>
+        <v>0.78125000000000011</v>
+      </c>
+      <c r="I13" s="32">
+        <f>(F13+G13+H13)*0.07</f>
+        <v>11.364062500000001</v>
+      </c>
+      <c r="J13" s="32">
+        <f>E13-F13-G13-H13-I13</f>
+        <v>77951.292187500003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="52"/>
+      <c r="B14" s="11">
+        <f>(D13-D12)/D12</f>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="19">
+        <f>E13-E12</f>
+        <v>625</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19">
+        <f>J13-J12</f>
+        <v>279.63743750001595</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -16734,10 +17059,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA21CC0-18F7-46BF-9D73-A50571C8D635}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -18517,6 +18842,104 @@
       <c r="J48" s="17">
         <f>J47-J46</f>
         <v>1149.8050500000099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="46">
+        <v>45887</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D49" s="16">
+        <v>28</v>
+      </c>
+      <c r="E49" s="17">
+        <f>C49*D49</f>
+        <v>84000</v>
+      </c>
+      <c r="F49" s="17">
+        <f>E49*0.002</f>
+        <v>168</v>
+      </c>
+      <c r="G49" s="17">
+        <f>E49*0.000068</f>
+        <v>5.7119999999999997</v>
+      </c>
+      <c r="H49" s="17">
+        <f>E49*0.00001</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I49" s="17">
+        <f>(F49+G49+H49)*0.07</f>
+        <v>12.218640000000001</v>
+      </c>
+      <c r="J49" s="17">
+        <f>E49+F49+I49+G49+H49</f>
+        <v>84186.770640000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="52">
+        <v>45937</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="9">
+        <f>C49</f>
+        <v>3000</v>
+      </c>
+      <c r="D50" s="32">
+        <v>28.5</v>
+      </c>
+      <c r="E50" s="10">
+        <f>C50*D50</f>
+        <v>85500</v>
+      </c>
+      <c r="F50" s="33">
+        <f>E50*0.002</f>
+        <v>171</v>
+      </c>
+      <c r="G50" s="32">
+        <f>E50*0.000068</f>
+        <v>5.8140000000000001</v>
+      </c>
+      <c r="H50" s="32">
+        <f>E50*0.00001</f>
+        <v>0.85500000000000009</v>
+      </c>
+      <c r="I50" s="32">
+        <f>(F50+G50+H50)*0.07</f>
+        <v>12.43683</v>
+      </c>
+      <c r="J50" s="32">
+        <f>E50-F50-G50-H50-I50</f>
+        <v>85309.89417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="52"/>
+      <c r="B51" s="11">
+        <f>J51/J49</f>
+        <v>1.3340855356035748E-2</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="19">
+        <f>E50-E49</f>
+        <v>1500</v>
+      </c>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19">
+        <f>J50-J49</f>
+        <v>1123.1235299999971</v>
       </c>
     </row>
   </sheetData>
